--- a/Outputs/1. Budget/Grid Search/Output Files/250000/Output_0_8.xlsx
+++ b/Outputs/1. Budget/Grid Search/Output Files/250000/Output_0_8.xlsx
@@ -511,7 +511,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>5095622.684065035</v>
+        <v>5095622.684065033</v>
       </c>
     </row>
     <row r="8">
@@ -521,7 +521,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>22414251.77131047</v>
+        <v>22414251.77131045</v>
       </c>
     </row>
     <row r="9">
@@ -2090,7 +2090,7 @@
         <v>0</v>
       </c>
       <c r="F20" t="n">
-        <v>27.59002526031614</v>
+        <v>0</v>
       </c>
       <c r="G20" t="n">
         <v>0</v>
@@ -2132,16 +2132,16 @@
         <v>27.59002526031614</v>
       </c>
       <c r="T20" t="n">
-        <v>0</v>
+        <v>27.59002526031614</v>
       </c>
       <c r="U20" t="n">
         <v>0</v>
       </c>
       <c r="V20" t="n">
-        <v>0</v>
+        <v>27.59002526031614</v>
       </c>
       <c r="W20" t="n">
-        <v>27.59002526031614</v>
+        <v>0</v>
       </c>
       <c r="X20" t="n">
         <v>0</v>
@@ -2157,7 +2157,7 @@
         </is>
       </c>
       <c r="B21" t="n">
-        <v>0</v>
+        <v>24.30129424928645</v>
       </c>
       <c r="C21" t="n">
         <v>0</v>
@@ -2172,7 +2172,7 @@
         <v>0</v>
       </c>
       <c r="G21" t="n">
-        <v>0</v>
+        <v>27.59002526031614</v>
       </c>
       <c r="H21" t="n">
         <v>0</v>
@@ -2211,16 +2211,16 @@
         <v>0</v>
       </c>
       <c r="T21" t="n">
-        <v>0</v>
+        <v>27.59002526031614</v>
       </c>
       <c r="U21" t="n">
-        <v>24.30129424928645</v>
+        <v>0</v>
       </c>
       <c r="V21" t="n">
-        <v>27.59002526031614</v>
+        <v>0</v>
       </c>
       <c r="W21" t="n">
-        <v>27.59002526031614</v>
+        <v>0</v>
       </c>
       <c r="X21" t="n">
         <v>0</v>
@@ -2242,7 +2242,7 @@
         <v>0</v>
       </c>
       <c r="D22" t="n">
-        <v>0</v>
+        <v>22.4487593605094</v>
       </c>
       <c r="E22" t="n">
         <v>0</v>
@@ -2260,7 +2260,7 @@
         <v>0</v>
       </c>
       <c r="J22" t="n">
-        <v>22.44875936050941</v>
+        <v>27.59002526031614</v>
       </c>
       <c r="K22" t="n">
         <v>0</v>
@@ -2281,31 +2281,31 @@
         <v>0</v>
       </c>
       <c r="Q22" t="n">
+        <v>0</v>
+      </c>
+      <c r="R22" t="n">
+        <v>0</v>
+      </c>
+      <c r="S22" t="n">
+        <v>0</v>
+      </c>
+      <c r="T22" t="n">
+        <v>0</v>
+      </c>
+      <c r="U22" t="n">
         <v>27.59002526031614</v>
       </c>
-      <c r="R22" t="n">
-        <v>0</v>
-      </c>
-      <c r="S22" t="n">
-        <v>0</v>
-      </c>
-      <c r="T22" t="n">
-        <v>0</v>
-      </c>
-      <c r="U22" t="n">
-        <v>0</v>
-      </c>
       <c r="V22" t="n">
+        <v>0</v>
+      </c>
+      <c r="W22" t="n">
         <v>27.59002526031614</v>
       </c>
-      <c r="W22" t="n">
-        <v>0</v>
-      </c>
       <c r="X22" t="n">
         <v>0</v>
       </c>
       <c r="Y22" t="n">
-        <v>27.59002526031614</v>
+        <v>0</v>
       </c>
     </row>
     <row r="23">
@@ -2321,58 +2321,58 @@
         <v>0</v>
       </c>
       <c r="D23" t="n">
+        <v>0</v>
+      </c>
+      <c r="E23" t="n">
+        <v>0</v>
+      </c>
+      <c r="F23" t="n">
+        <v>0</v>
+      </c>
+      <c r="G23" t="n">
+        <v>0</v>
+      </c>
+      <c r="H23" t="n">
+        <v>0</v>
+      </c>
+      <c r="I23" t="n">
+        <v>0</v>
+      </c>
+      <c r="J23" t="n">
+        <v>0</v>
+      </c>
+      <c r="K23" t="n">
+        <v>0</v>
+      </c>
+      <c r="L23" t="n">
+        <v>0</v>
+      </c>
+      <c r="M23" t="n">
+        <v>0</v>
+      </c>
+      <c r="N23" t="n">
+        <v>0</v>
+      </c>
+      <c r="O23" t="n">
+        <v>0</v>
+      </c>
+      <c r="P23" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q23" t="n">
+        <v>0</v>
+      </c>
+      <c r="R23" t="n">
+        <v>27.59002526031614</v>
+      </c>
+      <c r="S23" t="n">
+        <v>27.59002526031614</v>
+      </c>
+      <c r="T23" t="n">
+        <v>27.59002526031614</v>
+      </c>
+      <c r="U23" t="n">
         <v>24.30129424928645</v>
-      </c>
-      <c r="E23" t="n">
-        <v>27.59002526031614</v>
-      </c>
-      <c r="F23" t="n">
-        <v>27.59002526031614</v>
-      </c>
-      <c r="G23" t="n">
-        <v>27.59002526031614</v>
-      </c>
-      <c r="H23" t="n">
-        <v>0</v>
-      </c>
-      <c r="I23" t="n">
-        <v>0</v>
-      </c>
-      <c r="J23" t="n">
-        <v>0</v>
-      </c>
-      <c r="K23" t="n">
-        <v>0</v>
-      </c>
-      <c r="L23" t="n">
-        <v>0</v>
-      </c>
-      <c r="M23" t="n">
-        <v>0</v>
-      </c>
-      <c r="N23" t="n">
-        <v>0</v>
-      </c>
-      <c r="O23" t="n">
-        <v>0</v>
-      </c>
-      <c r="P23" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q23" t="n">
-        <v>0</v>
-      </c>
-      <c r="R23" t="n">
-        <v>0</v>
-      </c>
-      <c r="S23" t="n">
-        <v>0</v>
-      </c>
-      <c r="T23" t="n">
-        <v>0</v>
-      </c>
-      <c r="U23" t="n">
-        <v>0</v>
       </c>
       <c r="V23" t="n">
         <v>0</v>
@@ -2397,70 +2397,70 @@
         <v>0</v>
       </c>
       <c r="C24" t="n">
+        <v>0</v>
+      </c>
+      <c r="D24" t="n">
+        <v>0</v>
+      </c>
+      <c r="E24" t="n">
+        <v>0</v>
+      </c>
+      <c r="F24" t="n">
+        <v>0</v>
+      </c>
+      <c r="G24" t="n">
+        <v>0</v>
+      </c>
+      <c r="H24" t="n">
+        <v>0</v>
+      </c>
+      <c r="I24" t="n">
+        <v>0</v>
+      </c>
+      <c r="J24" t="n">
+        <v>0</v>
+      </c>
+      <c r="K24" t="n">
+        <v>0</v>
+      </c>
+      <c r="L24" t="n">
+        <v>0</v>
+      </c>
+      <c r="M24" t="n">
+        <v>0</v>
+      </c>
+      <c r="N24" t="n">
+        <v>0</v>
+      </c>
+      <c r="O24" t="n">
+        <v>0</v>
+      </c>
+      <c r="P24" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q24" t="n">
+        <v>0</v>
+      </c>
+      <c r="R24" t="n">
+        <v>0</v>
+      </c>
+      <c r="S24" t="n">
+        <v>0</v>
+      </c>
+      <c r="T24" t="n">
+        <v>0</v>
+      </c>
+      <c r="U24" t="n">
         <v>27.59002526031614</v>
       </c>
-      <c r="D24" t="n">
+      <c r="V24" t="n">
         <v>27.59002526031614</v>
       </c>
-      <c r="E24" t="n">
-        <v>0</v>
-      </c>
-      <c r="F24" t="n">
+      <c r="W24" t="n">
+        <v>24.30129424928645</v>
+      </c>
+      <c r="X24" t="n">
         <v>27.59002526031614</v>
-      </c>
-      <c r="G24" t="n">
-        <v>0</v>
-      </c>
-      <c r="H24" t="n">
-        <v>0</v>
-      </c>
-      <c r="I24" t="n">
-        <v>0</v>
-      </c>
-      <c r="J24" t="n">
-        <v>0</v>
-      </c>
-      <c r="K24" t="n">
-        <v>0</v>
-      </c>
-      <c r="L24" t="n">
-        <v>0</v>
-      </c>
-      <c r="M24" t="n">
-        <v>0</v>
-      </c>
-      <c r="N24" t="n">
-        <v>0</v>
-      </c>
-      <c r="O24" t="n">
-        <v>0</v>
-      </c>
-      <c r="P24" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q24" t="n">
-        <v>0</v>
-      </c>
-      <c r="R24" t="n">
-        <v>0</v>
-      </c>
-      <c r="S24" t="n">
-        <v>0</v>
-      </c>
-      <c r="T24" t="n">
-        <v>0</v>
-      </c>
-      <c r="U24" t="n">
-        <v>0</v>
-      </c>
-      <c r="V24" t="n">
-        <v>0</v>
-      </c>
-      <c r="W24" t="n">
-        <v>0</v>
-      </c>
-      <c r="X24" t="n">
-        <v>24.30129424928645</v>
       </c>
       <c r="Y24" t="n">
         <v>0</v>
@@ -2473,64 +2473,64 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>0</v>
+        <v>27.59002526031614</v>
       </c>
       <c r="C25" t="n">
         <v>0</v>
       </c>
       <c r="D25" t="n">
-        <v>0</v>
+        <v>22.44875936050941</v>
       </c>
       <c r="E25" t="n">
+        <v>0</v>
+      </c>
+      <c r="F25" t="n">
+        <v>0</v>
+      </c>
+      <c r="G25" t="n">
+        <v>0</v>
+      </c>
+      <c r="H25" t="n">
+        <v>0</v>
+      </c>
+      <c r="I25" t="n">
+        <v>0</v>
+      </c>
+      <c r="J25" t="n">
+        <v>0</v>
+      </c>
+      <c r="K25" t="n">
+        <v>0</v>
+      </c>
+      <c r="L25" t="n">
+        <v>0</v>
+      </c>
+      <c r="M25" t="n">
+        <v>0</v>
+      </c>
+      <c r="N25" t="n">
+        <v>0</v>
+      </c>
+      <c r="O25" t="n">
+        <v>0</v>
+      </c>
+      <c r="P25" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q25" t="n">
+        <v>0</v>
+      </c>
+      <c r="R25" t="n">
         <v>27.59002526031614</v>
       </c>
-      <c r="F25" t="n">
-        <v>0</v>
-      </c>
-      <c r="G25" t="n">
-        <v>22.44875936050941</v>
-      </c>
-      <c r="H25" t="n">
-        <v>0</v>
-      </c>
-      <c r="I25" t="n">
+      <c r="S25" t="n">
+        <v>0</v>
+      </c>
+      <c r="T25" t="n">
+        <v>0</v>
+      </c>
+      <c r="U25" t="n">
         <v>27.59002526031614</v>
-      </c>
-      <c r="J25" t="n">
-        <v>27.59002526031614</v>
-      </c>
-      <c r="K25" t="n">
-        <v>0</v>
-      </c>
-      <c r="L25" t="n">
-        <v>0</v>
-      </c>
-      <c r="M25" t="n">
-        <v>0</v>
-      </c>
-      <c r="N25" t="n">
-        <v>0</v>
-      </c>
-      <c r="O25" t="n">
-        <v>0</v>
-      </c>
-      <c r="P25" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q25" t="n">
-        <v>0</v>
-      </c>
-      <c r="R25" t="n">
-        <v>0</v>
-      </c>
-      <c r="S25" t="n">
-        <v>0</v>
-      </c>
-      <c r="T25" t="n">
-        <v>0</v>
-      </c>
-      <c r="U25" t="n">
-        <v>0</v>
       </c>
       <c r="V25" t="n">
         <v>0</v>
@@ -2564,58 +2564,58 @@
         <v>0</v>
       </c>
       <c r="F26" t="n">
+        <v>0</v>
+      </c>
+      <c r="G26" t="n">
+        <v>0</v>
+      </c>
+      <c r="H26" t="n">
+        <v>0</v>
+      </c>
+      <c r="I26" t="n">
+        <v>0</v>
+      </c>
+      <c r="J26" t="n">
+        <v>0</v>
+      </c>
+      <c r="K26" t="n">
+        <v>0</v>
+      </c>
+      <c r="L26" t="n">
+        <v>0</v>
+      </c>
+      <c r="M26" t="n">
+        <v>0</v>
+      </c>
+      <c r="N26" t="n">
+        <v>0</v>
+      </c>
+      <c r="O26" t="n">
+        <v>0</v>
+      </c>
+      <c r="P26" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q26" t="n">
+        <v>0</v>
+      </c>
+      <c r="R26" t="n">
         <v>24.30129424928645</v>
       </c>
-      <c r="G26" t="n">
+      <c r="S26" t="n">
+        <v>0</v>
+      </c>
+      <c r="T26" t="n">
         <v>27.59002526031614</v>
       </c>
-      <c r="H26" t="n">
-        <v>0</v>
-      </c>
-      <c r="I26" t="n">
-        <v>0</v>
-      </c>
-      <c r="J26" t="n">
-        <v>0</v>
-      </c>
-      <c r="K26" t="n">
-        <v>0</v>
-      </c>
-      <c r="L26" t="n">
-        <v>0</v>
-      </c>
-      <c r="M26" t="n">
-        <v>0</v>
-      </c>
-      <c r="N26" t="n">
-        <v>0</v>
-      </c>
-      <c r="O26" t="n">
-        <v>0</v>
-      </c>
-      <c r="P26" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q26" t="n">
-        <v>0</v>
-      </c>
-      <c r="R26" t="n">
-        <v>0</v>
-      </c>
-      <c r="S26" t="n">
+      <c r="U26" t="n">
+        <v>0</v>
+      </c>
+      <c r="V26" t="n">
         <v>27.59002526031614</v>
       </c>
-      <c r="T26" t="n">
-        <v>0</v>
-      </c>
-      <c r="U26" t="n">
+      <c r="W26" t="n">
         <v>27.59002526031614</v>
-      </c>
-      <c r="V26" t="n">
-        <v>0</v>
-      </c>
-      <c r="W26" t="n">
-        <v>0</v>
       </c>
       <c r="X26" t="n">
         <v>0</v>
@@ -2643,7 +2643,7 @@
         <v>0</v>
       </c>
       <c r="F27" t="n">
-        <v>0</v>
+        <v>24.30129424928645</v>
       </c>
       <c r="G27" t="n">
         <v>0</v>
@@ -2652,7 +2652,7 @@
         <v>0</v>
       </c>
       <c r="I27" t="n">
-        <v>24.30129424928645</v>
+        <v>0</v>
       </c>
       <c r="J27" t="n">
         <v>0</v>
@@ -2688,19 +2688,19 @@
         <v>0</v>
       </c>
       <c r="U27" t="n">
-        <v>0</v>
+        <v>27.59002526031614</v>
       </c>
       <c r="V27" t="n">
-        <v>0</v>
+        <v>27.59002526031614</v>
       </c>
       <c r="W27" t="n">
         <v>27.59002526031614</v>
       </c>
       <c r="X27" t="n">
-        <v>27.59002526031614</v>
+        <v>0</v>
       </c>
       <c r="Y27" t="n">
-        <v>27.59002526031614</v>
+        <v>0</v>
       </c>
     </row>
     <row r="28">
@@ -2725,52 +2725,52 @@
         <v>27.59002526031614</v>
       </c>
       <c r="G28" t="n">
+        <v>0</v>
+      </c>
+      <c r="H28" t="n">
+        <v>0</v>
+      </c>
+      <c r="I28" t="n">
+        <v>0</v>
+      </c>
+      <c r="J28" t="n">
+        <v>22.44875936050941</v>
+      </c>
+      <c r="K28" t="n">
+        <v>0</v>
+      </c>
+      <c r="L28" t="n">
+        <v>0</v>
+      </c>
+      <c r="M28" t="n">
+        <v>0</v>
+      </c>
+      <c r="N28" t="n">
+        <v>0</v>
+      </c>
+      <c r="O28" t="n">
+        <v>0</v>
+      </c>
+      <c r="P28" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q28" t="n">
+        <v>0</v>
+      </c>
+      <c r="R28" t="n">
+        <v>0</v>
+      </c>
+      <c r="S28" t="n">
+        <v>0</v>
+      </c>
+      <c r="T28" t="n">
         <v>27.59002526031614</v>
       </c>
-      <c r="H28" t="n">
-        <v>22.44875936050941</v>
-      </c>
-      <c r="I28" t="n">
-        <v>0</v>
-      </c>
-      <c r="J28" t="n">
-        <v>0</v>
-      </c>
-      <c r="K28" t="n">
-        <v>0</v>
-      </c>
-      <c r="L28" t="n">
-        <v>0</v>
-      </c>
-      <c r="M28" t="n">
-        <v>0</v>
-      </c>
-      <c r="N28" t="n">
-        <v>0</v>
-      </c>
-      <c r="O28" t="n">
-        <v>0</v>
-      </c>
-      <c r="P28" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q28" t="n">
-        <v>0</v>
-      </c>
-      <c r="R28" t="n">
-        <v>0</v>
-      </c>
-      <c r="S28" t="n">
-        <v>0</v>
-      </c>
-      <c r="T28" t="n">
-        <v>0</v>
-      </c>
       <c r="U28" t="n">
-        <v>0</v>
+        <v>27.59002526031614</v>
       </c>
       <c r="V28" t="n">
-        <v>27.59002526031614</v>
+        <v>0</v>
       </c>
       <c r="W28" t="n">
         <v>0</v>
@@ -2789,76 +2789,76 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>0</v>
+        <v>27.59002526031614</v>
       </c>
       <c r="C29" t="n">
-        <v>0</v>
+        <v>27.59002526031614</v>
       </c>
       <c r="D29" t="n">
+        <v>0</v>
+      </c>
+      <c r="E29" t="n">
+        <v>0</v>
+      </c>
+      <c r="F29" t="n">
+        <v>0</v>
+      </c>
+      <c r="G29" t="n">
+        <v>0</v>
+      </c>
+      <c r="H29" t="n">
+        <v>0</v>
+      </c>
+      <c r="I29" t="n">
+        <v>0</v>
+      </c>
+      <c r="J29" t="n">
+        <v>0</v>
+      </c>
+      <c r="K29" t="n">
+        <v>0</v>
+      </c>
+      <c r="L29" t="n">
+        <v>0</v>
+      </c>
+      <c r="M29" t="n">
+        <v>0</v>
+      </c>
+      <c r="N29" t="n">
+        <v>0</v>
+      </c>
+      <c r="O29" t="n">
+        <v>0</v>
+      </c>
+      <c r="P29" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q29" t="n">
+        <v>0</v>
+      </c>
+      <c r="R29" t="n">
+        <v>24.30129424928645</v>
+      </c>
+      <c r="S29" t="n">
+        <v>0</v>
+      </c>
+      <c r="T29" t="n">
+        <v>0</v>
+      </c>
+      <c r="U29" t="n">
+        <v>0</v>
+      </c>
+      <c r="V29" t="n">
+        <v>0</v>
+      </c>
+      <c r="W29" t="n">
+        <v>0</v>
+      </c>
+      <c r="X29" t="n">
+        <v>0</v>
+      </c>
+      <c r="Y29" t="n">
         <v>27.59002526031614</v>
-      </c>
-      <c r="E29" t="n">
-        <v>24.30129424928645</v>
-      </c>
-      <c r="F29" t="n">
-        <v>0</v>
-      </c>
-      <c r="G29" t="n">
-        <v>0</v>
-      </c>
-      <c r="H29" t="n">
-        <v>0</v>
-      </c>
-      <c r="I29" t="n">
-        <v>0</v>
-      </c>
-      <c r="J29" t="n">
-        <v>0</v>
-      </c>
-      <c r="K29" t="n">
-        <v>0</v>
-      </c>
-      <c r="L29" t="n">
-        <v>0</v>
-      </c>
-      <c r="M29" t="n">
-        <v>0</v>
-      </c>
-      <c r="N29" t="n">
-        <v>0</v>
-      </c>
-      <c r="O29" t="n">
-        <v>0</v>
-      </c>
-      <c r="P29" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q29" t="n">
-        <v>0</v>
-      </c>
-      <c r="R29" t="n">
-        <v>27.59002526031614</v>
-      </c>
-      <c r="S29" t="n">
-        <v>27.59002526031614</v>
-      </c>
-      <c r="T29" t="n">
-        <v>0</v>
-      </c>
-      <c r="U29" t="n">
-        <v>0</v>
-      </c>
-      <c r="V29" t="n">
-        <v>0</v>
-      </c>
-      <c r="W29" t="n">
-        <v>0</v>
-      </c>
-      <c r="X29" t="n">
-        <v>0</v>
-      </c>
-      <c r="Y29" t="n">
-        <v>0</v>
       </c>
     </row>
     <row r="30">
@@ -2880,7 +2880,7 @@
         <v>0</v>
       </c>
       <c r="F30" t="n">
-        <v>0</v>
+        <v>24.30129424928645</v>
       </c>
       <c r="G30" t="n">
         <v>0</v>
@@ -2916,28 +2916,28 @@
         <v>0</v>
       </c>
       <c r="R30" t="n">
+        <v>0</v>
+      </c>
+      <c r="S30" t="n">
+        <v>0</v>
+      </c>
+      <c r="T30" t="n">
+        <v>0</v>
+      </c>
+      <c r="U30" t="n">
+        <v>0</v>
+      </c>
+      <c r="V30" t="n">
         <v>27.59002526031614</v>
       </c>
-      <c r="S30" t="n">
+      <c r="W30" t="n">
         <v>27.59002526031614</v>
       </c>
-      <c r="T30" t="n">
+      <c r="X30" t="n">
+        <v>0</v>
+      </c>
+      <c r="Y30" t="n">
         <v>27.59002526031614</v>
-      </c>
-      <c r="U30" t="n">
-        <v>24.30129424928645</v>
-      </c>
-      <c r="V30" t="n">
-        <v>0</v>
-      </c>
-      <c r="W30" t="n">
-        <v>0</v>
-      </c>
-      <c r="X30" t="n">
-        <v>0</v>
-      </c>
-      <c r="Y30" t="n">
-        <v>0</v>
       </c>
     </row>
     <row r="31">
@@ -2947,76 +2947,76 @@
         </is>
       </c>
       <c r="B31" t="n">
+        <v>0</v>
+      </c>
+      <c r="C31" t="n">
+        <v>0</v>
+      </c>
+      <c r="D31" t="n">
+        <v>0</v>
+      </c>
+      <c r="E31" t="n">
+        <v>0</v>
+      </c>
+      <c r="F31" t="n">
+        <v>0</v>
+      </c>
+      <c r="G31" t="n">
+        <v>0</v>
+      </c>
+      <c r="H31" t="n">
+        <v>0</v>
+      </c>
+      <c r="I31" t="n">
+        <v>0</v>
+      </c>
+      <c r="J31" t="n">
+        <v>0</v>
+      </c>
+      <c r="K31" t="n">
+        <v>0</v>
+      </c>
+      <c r="L31" t="n">
+        <v>0</v>
+      </c>
+      <c r="M31" t="n">
+        <v>0</v>
+      </c>
+      <c r="N31" t="n">
+        <v>0</v>
+      </c>
+      <c r="O31" t="n">
+        <v>0</v>
+      </c>
+      <c r="P31" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q31" t="n">
+        <v>0</v>
+      </c>
+      <c r="R31" t="n">
+        <v>27.59002526031614</v>
+      </c>
+      <c r="S31" t="n">
+        <v>27.59002526031614</v>
+      </c>
+      <c r="T31" t="n">
+        <v>27.59002526031614</v>
+      </c>
+      <c r="U31" t="n">
         <v>22.44875936050941</v>
       </c>
-      <c r="C31" t="n">
-        <v>0</v>
-      </c>
-      <c r="D31" t="n">
-        <v>0</v>
-      </c>
-      <c r="E31" t="n">
-        <v>0</v>
-      </c>
-      <c r="F31" t="n">
-        <v>0</v>
-      </c>
-      <c r="G31" t="n">
-        <v>0</v>
-      </c>
-      <c r="H31" t="n">
-        <v>0</v>
-      </c>
-      <c r="I31" t="n">
-        <v>0</v>
-      </c>
-      <c r="J31" t="n">
-        <v>0</v>
-      </c>
-      <c r="K31" t="n">
-        <v>0</v>
-      </c>
-      <c r="L31" t="n">
-        <v>0</v>
-      </c>
-      <c r="M31" t="n">
-        <v>0</v>
-      </c>
-      <c r="N31" t="n">
-        <v>0</v>
-      </c>
-      <c r="O31" t="n">
-        <v>0</v>
-      </c>
-      <c r="P31" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q31" t="n">
-        <v>0</v>
-      </c>
-      <c r="R31" t="n">
-        <v>0</v>
-      </c>
-      <c r="S31" t="n">
-        <v>0</v>
-      </c>
-      <c r="T31" t="n">
-        <v>0</v>
-      </c>
-      <c r="U31" t="n">
-        <v>0</v>
-      </c>
       <c r="V31" t="n">
         <v>0</v>
       </c>
       <c r="W31" t="n">
-        <v>27.59002526031614</v>
+        <v>0</v>
       </c>
       <c r="X31" t="n">
-        <v>27.59002526031614</v>
+        <v>0</v>
       </c>
       <c r="Y31" t="n">
-        <v>27.59002526031614</v>
+        <v>0</v>
       </c>
     </row>
     <row r="32">
@@ -3026,7 +3026,7 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>24.30129424928645</v>
+        <v>0</v>
       </c>
       <c r="C32" t="n">
         <v>0</v>
@@ -3035,7 +3035,7 @@
         <v>0</v>
       </c>
       <c r="E32" t="n">
-        <v>0</v>
+        <v>27.59002526031614</v>
       </c>
       <c r="F32" t="n">
         <v>0</v>
@@ -3080,19 +3080,19 @@
         <v>0</v>
       </c>
       <c r="T32" t="n">
-        <v>0</v>
+        <v>27.59002526031614</v>
       </c>
       <c r="U32" t="n">
         <v>27.59002526031614</v>
       </c>
       <c r="V32" t="n">
-        <v>27.59002526031614</v>
+        <v>24.30129424928645</v>
       </c>
       <c r="W32" t="n">
         <v>0</v>
       </c>
       <c r="X32" t="n">
-        <v>27.59002526031614</v>
+        <v>0</v>
       </c>
       <c r="Y32" t="n">
         <v>0</v>
@@ -3114,16 +3114,16 @@
         <v>0</v>
       </c>
       <c r="E33" t="n">
-        <v>0</v>
+        <v>24.30129424928645</v>
       </c>
       <c r="F33" t="n">
-        <v>0</v>
+        <v>27.59002526031614</v>
       </c>
       <c r="G33" t="n">
-        <v>0</v>
+        <v>27.59002526031614</v>
       </c>
       <c r="H33" t="n">
-        <v>0</v>
+        <v>27.59002526031614</v>
       </c>
       <c r="I33" t="n">
         <v>0</v>
@@ -3156,16 +3156,16 @@
         <v>0</v>
       </c>
       <c r="S33" t="n">
-        <v>27.59002526031614</v>
+        <v>0</v>
       </c>
       <c r="T33" t="n">
-        <v>27.59002526031614</v>
+        <v>0</v>
       </c>
       <c r="U33" t="n">
-        <v>27.59002526031614</v>
+        <v>0</v>
       </c>
       <c r="V33" t="n">
-        <v>24.30129424928645</v>
+        <v>0</v>
       </c>
       <c r="W33" t="n">
         <v>0</v>
@@ -3193,7 +3193,7 @@
         <v>0</v>
       </c>
       <c r="E34" t="n">
-        <v>0</v>
+        <v>27.59002526031614</v>
       </c>
       <c r="F34" t="n">
         <v>0</v>
@@ -3205,7 +3205,7 @@
         <v>0</v>
       </c>
       <c r="I34" t="n">
-        <v>0</v>
+        <v>22.44875936050941</v>
       </c>
       <c r="J34" t="n">
         <v>0</v>
@@ -3226,28 +3226,28 @@
         <v>0</v>
       </c>
       <c r="P34" t="n">
-        <v>2.721440735106512</v>
+        <v>0</v>
       </c>
       <c r="Q34" t="n">
+        <v>0</v>
+      </c>
+      <c r="R34" t="n">
+        <v>0</v>
+      </c>
+      <c r="S34" t="n">
+        <v>0</v>
+      </c>
+      <c r="T34" t="n">
+        <v>0</v>
+      </c>
+      <c r="U34" t="n">
         <v>27.59002526031614</v>
       </c>
-      <c r="R34" t="n">
+      <c r="V34" t="n">
+        <v>0</v>
+      </c>
+      <c r="W34" t="n">
         <v>27.59002526031614</v>
-      </c>
-      <c r="S34" t="n">
-        <v>27.59002526031614</v>
-      </c>
-      <c r="T34" t="n">
-        <v>19.72731862540289</v>
-      </c>
-      <c r="U34" t="n">
-        <v>0</v>
-      </c>
-      <c r="V34" t="n">
-        <v>0</v>
-      </c>
-      <c r="W34" t="n">
-        <v>0</v>
       </c>
       <c r="X34" t="n">
         <v>0</v>
@@ -3266,73 +3266,73 @@
         <v>0</v>
       </c>
       <c r="C35" t="n">
-        <v>0</v>
+        <v>27.59002526031614</v>
       </c>
       <c r="D35" t="n">
-        <v>0</v>
+        <v>27.59002526031614</v>
       </c>
       <c r="E35" t="n">
+        <v>0</v>
+      </c>
+      <c r="F35" t="n">
+        <v>27.59002526031614</v>
+      </c>
+      <c r="G35" t="n">
+        <v>0</v>
+      </c>
+      <c r="H35" t="n">
+        <v>0</v>
+      </c>
+      <c r="I35" t="n">
+        <v>0</v>
+      </c>
+      <c r="J35" t="n">
+        <v>0</v>
+      </c>
+      <c r="K35" t="n">
+        <v>0</v>
+      </c>
+      <c r="L35" t="n">
+        <v>0</v>
+      </c>
+      <c r="M35" t="n">
+        <v>0</v>
+      </c>
+      <c r="N35" t="n">
+        <v>0</v>
+      </c>
+      <c r="O35" t="n">
+        <v>0</v>
+      </c>
+      <c r="P35" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q35" t="n">
+        <v>0</v>
+      </c>
+      <c r="R35" t="n">
+        <v>0</v>
+      </c>
+      <c r="S35" t="n">
+        <v>0</v>
+      </c>
+      <c r="T35" t="n">
+        <v>0</v>
+      </c>
+      <c r="U35" t="n">
+        <v>0</v>
+      </c>
+      <c r="V35" t="n">
+        <v>0</v>
+      </c>
+      <c r="W35" t="n">
+        <v>0</v>
+      </c>
+      <c r="X35" t="n">
+        <v>0</v>
+      </c>
+      <c r="Y35" t="n">
         <v>24.30129424928645</v>
-      </c>
-      <c r="F35" t="n">
-        <v>0</v>
-      </c>
-      <c r="G35" t="n">
-        <v>27.59002526031614</v>
-      </c>
-      <c r="H35" t="n">
-        <v>0</v>
-      </c>
-      <c r="I35" t="n">
-        <v>0</v>
-      </c>
-      <c r="J35" t="n">
-        <v>0</v>
-      </c>
-      <c r="K35" t="n">
-        <v>0</v>
-      </c>
-      <c r="L35" t="n">
-        <v>0</v>
-      </c>
-      <c r="M35" t="n">
-        <v>0</v>
-      </c>
-      <c r="N35" t="n">
-        <v>0</v>
-      </c>
-      <c r="O35" t="n">
-        <v>0</v>
-      </c>
-      <c r="P35" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q35" t="n">
-        <v>0</v>
-      </c>
-      <c r="R35" t="n">
-        <v>0</v>
-      </c>
-      <c r="S35" t="n">
-        <v>0</v>
-      </c>
-      <c r="T35" t="n">
-        <v>0</v>
-      </c>
-      <c r="U35" t="n">
-        <v>0</v>
-      </c>
-      <c r="V35" t="n">
-        <v>27.59002526031614</v>
-      </c>
-      <c r="W35" t="n">
-        <v>0</v>
-      </c>
-      <c r="X35" t="n">
-        <v>0</v>
-      </c>
-      <c r="Y35" t="n">
-        <v>27.59002526031614</v>
       </c>
     </row>
     <row r="36">
@@ -3342,70 +3342,70 @@
         </is>
       </c>
       <c r="B36" t="n">
-        <v>24.30129424928645</v>
+        <v>0</v>
       </c>
       <c r="C36" t="n">
+        <v>0</v>
+      </c>
+      <c r="D36" t="n">
+        <v>0</v>
+      </c>
+      <c r="E36" t="n">
+        <v>0</v>
+      </c>
+      <c r="F36" t="n">
+        <v>0</v>
+      </c>
+      <c r="G36" t="n">
+        <v>23.55470292302859</v>
+      </c>
+      <c r="H36" t="n">
+        <v>0</v>
+      </c>
+      <c r="I36" t="n">
+        <v>0</v>
+      </c>
+      <c r="J36" t="n">
+        <v>0.7465913262578567</v>
+      </c>
+      <c r="K36" t="n">
+        <v>0</v>
+      </c>
+      <c r="L36" t="n">
+        <v>0</v>
+      </c>
+      <c r="M36" t="n">
+        <v>0</v>
+      </c>
+      <c r="N36" t="n">
+        <v>0</v>
+      </c>
+      <c r="O36" t="n">
+        <v>0</v>
+      </c>
+      <c r="P36" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q36" t="n">
+        <v>0</v>
+      </c>
+      <c r="R36" t="n">
+        <v>0</v>
+      </c>
+      <c r="S36" t="n">
+        <v>0</v>
+      </c>
+      <c r="T36" t="n">
+        <v>0</v>
+      </c>
+      <c r="U36" t="n">
         <v>27.59002526031614</v>
       </c>
-      <c r="D36" t="n">
-        <v>0</v>
-      </c>
-      <c r="E36" t="n">
-        <v>0</v>
-      </c>
-      <c r="F36" t="n">
+      <c r="V36" t="n">
         <v>27.59002526031614</v>
       </c>
-      <c r="G36" t="n">
-        <v>0</v>
-      </c>
-      <c r="H36" t="n">
-        <v>0</v>
-      </c>
-      <c r="I36" t="n">
-        <v>0</v>
-      </c>
-      <c r="J36" t="n">
-        <v>0</v>
-      </c>
-      <c r="K36" t="n">
-        <v>0</v>
-      </c>
-      <c r="L36" t="n">
-        <v>0</v>
-      </c>
-      <c r="M36" t="n">
-        <v>0</v>
-      </c>
-      <c r="N36" t="n">
-        <v>0</v>
-      </c>
-      <c r="O36" t="n">
-        <v>0</v>
-      </c>
-      <c r="P36" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q36" t="n">
-        <v>0</v>
-      </c>
-      <c r="R36" t="n">
-        <v>0</v>
-      </c>
-      <c r="S36" t="n">
-        <v>0</v>
-      </c>
-      <c r="T36" t="n">
+      <c r="W36" t="n">
         <v>27.59002526031614</v>
-      </c>
-      <c r="U36" t="n">
-        <v>0</v>
-      </c>
-      <c r="V36" t="n">
-        <v>0</v>
-      </c>
-      <c r="W36" t="n">
-        <v>0</v>
       </c>
       <c r="X36" t="n">
         <v>0</v>
@@ -3487,10 +3487,10 @@
         <v>27.59002526031614</v>
       </c>
       <c r="X37" t="n">
-        <v>22.4487593605094</v>
+        <v>27.59002526031614</v>
       </c>
       <c r="Y37" t="n">
-        <v>27.59002526031614</v>
+        <v>22.44875936050941</v>
       </c>
     </row>
     <row r="38">
@@ -3500,13 +3500,13 @@
         </is>
       </c>
       <c r="B38" t="n">
+        <v>27.59002526031614</v>
+      </c>
+      <c r="C38" t="n">
+        <v>0</v>
+      </c>
+      <c r="D38" t="n">
         <v>24.30129424928645</v>
-      </c>
-      <c r="C38" t="n">
-        <v>27.59002526031614</v>
-      </c>
-      <c r="D38" t="n">
-        <v>0</v>
       </c>
       <c r="E38" t="n">
         <v>27.59002526031614</v>
@@ -3515,61 +3515,61 @@
         <v>0</v>
       </c>
       <c r="G38" t="n">
+        <v>0</v>
+      </c>
+      <c r="H38" t="n">
+        <v>0</v>
+      </c>
+      <c r="I38" t="n">
+        <v>0</v>
+      </c>
+      <c r="J38" t="n">
+        <v>0</v>
+      </c>
+      <c r="K38" t="n">
+        <v>0</v>
+      </c>
+      <c r="L38" t="n">
+        <v>0</v>
+      </c>
+      <c r="M38" t="n">
+        <v>0</v>
+      </c>
+      <c r="N38" t="n">
+        <v>0</v>
+      </c>
+      <c r="O38" t="n">
+        <v>0</v>
+      </c>
+      <c r="P38" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q38" t="n">
+        <v>0</v>
+      </c>
+      <c r="R38" t="n">
+        <v>0</v>
+      </c>
+      <c r="S38" t="n">
+        <v>0</v>
+      </c>
+      <c r="T38" t="n">
+        <v>0</v>
+      </c>
+      <c r="U38" t="n">
+        <v>0</v>
+      </c>
+      <c r="V38" t="n">
+        <v>0</v>
+      </c>
+      <c r="W38" t="n">
+        <v>0</v>
+      </c>
+      <c r="X38" t="n">
+        <v>0</v>
+      </c>
+      <c r="Y38" t="n">
         <v>27.59002526031614</v>
-      </c>
-      <c r="H38" t="n">
-        <v>0</v>
-      </c>
-      <c r="I38" t="n">
-        <v>0</v>
-      </c>
-      <c r="J38" t="n">
-        <v>0</v>
-      </c>
-      <c r="K38" t="n">
-        <v>0</v>
-      </c>
-      <c r="L38" t="n">
-        <v>0</v>
-      </c>
-      <c r="M38" t="n">
-        <v>0</v>
-      </c>
-      <c r="N38" t="n">
-        <v>0</v>
-      </c>
-      <c r="O38" t="n">
-        <v>0</v>
-      </c>
-      <c r="P38" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q38" t="n">
-        <v>0</v>
-      </c>
-      <c r="R38" t="n">
-        <v>0</v>
-      </c>
-      <c r="S38" t="n">
-        <v>0</v>
-      </c>
-      <c r="T38" t="n">
-        <v>0</v>
-      </c>
-      <c r="U38" t="n">
-        <v>0</v>
-      </c>
-      <c r="V38" t="n">
-        <v>0</v>
-      </c>
-      <c r="W38" t="n">
-        <v>0</v>
-      </c>
-      <c r="X38" t="n">
-        <v>0</v>
-      </c>
-      <c r="Y38" t="n">
-        <v>0</v>
       </c>
     </row>
     <row r="39">
@@ -3582,19 +3582,19 @@
         <v>27.59002526031614</v>
       </c>
       <c r="C39" t="n">
-        <v>0</v>
+        <v>27.59002526031614</v>
       </c>
       <c r="D39" t="n">
         <v>0</v>
       </c>
       <c r="E39" t="n">
+        <v>0</v>
+      </c>
+      <c r="F39" t="n">
         <v>27.59002526031614</v>
       </c>
-      <c r="F39" t="n">
-        <v>0</v>
-      </c>
       <c r="G39" t="n">
-        <v>0</v>
+        <v>24.30129424928645</v>
       </c>
       <c r="H39" t="n">
         <v>0</v>
@@ -3627,7 +3627,7 @@
         <v>0</v>
       </c>
       <c r="R39" t="n">
-        <v>27.59002526031614</v>
+        <v>0</v>
       </c>
       <c r="S39" t="n">
         <v>0</v>
@@ -3639,7 +3639,7 @@
         <v>0</v>
       </c>
       <c r="V39" t="n">
-        <v>24.30129424928645</v>
+        <v>0</v>
       </c>
       <c r="W39" t="n">
         <v>0</v>
@@ -3661,64 +3661,64 @@
         <v>0</v>
       </c>
       <c r="C40" t="n">
+        <v>0</v>
+      </c>
+      <c r="D40" t="n">
+        <v>0</v>
+      </c>
+      <c r="E40" t="n">
+        <v>0</v>
+      </c>
+      <c r="F40" t="n">
+        <v>0</v>
+      </c>
+      <c r="G40" t="n">
+        <v>0</v>
+      </c>
+      <c r="H40" t="n">
+        <v>0</v>
+      </c>
+      <c r="I40" t="n">
+        <v>0</v>
+      </c>
+      <c r="J40" t="n">
+        <v>0</v>
+      </c>
+      <c r="K40" t="n">
+        <v>0</v>
+      </c>
+      <c r="L40" t="n">
+        <v>0</v>
+      </c>
+      <c r="M40" t="n">
+        <v>0</v>
+      </c>
+      <c r="N40" t="n">
+        <v>0</v>
+      </c>
+      <c r="O40" t="n">
+        <v>0</v>
+      </c>
+      <c r="P40" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q40" t="n">
         <v>27.59002526031614</v>
       </c>
-      <c r="D40" t="n">
-        <v>0</v>
-      </c>
-      <c r="E40" t="n">
-        <v>0</v>
-      </c>
-      <c r="F40" t="n">
-        <v>0</v>
-      </c>
-      <c r="G40" t="n">
-        <v>0</v>
-      </c>
-      <c r="H40" t="n">
+      <c r="R40" t="n">
+        <v>0</v>
+      </c>
+      <c r="S40" t="n">
         <v>27.59002526031614</v>
       </c>
-      <c r="I40" t="n">
-        <v>0</v>
-      </c>
-      <c r="J40" t="n">
+      <c r="T40" t="n">
+        <v>0</v>
+      </c>
+      <c r="U40" t="n">
         <v>27.59002526031614</v>
       </c>
-      <c r="K40" t="n">
-        <v>0</v>
-      </c>
-      <c r="L40" t="n">
-        <v>0</v>
-      </c>
-      <c r="M40" t="n">
-        <v>0</v>
-      </c>
-      <c r="N40" t="n">
-        <v>0</v>
-      </c>
-      <c r="O40" t="n">
-        <v>0</v>
-      </c>
-      <c r="P40" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q40" t="n">
-        <v>0</v>
-      </c>
-      <c r="R40" t="n">
-        <v>0</v>
-      </c>
-      <c r="S40" t="n">
+      <c r="V40" t="n">
         <v>22.44875936050941</v>
-      </c>
-      <c r="T40" t="n">
-        <v>0</v>
-      </c>
-      <c r="U40" t="n">
-        <v>0</v>
-      </c>
-      <c r="V40" t="n">
-        <v>0</v>
       </c>
       <c r="W40" t="n">
         <v>0</v>
@@ -3737,76 +3737,76 @@
         </is>
       </c>
       <c r="B41" t="n">
+        <v>0</v>
+      </c>
+      <c r="C41" t="n">
+        <v>0</v>
+      </c>
+      <c r="D41" t="n">
+        <v>0</v>
+      </c>
+      <c r="E41" t="n">
+        <v>0</v>
+      </c>
+      <c r="F41" t="n">
+        <v>0</v>
+      </c>
+      <c r="G41" t="n">
+        <v>0</v>
+      </c>
+      <c r="H41" t="n">
+        <v>0</v>
+      </c>
+      <c r="I41" t="n">
+        <v>0</v>
+      </c>
+      <c r="J41" t="n">
+        <v>0</v>
+      </c>
+      <c r="K41" t="n">
+        <v>0</v>
+      </c>
+      <c r="L41" t="n">
+        <v>0</v>
+      </c>
+      <c r="M41" t="n">
+        <v>0</v>
+      </c>
+      <c r="N41" t="n">
+        <v>0</v>
+      </c>
+      <c r="O41" t="n">
+        <v>0</v>
+      </c>
+      <c r="P41" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q41" t="n">
+        <v>9.990699214544804</v>
+      </c>
+      <c r="R41" t="n">
+        <v>0</v>
+      </c>
+      <c r="S41" t="n">
+        <v>0</v>
+      </c>
+      <c r="T41" t="n">
+        <v>0</v>
+      </c>
+      <c r="U41" t="n">
+        <v>0</v>
+      </c>
+      <c r="V41" t="n">
+        <v>14.31059503474164</v>
+      </c>
+      <c r="W41" t="n">
         <v>27.59002526031614</v>
       </c>
-      <c r="C41" t="n">
-        <v>0</v>
-      </c>
-      <c r="D41" t="n">
-        <v>0</v>
-      </c>
-      <c r="E41" t="n">
+      <c r="X41" t="n">
         <v>27.59002526031614</v>
       </c>
-      <c r="F41" t="n">
+      <c r="Y41" t="n">
         <v>27.59002526031614</v>
-      </c>
-      <c r="G41" t="n">
-        <v>24.30129424928645</v>
-      </c>
-      <c r="H41" t="n">
-        <v>0</v>
-      </c>
-      <c r="I41" t="n">
-        <v>0</v>
-      </c>
-      <c r="J41" t="n">
-        <v>0</v>
-      </c>
-      <c r="K41" t="n">
-        <v>0</v>
-      </c>
-      <c r="L41" t="n">
-        <v>0</v>
-      </c>
-      <c r="M41" t="n">
-        <v>0</v>
-      </c>
-      <c r="N41" t="n">
-        <v>0</v>
-      </c>
-      <c r="O41" t="n">
-        <v>0</v>
-      </c>
-      <c r="P41" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q41" t="n">
-        <v>0</v>
-      </c>
-      <c r="R41" t="n">
-        <v>0</v>
-      </c>
-      <c r="S41" t="n">
-        <v>0</v>
-      </c>
-      <c r="T41" t="n">
-        <v>0</v>
-      </c>
-      <c r="U41" t="n">
-        <v>0</v>
-      </c>
-      <c r="V41" t="n">
-        <v>0</v>
-      </c>
-      <c r="W41" t="n">
-        <v>0</v>
-      </c>
-      <c r="X41" t="n">
-        <v>0</v>
-      </c>
-      <c r="Y41" t="n">
-        <v>0</v>
       </c>
     </row>
     <row r="42">
@@ -3831,7 +3831,7 @@
         <v>0</v>
       </c>
       <c r="G42" t="n">
-        <v>0</v>
+        <v>24.30129424928645</v>
       </c>
       <c r="H42" t="n">
         <v>0</v>
@@ -3864,22 +3864,22 @@
         <v>0</v>
       </c>
       <c r="R42" t="n">
-        <v>0</v>
+        <v>27.59002526031614</v>
       </c>
       <c r="S42" t="n">
-        <v>27.59002526031614</v>
+        <v>0</v>
       </c>
       <c r="T42" t="n">
         <v>27.59002526031614</v>
       </c>
       <c r="U42" t="n">
-        <v>0</v>
+        <v>27.59002526031614</v>
       </c>
       <c r="V42" t="n">
-        <v>27.59002526031614</v>
+        <v>0</v>
       </c>
       <c r="W42" t="n">
-        <v>24.30129424928645</v>
+        <v>0</v>
       </c>
       <c r="X42" t="n">
         <v>0</v>
@@ -3910,10 +3910,10 @@
         <v>0</v>
       </c>
       <c r="G43" t="n">
-        <v>0</v>
+        <v>22.44875936050941</v>
       </c>
       <c r="H43" t="n">
-        <v>0</v>
+        <v>27.59002526031614</v>
       </c>
       <c r="I43" t="n">
         <v>0</v>
@@ -3940,31 +3940,31 @@
         <v>0</v>
       </c>
       <c r="Q43" t="n">
+        <v>0</v>
+      </c>
+      <c r="R43" t="n">
+        <v>0</v>
+      </c>
+      <c r="S43" t="n">
+        <v>0</v>
+      </c>
+      <c r="T43" t="n">
+        <v>0</v>
+      </c>
+      <c r="U43" t="n">
         <v>27.59002526031614</v>
       </c>
-      <c r="R43" t="n">
+      <c r="V43" t="n">
+        <v>0</v>
+      </c>
+      <c r="W43" t="n">
+        <v>0</v>
+      </c>
+      <c r="X43" t="n">
+        <v>0</v>
+      </c>
+      <c r="Y43" t="n">
         <v>27.59002526031614</v>
-      </c>
-      <c r="S43" t="n">
-        <v>27.59002526031614</v>
-      </c>
-      <c r="T43" t="n">
-        <v>22.44875936050941</v>
-      </c>
-      <c r="U43" t="n">
-        <v>0</v>
-      </c>
-      <c r="V43" t="n">
-        <v>0</v>
-      </c>
-      <c r="W43" t="n">
-        <v>0</v>
-      </c>
-      <c r="X43" t="n">
-        <v>0</v>
-      </c>
-      <c r="Y43" t="n">
-        <v>0</v>
       </c>
     </row>
     <row r="44">
@@ -5726,16 +5726,16 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>44.53106090472204</v>
+        <v>16.66234852056432</v>
       </c>
       <c r="C20" t="n">
-        <v>30.07591440498301</v>
+        <v>2.207202020825291</v>
       </c>
       <c r="D20" t="n">
-        <v>30.07591440498301</v>
+        <v>2.207202020825291</v>
       </c>
       <c r="E20" t="n">
-        <v>30.07591440498301</v>
+        <v>2.207202020825291</v>
       </c>
       <c r="F20" t="n">
         <v>2.207202020825291</v>
@@ -5753,19 +5753,19 @@
         <v>2.207202020825291</v>
       </c>
       <c r="K20" t="n">
-        <v>2.207202020825291</v>
+        <v>29.52132702853827</v>
       </c>
       <c r="L20" t="n">
-        <v>2.207202020825291</v>
+        <v>56.83545203625125</v>
       </c>
       <c r="M20" t="n">
-        <v>28.41772601812563</v>
+        <v>84.14957704396423</v>
       </c>
       <c r="N20" t="n">
-        <v>55.73185102583861</v>
+        <v>110.3601010412646</v>
       </c>
       <c r="O20" t="n">
-        <v>83.04597603355158</v>
+        <v>110.3601010412646</v>
       </c>
       <c r="P20" t="n">
         <v>110.3601010412646</v>
@@ -5780,22 +5780,22 @@
         <v>72.39977328887976</v>
       </c>
       <c r="T20" t="n">
-        <v>72.39977328887976</v>
+        <v>44.53106090472204</v>
       </c>
       <c r="U20" t="n">
-        <v>72.39977328887976</v>
+        <v>44.53106090472204</v>
       </c>
       <c r="V20" t="n">
-        <v>72.39977328887976</v>
+        <v>16.66234852056432</v>
       </c>
       <c r="W20" t="n">
-        <v>44.53106090472204</v>
+        <v>16.66234852056432</v>
       </c>
       <c r="X20" t="n">
-        <v>44.53106090472204</v>
+        <v>16.66234852056432</v>
       </c>
       <c r="Y20" t="n">
-        <v>44.53106090472204</v>
+        <v>16.66234852056432</v>
       </c>
     </row>
     <row r="21">
@@ -5805,19 +5805,19 @@
         </is>
       </c>
       <c r="B21" t="n">
-        <v>2.207202020825291</v>
+        <v>30.07591440498301</v>
       </c>
       <c r="C21" t="n">
-        <v>2.207202020825291</v>
+        <v>30.07591440498301</v>
       </c>
       <c r="D21" t="n">
-        <v>2.207202020825291</v>
+        <v>30.07591440498301</v>
       </c>
       <c r="E21" t="n">
-        <v>2.207202020825291</v>
+        <v>30.07591440498301</v>
       </c>
       <c r="F21" t="n">
-        <v>2.207202020825291</v>
+        <v>30.07591440498301</v>
       </c>
       <c r="G21" t="n">
         <v>2.207202020825291</v>
@@ -5835,19 +5835,19 @@
         <v>2.207202020825291</v>
       </c>
       <c r="L21" t="n">
-        <v>2.207202020825291</v>
+        <v>28.41772601812563</v>
       </c>
       <c r="M21" t="n">
-        <v>2.207202020825291</v>
+        <v>55.73185102583861</v>
       </c>
       <c r="N21" t="n">
-        <v>29.52132702853827</v>
+        <v>83.04597603355158</v>
       </c>
       <c r="O21" t="n">
-        <v>56.83545203625125</v>
+        <v>110.3601010412646</v>
       </c>
       <c r="P21" t="n">
-        <v>84.14957704396423</v>
+        <v>110.3601010412646</v>
       </c>
       <c r="Q21" t="n">
         <v>110.3601010412646</v>
@@ -5859,22 +5859,22 @@
         <v>82.49138865710684</v>
       </c>
       <c r="T21" t="n">
-        <v>82.49138865710684</v>
+        <v>54.62267627294912</v>
       </c>
       <c r="U21" t="n">
-        <v>57.94462678914073</v>
+        <v>54.62267627294912</v>
       </c>
       <c r="V21" t="n">
-        <v>30.07591440498301</v>
+        <v>54.62267627294912</v>
       </c>
       <c r="W21" t="n">
-        <v>2.207202020825291</v>
+        <v>54.62267627294912</v>
       </c>
       <c r="X21" t="n">
-        <v>2.207202020825291</v>
+        <v>54.62267627294912</v>
       </c>
       <c r="Y21" t="n">
-        <v>2.207202020825291</v>
+        <v>54.62267627294912</v>
       </c>
     </row>
     <row r="22">
@@ -5884,76 +5884,76 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>24.88271652639035</v>
+        <v>54.62267627294912</v>
       </c>
       <c r="C22" t="n">
-        <v>24.88271652639035</v>
+        <v>54.62267627294912</v>
       </c>
       <c r="D22" t="n">
-        <v>24.88271652639035</v>
+        <v>31.94716176738407</v>
       </c>
       <c r="E22" t="n">
-        <v>24.88271652639035</v>
+        <v>31.94716176738407</v>
       </c>
       <c r="F22" t="n">
-        <v>24.88271652639035</v>
+        <v>31.94716176738407</v>
       </c>
       <c r="G22" t="n">
-        <v>24.88271652639035</v>
+        <v>31.94716176738407</v>
       </c>
       <c r="H22" t="n">
-        <v>24.88271652639035</v>
+        <v>31.94716176738407</v>
       </c>
       <c r="I22" t="n">
-        <v>24.88271652639035</v>
+        <v>31.94716176738407</v>
       </c>
       <c r="J22" t="n">
-        <v>2.207202020825291</v>
+        <v>4.078449383226349</v>
       </c>
       <c r="K22" t="n">
-        <v>2.207202020825291</v>
+        <v>4.078449383226349</v>
       </c>
       <c r="L22" t="n">
-        <v>29.52132702853827</v>
+        <v>31.39257439093933</v>
       </c>
       <c r="M22" t="n">
-        <v>56.83545203625125</v>
+        <v>58.7066993986523</v>
       </c>
       <c r="N22" t="n">
-        <v>84.14957704396423</v>
+        <v>86.02082440636528</v>
       </c>
       <c r="O22" t="n">
-        <v>108.4888536788635</v>
+        <v>110.3601010412646</v>
       </c>
       <c r="P22" t="n">
-        <v>108.4888536788635</v>
+        <v>110.3601010412646</v>
       </c>
       <c r="Q22" t="n">
-        <v>80.62014129470579</v>
+        <v>110.3601010412646</v>
       </c>
       <c r="R22" t="n">
-        <v>80.62014129470579</v>
+        <v>110.3601010412646</v>
       </c>
       <c r="S22" t="n">
-        <v>80.62014129470579</v>
+        <v>110.3601010412646</v>
       </c>
       <c r="T22" t="n">
-        <v>80.62014129470579</v>
+        <v>110.3601010412646</v>
       </c>
       <c r="U22" t="n">
-        <v>80.62014129470579</v>
+        <v>82.49138865710684</v>
       </c>
       <c r="V22" t="n">
-        <v>52.75142891054807</v>
+        <v>82.49138865710684</v>
       </c>
       <c r="W22" t="n">
-        <v>52.75142891054807</v>
+        <v>54.62267627294912</v>
       </c>
       <c r="X22" t="n">
-        <v>52.75142891054807</v>
+        <v>54.62267627294912</v>
       </c>
       <c r="Y22" t="n">
-        <v>24.88271652639035</v>
+        <v>54.62267627294912</v>
       </c>
     </row>
     <row r="23">
@@ -5963,19 +5963,19 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>110.3601010412646</v>
+        <v>2.207202020825291</v>
       </c>
       <c r="C23" t="n">
-        <v>110.3601010412646</v>
+        <v>2.207202020825291</v>
       </c>
       <c r="D23" t="n">
-        <v>85.81333917329844</v>
+        <v>2.207202020825291</v>
       </c>
       <c r="E23" t="n">
-        <v>57.94462678914073</v>
+        <v>2.207202020825291</v>
       </c>
       <c r="F23" t="n">
-        <v>30.07591440498301</v>
+        <v>2.207202020825291</v>
       </c>
       <c r="G23" t="n">
         <v>2.207202020825291</v>
@@ -5993,16 +5993,16 @@
         <v>29.52132702853827</v>
       </c>
       <c r="L23" t="n">
-        <v>29.52132702853827</v>
+        <v>55.73185102583861</v>
       </c>
       <c r="M23" t="n">
-        <v>29.52132702853827</v>
+        <v>83.04597603355158</v>
       </c>
       <c r="N23" t="n">
-        <v>55.73185102583861</v>
+        <v>83.04597603355158</v>
       </c>
       <c r="O23" t="n">
-        <v>83.04597603355158</v>
+        <v>110.3601010412646</v>
       </c>
       <c r="P23" t="n">
         <v>110.3601010412646</v>
@@ -6011,28 +6011,28 @@
         <v>110.3601010412646</v>
       </c>
       <c r="R23" t="n">
-        <v>110.3601010412646</v>
+        <v>82.49138865710684</v>
       </c>
       <c r="S23" t="n">
-        <v>110.3601010412646</v>
+        <v>54.62267627294912</v>
       </c>
       <c r="T23" t="n">
-        <v>110.3601010412646</v>
+        <v>26.7539638887914</v>
       </c>
       <c r="U23" t="n">
-        <v>110.3601010412646</v>
+        <v>2.207202020825291</v>
       </c>
       <c r="V23" t="n">
-        <v>110.3601010412646</v>
+        <v>2.207202020825291</v>
       </c>
       <c r="W23" t="n">
-        <v>110.3601010412646</v>
+        <v>2.207202020825291</v>
       </c>
       <c r="X23" t="n">
-        <v>110.3601010412646</v>
+        <v>2.207202020825291</v>
       </c>
       <c r="Y23" t="n">
-        <v>110.3601010412646</v>
+        <v>2.207202020825291</v>
       </c>
     </row>
     <row r="24">
@@ -6042,16 +6042,16 @@
         </is>
       </c>
       <c r="B24" t="n">
-        <v>85.81333917329844</v>
+        <v>2.207202020825291</v>
       </c>
       <c r="C24" t="n">
-        <v>57.94462678914073</v>
+        <v>2.207202020825291</v>
       </c>
       <c r="D24" t="n">
-        <v>30.07591440498301</v>
+        <v>2.207202020825291</v>
       </c>
       <c r="E24" t="n">
-        <v>30.07591440498301</v>
+        <v>2.207202020825291</v>
       </c>
       <c r="F24" t="n">
         <v>2.207202020825291</v>
@@ -6069,19 +6069,19 @@
         <v>2.207202020825291</v>
       </c>
       <c r="K24" t="n">
-        <v>29.52132702853827</v>
+        <v>2.207202020825291</v>
       </c>
       <c r="L24" t="n">
-        <v>55.73185102583861</v>
+        <v>2.207202020825291</v>
       </c>
       <c r="M24" t="n">
-        <v>55.73185102583861</v>
+        <v>28.41772601812563</v>
       </c>
       <c r="N24" t="n">
         <v>55.73185102583861</v>
       </c>
       <c r="O24" t="n">
-        <v>55.73185102583861</v>
+        <v>83.04597603355158</v>
       </c>
       <c r="P24" t="n">
         <v>83.04597603355158</v>
@@ -6099,19 +6099,19 @@
         <v>110.3601010412646</v>
       </c>
       <c r="U24" t="n">
-        <v>110.3601010412646</v>
+        <v>82.49138865710684</v>
       </c>
       <c r="V24" t="n">
-        <v>110.3601010412646</v>
+        <v>54.62267627294912</v>
       </c>
       <c r="W24" t="n">
-        <v>110.3601010412646</v>
+        <v>30.07591440498301</v>
       </c>
       <c r="X24" t="n">
-        <v>85.81333917329844</v>
+        <v>2.207202020825291</v>
       </c>
       <c r="Y24" t="n">
-        <v>85.81333917329844</v>
+        <v>2.207202020825291</v>
       </c>
     </row>
     <row r="25">
@@ -6121,28 +6121,28 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>108.4888536788635</v>
+        <v>24.88271652639035</v>
       </c>
       <c r="C25" t="n">
-        <v>108.4888536788635</v>
+        <v>24.88271652639035</v>
       </c>
       <c r="D25" t="n">
-        <v>108.4888536788635</v>
+        <v>2.207202020825291</v>
       </c>
       <c r="E25" t="n">
-        <v>80.62014129470579</v>
+        <v>2.207202020825291</v>
       </c>
       <c r="F25" t="n">
-        <v>80.62014129470579</v>
+        <v>2.207202020825291</v>
       </c>
       <c r="G25" t="n">
-        <v>57.94462678914073</v>
+        <v>2.207202020825291</v>
       </c>
       <c r="H25" t="n">
-        <v>57.94462678914073</v>
+        <v>2.207202020825291</v>
       </c>
       <c r="I25" t="n">
-        <v>30.07591440498301</v>
+        <v>2.207202020825291</v>
       </c>
       <c r="J25" t="n">
         <v>2.207202020825291</v>
@@ -6169,28 +6169,28 @@
         <v>108.4888536788635</v>
       </c>
       <c r="R25" t="n">
-        <v>108.4888536788635</v>
+        <v>80.62014129470579</v>
       </c>
       <c r="S25" t="n">
-        <v>108.4888536788635</v>
+        <v>80.62014129470579</v>
       </c>
       <c r="T25" t="n">
-        <v>108.4888536788635</v>
+        <v>80.62014129470579</v>
       </c>
       <c r="U25" t="n">
-        <v>108.4888536788635</v>
+        <v>52.75142891054807</v>
       </c>
       <c r="V25" t="n">
-        <v>108.4888536788635</v>
+        <v>52.75142891054807</v>
       </c>
       <c r="W25" t="n">
-        <v>108.4888536788635</v>
+        <v>52.75142891054807</v>
       </c>
       <c r="X25" t="n">
-        <v>108.4888536788635</v>
+        <v>52.75142891054807</v>
       </c>
       <c r="Y25" t="n">
-        <v>108.4888536788635</v>
+        <v>52.75142891054807</v>
       </c>
     </row>
     <row r="26">
@@ -6200,19 +6200,19 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>54.62267627294912</v>
+        <v>2.207202020825291</v>
       </c>
       <c r="C26" t="n">
-        <v>54.62267627294912</v>
+        <v>2.207202020825291</v>
       </c>
       <c r="D26" t="n">
-        <v>54.62267627294912</v>
+        <v>2.207202020825291</v>
       </c>
       <c r="E26" t="n">
-        <v>54.62267627294912</v>
+        <v>2.207202020825291</v>
       </c>
       <c r="F26" t="n">
-        <v>30.07591440498301</v>
+        <v>2.207202020825291</v>
       </c>
       <c r="G26" t="n">
         <v>2.207202020825291</v>
@@ -6227,13 +6227,13 @@
         <v>2.207202020825291</v>
       </c>
       <c r="K26" t="n">
-        <v>2.207202020825291</v>
+        <v>29.52132702853827</v>
       </c>
       <c r="L26" t="n">
-        <v>29.52132702853827</v>
+        <v>56.83545203625125</v>
       </c>
       <c r="M26" t="n">
-        <v>56.83545203625125</v>
+        <v>84.14957704396423</v>
       </c>
       <c r="N26" t="n">
         <v>84.14957704396423</v>
@@ -6248,28 +6248,28 @@
         <v>110.3601010412646</v>
       </c>
       <c r="R26" t="n">
-        <v>110.3601010412646</v>
+        <v>85.81333917329844</v>
       </c>
       <c r="S26" t="n">
-        <v>82.49138865710684</v>
+        <v>85.81333917329844</v>
       </c>
       <c r="T26" t="n">
-        <v>82.49138865710684</v>
+        <v>57.94462678914073</v>
       </c>
       <c r="U26" t="n">
-        <v>54.62267627294912</v>
+        <v>57.94462678914073</v>
       </c>
       <c r="V26" t="n">
-        <v>54.62267627294912</v>
+        <v>30.07591440498301</v>
       </c>
       <c r="W26" t="n">
-        <v>54.62267627294912</v>
+        <v>2.207202020825291</v>
       </c>
       <c r="X26" t="n">
-        <v>54.62267627294912</v>
+        <v>2.207202020825291</v>
       </c>
       <c r="Y26" t="n">
-        <v>54.62267627294912</v>
+        <v>2.207202020825291</v>
       </c>
     </row>
     <row r="27">
@@ -6291,13 +6291,13 @@
         <v>26.7539638887914</v>
       </c>
       <c r="F27" t="n">
-        <v>26.7539638887914</v>
+        <v>2.207202020825291</v>
       </c>
       <c r="G27" t="n">
-        <v>26.7539638887914</v>
+        <v>2.207202020825291</v>
       </c>
       <c r="H27" t="n">
-        <v>26.7539638887914</v>
+        <v>2.207202020825291</v>
       </c>
       <c r="I27" t="n">
         <v>2.207202020825291</v>
@@ -6318,7 +6318,7 @@
         <v>84.14957704396423</v>
       </c>
       <c r="O27" t="n">
-        <v>110.3601010412646</v>
+        <v>84.14957704396423</v>
       </c>
       <c r="P27" t="n">
         <v>110.3601010412646</v>
@@ -6336,16 +6336,16 @@
         <v>110.3601010412646</v>
       </c>
       <c r="U27" t="n">
-        <v>110.3601010412646</v>
+        <v>82.49138865710684</v>
       </c>
       <c r="V27" t="n">
-        <v>110.3601010412646</v>
+        <v>54.62267627294912</v>
       </c>
       <c r="W27" t="n">
-        <v>82.49138865710684</v>
+        <v>26.7539638887914</v>
       </c>
       <c r="X27" t="n">
-        <v>54.62267627294912</v>
+        <v>26.7539638887914</v>
       </c>
       <c r="Y27" t="n">
         <v>26.7539638887914</v>
@@ -6358,28 +6358,28 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>80.62014129470579</v>
+        <v>52.75142891054807</v>
       </c>
       <c r="C28" t="n">
-        <v>80.62014129470579</v>
+        <v>52.75142891054807</v>
       </c>
       <c r="D28" t="n">
-        <v>80.62014129470579</v>
+        <v>52.75142891054807</v>
       </c>
       <c r="E28" t="n">
-        <v>80.62014129470579</v>
+        <v>52.75142891054807</v>
       </c>
       <c r="F28" t="n">
-        <v>52.75142891054807</v>
+        <v>24.88271652639035</v>
       </c>
       <c r="G28" t="n">
         <v>24.88271652639035</v>
       </c>
       <c r="H28" t="n">
-        <v>2.207202020825291</v>
+        <v>24.88271652639035</v>
       </c>
       <c r="I28" t="n">
-        <v>2.207202020825291</v>
+        <v>24.88271652639035</v>
       </c>
       <c r="J28" t="n">
         <v>2.207202020825291</v>
@@ -6412,22 +6412,22 @@
         <v>108.4888536788635</v>
       </c>
       <c r="T28" t="n">
-        <v>108.4888536788635</v>
+        <v>80.62014129470579</v>
       </c>
       <c r="U28" t="n">
-        <v>108.4888536788635</v>
+        <v>52.75142891054807</v>
       </c>
       <c r="V28" t="n">
-        <v>80.62014129470579</v>
+        <v>52.75142891054807</v>
       </c>
       <c r="W28" t="n">
-        <v>80.62014129470579</v>
+        <v>52.75142891054807</v>
       </c>
       <c r="X28" t="n">
-        <v>80.62014129470579</v>
+        <v>52.75142891054807</v>
       </c>
       <c r="Y28" t="n">
-        <v>80.62014129470579</v>
+        <v>52.75142891054807</v>
       </c>
     </row>
     <row r="29">
@@ -6437,13 +6437,13 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>54.62267627294912</v>
+        <v>30.07591440498301</v>
       </c>
       <c r="C29" t="n">
-        <v>54.62267627294912</v>
+        <v>2.207202020825291</v>
       </c>
       <c r="D29" t="n">
-        <v>26.7539638887914</v>
+        <v>2.207202020825291</v>
       </c>
       <c r="E29" t="n">
         <v>2.207202020825291</v>
@@ -6467,10 +6467,10 @@
         <v>2.207202020825291</v>
       </c>
       <c r="L29" t="n">
-        <v>2.207202020825291</v>
+        <v>29.52132702853827</v>
       </c>
       <c r="M29" t="n">
-        <v>28.41772601812563</v>
+        <v>55.73185102583861</v>
       </c>
       <c r="N29" t="n">
         <v>55.73185102583861</v>
@@ -6485,28 +6485,28 @@
         <v>110.3601010412646</v>
       </c>
       <c r="R29" t="n">
-        <v>82.49138865710684</v>
+        <v>85.81333917329844</v>
       </c>
       <c r="S29" t="n">
-        <v>54.62267627294912</v>
+        <v>85.81333917329844</v>
       </c>
       <c r="T29" t="n">
-        <v>54.62267627294912</v>
+        <v>85.81333917329844</v>
       </c>
       <c r="U29" t="n">
-        <v>54.62267627294912</v>
+        <v>85.81333917329844</v>
       </c>
       <c r="V29" t="n">
-        <v>54.62267627294912</v>
+        <v>85.81333917329844</v>
       </c>
       <c r="W29" t="n">
-        <v>54.62267627294912</v>
+        <v>85.81333917329844</v>
       </c>
       <c r="X29" t="n">
-        <v>54.62267627294912</v>
+        <v>85.81333917329844</v>
       </c>
       <c r="Y29" t="n">
-        <v>54.62267627294912</v>
+        <v>57.94462678914073</v>
       </c>
     </row>
     <row r="30">
@@ -6516,16 +6516,16 @@
         </is>
       </c>
       <c r="B30" t="n">
-        <v>2.207202020825291</v>
+        <v>26.7539638887914</v>
       </c>
       <c r="C30" t="n">
-        <v>2.207202020825291</v>
+        <v>26.7539638887914</v>
       </c>
       <c r="D30" t="n">
-        <v>2.207202020825291</v>
+        <v>26.7539638887914</v>
       </c>
       <c r="E30" t="n">
-        <v>2.207202020825291</v>
+        <v>26.7539638887914</v>
       </c>
       <c r="F30" t="n">
         <v>2.207202020825291</v>
@@ -6564,28 +6564,28 @@
         <v>110.3601010412646</v>
       </c>
       <c r="R30" t="n">
+        <v>110.3601010412646</v>
+      </c>
+      <c r="S30" t="n">
+        <v>110.3601010412646</v>
+      </c>
+      <c r="T30" t="n">
+        <v>110.3601010412646</v>
+      </c>
+      <c r="U30" t="n">
+        <v>110.3601010412646</v>
+      </c>
+      <c r="V30" t="n">
         <v>82.49138865710684</v>
       </c>
-      <c r="S30" t="n">
+      <c r="W30" t="n">
         <v>54.62267627294912</v>
       </c>
-      <c r="T30" t="n">
+      <c r="X30" t="n">
+        <v>54.62267627294912</v>
+      </c>
+      <c r="Y30" t="n">
         <v>26.7539638887914</v>
-      </c>
-      <c r="U30" t="n">
-        <v>2.207202020825291</v>
-      </c>
-      <c r="V30" t="n">
-        <v>2.207202020825291</v>
-      </c>
-      <c r="W30" t="n">
-        <v>2.207202020825291</v>
-      </c>
-      <c r="X30" t="n">
-        <v>2.207202020825291</v>
-      </c>
-      <c r="Y30" t="n">
-        <v>2.207202020825291</v>
       </c>
     </row>
     <row r="31">
@@ -6643,28 +6643,28 @@
         <v>108.4888536788635</v>
       </c>
       <c r="R31" t="n">
-        <v>108.4888536788635</v>
+        <v>80.62014129470579</v>
       </c>
       <c r="S31" t="n">
-        <v>108.4888536788635</v>
+        <v>52.75142891054807</v>
       </c>
       <c r="T31" t="n">
-        <v>108.4888536788635</v>
+        <v>24.88271652639035</v>
       </c>
       <c r="U31" t="n">
-        <v>108.4888536788635</v>
+        <v>2.207202020825291</v>
       </c>
       <c r="V31" t="n">
-        <v>108.4888536788635</v>
+        <v>2.207202020825291</v>
       </c>
       <c r="W31" t="n">
-        <v>80.62014129470579</v>
+        <v>2.207202020825291</v>
       </c>
       <c r="X31" t="n">
-        <v>52.75142891054807</v>
+        <v>2.207202020825291</v>
       </c>
       <c r="Y31" t="n">
-        <v>24.88271652639035</v>
+        <v>2.207202020825291</v>
       </c>
     </row>
     <row r="32">
@@ -6674,13 +6674,13 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>2.207202020825291</v>
+        <v>30.07591440498301</v>
       </c>
       <c r="C32" t="n">
-        <v>2.207202020825291</v>
+        <v>30.07591440498301</v>
       </c>
       <c r="D32" t="n">
-        <v>2.207202020825291</v>
+        <v>30.07591440498301</v>
       </c>
       <c r="E32" t="n">
         <v>2.207202020825291</v>
@@ -6701,16 +6701,16 @@
         <v>2.207202020825291</v>
       </c>
       <c r="K32" t="n">
-        <v>2.207202020825291</v>
+        <v>29.52132702853827</v>
       </c>
       <c r="L32" t="n">
-        <v>29.52132702853827</v>
+        <v>56.83545203625125</v>
       </c>
       <c r="M32" t="n">
-        <v>56.83545203625125</v>
+        <v>84.14957704396423</v>
       </c>
       <c r="N32" t="n">
-        <v>84.14957704396423</v>
+        <v>110.3601010412646</v>
       </c>
       <c r="O32" t="n">
         <v>110.3601010412646</v>
@@ -6728,22 +6728,22 @@
         <v>110.3601010412646</v>
       </c>
       <c r="T32" t="n">
-        <v>110.3601010412646</v>
+        <v>82.49138865710684</v>
       </c>
       <c r="U32" t="n">
-        <v>82.49138865710684</v>
+        <v>54.62267627294912</v>
       </c>
       <c r="V32" t="n">
-        <v>54.62267627294912</v>
+        <v>30.07591440498301</v>
       </c>
       <c r="W32" t="n">
-        <v>54.62267627294912</v>
+        <v>30.07591440498301</v>
       </c>
       <c r="X32" t="n">
-        <v>26.7539638887914</v>
+        <v>30.07591440498301</v>
       </c>
       <c r="Y32" t="n">
-        <v>26.7539638887914</v>
+        <v>30.07591440498301</v>
       </c>
     </row>
     <row r="33">
@@ -6753,22 +6753,22 @@
         </is>
       </c>
       <c r="B33" t="n">
-        <v>2.207202020825291</v>
+        <v>110.3601010412646</v>
       </c>
       <c r="C33" t="n">
-        <v>2.207202020825291</v>
+        <v>110.3601010412646</v>
       </c>
       <c r="D33" t="n">
-        <v>2.207202020825291</v>
+        <v>110.3601010412646</v>
       </c>
       <c r="E33" t="n">
-        <v>2.207202020825291</v>
+        <v>85.81333917329844</v>
       </c>
       <c r="F33" t="n">
-        <v>2.207202020825291</v>
+        <v>57.94462678914073</v>
       </c>
       <c r="G33" t="n">
-        <v>2.207202020825291</v>
+        <v>30.07591440498301</v>
       </c>
       <c r="H33" t="n">
         <v>2.207202020825291</v>
@@ -6783,16 +6783,16 @@
         <v>29.52132702853827</v>
       </c>
       <c r="L33" t="n">
-        <v>56.83545203625125</v>
+        <v>29.52132702853827</v>
       </c>
       <c r="M33" t="n">
-        <v>84.14957704396423</v>
+        <v>29.52132702853827</v>
       </c>
       <c r="N33" t="n">
-        <v>110.3601010412646</v>
+        <v>55.73185102583861</v>
       </c>
       <c r="O33" t="n">
-        <v>110.3601010412646</v>
+        <v>83.04597603355158</v>
       </c>
       <c r="P33" t="n">
         <v>110.3601010412646</v>
@@ -6804,25 +6804,25 @@
         <v>110.3601010412646</v>
       </c>
       <c r="S33" t="n">
-        <v>82.49138865710684</v>
+        <v>110.3601010412646</v>
       </c>
       <c r="T33" t="n">
-        <v>54.62267627294912</v>
+        <v>110.3601010412646</v>
       </c>
       <c r="U33" t="n">
-        <v>26.7539638887914</v>
+        <v>110.3601010412646</v>
       </c>
       <c r="V33" t="n">
-        <v>2.207202020825291</v>
+        <v>110.3601010412646</v>
       </c>
       <c r="W33" t="n">
-        <v>2.207202020825291</v>
+        <v>110.3601010412646</v>
       </c>
       <c r="X33" t="n">
-        <v>2.207202020825291</v>
+        <v>110.3601010412646</v>
       </c>
       <c r="Y33" t="n">
-        <v>2.207202020825291</v>
+        <v>110.3601010412646</v>
       </c>
     </row>
     <row r="34">
@@ -6832,25 +6832,25 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>2.207202020825291</v>
+        <v>52.75142891054807</v>
       </c>
       <c r="C34" t="n">
-        <v>2.207202020825291</v>
+        <v>52.75142891054807</v>
       </c>
       <c r="D34" t="n">
-        <v>2.207202020825291</v>
+        <v>52.75142891054807</v>
       </c>
       <c r="E34" t="n">
-        <v>2.207202020825291</v>
+        <v>24.88271652639035</v>
       </c>
       <c r="F34" t="n">
-        <v>2.207202020825291</v>
+        <v>24.88271652639035</v>
       </c>
       <c r="G34" t="n">
-        <v>2.207202020825291</v>
+        <v>24.88271652639035</v>
       </c>
       <c r="H34" t="n">
-        <v>2.207202020825291</v>
+        <v>24.88271652639035</v>
       </c>
       <c r="I34" t="n">
         <v>2.207202020825291</v>
@@ -6874,34 +6874,34 @@
         <v>108.4888536788635</v>
       </c>
       <c r="P34" t="n">
-        <v>105.7399236434024</v>
+        <v>108.4888536788635</v>
       </c>
       <c r="Q34" t="n">
-        <v>77.87121125924466</v>
+        <v>108.4888536788635</v>
       </c>
       <c r="R34" t="n">
-        <v>50.00249887508694</v>
+        <v>108.4888536788635</v>
       </c>
       <c r="S34" t="n">
-        <v>22.13378649092923</v>
+        <v>108.4888536788635</v>
       </c>
       <c r="T34" t="n">
-        <v>2.207202020825291</v>
+        <v>108.4888536788635</v>
       </c>
       <c r="U34" t="n">
-        <v>2.207202020825291</v>
+        <v>80.62014129470579</v>
       </c>
       <c r="V34" t="n">
-        <v>2.207202020825291</v>
+        <v>80.62014129470579</v>
       </c>
       <c r="W34" t="n">
-        <v>2.207202020825291</v>
+        <v>52.75142891054807</v>
       </c>
       <c r="X34" t="n">
-        <v>2.207202020825291</v>
+        <v>52.75142891054807</v>
       </c>
       <c r="Y34" t="n">
-        <v>2.207202020825291</v>
+        <v>52.75142891054807</v>
       </c>
     </row>
     <row r="35">
@@ -6911,19 +6911,19 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>54.62267627294912</v>
+        <v>85.81333917329844</v>
       </c>
       <c r="C35" t="n">
-        <v>54.62267627294912</v>
+        <v>57.94462678914073</v>
       </c>
       <c r="D35" t="n">
-        <v>54.62267627294912</v>
+        <v>30.07591440498301</v>
       </c>
       <c r="E35" t="n">
         <v>30.07591440498301</v>
       </c>
       <c r="F35" t="n">
-        <v>30.07591440498301</v>
+        <v>2.207202020825291</v>
       </c>
       <c r="G35" t="n">
         <v>2.207202020825291</v>
@@ -6941,13 +6941,13 @@
         <v>2.207202020825291</v>
       </c>
       <c r="L35" t="n">
-        <v>29.52132702853827</v>
+        <v>2.207202020825291</v>
       </c>
       <c r="M35" t="n">
-        <v>56.83545203625125</v>
+        <v>28.41772601812563</v>
       </c>
       <c r="N35" t="n">
-        <v>83.04597603355158</v>
+        <v>55.73185102583861</v>
       </c>
       <c r="O35" t="n">
         <v>83.04597603355158</v>
@@ -6971,16 +6971,16 @@
         <v>110.3601010412646</v>
       </c>
       <c r="V35" t="n">
-        <v>82.49138865710684</v>
+        <v>110.3601010412646</v>
       </c>
       <c r="W35" t="n">
-        <v>82.49138865710684</v>
+        <v>110.3601010412646</v>
       </c>
       <c r="X35" t="n">
-        <v>82.49138865710684</v>
+        <v>110.3601010412646</v>
       </c>
       <c r="Y35" t="n">
-        <v>54.62267627294912</v>
+        <v>85.81333917329844</v>
       </c>
     </row>
     <row r="36">
@@ -6990,49 +6990,49 @@
         </is>
       </c>
       <c r="B36" t="n">
-        <v>57.94462678914073</v>
+        <v>26.7539638887914</v>
       </c>
       <c r="C36" t="n">
-        <v>30.07591440498301</v>
+        <v>26.7539638887914</v>
       </c>
       <c r="D36" t="n">
-        <v>30.07591440498301</v>
+        <v>26.7539638887914</v>
       </c>
       <c r="E36" t="n">
-        <v>30.07591440498301</v>
+        <v>26.7539638887914</v>
       </c>
       <c r="F36" t="n">
-        <v>2.207202020825291</v>
+        <v>26.7539638887914</v>
       </c>
       <c r="G36" t="n">
-        <v>2.207202020825291</v>
+        <v>2.961334673611005</v>
       </c>
       <c r="H36" t="n">
-        <v>2.207202020825291</v>
+        <v>2.961334673611005</v>
       </c>
       <c r="I36" t="n">
-        <v>2.207202020825291</v>
+        <v>2.961334673611005</v>
       </c>
       <c r="J36" t="n">
         <v>2.207202020825291</v>
       </c>
       <c r="K36" t="n">
-        <v>29.52132702853827</v>
+        <v>28.41772601812563</v>
       </c>
       <c r="L36" t="n">
-        <v>56.83545203625125</v>
+        <v>55.73185102583861</v>
       </c>
       <c r="M36" t="n">
         <v>83.04597603355158</v>
       </c>
       <c r="N36" t="n">
-        <v>83.04597603355158</v>
+        <v>110.3601010412646</v>
       </c>
       <c r="O36" t="n">
-        <v>83.04597603355158</v>
+        <v>110.3601010412646</v>
       </c>
       <c r="P36" t="n">
-        <v>83.04597603355158</v>
+        <v>110.3601010412646</v>
       </c>
       <c r="Q36" t="n">
         <v>110.3601010412646</v>
@@ -7044,22 +7044,22 @@
         <v>110.3601010412646</v>
       </c>
       <c r="T36" t="n">
-        <v>82.49138865710684</v>
+        <v>110.3601010412646</v>
       </c>
       <c r="U36" t="n">
         <v>82.49138865710684</v>
       </c>
       <c r="V36" t="n">
-        <v>82.49138865710684</v>
+        <v>54.62267627294912</v>
       </c>
       <c r="W36" t="n">
-        <v>82.49138865710684</v>
+        <v>26.7539638887914</v>
       </c>
       <c r="X36" t="n">
-        <v>82.49138865710684</v>
+        <v>26.7539638887914</v>
       </c>
       <c r="Y36" t="n">
-        <v>82.49138865710684</v>
+        <v>26.7539638887914</v>
       </c>
     </row>
     <row r="37">
@@ -7069,76 +7069,76 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>4.078449383226349</v>
+        <v>2.207202020825291</v>
       </c>
       <c r="C37" t="n">
-        <v>4.078449383226349</v>
+        <v>2.207202020825291</v>
       </c>
       <c r="D37" t="n">
-        <v>4.078449383226349</v>
+        <v>2.207202020825291</v>
       </c>
       <c r="E37" t="n">
-        <v>4.078449383226349</v>
+        <v>2.207202020825291</v>
       </c>
       <c r="F37" t="n">
-        <v>4.078449383226349</v>
+        <v>2.207202020825291</v>
       </c>
       <c r="G37" t="n">
-        <v>4.078449383226349</v>
+        <v>2.207202020825291</v>
       </c>
       <c r="H37" t="n">
-        <v>4.078449383226349</v>
+        <v>2.207202020825291</v>
       </c>
       <c r="I37" t="n">
-        <v>4.078449383226349</v>
+        <v>2.207202020825291</v>
       </c>
       <c r="J37" t="n">
-        <v>4.078449383226349</v>
+        <v>2.207202020825291</v>
       </c>
       <c r="K37" t="n">
-        <v>4.078449383226349</v>
+        <v>2.207202020825291</v>
       </c>
       <c r="L37" t="n">
-        <v>31.39257439093933</v>
+        <v>29.52132702853827</v>
       </c>
       <c r="M37" t="n">
-        <v>58.7066993986523</v>
+        <v>56.83545203625125</v>
       </c>
       <c r="N37" t="n">
-        <v>86.02082440636528</v>
+        <v>84.14957704396423</v>
       </c>
       <c r="O37" t="n">
-        <v>110.3601010412646</v>
+        <v>108.4888536788635</v>
       </c>
       <c r="P37" t="n">
-        <v>110.3601010412646</v>
+        <v>108.4888536788635</v>
       </c>
       <c r="Q37" t="n">
-        <v>110.3601010412646</v>
+        <v>108.4888536788635</v>
       </c>
       <c r="R37" t="n">
-        <v>110.3601010412646</v>
+        <v>108.4888536788635</v>
       </c>
       <c r="S37" t="n">
-        <v>110.3601010412646</v>
+        <v>108.4888536788635</v>
       </c>
       <c r="T37" t="n">
-        <v>110.3601010412646</v>
+        <v>108.4888536788635</v>
       </c>
       <c r="U37" t="n">
-        <v>110.3601010412646</v>
+        <v>108.4888536788635</v>
       </c>
       <c r="V37" t="n">
-        <v>82.49138865710684</v>
+        <v>80.62014129470579</v>
       </c>
       <c r="W37" t="n">
-        <v>54.62267627294912</v>
+        <v>52.75142891054807</v>
       </c>
       <c r="X37" t="n">
-        <v>31.94716176738407</v>
+        <v>24.88271652639035</v>
       </c>
       <c r="Y37" t="n">
-        <v>4.078449383226349</v>
+        <v>2.207202020825291</v>
       </c>
     </row>
     <row r="38">
@@ -7148,19 +7148,19 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>85.81333917329844</v>
+        <v>54.62267627294912</v>
       </c>
       <c r="C38" t="n">
-        <v>57.94462678914073</v>
+        <v>54.62267627294912</v>
       </c>
       <c r="D38" t="n">
-        <v>57.94462678914073</v>
+        <v>30.07591440498301</v>
       </c>
       <c r="E38" t="n">
-        <v>30.07591440498301</v>
+        <v>2.207202020825291</v>
       </c>
       <c r="F38" t="n">
-        <v>30.07591440498301</v>
+        <v>2.207202020825291</v>
       </c>
       <c r="G38" t="n">
         <v>2.207202020825291</v>
@@ -7178,16 +7178,16 @@
         <v>2.207202020825291</v>
       </c>
       <c r="L38" t="n">
-        <v>28.41772601812563</v>
+        <v>29.52132702853827</v>
       </c>
       <c r="M38" t="n">
-        <v>55.73185102583861</v>
+        <v>56.83545203625125</v>
       </c>
       <c r="N38" t="n">
-        <v>83.04597603355158</v>
+        <v>84.14957704396423</v>
       </c>
       <c r="O38" t="n">
-        <v>83.04597603355158</v>
+        <v>110.3601010412646</v>
       </c>
       <c r="P38" t="n">
         <v>110.3601010412646</v>
@@ -7217,7 +7217,7 @@
         <v>110.3601010412646</v>
       </c>
       <c r="Y38" t="n">
-        <v>110.3601010412646</v>
+        <v>82.49138865710684</v>
       </c>
     </row>
     <row r="39">
@@ -7227,19 +7227,19 @@
         </is>
       </c>
       <c r="B39" t="n">
-        <v>30.07591440498301</v>
+        <v>82.49138865710684</v>
       </c>
       <c r="C39" t="n">
-        <v>30.07591440498301</v>
+        <v>54.62267627294912</v>
       </c>
       <c r="D39" t="n">
-        <v>30.07591440498301</v>
+        <v>54.62267627294912</v>
       </c>
       <c r="E39" t="n">
-        <v>2.207202020825291</v>
+        <v>54.62267627294912</v>
       </c>
       <c r="F39" t="n">
-        <v>2.207202020825291</v>
+        <v>26.7539638887914</v>
       </c>
       <c r="G39" t="n">
         <v>2.207202020825291</v>
@@ -7254,49 +7254,49 @@
         <v>2.207202020825291</v>
       </c>
       <c r="K39" t="n">
-        <v>2.207202020825291</v>
+        <v>29.52132702853827</v>
       </c>
       <c r="L39" t="n">
-        <v>2.207202020825291</v>
+        <v>56.83545203625125</v>
       </c>
       <c r="M39" t="n">
-        <v>2.207202020825291</v>
+        <v>84.14957704396423</v>
       </c>
       <c r="N39" t="n">
-        <v>28.41772601812563</v>
+        <v>110.3601010412646</v>
       </c>
       <c r="O39" t="n">
-        <v>55.73185102583861</v>
+        <v>110.3601010412646</v>
       </c>
       <c r="P39" t="n">
-        <v>83.04597603355158</v>
+        <v>110.3601010412646</v>
       </c>
       <c r="Q39" t="n">
         <v>110.3601010412646</v>
       </c>
       <c r="R39" t="n">
-        <v>82.49138865710684</v>
+        <v>110.3601010412646</v>
       </c>
       <c r="S39" t="n">
-        <v>82.49138865710684</v>
+        <v>110.3601010412646</v>
       </c>
       <c r="T39" t="n">
-        <v>82.49138865710684</v>
+        <v>110.3601010412646</v>
       </c>
       <c r="U39" t="n">
-        <v>82.49138865710684</v>
+        <v>110.3601010412646</v>
       </c>
       <c r="V39" t="n">
-        <v>57.94462678914073</v>
+        <v>110.3601010412646</v>
       </c>
       <c r="W39" t="n">
-        <v>57.94462678914073</v>
+        <v>110.3601010412646</v>
       </c>
       <c r="X39" t="n">
-        <v>57.94462678914073</v>
+        <v>110.3601010412646</v>
       </c>
       <c r="Y39" t="n">
-        <v>57.94462678914073</v>
+        <v>110.3601010412646</v>
       </c>
     </row>
     <row r="40">
@@ -7306,28 +7306,28 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>85.81333917329844</v>
+        <v>2.207202020825291</v>
       </c>
       <c r="C40" t="n">
-        <v>57.94462678914073</v>
+        <v>2.207202020825291</v>
       </c>
       <c r="D40" t="n">
-        <v>57.94462678914073</v>
+        <v>2.207202020825291</v>
       </c>
       <c r="E40" t="n">
-        <v>57.94462678914073</v>
+        <v>2.207202020825291</v>
       </c>
       <c r="F40" t="n">
-        <v>57.94462678914073</v>
+        <v>2.207202020825291</v>
       </c>
       <c r="G40" t="n">
-        <v>57.94462678914073</v>
+        <v>2.207202020825291</v>
       </c>
       <c r="H40" t="n">
-        <v>30.07591440498301</v>
+        <v>2.207202020825291</v>
       </c>
       <c r="I40" t="n">
-        <v>30.07591440498301</v>
+        <v>2.207202020825291</v>
       </c>
       <c r="J40" t="n">
         <v>2.207202020825291</v>
@@ -7351,31 +7351,31 @@
         <v>108.4888536788635</v>
       </c>
       <c r="Q40" t="n">
-        <v>108.4888536788635</v>
+        <v>80.62014129470579</v>
       </c>
       <c r="R40" t="n">
-        <v>108.4888536788635</v>
+        <v>80.62014129470579</v>
       </c>
       <c r="S40" t="n">
-        <v>85.81333917329844</v>
+        <v>52.75142891054807</v>
       </c>
       <c r="T40" t="n">
-        <v>85.81333917329844</v>
+        <v>52.75142891054807</v>
       </c>
       <c r="U40" t="n">
-        <v>85.81333917329844</v>
+        <v>24.88271652639035</v>
       </c>
       <c r="V40" t="n">
-        <v>85.81333917329844</v>
+        <v>2.207202020825291</v>
       </c>
       <c r="W40" t="n">
-        <v>85.81333917329844</v>
+        <v>2.207202020825291</v>
       </c>
       <c r="X40" t="n">
-        <v>85.81333917329844</v>
+        <v>2.207202020825291</v>
       </c>
       <c r="Y40" t="n">
-        <v>85.81333917329844</v>
+        <v>2.207202020825291</v>
       </c>
     </row>
     <row r="41">
@@ -7385,19 +7385,19 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>82.49138865710684</v>
+        <v>2.207202020825291</v>
       </c>
       <c r="C41" t="n">
-        <v>82.49138865710684</v>
+        <v>2.207202020825291</v>
       </c>
       <c r="D41" t="n">
-        <v>82.49138865710684</v>
+        <v>2.207202020825291</v>
       </c>
       <c r="E41" t="n">
-        <v>54.62267627294912</v>
+        <v>2.207202020825291</v>
       </c>
       <c r="F41" t="n">
-        <v>26.7539638887914</v>
+        <v>2.207202020825291</v>
       </c>
       <c r="G41" t="n">
         <v>2.207202020825291</v>
@@ -7412,13 +7412,13 @@
         <v>2.207202020825291</v>
       </c>
       <c r="K41" t="n">
-        <v>28.41772601812563</v>
+        <v>29.52132702853827</v>
       </c>
       <c r="L41" t="n">
-        <v>28.41772601812563</v>
+        <v>56.83545203625125</v>
       </c>
       <c r="M41" t="n">
-        <v>55.73185102583861</v>
+        <v>83.04597603355158</v>
       </c>
       <c r="N41" t="n">
         <v>83.04597603355158</v>
@@ -7430,31 +7430,31 @@
         <v>110.3601010412646</v>
       </c>
       <c r="Q41" t="n">
-        <v>110.3601010412646</v>
+        <v>100.2684856730375</v>
       </c>
       <c r="R41" t="n">
-        <v>110.3601010412646</v>
+        <v>100.2684856730375</v>
       </c>
       <c r="S41" t="n">
-        <v>110.3601010412646</v>
+        <v>100.2684856730375</v>
       </c>
       <c r="T41" t="n">
-        <v>110.3601010412646</v>
+        <v>100.2684856730375</v>
       </c>
       <c r="U41" t="n">
-        <v>110.3601010412646</v>
+        <v>100.2684856730375</v>
       </c>
       <c r="V41" t="n">
-        <v>110.3601010412646</v>
+        <v>85.81333917329844</v>
       </c>
       <c r="W41" t="n">
-        <v>110.3601010412646</v>
+        <v>57.94462678914073</v>
       </c>
       <c r="X41" t="n">
-        <v>110.3601010412646</v>
+        <v>30.07591440498301</v>
       </c>
       <c r="Y41" t="n">
-        <v>110.3601010412646</v>
+        <v>2.207202020825291</v>
       </c>
     </row>
     <row r="42">
@@ -7464,19 +7464,19 @@
         </is>
       </c>
       <c r="B42" t="n">
-        <v>2.207202020825291</v>
+        <v>26.7539638887914</v>
       </c>
       <c r="C42" t="n">
-        <v>2.207202020825291</v>
+        <v>26.7539638887914</v>
       </c>
       <c r="D42" t="n">
-        <v>2.207202020825291</v>
+        <v>26.7539638887914</v>
       </c>
       <c r="E42" t="n">
-        <v>2.207202020825291</v>
+        <v>26.7539638887914</v>
       </c>
       <c r="F42" t="n">
-        <v>2.207202020825291</v>
+        <v>26.7539638887914</v>
       </c>
       <c r="G42" t="n">
         <v>2.207202020825291</v>
@@ -7494,25 +7494,25 @@
         <v>2.207202020825291</v>
       </c>
       <c r="L42" t="n">
-        <v>28.41772601812563</v>
+        <v>2.207202020825291</v>
       </c>
       <c r="M42" t="n">
-        <v>28.41772601812563</v>
+        <v>29.52132702853827</v>
       </c>
       <c r="N42" t="n">
-        <v>55.73185102583861</v>
+        <v>56.83545203625125</v>
       </c>
       <c r="O42" t="n">
-        <v>83.04597603355158</v>
+        <v>84.14957704396423</v>
       </c>
       <c r="P42" t="n">
-        <v>83.04597603355158</v>
+        <v>110.3601010412646</v>
       </c>
       <c r="Q42" t="n">
         <v>110.3601010412646</v>
       </c>
       <c r="R42" t="n">
-        <v>110.3601010412646</v>
+        <v>82.49138865710684</v>
       </c>
       <c r="S42" t="n">
         <v>82.49138865710684</v>
@@ -7521,19 +7521,19 @@
         <v>54.62267627294912</v>
       </c>
       <c r="U42" t="n">
-        <v>54.62267627294912</v>
+        <v>26.7539638887914</v>
       </c>
       <c r="V42" t="n">
         <v>26.7539638887914</v>
       </c>
       <c r="W42" t="n">
-        <v>2.207202020825291</v>
+        <v>26.7539638887914</v>
       </c>
       <c r="X42" t="n">
-        <v>2.207202020825291</v>
+        <v>26.7539638887914</v>
       </c>
       <c r="Y42" t="n">
-        <v>2.207202020825291</v>
+        <v>26.7539638887914</v>
       </c>
     </row>
     <row r="43">
@@ -7543,22 +7543,22 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>2.207202020825291</v>
+        <v>52.75142891054807</v>
       </c>
       <c r="C43" t="n">
-        <v>2.207202020825291</v>
+        <v>52.75142891054807</v>
       </c>
       <c r="D43" t="n">
-        <v>2.207202020825291</v>
+        <v>52.75142891054807</v>
       </c>
       <c r="E43" t="n">
-        <v>2.207202020825291</v>
+        <v>52.75142891054807</v>
       </c>
       <c r="F43" t="n">
-        <v>2.207202020825291</v>
+        <v>52.75142891054807</v>
       </c>
       <c r="G43" t="n">
-        <v>2.207202020825291</v>
+        <v>30.07591440498301</v>
       </c>
       <c r="H43" t="n">
         <v>2.207202020825291</v>
@@ -7588,31 +7588,31 @@
         <v>108.4888536788635</v>
       </c>
       <c r="Q43" t="n">
+        <v>108.4888536788635</v>
+      </c>
+      <c r="R43" t="n">
+        <v>108.4888536788635</v>
+      </c>
+      <c r="S43" t="n">
+        <v>108.4888536788635</v>
+      </c>
+      <c r="T43" t="n">
+        <v>108.4888536788635</v>
+      </c>
+      <c r="U43" t="n">
         <v>80.62014129470579</v>
       </c>
-      <c r="R43" t="n">
+      <c r="V43" t="n">
+        <v>80.62014129470579</v>
+      </c>
+      <c r="W43" t="n">
+        <v>80.62014129470579</v>
+      </c>
+      <c r="X43" t="n">
+        <v>80.62014129470579</v>
+      </c>
+      <c r="Y43" t="n">
         <v>52.75142891054807</v>
-      </c>
-      <c r="S43" t="n">
-        <v>24.88271652639035</v>
-      </c>
-      <c r="T43" t="n">
-        <v>2.207202020825291</v>
-      </c>
-      <c r="U43" t="n">
-        <v>2.207202020825291</v>
-      </c>
-      <c r="V43" t="n">
-        <v>2.207202020825291</v>
-      </c>
-      <c r="W43" t="n">
-        <v>2.207202020825291</v>
-      </c>
-      <c r="X43" t="n">
-        <v>2.207202020825291</v>
-      </c>
-      <c r="Y43" t="n">
-        <v>2.207202020825291</v>
       </c>
     </row>
     <row r="44">
@@ -9401,22 +9401,22 @@
         <v>169.0966151720738</v>
       </c>
       <c r="K20" t="n">
-        <v>220.0898510449805</v>
+        <v>247.6798763052967</v>
       </c>
       <c r="L20" t="n">
-        <v>235.7664149699872</v>
+        <v>263.3564402303034</v>
       </c>
       <c r="M20" t="n">
-        <v>256.8215099922226</v>
+        <v>257.9362584875889</v>
       </c>
       <c r="N20" t="n">
-        <v>257.0030888569071</v>
+        <v>255.8883403615407</v>
       </c>
       <c r="O20" t="n">
-        <v>257.6882366820029</v>
+        <v>230.0982114216867</v>
       </c>
       <c r="P20" t="n">
-        <v>258.8230210155857</v>
+        <v>231.2329957552695</v>
       </c>
       <c r="Q20" t="n">
         <v>212.3149906599047</v>
@@ -9483,10 +9483,10 @@
         <v>137.841438974359</v>
       </c>
       <c r="L21" t="n">
-        <v>138.5543797798742</v>
+        <v>165.029656544824</v>
       </c>
       <c r="M21" t="n">
-        <v>142.1340339220183</v>
+        <v>169.7240591823345</v>
       </c>
       <c r="N21" t="n">
         <v>158.9317373436494</v>
@@ -9495,10 +9495,10 @@
         <v>170.1862697047606</v>
       </c>
       <c r="P21" t="n">
-        <v>161.5644326746464</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q21" t="n">
-        <v>166.4570508509713</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R21" t="n">
         <v>45.52166981132082</v>
@@ -9641,19 +9641,19 @@
         <v>247.6798763052967</v>
       </c>
       <c r="L23" t="n">
-        <v>235.7664149699872</v>
+        <v>262.2416917349371</v>
       </c>
       <c r="M23" t="n">
-        <v>230.3462332272727</v>
+        <v>257.9362584875889</v>
       </c>
       <c r="N23" t="n">
-        <v>255.8883403615408</v>
+        <v>229.4130635965909</v>
       </c>
       <c r="O23" t="n">
         <v>257.6882366820029</v>
       </c>
       <c r="P23" t="n">
-        <v>258.8230210155857</v>
+        <v>231.2329957552695</v>
       </c>
       <c r="Q23" t="n">
         <v>212.3149906599047</v>
@@ -9717,22 +9717,22 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K24" t="n">
-        <v>165.4314642346751</v>
+        <v>137.841438974359</v>
       </c>
       <c r="L24" t="n">
-        <v>165.029656544824</v>
+        <v>138.5543797798742</v>
       </c>
       <c r="M24" t="n">
-        <v>142.1340339220183</v>
+        <v>168.6093106869681</v>
       </c>
       <c r="N24" t="n">
-        <v>131.3417120833333</v>
+        <v>158.9317373436494</v>
       </c>
       <c r="O24" t="n">
-        <v>142.5962444444444</v>
+        <v>170.1862697047606</v>
       </c>
       <c r="P24" t="n">
-        <v>161.5644326746464</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q24" t="n">
         <v>167.5717993463377</v>
@@ -9875,7 +9875,7 @@
         <v>169.0966151720738</v>
       </c>
       <c r="K26" t="n">
-        <v>220.0898510449805</v>
+        <v>247.6798763052967</v>
       </c>
       <c r="L26" t="n">
         <v>263.3564402303034</v>
@@ -9884,7 +9884,7 @@
         <v>257.9362584875889</v>
       </c>
       <c r="N26" t="n">
-        <v>257.0030888569071</v>
+        <v>229.4130635965909</v>
       </c>
       <c r="O26" t="n">
         <v>256.5734881866366</v>
@@ -9966,10 +9966,10 @@
         <v>158.9317373436494</v>
       </c>
       <c r="O27" t="n">
-        <v>169.0715212093943</v>
+        <v>142.5962444444444</v>
       </c>
       <c r="P27" t="n">
-        <v>133.9744074143302</v>
+        <v>160.4496841792801</v>
       </c>
       <c r="Q27" t="n">
         <v>139.9817740860215</v>
@@ -10115,13 +10115,13 @@
         <v>220.0898510449805</v>
       </c>
       <c r="L29" t="n">
-        <v>235.7664149699872</v>
+        <v>263.3564402303034</v>
       </c>
       <c r="M29" t="n">
         <v>256.8215099922226</v>
       </c>
       <c r="N29" t="n">
-        <v>257.0030888569071</v>
+        <v>229.4130635965909</v>
       </c>
       <c r="O29" t="n">
         <v>257.6882366820029</v>
@@ -10349,7 +10349,7 @@
         <v>169.0966151720738</v>
       </c>
       <c r="K32" t="n">
-        <v>220.0898510449805</v>
+        <v>247.6798763052967</v>
       </c>
       <c r="L32" t="n">
         <v>263.3564402303034</v>
@@ -10358,10 +10358,10 @@
         <v>257.9362584875889</v>
       </c>
       <c r="N32" t="n">
-        <v>257.0030888569071</v>
+        <v>255.8883403615407</v>
       </c>
       <c r="O32" t="n">
-        <v>256.5734881866366</v>
+        <v>230.0982114216867</v>
       </c>
       <c r="P32" t="n">
         <v>231.2329957552695</v>
@@ -10431,19 +10431,19 @@
         <v>165.4314642346751</v>
       </c>
       <c r="L33" t="n">
-        <v>166.1444050401903</v>
+        <v>138.5543797798742</v>
       </c>
       <c r="M33" t="n">
-        <v>169.7240591823345</v>
+        <v>142.1340339220183</v>
       </c>
       <c r="N33" t="n">
         <v>157.8169888482831</v>
       </c>
       <c r="O33" t="n">
-        <v>142.5962444444444</v>
+        <v>170.1862697047606</v>
       </c>
       <c r="P33" t="n">
-        <v>133.9744074143302</v>
+        <v>161.5644326746464</v>
       </c>
       <c r="Q33" t="n">
         <v>139.9817740860215</v>
@@ -10589,16 +10589,16 @@
         <v>220.0898510449805</v>
       </c>
       <c r="L35" t="n">
-        <v>263.3564402303034</v>
+        <v>235.7664149699872</v>
       </c>
       <c r="M35" t="n">
-        <v>257.9362584875889</v>
+        <v>256.8215099922226</v>
       </c>
       <c r="N35" t="n">
-        <v>255.8883403615407</v>
+        <v>257.0030888569071</v>
       </c>
       <c r="O35" t="n">
-        <v>230.0982114216867</v>
+        <v>257.6882366820029</v>
       </c>
       <c r="P35" t="n">
         <v>258.8230210155857</v>
@@ -10665,16 +10665,16 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K36" t="n">
-        <v>165.4314642346751</v>
+        <v>164.3167157393088</v>
       </c>
       <c r="L36" t="n">
         <v>166.1444050401903</v>
       </c>
       <c r="M36" t="n">
-        <v>168.6093106869681</v>
+        <v>169.7240591823345</v>
       </c>
       <c r="N36" t="n">
-        <v>131.3417120833333</v>
+        <v>158.9317373436494</v>
       </c>
       <c r="O36" t="n">
         <v>142.5962444444444</v>
@@ -10683,7 +10683,7 @@
         <v>133.9744074143302</v>
       </c>
       <c r="Q36" t="n">
-        <v>167.5717993463377</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R36" t="n">
         <v>45.52166981132082</v>
@@ -10826,7 +10826,7 @@
         <v>220.0898510449805</v>
       </c>
       <c r="L38" t="n">
-        <v>262.2416917349371</v>
+        <v>263.3564402303034</v>
       </c>
       <c r="M38" t="n">
         <v>257.9362584875889</v>
@@ -10835,10 +10835,10 @@
         <v>257.0030888569071</v>
       </c>
       <c r="O38" t="n">
-        <v>230.0982114216867</v>
+        <v>256.5734881866366</v>
       </c>
       <c r="P38" t="n">
-        <v>258.8230210155857</v>
+        <v>231.2329957552695</v>
       </c>
       <c r="Q38" t="n">
         <v>212.3149906599047</v>
@@ -10902,25 +10902,25 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K39" t="n">
-        <v>137.841438974359</v>
+        <v>165.4314642346751</v>
       </c>
       <c r="L39" t="n">
-        <v>138.5543797798742</v>
+        <v>166.1444050401903</v>
       </c>
       <c r="M39" t="n">
-        <v>142.1340339220183</v>
+        <v>169.7240591823345</v>
       </c>
       <c r="N39" t="n">
         <v>157.8169888482831</v>
       </c>
       <c r="O39" t="n">
-        <v>170.1862697047606</v>
+        <v>142.5962444444444</v>
       </c>
       <c r="P39" t="n">
-        <v>161.5644326746464</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q39" t="n">
-        <v>167.5717993463377</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R39" t="n">
         <v>45.52166981132082</v>
@@ -11060,16 +11060,16 @@
         <v>169.0966151720738</v>
       </c>
       <c r="K41" t="n">
-        <v>246.5651278099304</v>
+        <v>247.6798763052967</v>
       </c>
       <c r="L41" t="n">
-        <v>235.7664149699872</v>
+        <v>263.3564402303034</v>
       </c>
       <c r="M41" t="n">
-        <v>257.9362584875889</v>
+        <v>256.8215099922226</v>
       </c>
       <c r="N41" t="n">
-        <v>257.0030888569071</v>
+        <v>229.4130635965909</v>
       </c>
       <c r="O41" t="n">
         <v>257.6882366820029</v>
@@ -11142,10 +11142,10 @@
         <v>137.841438974359</v>
       </c>
       <c r="L42" t="n">
-        <v>165.029656544824</v>
+        <v>138.5543797798742</v>
       </c>
       <c r="M42" t="n">
-        <v>142.1340339220183</v>
+        <v>169.7240591823345</v>
       </c>
       <c r="N42" t="n">
         <v>158.9317373436494</v>
@@ -11154,10 +11154,10 @@
         <v>170.1862697047606</v>
       </c>
       <c r="P42" t="n">
-        <v>133.9744074143302</v>
+        <v>160.4496841792801</v>
       </c>
       <c r="Q42" t="n">
-        <v>167.5717993463377</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R42" t="n">
         <v>45.52166981132082</v>
@@ -23978,7 +23978,7 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F20" t="n">
-        <v>379.2860204813953</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G20" t="n">
         <v>415.302737515135</v>
@@ -24020,16 +24020,16 @@
         <v>181.4300443259292</v>
       </c>
       <c r="T20" t="n">
-        <v>223.0958495641314</v>
+        <v>195.5058243038152</v>
       </c>
       <c r="U20" t="n">
         <v>251.3456529078365</v>
       </c>
       <c r="V20" t="n">
-        <v>327.7522584701349</v>
+        <v>300.1622332098187</v>
       </c>
       <c r="W20" t="n">
-        <v>321.6509434570969</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X20" t="n">
         <v>369.731100678469</v>
@@ -24045,7 +24045,7 @@
         </is>
       </c>
       <c r="B21" t="n">
-        <v>166.5331836498673</v>
+        <v>142.2318894005809</v>
       </c>
       <c r="C21" t="n">
         <v>172.7084989883157</v>
@@ -24060,7 +24060,7 @@
         <v>145.0692123933839</v>
       </c>
       <c r="G21" t="n">
-        <v>137.3435171632106</v>
+        <v>109.7534919028945</v>
       </c>
       <c r="H21" t="n">
         <v>112.2354442364965</v>
@@ -24099,16 +24099,16 @@
         <v>171.6831711038378</v>
       </c>
       <c r="T21" t="n">
-        <v>200.1647286948216</v>
+        <v>172.5747034345055</v>
       </c>
       <c r="U21" t="n">
-        <v>201.6400878316884</v>
+        <v>225.9413820809748</v>
       </c>
       <c r="V21" t="n">
-        <v>205.2105618891091</v>
+        <v>232.8005871494253</v>
       </c>
       <c r="W21" t="n">
-        <v>224.1049579006035</v>
+        <v>251.6949831609196</v>
       </c>
       <c r="X21" t="n">
         <v>205.7729852034775</v>
@@ -24130,7 +24130,7 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D22" t="n">
-        <v>148.6154730182124</v>
+        <v>126.166713657703</v>
       </c>
       <c r="E22" t="n">
         <v>146.4339626465692</v>
@@ -24148,7 +24148,7 @@
         <v>155.4504749272583</v>
       </c>
       <c r="J22" t="n">
-        <v>70.91042075616336</v>
+        <v>65.76915485635664</v>
       </c>
       <c r="K22" t="n">
         <v>22.26949182588285</v>
@@ -24169,7 +24169,7 @@
         <v>2.721440735106512</v>
       </c>
       <c r="Q22" t="n">
-        <v>58.57201799137825</v>
+        <v>86.16204325169439</v>
       </c>
       <c r="R22" t="n">
         <v>177.2933913771695</v>
@@ -24181,19 +24181,19 @@
         <v>227.9455894282815</v>
       </c>
       <c r="U22" t="n">
-        <v>286.3190293564909</v>
+        <v>258.7290040961748</v>
       </c>
       <c r="V22" t="n">
-        <v>224.5476180635119</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W22" t="n">
-        <v>286.522998336591</v>
+        <v>258.9329730762748</v>
       </c>
       <c r="X22" t="n">
         <v>225.7096553890372</v>
       </c>
       <c r="Y22" t="n">
-        <v>190.9946280917787</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="23">
@@ -24209,16 +24209,16 @@
         <v>365.2728917710076</v>
       </c>
       <c r="D23" t="n">
-        <v>330.3817473713965</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E23" t="n">
-        <v>354.3403448119457</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F23" t="n">
-        <v>379.2860204813953</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G23" t="n">
-        <v>387.7127122548189</v>
+        <v>415.302737515135</v>
       </c>
       <c r="H23" t="n">
         <v>339.4748021157671</v>
@@ -24251,16 +24251,16 @@
         <v>9.990699214544804</v>
       </c>
       <c r="R23" t="n">
-        <v>149.8691179411497</v>
+        <v>122.2790926808335</v>
       </c>
       <c r="S23" t="n">
-        <v>209.0200695862453</v>
+        <v>181.4300443259292</v>
       </c>
       <c r="T23" t="n">
-        <v>223.0958495641314</v>
+        <v>195.5058243038152</v>
       </c>
       <c r="U23" t="n">
-        <v>251.3456529078365</v>
+        <v>227.04435865855</v>
       </c>
       <c r="V23" t="n">
         <v>327.7522584701349</v>
@@ -24285,16 +24285,16 @@
         <v>166.5331836498673</v>
       </c>
       <c r="C24" t="n">
-        <v>145.1184737279996</v>
+        <v>172.7084989883157</v>
       </c>
       <c r="D24" t="n">
-        <v>119.8550403043226</v>
+        <v>147.4450655646388</v>
       </c>
       <c r="E24" t="n">
         <v>157.6450804554009</v>
       </c>
       <c r="F24" t="n">
-        <v>117.4791871330677</v>
+        <v>145.0692123933839</v>
       </c>
       <c r="G24" t="n">
         <v>137.3435171632106</v>
@@ -24339,16 +24339,16 @@
         <v>200.1647286948216</v>
       </c>
       <c r="U24" t="n">
-        <v>225.9413820809748</v>
+        <v>198.3513568206587</v>
       </c>
       <c r="V24" t="n">
-        <v>232.8005871494253</v>
+        <v>205.2105618891091</v>
       </c>
       <c r="W24" t="n">
-        <v>251.6949831609196</v>
+        <v>227.3936889116331</v>
       </c>
       <c r="X24" t="n">
-        <v>181.471690954191</v>
+        <v>178.1829599431613</v>
       </c>
       <c r="Y24" t="n">
         <v>205.6826957773044</v>
@@ -24361,31 +24361,31 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>179.8319801819373</v>
+        <v>152.2419549216212</v>
       </c>
       <c r="C25" t="n">
         <v>167.2468210986278</v>
       </c>
       <c r="D25" t="n">
-        <v>148.6154730182124</v>
+        <v>126.1667136577029</v>
       </c>
       <c r="E25" t="n">
-        <v>118.843937386253</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F25" t="n">
         <v>145.4210480229312</v>
       </c>
       <c r="G25" t="n">
-        <v>145.5422199979494</v>
+        <v>167.9909793584588</v>
       </c>
       <c r="H25" t="n">
         <v>162.2271725074396</v>
       </c>
       <c r="I25" t="n">
-        <v>127.8604496669421</v>
+        <v>155.4504749272583</v>
       </c>
       <c r="J25" t="n">
-        <v>65.76915485635664</v>
+        <v>93.35918011667277</v>
       </c>
       <c r="K25" t="n">
         <v>22.26949182588285</v>
@@ -24409,7 +24409,7 @@
         <v>86.16204325169439</v>
       </c>
       <c r="R25" t="n">
-        <v>177.2933913771695</v>
+        <v>149.7033661168533</v>
       </c>
       <c r="S25" t="n">
         <v>224.0165980369723</v>
@@ -24418,7 +24418,7 @@
         <v>227.9455894282815</v>
       </c>
       <c r="U25" t="n">
-        <v>286.3190293564909</v>
+        <v>258.7290040961748</v>
       </c>
       <c r="V25" t="n">
         <v>252.137643323828</v>
@@ -24452,10 +24452,10 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F26" t="n">
-        <v>382.574751492425</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G26" t="n">
-        <v>387.7127122548189</v>
+        <v>415.302737515135</v>
       </c>
       <c r="H26" t="n">
         <v>339.4748021157671</v>
@@ -24488,22 +24488,22 @@
         <v>9.990699214544804</v>
       </c>
       <c r="R26" t="n">
-        <v>149.8691179411497</v>
+        <v>125.5678236918632</v>
       </c>
       <c r="S26" t="n">
-        <v>181.4300443259292</v>
+        <v>209.0200695862453</v>
       </c>
       <c r="T26" t="n">
-        <v>223.0958495641314</v>
+        <v>195.5058243038152</v>
       </c>
       <c r="U26" t="n">
-        <v>223.7556276475204</v>
+        <v>251.3456529078365</v>
       </c>
       <c r="V26" t="n">
-        <v>327.7522584701349</v>
+        <v>300.1622332098187</v>
       </c>
       <c r="W26" t="n">
-        <v>349.240968717413</v>
+        <v>321.6509434570969</v>
       </c>
       <c r="X26" t="n">
         <v>369.731100678469</v>
@@ -24531,7 +24531,7 @@
         <v>157.6450804554009</v>
       </c>
       <c r="F27" t="n">
-        <v>145.0692123933839</v>
+        <v>120.7679181440974</v>
       </c>
       <c r="G27" t="n">
         <v>137.3435171632106</v>
@@ -24540,7 +24540,7 @@
         <v>112.2354442364965</v>
       </c>
       <c r="I27" t="n">
-        <v>65.09533860212863</v>
+        <v>89.39663285141508</v>
       </c>
       <c r="J27" t="n">
         <v>0.7465913262578567</v>
@@ -24576,19 +24576,19 @@
         <v>200.1647286948216</v>
       </c>
       <c r="U27" t="n">
-        <v>225.9413820809748</v>
+        <v>198.3513568206587</v>
       </c>
       <c r="V27" t="n">
-        <v>232.8005871494253</v>
+        <v>205.2105618891091</v>
       </c>
       <c r="W27" t="n">
         <v>224.1049579006035</v>
       </c>
       <c r="X27" t="n">
-        <v>178.1829599431613</v>
+        <v>205.7729852034775</v>
       </c>
       <c r="Y27" t="n">
-        <v>178.0926705169882</v>
+        <v>205.6826957773044</v>
       </c>
     </row>
     <row r="28">
@@ -24613,16 +24613,16 @@
         <v>117.8310227626151</v>
       </c>
       <c r="G28" t="n">
-        <v>140.4009540981426</v>
+        <v>167.9909793584588</v>
       </c>
       <c r="H28" t="n">
-        <v>139.7784131469302</v>
+        <v>162.2271725074396</v>
       </c>
       <c r="I28" t="n">
         <v>155.4504749272583</v>
       </c>
       <c r="J28" t="n">
-        <v>93.35918011667277</v>
+        <v>70.91042075616336</v>
       </c>
       <c r="K28" t="n">
         <v>22.26949182588285</v>
@@ -24652,13 +24652,13 @@
         <v>224.0165980369723</v>
       </c>
       <c r="T28" t="n">
-        <v>227.9455894282815</v>
+        <v>200.3555641679654</v>
       </c>
       <c r="U28" t="n">
-        <v>286.3190293564909</v>
+        <v>258.7290040961748</v>
       </c>
       <c r="V28" t="n">
-        <v>224.5476180635119</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W28" t="n">
         <v>286.522998336591</v>
@@ -24677,16 +24677,16 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>382.7338416634806</v>
+        <v>355.1438164031645</v>
       </c>
       <c r="C29" t="n">
-        <v>365.2728917710076</v>
+        <v>337.6828665106914</v>
       </c>
       <c r="D29" t="n">
-        <v>327.0930163603668</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E29" t="n">
-        <v>357.6290758229753</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F29" t="n">
         <v>406.8760457417114</v>
@@ -24725,10 +24725,10 @@
         <v>9.990699214544804</v>
       </c>
       <c r="R29" t="n">
-        <v>122.2790926808335</v>
+        <v>125.5678236918632</v>
       </c>
       <c r="S29" t="n">
-        <v>181.4300443259292</v>
+        <v>209.0200695862453</v>
       </c>
       <c r="T29" t="n">
         <v>223.0958495641314</v>
@@ -24746,7 +24746,7 @@
         <v>369.731100678469</v>
       </c>
       <c r="Y29" t="n">
-        <v>386.2379386560536</v>
+        <v>358.6479133957374</v>
       </c>
     </row>
     <row r="30">
@@ -24768,7 +24768,7 @@
         <v>157.6450804554009</v>
       </c>
       <c r="F30" t="n">
-        <v>145.0692123933839</v>
+        <v>120.7679181440974</v>
       </c>
       <c r="G30" t="n">
         <v>137.3435171632106</v>
@@ -24804,28 +24804,28 @@
         <v>0</v>
       </c>
       <c r="R30" t="n">
-        <v>72.56780889232699</v>
+        <v>100.1578341526431</v>
       </c>
       <c r="S30" t="n">
-        <v>144.0931458435217</v>
+        <v>171.6831711038378</v>
       </c>
       <c r="T30" t="n">
-        <v>172.5747034345055</v>
+        <v>200.1647286948216</v>
       </c>
       <c r="U30" t="n">
-        <v>201.6400878316884</v>
+        <v>225.9413820809748</v>
       </c>
       <c r="V30" t="n">
-        <v>232.8005871494253</v>
+        <v>205.2105618891091</v>
       </c>
       <c r="W30" t="n">
-        <v>251.6949831609196</v>
+        <v>224.1049579006035</v>
       </c>
       <c r="X30" t="n">
         <v>205.7729852034775</v>
       </c>
       <c r="Y30" t="n">
-        <v>205.6826957773044</v>
+        <v>178.0926705169882</v>
       </c>
     </row>
     <row r="31">
@@ -24835,7 +24835,7 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>157.3832208214279</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C31" t="n">
         <v>167.2468210986278</v>
@@ -24883,28 +24883,28 @@
         <v>86.16204325169439</v>
       </c>
       <c r="R31" t="n">
-        <v>177.2933913771695</v>
+        <v>149.7033661168533</v>
       </c>
       <c r="S31" t="n">
-        <v>224.0165980369723</v>
+        <v>196.4265727766561</v>
       </c>
       <c r="T31" t="n">
-        <v>227.9455894282815</v>
+        <v>200.3555641679654</v>
       </c>
       <c r="U31" t="n">
-        <v>286.3190293564909</v>
+        <v>263.8702699959815</v>
       </c>
       <c r="V31" t="n">
         <v>252.137643323828</v>
       </c>
       <c r="W31" t="n">
-        <v>258.9329730762748</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X31" t="n">
-        <v>198.119630128721</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y31" t="n">
-        <v>190.9946280917787</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="32">
@@ -24914,7 +24914,7 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>358.4325474141941</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C32" t="n">
         <v>365.2728917710076</v>
@@ -24923,7 +24923,7 @@
         <v>354.683041620683</v>
       </c>
       <c r="E32" t="n">
-        <v>381.9303700722618</v>
+        <v>354.3403448119457</v>
       </c>
       <c r="F32" t="n">
         <v>406.8760457417114</v>
@@ -24968,19 +24968,19 @@
         <v>209.0200695862453</v>
       </c>
       <c r="T32" t="n">
-        <v>223.0958495641314</v>
+        <v>195.5058243038152</v>
       </c>
       <c r="U32" t="n">
         <v>223.7556276475204</v>
       </c>
       <c r="V32" t="n">
-        <v>300.1622332098187</v>
+        <v>303.4509642208484</v>
       </c>
       <c r="W32" t="n">
         <v>349.240968717413</v>
       </c>
       <c r="X32" t="n">
-        <v>342.1410754181529</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y32" t="n">
         <v>386.2379386560536</v>
@@ -25002,16 +25002,16 @@
         <v>147.4450655646388</v>
       </c>
       <c r="E33" t="n">
-        <v>157.6450804554009</v>
+        <v>133.3437862061145</v>
       </c>
       <c r="F33" t="n">
-        <v>145.0692123933839</v>
+        <v>117.4791871330677</v>
       </c>
       <c r="G33" t="n">
-        <v>137.3435171632106</v>
+        <v>109.7534919028945</v>
       </c>
       <c r="H33" t="n">
-        <v>112.2354442364965</v>
+        <v>84.64541897618032</v>
       </c>
       <c r="I33" t="n">
         <v>89.39663285141508</v>
@@ -25044,16 +25044,16 @@
         <v>100.1578341526431</v>
       </c>
       <c r="S33" t="n">
-        <v>144.0931458435217</v>
+        <v>171.6831711038378</v>
       </c>
       <c r="T33" t="n">
-        <v>172.5747034345055</v>
+        <v>200.1647286948216</v>
       </c>
       <c r="U33" t="n">
-        <v>198.3513568206587</v>
+        <v>225.9413820809748</v>
       </c>
       <c r="V33" t="n">
-        <v>208.4992929001388</v>
+        <v>232.8005871494253</v>
       </c>
       <c r="W33" t="n">
         <v>251.6949831609196</v>
@@ -25081,7 +25081,7 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E34" t="n">
-        <v>146.4339626465692</v>
+        <v>118.843937386253</v>
       </c>
       <c r="F34" t="n">
         <v>145.4210480229312</v>
@@ -25093,7 +25093,7 @@
         <v>162.2271725074396</v>
       </c>
       <c r="I34" t="n">
-        <v>155.4504749272583</v>
+        <v>133.0017155667489</v>
       </c>
       <c r="J34" t="n">
         <v>93.35918011667277</v>
@@ -25114,28 +25114,28 @@
         <v>0</v>
       </c>
       <c r="P34" t="n">
-        <v>0</v>
+        <v>2.721440735106512</v>
       </c>
       <c r="Q34" t="n">
-        <v>58.57201799137825</v>
+        <v>86.16204325169439</v>
       </c>
       <c r="R34" t="n">
-        <v>149.7033661168533</v>
+        <v>177.2933913771695</v>
       </c>
       <c r="S34" t="n">
-        <v>196.4265727766561</v>
+        <v>224.0165980369723</v>
       </c>
       <c r="T34" t="n">
-        <v>208.2182708028786</v>
+        <v>227.9455894282815</v>
       </c>
       <c r="U34" t="n">
-        <v>286.3190293564909</v>
+        <v>258.7290040961748</v>
       </c>
       <c r="V34" t="n">
         <v>252.137643323828</v>
       </c>
       <c r="W34" t="n">
-        <v>286.522998336591</v>
+        <v>258.9329730762748</v>
       </c>
       <c r="X34" t="n">
         <v>225.7096553890372</v>
@@ -25154,19 +25154,19 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C35" t="n">
-        <v>365.2728917710076</v>
+        <v>337.6828665106914</v>
       </c>
       <c r="D35" t="n">
-        <v>354.683041620683</v>
+        <v>327.0930163603668</v>
       </c>
       <c r="E35" t="n">
-        <v>357.6290758229753</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F35" t="n">
-        <v>406.8760457417114</v>
+        <v>379.2860204813953</v>
       </c>
       <c r="G35" t="n">
-        <v>387.7127122548189</v>
+        <v>415.302737515135</v>
       </c>
       <c r="H35" t="n">
         <v>339.4748021157671</v>
@@ -25211,7 +25211,7 @@
         <v>251.3456529078365</v>
       </c>
       <c r="V35" t="n">
-        <v>300.1622332098187</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W35" t="n">
         <v>349.240968717413</v>
@@ -25220,7 +25220,7 @@
         <v>369.731100678469</v>
       </c>
       <c r="Y35" t="n">
-        <v>358.6479133957374</v>
+        <v>361.9366444067671</v>
       </c>
     </row>
     <row r="36">
@@ -25230,10 +25230,10 @@
         </is>
       </c>
       <c r="B36" t="n">
-        <v>142.2318894005809</v>
+        <v>166.5331836498673</v>
       </c>
       <c r="C36" t="n">
-        <v>145.1184737279996</v>
+        <v>172.7084989883157</v>
       </c>
       <c r="D36" t="n">
         <v>147.4450655646388</v>
@@ -25242,10 +25242,10 @@
         <v>157.6450804554009</v>
       </c>
       <c r="F36" t="n">
-        <v>117.4791871330677</v>
+        <v>145.0692123933839</v>
       </c>
       <c r="G36" t="n">
-        <v>137.3435171632106</v>
+        <v>113.788814240182</v>
       </c>
       <c r="H36" t="n">
         <v>112.2354442364965</v>
@@ -25254,7 +25254,7 @@
         <v>89.39663285141508</v>
       </c>
       <c r="J36" t="n">
-        <v>0.7465913262578567</v>
+        <v>0</v>
       </c>
       <c r="K36" t="n">
         <v>0</v>
@@ -25284,16 +25284,16 @@
         <v>171.6831711038378</v>
       </c>
       <c r="T36" t="n">
-        <v>172.5747034345055</v>
+        <v>200.1647286948216</v>
       </c>
       <c r="U36" t="n">
-        <v>225.9413820809748</v>
+        <v>198.3513568206587</v>
       </c>
       <c r="V36" t="n">
-        <v>232.8005871494253</v>
+        <v>205.2105618891091</v>
       </c>
       <c r="W36" t="n">
-        <v>251.6949831609196</v>
+        <v>224.1049579006035</v>
       </c>
       <c r="X36" t="n">
         <v>205.7729852034775</v>
@@ -25375,10 +25375,10 @@
         <v>258.9329730762748</v>
       </c>
       <c r="X37" t="n">
-        <v>203.2608960285278</v>
+        <v>198.119630128721</v>
       </c>
       <c r="Y37" t="n">
-        <v>190.9946280917787</v>
+        <v>196.1358939915854</v>
       </c>
     </row>
     <row r="38">
@@ -25388,13 +25388,13 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>358.4325474141941</v>
+        <v>355.1438164031645</v>
       </c>
       <c r="C38" t="n">
-        <v>337.6828665106914</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D38" t="n">
-        <v>354.683041620683</v>
+        <v>330.3817473713965</v>
       </c>
       <c r="E38" t="n">
         <v>354.3403448119457</v>
@@ -25403,7 +25403,7 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G38" t="n">
-        <v>387.7127122548189</v>
+        <v>415.302737515135</v>
       </c>
       <c r="H38" t="n">
         <v>339.4748021157671</v>
@@ -25457,7 +25457,7 @@
         <v>369.731100678469</v>
       </c>
       <c r="Y38" t="n">
-        <v>386.2379386560536</v>
+        <v>358.6479133957374</v>
       </c>
     </row>
     <row r="39">
@@ -25470,19 +25470,19 @@
         <v>138.9431583895512</v>
       </c>
       <c r="C39" t="n">
-        <v>172.7084989883157</v>
+        <v>145.1184737279996</v>
       </c>
       <c r="D39" t="n">
         <v>147.4450655646388</v>
       </c>
       <c r="E39" t="n">
-        <v>130.0550551950848</v>
+        <v>157.6450804554009</v>
       </c>
       <c r="F39" t="n">
-        <v>145.0692123933839</v>
+        <v>117.4791871330677</v>
       </c>
       <c r="G39" t="n">
-        <v>137.3435171632106</v>
+        <v>113.0422229139242</v>
       </c>
       <c r="H39" t="n">
         <v>112.2354442364965</v>
@@ -25515,7 +25515,7 @@
         <v>0</v>
       </c>
       <c r="R39" t="n">
-        <v>72.56780889232699</v>
+        <v>100.1578341526431</v>
       </c>
       <c r="S39" t="n">
         <v>171.6831711038378</v>
@@ -25527,7 +25527,7 @@
         <v>225.9413820809748</v>
       </c>
       <c r="V39" t="n">
-        <v>208.4992929001388</v>
+        <v>232.8005871494253</v>
       </c>
       <c r="W39" t="n">
         <v>251.6949831609196</v>
@@ -25549,7 +25549,7 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C40" t="n">
-        <v>139.6567958383117</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D40" t="n">
         <v>148.6154730182124</v>
@@ -25564,13 +25564,13 @@
         <v>167.9909793584588</v>
       </c>
       <c r="H40" t="n">
-        <v>134.6371472471234</v>
+        <v>162.2271725074396</v>
       </c>
       <c r="I40" t="n">
         <v>155.4504749272583</v>
       </c>
       <c r="J40" t="n">
-        <v>65.76915485635664</v>
+        <v>93.35918011667277</v>
       </c>
       <c r="K40" t="n">
         <v>22.26949182588285</v>
@@ -25591,22 +25591,22 @@
         <v>2.721440735106512</v>
       </c>
       <c r="Q40" t="n">
-        <v>86.16204325169439</v>
+        <v>58.57201799137825</v>
       </c>
       <c r="R40" t="n">
         <v>177.2933913771695</v>
       </c>
       <c r="S40" t="n">
-        <v>201.5678386764629</v>
+        <v>196.4265727766561</v>
       </c>
       <c r="T40" t="n">
         <v>227.9455894282815</v>
       </c>
       <c r="U40" t="n">
-        <v>286.3190293564909</v>
+        <v>258.7290040961748</v>
       </c>
       <c r="V40" t="n">
-        <v>252.137643323828</v>
+        <v>229.6888839633186</v>
       </c>
       <c r="W40" t="n">
         <v>286.522998336591</v>
@@ -25625,7 +25625,7 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>355.1438164031645</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C41" t="n">
         <v>365.2728917710076</v>
@@ -25634,13 +25634,13 @@
         <v>354.683041620683</v>
       </c>
       <c r="E41" t="n">
-        <v>354.3403448119457</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F41" t="n">
-        <v>379.2860204813953</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G41" t="n">
-        <v>391.0014432658486</v>
+        <v>415.302737515135</v>
       </c>
       <c r="H41" t="n">
         <v>339.4748021157671</v>
@@ -25670,7 +25670,7 @@
         <v>0</v>
       </c>
       <c r="Q41" t="n">
-        <v>9.990699214544804</v>
+        <v>0</v>
       </c>
       <c r="R41" t="n">
         <v>149.8691179411497</v>
@@ -25685,16 +25685,16 @@
         <v>251.3456529078365</v>
       </c>
       <c r="V41" t="n">
-        <v>327.7522584701349</v>
+        <v>313.4416634353933</v>
       </c>
       <c r="W41" t="n">
-        <v>349.240968717413</v>
+        <v>321.6509434570969</v>
       </c>
       <c r="X41" t="n">
-        <v>369.731100678469</v>
+        <v>342.1410754181529</v>
       </c>
       <c r="Y41" t="n">
-        <v>386.2379386560536</v>
+        <v>358.6479133957374</v>
       </c>
     </row>
     <row r="42">
@@ -25719,7 +25719,7 @@
         <v>145.0692123933839</v>
       </c>
       <c r="G42" t="n">
-        <v>137.3435171632106</v>
+        <v>113.0422229139242</v>
       </c>
       <c r="H42" t="n">
         <v>112.2354442364965</v>
@@ -25752,22 +25752,22 @@
         <v>0</v>
       </c>
       <c r="R42" t="n">
-        <v>100.1578341526431</v>
+        <v>72.56780889232699</v>
       </c>
       <c r="S42" t="n">
-        <v>144.0931458435217</v>
+        <v>171.6831711038378</v>
       </c>
       <c r="T42" t="n">
         <v>172.5747034345055</v>
       </c>
       <c r="U42" t="n">
-        <v>225.9413820809748</v>
+        <v>198.3513568206587</v>
       </c>
       <c r="V42" t="n">
-        <v>205.2105618891091</v>
+        <v>232.8005871494253</v>
       </c>
       <c r="W42" t="n">
-        <v>227.3936889116331</v>
+        <v>251.6949831609196</v>
       </c>
       <c r="X42" t="n">
         <v>205.7729852034775</v>
@@ -25798,10 +25798,10 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G43" t="n">
-        <v>167.9909793584588</v>
+        <v>145.5422199979494</v>
       </c>
       <c r="H43" t="n">
-        <v>162.2271725074396</v>
+        <v>134.6371472471234</v>
       </c>
       <c r="I43" t="n">
         <v>155.4504749272583</v>
@@ -25828,19 +25828,19 @@
         <v>2.721440735106512</v>
       </c>
       <c r="Q43" t="n">
-        <v>58.57201799137825</v>
+        <v>86.16204325169439</v>
       </c>
       <c r="R43" t="n">
-        <v>149.7033661168533</v>
+        <v>177.2933913771695</v>
       </c>
       <c r="S43" t="n">
-        <v>196.4265727766561</v>
+        <v>224.0165980369723</v>
       </c>
       <c r="T43" t="n">
-        <v>205.4968300677721</v>
+        <v>227.9455894282815</v>
       </c>
       <c r="U43" t="n">
-        <v>286.3190293564909</v>
+        <v>258.7290040961748</v>
       </c>
       <c r="V43" t="n">
         <v>252.137643323828</v>
@@ -25852,7 +25852,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y43" t="n">
-        <v>218.5846533520948</v>
+        <v>190.9946280917787</v>
       </c>
     </row>
     <row r="44">
@@ -26171,7 +26171,7 @@
         <v>6</v>
       </c>
       <c r="B8" t="n">
-        <v>357434.2938874637</v>
+        <v>357434.2938874638</v>
       </c>
     </row>
     <row r="9">
@@ -26203,7 +26203,7 @@
         <v>10</v>
       </c>
       <c r="B12" t="n">
-        <v>357434.2938874639</v>
+        <v>357434.2938874637</v>
       </c>
     </row>
     <row r="13">
@@ -26227,7 +26227,7 @@
         <v>13</v>
       </c>
       <c r="B15" t="n">
-        <v>357434.2938874639</v>
+        <v>357434.2938874637</v>
       </c>
     </row>
     <row r="16">
@@ -26311,19 +26311,19 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>43002.96221257855</v>
+        <v>43002.96221257857</v>
       </c>
       <c r="C2" t="n">
         <v>43002.96221257855</v>
       </c>
       <c r="D2" t="n">
+        <v>43002.96221257856</v>
+      </c>
+      <c r="E2" t="n">
         <v>43002.96221257857</v>
       </c>
-      <c r="E2" t="n">
-        <v>43002.96221257856</v>
-      </c>
       <c r="F2" t="n">
-        <v>43002.96221257856</v>
+        <v>43002.96221257855</v>
       </c>
       <c r="G2" t="n">
         <v>43002.96221257855</v>
@@ -26332,28 +26332,28 @@
         <v>46120.55404999528</v>
       </c>
       <c r="I2" t="n">
-        <v>46120.55404999528</v>
+        <v>46120.5540499953</v>
       </c>
       <c r="J2" t="n">
         <v>46120.55404999528</v>
       </c>
       <c r="K2" t="n">
-        <v>46120.55404999528</v>
+        <v>46120.5540499953</v>
       </c>
       <c r="L2" t="n">
+        <v>46120.5540499953</v>
+      </c>
+      <c r="M2" t="n">
         <v>46120.55404999531</v>
       </c>
-      <c r="M2" t="n">
+      <c r="N2" t="n">
+        <v>46120.55404999531</v>
+      </c>
+      <c r="O2" t="n">
         <v>46120.5540499953</v>
       </c>
-      <c r="N2" t="n">
-        <v>46120.55404999529</v>
-      </c>
-      <c r="O2" t="n">
-        <v>46120.55404999529</v>
-      </c>
       <c r="P2" t="n">
-        <v>43002.96221257857</v>
+        <v>43002.96221257855</v>
       </c>
     </row>
     <row r="3">
@@ -26415,34 +26415,34 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>2099.754014286062</v>
+        <v>2099.754014286063</v>
       </c>
       <c r="C4" t="n">
-        <v>2099.754014286062</v>
+        <v>2099.754014286063</v>
       </c>
       <c r="D4" t="n">
-        <v>2099.754014286062</v>
+        <v>2099.754014286063</v>
       </c>
       <c r="E4" t="n">
-        <v>2099.754014286062</v>
+        <v>2099.754014286063</v>
       </c>
       <c r="F4" t="n">
-        <v>2099.754014286062</v>
+        <v>2099.754014286063</v>
       </c>
       <c r="G4" t="n">
-        <v>2099.754014286062</v>
+        <v>2099.754014286063</v>
       </c>
       <c r="H4" t="n">
-        <v>2278.927672807631</v>
+        <v>2278.92767280763</v>
       </c>
       <c r="I4" t="n">
-        <v>2278.927672807631</v>
+        <v>2278.92767280763</v>
       </c>
       <c r="J4" t="n">
         <v>2278.927672807631</v>
       </c>
       <c r="K4" t="n">
-        <v>2278.927672807631</v>
+        <v>2278.92767280763</v>
       </c>
       <c r="L4" t="n">
         <v>2278.927672807631</v>
@@ -26457,7 +26457,7 @@
         <v>2278.927672807631</v>
       </c>
       <c r="P4" t="n">
-        <v>2099.754014286062</v>
+        <v>2099.754014286063</v>
       </c>
     </row>
     <row r="5">
@@ -26519,49 +26519,49 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>7275.608198292495</v>
+        <v>7275.60819829251</v>
       </c>
       <c r="C6" t="n">
         <v>7275.608198292495</v>
       </c>
       <c r="D6" t="n">
-        <v>7275.60819829251</v>
+        <v>7275.608198292502</v>
       </c>
       <c r="E6" t="n">
-        <v>40903.2081982925</v>
+        <v>40903.20819829251</v>
       </c>
       <c r="F6" t="n">
-        <v>40903.2081982925</v>
+        <v>40903.20819829249</v>
       </c>
       <c r="G6" t="n">
         <v>40903.20819829249</v>
       </c>
       <c r="H6" t="n">
-        <v>34720.11571589979</v>
+        <v>34720.1157158998</v>
       </c>
       <c r="I6" t="n">
-        <v>42164.15284136043</v>
+        <v>42164.15284136045</v>
       </c>
       <c r="J6" t="n">
         <v>42164.15284136043</v>
       </c>
       <c r="K6" t="n">
-        <v>42164.15284136042</v>
+        <v>42164.15284136045</v>
       </c>
       <c r="L6" t="n">
-        <v>42164.15284136046</v>
+        <v>42164.15284136045</v>
       </c>
       <c r="M6" t="n">
         <v>42164.15284136045</v>
       </c>
       <c r="N6" t="n">
-        <v>42164.15284136044</v>
+        <v>42164.15284136045</v>
       </c>
       <c r="O6" t="n">
-        <v>42164.15284136044</v>
+        <v>42164.15284136045</v>
       </c>
       <c r="P6" t="n">
-        <v>40903.20819829251</v>
+        <v>40903.20819829249</v>
       </c>
     </row>
   </sheetData>
@@ -36121,22 +36121,22 @@
         <v>0</v>
       </c>
       <c r="K20" t="n">
-        <v>0</v>
+        <v>27.59002526031614</v>
       </c>
       <c r="L20" t="n">
-        <v>0</v>
+        <v>27.59002526031614</v>
       </c>
       <c r="M20" t="n">
-        <v>26.47527676494984</v>
+        <v>27.59002526031614</v>
       </c>
       <c r="N20" t="n">
-        <v>27.59002526031614</v>
+        <v>26.47527676494983</v>
       </c>
       <c r="O20" t="n">
-        <v>27.59002526031614</v>
+        <v>0</v>
       </c>
       <c r="P20" t="n">
-        <v>27.59002526031614</v>
+        <v>0</v>
       </c>
       <c r="Q20" t="n">
         <v>0</v>
@@ -36203,10 +36203,10 @@
         <v>0</v>
       </c>
       <c r="L21" t="n">
-        <v>0</v>
+        <v>26.47527676494984</v>
       </c>
       <c r="M21" t="n">
-        <v>0</v>
+        <v>27.59002526031614</v>
       </c>
       <c r="N21" t="n">
         <v>27.59002526031614</v>
@@ -36215,10 +36215,10 @@
         <v>27.59002526031614</v>
       </c>
       <c r="P21" t="n">
-        <v>27.59002526031614</v>
+        <v>0</v>
       </c>
       <c r="Q21" t="n">
-        <v>26.47527676494983</v>
+        <v>0</v>
       </c>
       <c r="R21" t="n">
         <v>0</v>
@@ -36361,19 +36361,19 @@
         <v>27.59002526031614</v>
       </c>
       <c r="L23" t="n">
-        <v>0</v>
+        <v>26.47527676494984</v>
       </c>
       <c r="M23" t="n">
-        <v>0</v>
+        <v>27.59002526031614</v>
       </c>
       <c r="N23" t="n">
-        <v>26.47527676494984</v>
+        <v>0</v>
       </c>
       <c r="O23" t="n">
         <v>27.59002526031614</v>
       </c>
       <c r="P23" t="n">
-        <v>27.59002526031614</v>
+        <v>0</v>
       </c>
       <c r="Q23" t="n">
         <v>0</v>
@@ -36437,22 +36437,22 @@
         <v>0</v>
       </c>
       <c r="K24" t="n">
+        <v>0</v>
+      </c>
+      <c r="L24" t="n">
+        <v>0</v>
+      </c>
+      <c r="M24" t="n">
+        <v>26.47527676494984</v>
+      </c>
+      <c r="N24" t="n">
         <v>27.59002526031614</v>
       </c>
-      <c r="L24" t="n">
-        <v>26.47527676494984</v>
-      </c>
-      <c r="M24" t="n">
-        <v>0</v>
-      </c>
-      <c r="N24" t="n">
-        <v>0</v>
-      </c>
       <c r="O24" t="n">
-        <v>0</v>
+        <v>27.59002526031614</v>
       </c>
       <c r="P24" t="n">
-        <v>27.59002526031614</v>
+        <v>0</v>
       </c>
       <c r="Q24" t="n">
         <v>27.59002526031614</v>
@@ -36595,7 +36595,7 @@
         <v>0</v>
       </c>
       <c r="K26" t="n">
-        <v>0</v>
+        <v>27.59002526031614</v>
       </c>
       <c r="L26" t="n">
         <v>27.59002526031614</v>
@@ -36604,7 +36604,7 @@
         <v>27.59002526031614</v>
       </c>
       <c r="N26" t="n">
-        <v>27.59002526031614</v>
+        <v>0</v>
       </c>
       <c r="O26" t="n">
         <v>26.47527676494983</v>
@@ -36686,10 +36686,10 @@
         <v>27.59002526031614</v>
       </c>
       <c r="O27" t="n">
+        <v>0</v>
+      </c>
+      <c r="P27" t="n">
         <v>26.47527676494983</v>
-      </c>
-      <c r="P27" t="n">
-        <v>0</v>
       </c>
       <c r="Q27" t="n">
         <v>0</v>
@@ -36835,13 +36835,13 @@
         <v>0</v>
       </c>
       <c r="L29" t="n">
-        <v>0</v>
+        <v>27.59002526031614</v>
       </c>
       <c r="M29" t="n">
         <v>26.47527676494984</v>
       </c>
       <c r="N29" t="n">
-        <v>27.59002526031614</v>
+        <v>0</v>
       </c>
       <c r="O29" t="n">
         <v>27.59002526031614</v>
@@ -37069,7 +37069,7 @@
         <v>0</v>
       </c>
       <c r="K32" t="n">
-        <v>0</v>
+        <v>27.59002526031614</v>
       </c>
       <c r="L32" t="n">
         <v>27.59002526031614</v>
@@ -37078,10 +37078,10 @@
         <v>27.59002526031614</v>
       </c>
       <c r="N32" t="n">
-        <v>27.59002526031614</v>
+        <v>26.47527676494983</v>
       </c>
       <c r="O32" t="n">
-        <v>26.47527676494983</v>
+        <v>0</v>
       </c>
       <c r="P32" t="n">
         <v>0</v>
@@ -37151,19 +37151,19 @@
         <v>27.59002526031614</v>
       </c>
       <c r="L33" t="n">
+        <v>0</v>
+      </c>
+      <c r="M33" t="n">
+        <v>0</v>
+      </c>
+      <c r="N33" t="n">
+        <v>26.47527676494984</v>
+      </c>
+      <c r="O33" t="n">
         <v>27.59002526031614</v>
       </c>
-      <c r="M33" t="n">
+      <c r="P33" t="n">
         <v>27.59002526031614</v>
-      </c>
-      <c r="N33" t="n">
-        <v>26.47527676494983</v>
-      </c>
-      <c r="O33" t="n">
-        <v>0</v>
-      </c>
-      <c r="P33" t="n">
-        <v>0</v>
       </c>
       <c r="Q33" t="n">
         <v>0</v>
@@ -37309,16 +37309,16 @@
         <v>0</v>
       </c>
       <c r="L35" t="n">
+        <v>0</v>
+      </c>
+      <c r="M35" t="n">
+        <v>26.47527676494984</v>
+      </c>
+      <c r="N35" t="n">
         <v>27.59002526031614</v>
       </c>
-      <c r="M35" t="n">
+      <c r="O35" t="n">
         <v>27.59002526031614</v>
-      </c>
-      <c r="N35" t="n">
-        <v>26.47527676494983</v>
-      </c>
-      <c r="O35" t="n">
-        <v>0</v>
       </c>
       <c r="P35" t="n">
         <v>27.59002526031614</v>
@@ -37385,16 +37385,16 @@
         <v>0</v>
       </c>
       <c r="K36" t="n">
-        <v>27.59002526031614</v>
+        <v>26.47527676494984</v>
       </c>
       <c r="L36" t="n">
         <v>27.59002526031614</v>
       </c>
       <c r="M36" t="n">
-        <v>26.47527676494983</v>
+        <v>27.59002526031614</v>
       </c>
       <c r="N36" t="n">
-        <v>0</v>
+        <v>27.59002526031614</v>
       </c>
       <c r="O36" t="n">
         <v>0</v>
@@ -37403,7 +37403,7 @@
         <v>0</v>
       </c>
       <c r="Q36" t="n">
-        <v>27.59002526031614</v>
+        <v>0</v>
       </c>
       <c r="R36" t="n">
         <v>0</v>
@@ -37546,7 +37546,7 @@
         <v>0</v>
       </c>
       <c r="L38" t="n">
-        <v>26.47527676494984</v>
+        <v>27.59002526031614</v>
       </c>
       <c r="M38" t="n">
         <v>27.59002526031614</v>
@@ -37555,10 +37555,10 @@
         <v>27.59002526031614</v>
       </c>
       <c r="O38" t="n">
-        <v>0</v>
+        <v>26.47527676494983</v>
       </c>
       <c r="P38" t="n">
-        <v>27.59002526031614</v>
+        <v>0</v>
       </c>
       <c r="Q38" t="n">
         <v>0</v>
@@ -37622,25 +37622,25 @@
         <v>0</v>
       </c>
       <c r="K39" t="n">
-        <v>0</v>
+        <v>27.59002526031614</v>
       </c>
       <c r="L39" t="n">
-        <v>0</v>
+        <v>27.59002526031614</v>
       </c>
       <c r="M39" t="n">
-        <v>0</v>
+        <v>27.59002526031614</v>
       </c>
       <c r="N39" t="n">
-        <v>26.47527676494984</v>
+        <v>26.47527676494983</v>
       </c>
       <c r="O39" t="n">
-        <v>27.59002526031614</v>
+        <v>0</v>
       </c>
       <c r="P39" t="n">
-        <v>27.59002526031614</v>
+        <v>0</v>
       </c>
       <c r="Q39" t="n">
-        <v>27.59002526031614</v>
+        <v>0</v>
       </c>
       <c r="R39" t="n">
         <v>0</v>
@@ -37780,16 +37780,16 @@
         <v>0</v>
       </c>
       <c r="K41" t="n">
-        <v>26.47527676494984</v>
+        <v>27.59002526031614</v>
       </c>
       <c r="L41" t="n">
-        <v>0</v>
+        <v>27.59002526031614</v>
       </c>
       <c r="M41" t="n">
-        <v>27.59002526031614</v>
+        <v>26.47527676494983</v>
       </c>
       <c r="N41" t="n">
-        <v>27.59002526031614</v>
+        <v>0</v>
       </c>
       <c r="O41" t="n">
         <v>27.59002526031614</v>
@@ -37862,10 +37862,10 @@
         <v>0</v>
       </c>
       <c r="L42" t="n">
-        <v>26.47527676494984</v>
+        <v>0</v>
       </c>
       <c r="M42" t="n">
-        <v>0</v>
+        <v>27.59002526031614</v>
       </c>
       <c r="N42" t="n">
         <v>27.59002526031614</v>
@@ -37874,10 +37874,10 @@
         <v>27.59002526031614</v>
       </c>
       <c r="P42" t="n">
-        <v>0</v>
+        <v>26.47527676494983</v>
       </c>
       <c r="Q42" t="n">
-        <v>27.59002526031614</v>
+        <v>0</v>
       </c>
       <c r="R42" t="n">
         <v>0</v>

--- a/Outputs/1. Budget/Grid Search/Output Files/250000/Output_0_8.xlsx
+++ b/Outputs/1. Budget/Grid Search/Output Files/250000/Output_0_8.xlsx
@@ -501,7 +501,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>250834.2946467756</v>
+        <v>269050.2857492401</v>
       </c>
     </row>
     <row r="7">
@@ -511,7 +511,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>5095622.684065033</v>
+        <v>4968231.017992429</v>
       </c>
     </row>
     <row r="8">
@@ -521,7 +521,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>22414251.77131045</v>
+        <v>22289395.19939269</v>
       </c>
     </row>
     <row r="9">
@@ -541,7 +541,7 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>3987380.794302403</v>
+        <v>4040928.216771399</v>
       </c>
     </row>
     <row r="11">
@@ -2081,7 +2081,7 @@
         <v>0</v>
       </c>
       <c r="C20" t="n">
-        <v>14.31059503474164</v>
+        <v>0</v>
       </c>
       <c r="D20" t="n">
         <v>0</v>
@@ -2126,22 +2126,22 @@
         <v>9.990699214544804</v>
       </c>
       <c r="R20" t="n">
-        <v>0</v>
+        <v>39.58387696184059</v>
       </c>
       <c r="S20" t="n">
-        <v>27.59002526031614</v>
+        <v>39.58387696184059</v>
       </c>
       <c r="T20" t="n">
-        <v>27.59002526031614</v>
+        <v>39.58387696184059</v>
       </c>
       <c r="U20" t="n">
         <v>0</v>
       </c>
       <c r="V20" t="n">
-        <v>27.59002526031614</v>
+        <v>0</v>
       </c>
       <c r="W20" t="n">
-        <v>0</v>
+        <v>24.87477961344436</v>
       </c>
       <c r="X20" t="n">
         <v>0</v>
@@ -2157,13 +2157,13 @@
         </is>
       </c>
       <c r="B21" t="n">
-        <v>24.30129424928645</v>
+        <v>0</v>
       </c>
       <c r="C21" t="n">
-        <v>0</v>
+        <v>39.58387696184059</v>
       </c>
       <c r="D21" t="n">
-        <v>0</v>
+        <v>34.86547882798917</v>
       </c>
       <c r="E21" t="n">
         <v>0</v>
@@ -2172,7 +2172,7 @@
         <v>0</v>
       </c>
       <c r="G21" t="n">
-        <v>27.59002526031614</v>
+        <v>0</v>
       </c>
       <c r="H21" t="n">
         <v>0</v>
@@ -2205,19 +2205,19 @@
         <v>0</v>
       </c>
       <c r="R21" t="n">
-        <v>27.59002526031614</v>
+        <v>0</v>
       </c>
       <c r="S21" t="n">
         <v>0</v>
       </c>
       <c r="T21" t="n">
-        <v>27.59002526031614</v>
+        <v>39.58387696184059</v>
       </c>
       <c r="U21" t="n">
         <v>0</v>
       </c>
       <c r="V21" t="n">
-        <v>0</v>
+        <v>39.58387696184059</v>
       </c>
       <c r="W21" t="n">
         <v>0</v>
@@ -2236,13 +2236,13 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>0</v>
+        <v>39.58387696184059</v>
       </c>
       <c r="C22" t="n">
-        <v>0</v>
+        <v>9.977552361264268</v>
       </c>
       <c r="D22" t="n">
-        <v>22.4487593605094</v>
+        <v>0</v>
       </c>
       <c r="E22" t="n">
         <v>0</v>
@@ -2260,7 +2260,7 @@
         <v>0</v>
       </c>
       <c r="J22" t="n">
-        <v>27.59002526031614</v>
+        <v>0</v>
       </c>
       <c r="K22" t="n">
         <v>0</v>
@@ -2293,19 +2293,19 @@
         <v>0</v>
       </c>
       <c r="U22" t="n">
-        <v>27.59002526031614</v>
+        <v>0</v>
       </c>
       <c r="V22" t="n">
         <v>0</v>
       </c>
       <c r="W22" t="n">
-        <v>27.59002526031614</v>
+        <v>39.58387696184059</v>
       </c>
       <c r="X22" t="n">
         <v>0</v>
       </c>
       <c r="Y22" t="n">
-        <v>0</v>
+        <v>39.58387696184059</v>
       </c>
     </row>
     <row r="23">
@@ -2315,16 +2315,16 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>0</v>
+        <v>24.87477961344436</v>
       </c>
       <c r="C23" t="n">
         <v>0</v>
       </c>
       <c r="D23" t="n">
-        <v>0</v>
+        <v>39.58387696184059</v>
       </c>
       <c r="E23" t="n">
-        <v>0</v>
+        <v>39.58387696184059</v>
       </c>
       <c r="F23" t="n">
         <v>0</v>
@@ -2360,25 +2360,25 @@
         <v>0</v>
       </c>
       <c r="Q23" t="n">
-        <v>0</v>
+        <v>9.990699214544804</v>
       </c>
       <c r="R23" t="n">
-        <v>27.59002526031614</v>
+        <v>0</v>
       </c>
       <c r="S23" t="n">
-        <v>27.59002526031614</v>
+        <v>0</v>
       </c>
       <c r="T23" t="n">
-        <v>27.59002526031614</v>
+        <v>0</v>
       </c>
       <c r="U23" t="n">
-        <v>24.30129424928645</v>
+        <v>0</v>
       </c>
       <c r="V23" t="n">
         <v>0</v>
       </c>
       <c r="W23" t="n">
-        <v>0</v>
+        <v>39.58387696184059</v>
       </c>
       <c r="X23" t="n">
         <v>0</v>
@@ -2442,7 +2442,7 @@
         <v>0</v>
       </c>
       <c r="R24" t="n">
-        <v>0</v>
+        <v>39.58387696184059</v>
       </c>
       <c r="S24" t="n">
         <v>0</v>
@@ -2451,16 +2451,16 @@
         <v>0</v>
       </c>
       <c r="U24" t="n">
-        <v>27.59002526031614</v>
+        <v>34.86547882798917</v>
       </c>
       <c r="V24" t="n">
-        <v>27.59002526031614</v>
+        <v>39.58387696184059</v>
       </c>
       <c r="W24" t="n">
-        <v>24.30129424928645</v>
+        <v>39.58387696184059</v>
       </c>
       <c r="X24" t="n">
-        <v>27.59002526031614</v>
+        <v>0</v>
       </c>
       <c r="Y24" t="n">
         <v>0</v>
@@ -2473,19 +2473,19 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>27.59002526031614</v>
+        <v>0</v>
       </c>
       <c r="C25" t="n">
         <v>0</v>
       </c>
       <c r="D25" t="n">
-        <v>22.44875936050941</v>
+        <v>0</v>
       </c>
       <c r="E25" t="n">
-        <v>0</v>
+        <v>39.58387696184059</v>
       </c>
       <c r="F25" t="n">
-        <v>0</v>
+        <v>39.58387696184059</v>
       </c>
       <c r="G25" t="n">
         <v>0</v>
@@ -2518,10 +2518,10 @@
         <v>0</v>
       </c>
       <c r="Q25" t="n">
-        <v>0</v>
+        <v>39.58387696184059</v>
       </c>
       <c r="R25" t="n">
-        <v>27.59002526031614</v>
+        <v>0</v>
       </c>
       <c r="S25" t="n">
         <v>0</v>
@@ -2530,7 +2530,7 @@
         <v>0</v>
       </c>
       <c r="U25" t="n">
-        <v>27.59002526031614</v>
+        <v>0</v>
       </c>
       <c r="V25" t="n">
         <v>0</v>
@@ -2542,7 +2542,7 @@
         <v>0</v>
       </c>
       <c r="Y25" t="n">
-        <v>0</v>
+        <v>9.977552361264268</v>
       </c>
     </row>
     <row r="26">
@@ -2570,7 +2570,7 @@
         <v>0</v>
       </c>
       <c r="H26" t="n">
-        <v>0</v>
+        <v>39.58387696184059</v>
       </c>
       <c r="I26" t="n">
         <v>0</v>
@@ -2597,25 +2597,25 @@
         <v>0</v>
       </c>
       <c r="Q26" t="n">
-        <v>0</v>
+        <v>9.990699214544804</v>
       </c>
       <c r="R26" t="n">
-        <v>24.30129424928645</v>
+        <v>24.87477961344436</v>
       </c>
       <c r="S26" t="n">
-        <v>0</v>
+        <v>39.58387696184059</v>
       </c>
       <c r="T26" t="n">
-        <v>27.59002526031614</v>
+        <v>39.58387696184059</v>
       </c>
       <c r="U26" t="n">
         <v>0</v>
       </c>
       <c r="V26" t="n">
-        <v>27.59002526031614</v>
+        <v>0</v>
       </c>
       <c r="W26" t="n">
-        <v>27.59002526031614</v>
+        <v>0</v>
       </c>
       <c r="X26" t="n">
         <v>0</v>
@@ -2637,13 +2637,13 @@
         <v>0</v>
       </c>
       <c r="D27" t="n">
-        <v>0</v>
+        <v>39.58387696184059</v>
       </c>
       <c r="E27" t="n">
         <v>0</v>
       </c>
       <c r="F27" t="n">
-        <v>24.30129424928645</v>
+        <v>0</v>
       </c>
       <c r="G27" t="n">
         <v>0</v>
@@ -2679,7 +2679,7 @@
         <v>0</v>
       </c>
       <c r="R27" t="n">
-        <v>0</v>
+        <v>34.86547882798917</v>
       </c>
       <c r="S27" t="n">
         <v>0</v>
@@ -2688,19 +2688,19 @@
         <v>0</v>
       </c>
       <c r="U27" t="n">
-        <v>27.59002526031614</v>
+        <v>0</v>
       </c>
       <c r="V27" t="n">
-        <v>27.59002526031614</v>
+        <v>0</v>
       </c>
       <c r="W27" t="n">
-        <v>27.59002526031614</v>
+        <v>0</v>
       </c>
       <c r="X27" t="n">
-        <v>0</v>
+        <v>39.58387696184059</v>
       </c>
       <c r="Y27" t="n">
-        <v>0</v>
+        <v>39.58387696184059</v>
       </c>
     </row>
     <row r="28">
@@ -2722,7 +2722,7 @@
         <v>0</v>
       </c>
       <c r="F28" t="n">
-        <v>27.59002526031614</v>
+        <v>0</v>
       </c>
       <c r="G28" t="n">
         <v>0</v>
@@ -2731,10 +2731,10 @@
         <v>0</v>
       </c>
       <c r="I28" t="n">
-        <v>0</v>
+        <v>9.977552361264268</v>
       </c>
       <c r="J28" t="n">
-        <v>22.44875936050941</v>
+        <v>39.58387696184059</v>
       </c>
       <c r="K28" t="n">
         <v>0</v>
@@ -2758,16 +2758,16 @@
         <v>0</v>
       </c>
       <c r="R28" t="n">
-        <v>0</v>
+        <v>39.58387696184059</v>
       </c>
       <c r="S28" t="n">
-        <v>0</v>
+        <v>39.58387696184059</v>
       </c>
       <c r="T28" t="n">
-        <v>27.59002526031614</v>
+        <v>0</v>
       </c>
       <c r="U28" t="n">
-        <v>27.59002526031614</v>
+        <v>0</v>
       </c>
       <c r="V28" t="n">
         <v>0</v>
@@ -2789,10 +2789,10 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>27.59002526031614</v>
+        <v>0</v>
       </c>
       <c r="C29" t="n">
-        <v>27.59002526031614</v>
+        <v>0</v>
       </c>
       <c r="D29" t="n">
         <v>0</v>
@@ -2834,13 +2834,13 @@
         <v>0</v>
       </c>
       <c r="Q29" t="n">
-        <v>0</v>
+        <v>9.990699214544804</v>
       </c>
       <c r="R29" t="n">
-        <v>24.30129424928645</v>
+        <v>39.58387696184059</v>
       </c>
       <c r="S29" t="n">
-        <v>0</v>
+        <v>39.58387696184059</v>
       </c>
       <c r="T29" t="n">
         <v>0</v>
@@ -2849,16 +2849,16 @@
         <v>0</v>
       </c>
       <c r="V29" t="n">
-        <v>0</v>
+        <v>39.58387696184059</v>
       </c>
       <c r="W29" t="n">
-        <v>0</v>
+        <v>24.87477961344436</v>
       </c>
       <c r="X29" t="n">
         <v>0</v>
       </c>
       <c r="Y29" t="n">
-        <v>27.59002526031614</v>
+        <v>0</v>
       </c>
     </row>
     <row r="30">
@@ -2880,13 +2880,13 @@
         <v>0</v>
       </c>
       <c r="F30" t="n">
-        <v>24.30129424928645</v>
+        <v>0</v>
       </c>
       <c r="G30" t="n">
         <v>0</v>
       </c>
       <c r="H30" t="n">
-        <v>0</v>
+        <v>39.58387696184059</v>
       </c>
       <c r="I30" t="n">
         <v>0</v>
@@ -2925,19 +2925,19 @@
         <v>0</v>
       </c>
       <c r="U30" t="n">
-        <v>0</v>
+        <v>34.86547882798917</v>
       </c>
       <c r="V30" t="n">
-        <v>27.59002526031614</v>
+        <v>39.58387696184059</v>
       </c>
       <c r="W30" t="n">
-        <v>27.59002526031614</v>
+        <v>39.58387696184059</v>
       </c>
       <c r="X30" t="n">
         <v>0</v>
       </c>
       <c r="Y30" t="n">
-        <v>27.59002526031614</v>
+        <v>0</v>
       </c>
     </row>
     <row r="31">
@@ -2959,7 +2959,7 @@
         <v>0</v>
       </c>
       <c r="F31" t="n">
-        <v>0</v>
+        <v>9.977552361264268</v>
       </c>
       <c r="G31" t="n">
         <v>0</v>
@@ -2995,25 +2995,25 @@
         <v>0</v>
       </c>
       <c r="R31" t="n">
-        <v>27.59002526031614</v>
+        <v>0</v>
       </c>
       <c r="S31" t="n">
-        <v>27.59002526031614</v>
+        <v>0</v>
       </c>
       <c r="T31" t="n">
-        <v>27.59002526031614</v>
+        <v>0</v>
       </c>
       <c r="U31" t="n">
-        <v>22.44875936050941</v>
+        <v>0</v>
       </c>
       <c r="V31" t="n">
-        <v>0</v>
+        <v>39.58387696184059</v>
       </c>
       <c r="W31" t="n">
-        <v>0</v>
+        <v>39.58387696184059</v>
       </c>
       <c r="X31" t="n">
-        <v>0</v>
+        <v>39.58387696184059</v>
       </c>
       <c r="Y31" t="n">
         <v>0</v>
@@ -3035,7 +3035,7 @@
         <v>0</v>
       </c>
       <c r="E32" t="n">
-        <v>27.59002526031614</v>
+        <v>0</v>
       </c>
       <c r="F32" t="n">
         <v>0</v>
@@ -3044,10 +3044,10 @@
         <v>0</v>
       </c>
       <c r="H32" t="n">
-        <v>0</v>
+        <v>34.86547882798917</v>
       </c>
       <c r="I32" t="n">
-        <v>0</v>
+        <v>39.58387696184059</v>
       </c>
       <c r="J32" t="n">
         <v>0</v>
@@ -3080,13 +3080,13 @@
         <v>0</v>
       </c>
       <c r="T32" t="n">
-        <v>27.59002526031614</v>
+        <v>39.58387696184059</v>
       </c>
       <c r="U32" t="n">
-        <v>27.59002526031614</v>
+        <v>0</v>
       </c>
       <c r="V32" t="n">
-        <v>24.30129424928645</v>
+        <v>39.58387696184059</v>
       </c>
       <c r="W32" t="n">
         <v>0</v>
@@ -3105,7 +3105,7 @@
         </is>
       </c>
       <c r="B33" t="n">
-        <v>0</v>
+        <v>39.58387696184059</v>
       </c>
       <c r="C33" t="n">
         <v>0</v>
@@ -3114,22 +3114,22 @@
         <v>0</v>
       </c>
       <c r="E33" t="n">
-        <v>24.30129424928645</v>
+        <v>0</v>
       </c>
       <c r="F33" t="n">
-        <v>27.59002526031614</v>
+        <v>0</v>
       </c>
       <c r="G33" t="n">
-        <v>27.59002526031614</v>
+        <v>0</v>
       </c>
       <c r="H33" t="n">
-        <v>27.59002526031614</v>
+        <v>0</v>
       </c>
       <c r="I33" t="n">
-        <v>0</v>
+        <v>34.11888750173132</v>
       </c>
       <c r="J33" t="n">
-        <v>0</v>
+        <v>0.7465913262578567</v>
       </c>
       <c r="K33" t="n">
         <v>0</v>
@@ -3168,13 +3168,13 @@
         <v>0</v>
       </c>
       <c r="W33" t="n">
-        <v>0</v>
+        <v>39.58387696184059</v>
       </c>
       <c r="X33" t="n">
         <v>0</v>
       </c>
       <c r="Y33" t="n">
-        <v>0</v>
+        <v>39.58387696184059</v>
       </c>
     </row>
     <row r="34">
@@ -3193,7 +3193,7 @@
         <v>0</v>
       </c>
       <c r="E34" t="n">
-        <v>27.59002526031614</v>
+        <v>0</v>
       </c>
       <c r="F34" t="n">
         <v>0</v>
@@ -3205,7 +3205,7 @@
         <v>0</v>
       </c>
       <c r="I34" t="n">
-        <v>22.44875936050941</v>
+        <v>0</v>
       </c>
       <c r="J34" t="n">
         <v>0</v>
@@ -3232,22 +3232,22 @@
         <v>0</v>
       </c>
       <c r="R34" t="n">
-        <v>0</v>
+        <v>39.58387696184059</v>
       </c>
       <c r="S34" t="n">
-        <v>0</v>
+        <v>39.58387696184059</v>
       </c>
       <c r="T34" t="n">
-        <v>0</v>
+        <v>39.58387696184059</v>
       </c>
       <c r="U34" t="n">
-        <v>27.59002526031614</v>
+        <v>9.977552361264268</v>
       </c>
       <c r="V34" t="n">
         <v>0</v>
       </c>
       <c r="W34" t="n">
-        <v>27.59002526031614</v>
+        <v>0</v>
       </c>
       <c r="X34" t="n">
         <v>0</v>
@@ -3266,16 +3266,16 @@
         <v>0</v>
       </c>
       <c r="C35" t="n">
-        <v>27.59002526031614</v>
+        <v>0</v>
       </c>
       <c r="D35" t="n">
-        <v>27.59002526031614</v>
+        <v>0</v>
       </c>
       <c r="E35" t="n">
         <v>0</v>
       </c>
       <c r="F35" t="n">
-        <v>27.59002526031614</v>
+        <v>0</v>
       </c>
       <c r="G35" t="n">
         <v>0</v>
@@ -3308,31 +3308,31 @@
         <v>0</v>
       </c>
       <c r="Q35" t="n">
-        <v>0</v>
+        <v>9.990699214544804</v>
       </c>
       <c r="R35" t="n">
-        <v>0</v>
+        <v>39.58387696184059</v>
       </c>
       <c r="S35" t="n">
         <v>0</v>
       </c>
       <c r="T35" t="n">
-        <v>0</v>
+        <v>24.87477961344436</v>
       </c>
       <c r="U35" t="n">
         <v>0</v>
       </c>
       <c r="V35" t="n">
-        <v>0</v>
+        <v>39.58387696184059</v>
       </c>
       <c r="W35" t="n">
-        <v>0</v>
+        <v>39.58387696184059</v>
       </c>
       <c r="X35" t="n">
         <v>0</v>
       </c>
       <c r="Y35" t="n">
-        <v>24.30129424928645</v>
+        <v>0</v>
       </c>
     </row>
     <row r="36">
@@ -3357,7 +3357,7 @@
         <v>0</v>
       </c>
       <c r="G36" t="n">
-        <v>23.55470292302859</v>
+        <v>0</v>
       </c>
       <c r="H36" t="n">
         <v>0</v>
@@ -3366,7 +3366,7 @@
         <v>0</v>
       </c>
       <c r="J36" t="n">
-        <v>0.7465913262578567</v>
+        <v>0</v>
       </c>
       <c r="K36" t="n">
         <v>0</v>
@@ -3396,22 +3396,22 @@
         <v>0</v>
       </c>
       <c r="T36" t="n">
-        <v>0</v>
+        <v>39.58387696184059</v>
       </c>
       <c r="U36" t="n">
-        <v>27.59002526031614</v>
+        <v>0</v>
       </c>
       <c r="V36" t="n">
-        <v>27.59002526031614</v>
+        <v>0</v>
       </c>
       <c r="W36" t="n">
-        <v>27.59002526031614</v>
+        <v>39.58387696184059</v>
       </c>
       <c r="X36" t="n">
-        <v>0</v>
+        <v>39.58387696184059</v>
       </c>
       <c r="Y36" t="n">
-        <v>0</v>
+        <v>34.86547882798917</v>
       </c>
     </row>
     <row r="37">
@@ -3478,19 +3478,19 @@
         <v>0</v>
       </c>
       <c r="U37" t="n">
-        <v>0</v>
+        <v>39.58387696184059</v>
       </c>
       <c r="V37" t="n">
-        <v>27.59002526031614</v>
+        <v>39.58387696184059</v>
       </c>
       <c r="W37" t="n">
-        <v>27.59002526031614</v>
+        <v>39.58387696184059</v>
       </c>
       <c r="X37" t="n">
-        <v>27.59002526031614</v>
+        <v>9.977552361264271</v>
       </c>
       <c r="Y37" t="n">
-        <v>22.44875936050941</v>
+        <v>0</v>
       </c>
     </row>
     <row r="38">
@@ -3500,16 +3500,16 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>27.59002526031614</v>
+        <v>0</v>
       </c>
       <c r="C38" t="n">
         <v>0</v>
       </c>
       <c r="D38" t="n">
-        <v>24.30129424928645</v>
+        <v>0</v>
       </c>
       <c r="E38" t="n">
-        <v>27.59002526031614</v>
+        <v>0</v>
       </c>
       <c r="F38" t="n">
         <v>0</v>
@@ -3551,16 +3551,16 @@
         <v>0</v>
       </c>
       <c r="S38" t="n">
-        <v>0</v>
+        <v>39.58387696184059</v>
       </c>
       <c r="T38" t="n">
-        <v>0</v>
+        <v>39.58387696184059</v>
       </c>
       <c r="U38" t="n">
-        <v>0</v>
+        <v>39.58387696184059</v>
       </c>
       <c r="V38" t="n">
-        <v>0</v>
+        <v>34.86547882798917</v>
       </c>
       <c r="W38" t="n">
         <v>0</v>
@@ -3569,7 +3569,7 @@
         <v>0</v>
       </c>
       <c r="Y38" t="n">
-        <v>27.59002526031614</v>
+        <v>0</v>
       </c>
     </row>
     <row r="39">
@@ -3579,22 +3579,22 @@
         </is>
       </c>
       <c r="B39" t="n">
-        <v>27.59002526031614</v>
+        <v>0</v>
       </c>
       <c r="C39" t="n">
-        <v>27.59002526031614</v>
+        <v>0</v>
       </c>
       <c r="D39" t="n">
         <v>0</v>
       </c>
       <c r="E39" t="n">
-        <v>0</v>
+        <v>39.58387696184059</v>
       </c>
       <c r="F39" t="n">
-        <v>27.59002526031614</v>
+        <v>0</v>
       </c>
       <c r="G39" t="n">
-        <v>24.30129424928645</v>
+        <v>34.86547882798917</v>
       </c>
       <c r="H39" t="n">
         <v>0</v>
@@ -3636,7 +3636,7 @@
         <v>0</v>
       </c>
       <c r="U39" t="n">
-        <v>0</v>
+        <v>39.58387696184059</v>
       </c>
       <c r="V39" t="n">
         <v>0</v>
@@ -3645,7 +3645,7 @@
         <v>0</v>
       </c>
       <c r="X39" t="n">
-        <v>0</v>
+        <v>39.58387696184059</v>
       </c>
       <c r="Y39" t="n">
         <v>0</v>
@@ -3658,7 +3658,7 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>0</v>
+        <v>9.977552361264268</v>
       </c>
       <c r="C40" t="n">
         <v>0</v>
@@ -3703,22 +3703,22 @@
         <v>0</v>
       </c>
       <c r="Q40" t="n">
-        <v>27.59002526031614</v>
+        <v>39.58387696184059</v>
       </c>
       <c r="R40" t="n">
         <v>0</v>
       </c>
       <c r="S40" t="n">
-        <v>27.59002526031614</v>
+        <v>0</v>
       </c>
       <c r="T40" t="n">
         <v>0</v>
       </c>
       <c r="U40" t="n">
-        <v>27.59002526031614</v>
+        <v>0</v>
       </c>
       <c r="V40" t="n">
-        <v>22.44875936050941</v>
+        <v>39.58387696184059</v>
       </c>
       <c r="W40" t="n">
         <v>0</v>
@@ -3727,7 +3727,7 @@
         <v>0</v>
       </c>
       <c r="Y40" t="n">
-        <v>0</v>
+        <v>39.58387696184059</v>
       </c>
     </row>
     <row r="41">
@@ -3788,7 +3788,7 @@
         <v>0</v>
       </c>
       <c r="S41" t="n">
-        <v>0</v>
+        <v>39.58387696184059</v>
       </c>
       <c r="T41" t="n">
         <v>0</v>
@@ -3797,16 +3797,16 @@
         <v>0</v>
       </c>
       <c r="V41" t="n">
-        <v>14.31059503474164</v>
+        <v>39.58387696184059</v>
       </c>
       <c r="W41" t="n">
-        <v>27.59002526031614</v>
+        <v>24.87477961344436</v>
       </c>
       <c r="X41" t="n">
-        <v>27.59002526031614</v>
+        <v>39.58387696184059</v>
       </c>
       <c r="Y41" t="n">
-        <v>27.59002526031614</v>
+        <v>0</v>
       </c>
     </row>
     <row r="42">
@@ -3816,10 +3816,10 @@
         </is>
       </c>
       <c r="B42" t="n">
-        <v>0</v>
+        <v>39.58387696184059</v>
       </c>
       <c r="C42" t="n">
-        <v>0</v>
+        <v>39.58387696184059</v>
       </c>
       <c r="D42" t="n">
         <v>0</v>
@@ -3831,7 +3831,7 @@
         <v>0</v>
       </c>
       <c r="G42" t="n">
-        <v>24.30129424928645</v>
+        <v>0</v>
       </c>
       <c r="H42" t="n">
         <v>0</v>
@@ -3864,16 +3864,16 @@
         <v>0</v>
       </c>
       <c r="R42" t="n">
-        <v>27.59002526031614</v>
+        <v>34.86547882798917</v>
       </c>
       <c r="S42" t="n">
         <v>0</v>
       </c>
       <c r="T42" t="n">
-        <v>27.59002526031614</v>
+        <v>0</v>
       </c>
       <c r="U42" t="n">
-        <v>27.59002526031614</v>
+        <v>39.58387696184059</v>
       </c>
       <c r="V42" t="n">
         <v>0</v>
@@ -3895,13 +3895,13 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>0</v>
+        <v>39.58387696184059</v>
       </c>
       <c r="C43" t="n">
-        <v>0</v>
+        <v>39.58387696184059</v>
       </c>
       <c r="D43" t="n">
-        <v>0</v>
+        <v>39.58387696184059</v>
       </c>
       <c r="E43" t="n">
         <v>0</v>
@@ -3910,10 +3910,10 @@
         <v>0</v>
       </c>
       <c r="G43" t="n">
-        <v>22.44875936050941</v>
+        <v>0</v>
       </c>
       <c r="H43" t="n">
-        <v>27.59002526031614</v>
+        <v>0</v>
       </c>
       <c r="I43" t="n">
         <v>0</v>
@@ -3952,7 +3952,7 @@
         <v>0</v>
       </c>
       <c r="U43" t="n">
-        <v>27.59002526031614</v>
+        <v>0</v>
       </c>
       <c r="V43" t="n">
         <v>0</v>
@@ -3964,7 +3964,7 @@
         <v>0</v>
       </c>
       <c r="Y43" t="n">
-        <v>27.59002526031614</v>
+        <v>9.977552361264268</v>
       </c>
     </row>
     <row r="44">
@@ -5726,76 +5726,76 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>16.66234852056432</v>
+        <v>3.166710156947247</v>
       </c>
       <c r="C20" t="n">
-        <v>2.207202020825291</v>
+        <v>3.166710156947247</v>
       </c>
       <c r="D20" t="n">
-        <v>2.207202020825291</v>
+        <v>3.166710156947247</v>
       </c>
       <c r="E20" t="n">
-        <v>2.207202020825291</v>
+        <v>3.166710156947247</v>
       </c>
       <c r="F20" t="n">
-        <v>2.207202020825291</v>
+        <v>3.166710156947247</v>
       </c>
       <c r="G20" t="n">
-        <v>2.207202020825291</v>
+        <v>3.166710156947247</v>
       </c>
       <c r="H20" t="n">
-        <v>2.207202020825291</v>
+        <v>3.166710156947247</v>
       </c>
       <c r="I20" t="n">
-        <v>2.207202020825291</v>
+        <v>3.166710156947247</v>
       </c>
       <c r="J20" t="n">
-        <v>2.207202020825291</v>
+        <v>3.166710156947247</v>
       </c>
       <c r="K20" t="n">
-        <v>29.52132702853827</v>
+        <v>42.35474834916943</v>
       </c>
       <c r="L20" t="n">
-        <v>56.83545203625125</v>
+        <v>81.54278654139161</v>
       </c>
       <c r="M20" t="n">
-        <v>84.14957704396423</v>
+        <v>119.1474696551402</v>
       </c>
       <c r="N20" t="n">
-        <v>110.3601010412646</v>
+        <v>119.1474696551402</v>
       </c>
       <c r="O20" t="n">
-        <v>110.3601010412646</v>
+        <v>119.1474696551402</v>
       </c>
       <c r="P20" t="n">
-        <v>110.3601010412646</v>
+        <v>158.3355078473624</v>
       </c>
       <c r="Q20" t="n">
-        <v>100.2684856730375</v>
+        <v>148.2438924791353</v>
       </c>
       <c r="R20" t="n">
-        <v>100.2684856730375</v>
+        <v>108.260178376266</v>
       </c>
       <c r="S20" t="n">
-        <v>72.39977328887976</v>
+        <v>68.2764642733967</v>
       </c>
       <c r="T20" t="n">
-        <v>44.53106090472204</v>
+        <v>28.29275017052741</v>
       </c>
       <c r="U20" t="n">
-        <v>44.53106090472204</v>
+        <v>28.29275017052741</v>
       </c>
       <c r="V20" t="n">
-        <v>16.66234852056432</v>
+        <v>28.29275017052741</v>
       </c>
       <c r="W20" t="n">
-        <v>16.66234852056432</v>
+        <v>3.166710156947247</v>
       </c>
       <c r="X20" t="n">
-        <v>16.66234852056432</v>
+        <v>3.166710156947247</v>
       </c>
       <c r="Y20" t="n">
-        <v>16.66234852056432</v>
+        <v>3.166710156947247</v>
       </c>
     </row>
     <row r="21">
@@ -5805,76 +5805,76 @@
         </is>
       </c>
       <c r="B21" t="n">
-        <v>30.07591440498301</v>
+        <v>78.36807964162378</v>
       </c>
       <c r="C21" t="n">
-        <v>30.07591440498301</v>
+        <v>38.38436553875449</v>
       </c>
       <c r="D21" t="n">
-        <v>30.07591440498301</v>
+        <v>3.166710156947247</v>
       </c>
       <c r="E21" t="n">
-        <v>30.07591440498301</v>
+        <v>3.166710156947247</v>
       </c>
       <c r="F21" t="n">
-        <v>30.07591440498301</v>
+        <v>3.166710156947247</v>
       </c>
       <c r="G21" t="n">
-        <v>2.207202020825291</v>
+        <v>3.166710156947247</v>
       </c>
       <c r="H21" t="n">
-        <v>2.207202020825291</v>
+        <v>3.166710156947247</v>
       </c>
       <c r="I21" t="n">
-        <v>2.207202020825291</v>
+        <v>3.166710156947247</v>
       </c>
       <c r="J21" t="n">
-        <v>2.207202020825291</v>
+        <v>3.166710156947247</v>
       </c>
       <c r="K21" t="n">
-        <v>2.207202020825291</v>
+        <v>40.77139327069581</v>
       </c>
       <c r="L21" t="n">
-        <v>28.41772601812563</v>
+        <v>40.77139327069581</v>
       </c>
       <c r="M21" t="n">
-        <v>55.73185102583861</v>
+        <v>79.95943146291799</v>
       </c>
       <c r="N21" t="n">
-        <v>83.04597603355158</v>
+        <v>119.1474696551402</v>
       </c>
       <c r="O21" t="n">
-        <v>110.3601010412646</v>
+        <v>119.1474696551402</v>
       </c>
       <c r="P21" t="n">
-        <v>110.3601010412646</v>
+        <v>119.1474696551402</v>
       </c>
       <c r="Q21" t="n">
-        <v>110.3601010412646</v>
+        <v>158.3355078473624</v>
       </c>
       <c r="R21" t="n">
-        <v>82.49138865710684</v>
+        <v>158.3355078473624</v>
       </c>
       <c r="S21" t="n">
-        <v>82.49138865710684</v>
+        <v>158.3355078473624</v>
       </c>
       <c r="T21" t="n">
-        <v>54.62267627294912</v>
+        <v>118.3517937444931</v>
       </c>
       <c r="U21" t="n">
-        <v>54.62267627294912</v>
+        <v>118.3517937444931</v>
       </c>
       <c r="V21" t="n">
-        <v>54.62267627294912</v>
+        <v>78.36807964162378</v>
       </c>
       <c r="W21" t="n">
-        <v>54.62267627294912</v>
+        <v>78.36807964162378</v>
       </c>
       <c r="X21" t="n">
-        <v>54.62267627294912</v>
+        <v>78.36807964162378</v>
       </c>
       <c r="Y21" t="n">
-        <v>54.62267627294912</v>
+        <v>78.36807964162378</v>
       </c>
     </row>
     <row r="22">
@@ -5884,76 +5884,76 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>54.62267627294912</v>
+        <v>13.245045875396</v>
       </c>
       <c r="C22" t="n">
-        <v>54.62267627294912</v>
+        <v>3.166710156947247</v>
       </c>
       <c r="D22" t="n">
-        <v>31.94716176738407</v>
+        <v>3.166710156947247</v>
       </c>
       <c r="E22" t="n">
-        <v>31.94716176738407</v>
+        <v>3.166710156947247</v>
       </c>
       <c r="F22" t="n">
-        <v>31.94716176738407</v>
+        <v>3.166710156947247</v>
       </c>
       <c r="G22" t="n">
-        <v>31.94716176738407</v>
+        <v>3.166710156947247</v>
       </c>
       <c r="H22" t="n">
-        <v>31.94716176738407</v>
+        <v>3.166710156947247</v>
       </c>
       <c r="I22" t="n">
-        <v>31.94716176738407</v>
+        <v>3.166710156947247</v>
       </c>
       <c r="J22" t="n">
-        <v>4.078449383226349</v>
+        <v>3.166710156947247</v>
       </c>
       <c r="K22" t="n">
-        <v>4.078449383226349</v>
+        <v>3.166710156947247</v>
       </c>
       <c r="L22" t="n">
-        <v>31.39257439093933</v>
+        <v>30.48083516466022</v>
       </c>
       <c r="M22" t="n">
-        <v>58.7066993986523</v>
+        <v>69.6688733568824</v>
       </c>
       <c r="N22" t="n">
-        <v>86.02082440636528</v>
+        <v>108.8569115491046</v>
       </c>
       <c r="O22" t="n">
-        <v>110.3601010412646</v>
+        <v>133.1961881840039</v>
       </c>
       <c r="P22" t="n">
-        <v>110.3601010412646</v>
+        <v>133.1961881840039</v>
       </c>
       <c r="Q22" t="n">
-        <v>110.3601010412646</v>
+        <v>133.1961881840039</v>
       </c>
       <c r="R22" t="n">
-        <v>110.3601010412646</v>
+        <v>133.1961881840039</v>
       </c>
       <c r="S22" t="n">
-        <v>110.3601010412646</v>
+        <v>133.1961881840039</v>
       </c>
       <c r="T22" t="n">
-        <v>110.3601010412646</v>
+        <v>133.1961881840039</v>
       </c>
       <c r="U22" t="n">
-        <v>82.49138865710684</v>
+        <v>133.1961881840039</v>
       </c>
       <c r="V22" t="n">
-        <v>82.49138865710684</v>
+        <v>133.1961881840039</v>
       </c>
       <c r="W22" t="n">
-        <v>54.62267627294912</v>
+        <v>93.21247408113457</v>
       </c>
       <c r="X22" t="n">
-        <v>54.62267627294912</v>
+        <v>93.21247408113457</v>
       </c>
       <c r="Y22" t="n">
-        <v>54.62267627294912</v>
+        <v>53.22875997826529</v>
       </c>
     </row>
     <row r="23">
@@ -5963,76 +5963,76 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>2.207202020825291</v>
+        <v>83.13413836268582</v>
       </c>
       <c r="C23" t="n">
-        <v>2.207202020825291</v>
+        <v>83.13413836268582</v>
       </c>
       <c r="D23" t="n">
-        <v>2.207202020825291</v>
+        <v>43.15042425981653</v>
       </c>
       <c r="E23" t="n">
-        <v>2.207202020825291</v>
+        <v>3.166710156947247</v>
       </c>
       <c r="F23" t="n">
-        <v>2.207202020825291</v>
+        <v>3.166710156947247</v>
       </c>
       <c r="G23" t="n">
-        <v>2.207202020825291</v>
+        <v>3.166710156947247</v>
       </c>
       <c r="H23" t="n">
-        <v>2.207202020825291</v>
+        <v>3.166710156947247</v>
       </c>
       <c r="I23" t="n">
-        <v>2.207202020825291</v>
+        <v>3.166710156947247</v>
       </c>
       <c r="J23" t="n">
-        <v>2.207202020825291</v>
+        <v>3.166710156947247</v>
       </c>
       <c r="K23" t="n">
-        <v>29.52132702853827</v>
+        <v>3.166710156947247</v>
       </c>
       <c r="L23" t="n">
-        <v>55.73185102583861</v>
+        <v>3.166710156947247</v>
       </c>
       <c r="M23" t="n">
-        <v>83.04597603355158</v>
+        <v>42.35474834916943</v>
       </c>
       <c r="N23" t="n">
-        <v>83.04597603355158</v>
+        <v>81.54278654139161</v>
       </c>
       <c r="O23" t="n">
-        <v>110.3601010412646</v>
+        <v>120.7308247336138</v>
       </c>
       <c r="P23" t="n">
-        <v>110.3601010412646</v>
+        <v>158.3355078473624</v>
       </c>
       <c r="Q23" t="n">
-        <v>110.3601010412646</v>
+        <v>148.2438924791353</v>
       </c>
       <c r="R23" t="n">
-        <v>82.49138865710684</v>
+        <v>148.2438924791353</v>
       </c>
       <c r="S23" t="n">
-        <v>54.62267627294912</v>
+        <v>148.2438924791353</v>
       </c>
       <c r="T23" t="n">
-        <v>26.7539638887914</v>
+        <v>148.2438924791353</v>
       </c>
       <c r="U23" t="n">
-        <v>2.207202020825291</v>
+        <v>148.2438924791353</v>
       </c>
       <c r="V23" t="n">
-        <v>2.207202020825291</v>
+        <v>148.2438924791353</v>
       </c>
       <c r="W23" t="n">
-        <v>2.207202020825291</v>
+        <v>108.260178376266</v>
       </c>
       <c r="X23" t="n">
-        <v>2.207202020825291</v>
+        <v>108.260178376266</v>
       </c>
       <c r="Y23" t="n">
-        <v>2.207202020825291</v>
+        <v>108.260178376266</v>
       </c>
     </row>
     <row r="24">
@@ -6042,76 +6042,76 @@
         </is>
       </c>
       <c r="B24" t="n">
-        <v>2.207202020825291</v>
+        <v>3.166710156947247</v>
       </c>
       <c r="C24" t="n">
-        <v>2.207202020825291</v>
+        <v>3.166710156947247</v>
       </c>
       <c r="D24" t="n">
-        <v>2.207202020825291</v>
+        <v>3.166710156947247</v>
       </c>
       <c r="E24" t="n">
-        <v>2.207202020825291</v>
+        <v>3.166710156947247</v>
       </c>
       <c r="F24" t="n">
-        <v>2.207202020825291</v>
+        <v>3.166710156947247</v>
       </c>
       <c r="G24" t="n">
-        <v>2.207202020825291</v>
+        <v>3.166710156947247</v>
       </c>
       <c r="H24" t="n">
-        <v>2.207202020825291</v>
+        <v>3.166710156947247</v>
       </c>
       <c r="I24" t="n">
-        <v>2.207202020825291</v>
+        <v>3.166710156947247</v>
       </c>
       <c r="J24" t="n">
-        <v>2.207202020825291</v>
+        <v>3.166710156947247</v>
       </c>
       <c r="K24" t="n">
-        <v>2.207202020825291</v>
+        <v>42.35474834916943</v>
       </c>
       <c r="L24" t="n">
-        <v>2.207202020825291</v>
+        <v>81.54278654139161</v>
       </c>
       <c r="M24" t="n">
-        <v>28.41772601812563</v>
+        <v>120.7308247336138</v>
       </c>
       <c r="N24" t="n">
-        <v>55.73185102583861</v>
+        <v>158.3355078473624</v>
       </c>
       <c r="O24" t="n">
-        <v>83.04597603355158</v>
+        <v>158.3355078473624</v>
       </c>
       <c r="P24" t="n">
-        <v>83.04597603355158</v>
+        <v>158.3355078473624</v>
       </c>
       <c r="Q24" t="n">
-        <v>110.3601010412646</v>
+        <v>158.3355078473624</v>
       </c>
       <c r="R24" t="n">
-        <v>110.3601010412646</v>
+        <v>118.3517937444931</v>
       </c>
       <c r="S24" t="n">
-        <v>110.3601010412646</v>
+        <v>118.3517937444931</v>
       </c>
       <c r="T24" t="n">
-        <v>110.3601010412646</v>
+        <v>118.3517937444931</v>
       </c>
       <c r="U24" t="n">
-        <v>82.49138865710684</v>
+        <v>83.13413836268582</v>
       </c>
       <c r="V24" t="n">
-        <v>54.62267627294912</v>
+        <v>43.15042425981653</v>
       </c>
       <c r="W24" t="n">
-        <v>30.07591440498301</v>
+        <v>3.166710156947247</v>
       </c>
       <c r="X24" t="n">
-        <v>2.207202020825291</v>
+        <v>3.166710156947247</v>
       </c>
       <c r="Y24" t="n">
-        <v>2.207202020825291</v>
+        <v>3.166710156947247</v>
       </c>
     </row>
     <row r="25">
@@ -6121,76 +6121,76 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>24.88271652639035</v>
+        <v>83.13413836268582</v>
       </c>
       <c r="C25" t="n">
-        <v>24.88271652639035</v>
+        <v>83.13413836268582</v>
       </c>
       <c r="D25" t="n">
-        <v>2.207202020825291</v>
+        <v>83.13413836268582</v>
       </c>
       <c r="E25" t="n">
-        <v>2.207202020825291</v>
+        <v>43.15042425981653</v>
       </c>
       <c r="F25" t="n">
-        <v>2.207202020825291</v>
+        <v>3.166710156947247</v>
       </c>
       <c r="G25" t="n">
-        <v>2.207202020825291</v>
+        <v>3.166710156947247</v>
       </c>
       <c r="H25" t="n">
-        <v>2.207202020825291</v>
+        <v>3.166710156947247</v>
       </c>
       <c r="I25" t="n">
-        <v>2.207202020825291</v>
+        <v>3.166710156947247</v>
       </c>
       <c r="J25" t="n">
-        <v>2.207202020825291</v>
+        <v>3.166710156947247</v>
       </c>
       <c r="K25" t="n">
-        <v>2.207202020825291</v>
+        <v>3.166710156947247</v>
       </c>
       <c r="L25" t="n">
-        <v>29.52132702853827</v>
+        <v>30.48083516466022</v>
       </c>
       <c r="M25" t="n">
-        <v>56.83545203625125</v>
+        <v>69.6688733568824</v>
       </c>
       <c r="N25" t="n">
-        <v>84.14957704396423</v>
+        <v>108.8569115491046</v>
       </c>
       <c r="O25" t="n">
-        <v>108.4888536788635</v>
+        <v>133.1961881840039</v>
       </c>
       <c r="P25" t="n">
-        <v>108.4888536788635</v>
+        <v>133.1961881840039</v>
       </c>
       <c r="Q25" t="n">
-        <v>108.4888536788635</v>
+        <v>93.21247408113457</v>
       </c>
       <c r="R25" t="n">
-        <v>80.62014129470579</v>
+        <v>93.21247408113457</v>
       </c>
       <c r="S25" t="n">
-        <v>80.62014129470579</v>
+        <v>93.21247408113457</v>
       </c>
       <c r="T25" t="n">
-        <v>80.62014129470579</v>
+        <v>93.21247408113457</v>
       </c>
       <c r="U25" t="n">
-        <v>52.75142891054807</v>
+        <v>93.21247408113457</v>
       </c>
       <c r="V25" t="n">
-        <v>52.75142891054807</v>
+        <v>93.21247408113457</v>
       </c>
       <c r="W25" t="n">
-        <v>52.75142891054807</v>
+        <v>93.21247408113457</v>
       </c>
       <c r="X25" t="n">
-        <v>52.75142891054807</v>
+        <v>93.21247408113457</v>
       </c>
       <c r="Y25" t="n">
-        <v>52.75142891054807</v>
+        <v>83.13413836268582</v>
       </c>
     </row>
     <row r="26">
@@ -6200,76 +6200,76 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>2.207202020825291</v>
+        <v>43.15042425981653</v>
       </c>
       <c r="C26" t="n">
-        <v>2.207202020825291</v>
+        <v>43.15042425981653</v>
       </c>
       <c r="D26" t="n">
-        <v>2.207202020825291</v>
+        <v>43.15042425981653</v>
       </c>
       <c r="E26" t="n">
-        <v>2.207202020825291</v>
+        <v>43.15042425981653</v>
       </c>
       <c r="F26" t="n">
-        <v>2.207202020825291</v>
+        <v>43.15042425981653</v>
       </c>
       <c r="G26" t="n">
-        <v>2.207202020825291</v>
+        <v>43.15042425981653</v>
       </c>
       <c r="H26" t="n">
-        <v>2.207202020825291</v>
+        <v>3.166710156947247</v>
       </c>
       <c r="I26" t="n">
-        <v>2.207202020825291</v>
+        <v>3.166710156947247</v>
       </c>
       <c r="J26" t="n">
-        <v>2.207202020825291</v>
+        <v>3.166710156947247</v>
       </c>
       <c r="K26" t="n">
-        <v>29.52132702853827</v>
+        <v>40.77139327069581</v>
       </c>
       <c r="L26" t="n">
-        <v>56.83545203625125</v>
+        <v>79.95943146291799</v>
       </c>
       <c r="M26" t="n">
-        <v>84.14957704396423</v>
+        <v>119.1474696551402</v>
       </c>
       <c r="N26" t="n">
-        <v>84.14957704396423</v>
+        <v>119.1474696551402</v>
       </c>
       <c r="O26" t="n">
-        <v>110.3601010412646</v>
+        <v>119.1474696551402</v>
       </c>
       <c r="P26" t="n">
-        <v>110.3601010412646</v>
+        <v>158.3355078473624</v>
       </c>
       <c r="Q26" t="n">
-        <v>110.3601010412646</v>
+        <v>148.2438924791353</v>
       </c>
       <c r="R26" t="n">
-        <v>85.81333917329844</v>
+        <v>123.1178524655551</v>
       </c>
       <c r="S26" t="n">
-        <v>85.81333917329844</v>
+        <v>83.13413836268582</v>
       </c>
       <c r="T26" t="n">
-        <v>57.94462678914073</v>
+        <v>43.15042425981653</v>
       </c>
       <c r="U26" t="n">
-        <v>57.94462678914073</v>
+        <v>43.15042425981653</v>
       </c>
       <c r="V26" t="n">
-        <v>30.07591440498301</v>
+        <v>43.15042425981653</v>
       </c>
       <c r="W26" t="n">
-        <v>2.207202020825291</v>
+        <v>43.15042425981653</v>
       </c>
       <c r="X26" t="n">
-        <v>2.207202020825291</v>
+        <v>43.15042425981653</v>
       </c>
       <c r="Y26" t="n">
-        <v>2.207202020825291</v>
+        <v>43.15042425981653</v>
       </c>
     </row>
     <row r="27">
@@ -6279,76 +6279,76 @@
         </is>
       </c>
       <c r="B27" t="n">
-        <v>26.7539638887914</v>
+        <v>43.15042425981653</v>
       </c>
       <c r="C27" t="n">
-        <v>26.7539638887914</v>
+        <v>43.15042425981653</v>
       </c>
       <c r="D27" t="n">
-        <v>26.7539638887914</v>
+        <v>3.166710156947247</v>
       </c>
       <c r="E27" t="n">
-        <v>26.7539638887914</v>
+        <v>3.166710156947247</v>
       </c>
       <c r="F27" t="n">
-        <v>2.207202020825291</v>
+        <v>3.166710156947247</v>
       </c>
       <c r="G27" t="n">
-        <v>2.207202020825291</v>
+        <v>3.166710156947247</v>
       </c>
       <c r="H27" t="n">
-        <v>2.207202020825291</v>
+        <v>3.166710156947247</v>
       </c>
       <c r="I27" t="n">
-        <v>2.207202020825291</v>
+        <v>3.166710156947247</v>
       </c>
       <c r="J27" t="n">
-        <v>2.207202020825291</v>
+        <v>3.166710156947247</v>
       </c>
       <c r="K27" t="n">
-        <v>2.207202020825291</v>
+        <v>42.35474834916943</v>
       </c>
       <c r="L27" t="n">
-        <v>29.52132702853827</v>
+        <v>81.54278654139161</v>
       </c>
       <c r="M27" t="n">
-        <v>56.83545203625125</v>
+        <v>119.1474696551402</v>
       </c>
       <c r="N27" t="n">
-        <v>84.14957704396423</v>
+        <v>119.1474696551402</v>
       </c>
       <c r="O27" t="n">
-        <v>84.14957704396423</v>
+        <v>158.3355078473624</v>
       </c>
       <c r="P27" t="n">
-        <v>110.3601010412646</v>
+        <v>158.3355078473624</v>
       </c>
       <c r="Q27" t="n">
-        <v>110.3601010412646</v>
+        <v>158.3355078473624</v>
       </c>
       <c r="R27" t="n">
-        <v>110.3601010412646</v>
+        <v>123.1178524655551</v>
       </c>
       <c r="S27" t="n">
-        <v>110.3601010412646</v>
+        <v>123.1178524655551</v>
       </c>
       <c r="T27" t="n">
-        <v>110.3601010412646</v>
+        <v>123.1178524655551</v>
       </c>
       <c r="U27" t="n">
-        <v>82.49138865710684</v>
+        <v>123.1178524655551</v>
       </c>
       <c r="V27" t="n">
-        <v>54.62267627294912</v>
+        <v>123.1178524655551</v>
       </c>
       <c r="W27" t="n">
-        <v>26.7539638887914</v>
+        <v>123.1178524655551</v>
       </c>
       <c r="X27" t="n">
-        <v>26.7539638887914</v>
+        <v>83.13413836268582</v>
       </c>
       <c r="Y27" t="n">
-        <v>26.7539638887914</v>
+        <v>43.15042425981653</v>
       </c>
     </row>
     <row r="28">
@@ -6358,76 +6358,76 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>52.75142891054807</v>
+        <v>53.22875997826529</v>
       </c>
       <c r="C28" t="n">
-        <v>52.75142891054807</v>
+        <v>53.22875997826529</v>
       </c>
       <c r="D28" t="n">
-        <v>52.75142891054807</v>
+        <v>53.22875997826529</v>
       </c>
       <c r="E28" t="n">
-        <v>52.75142891054807</v>
+        <v>53.22875997826529</v>
       </c>
       <c r="F28" t="n">
-        <v>24.88271652639035</v>
+        <v>53.22875997826529</v>
       </c>
       <c r="G28" t="n">
-        <v>24.88271652639035</v>
+        <v>53.22875997826529</v>
       </c>
       <c r="H28" t="n">
-        <v>24.88271652639035</v>
+        <v>53.22875997826529</v>
       </c>
       <c r="I28" t="n">
-        <v>24.88271652639035</v>
+        <v>43.15042425981653</v>
       </c>
       <c r="J28" t="n">
-        <v>2.207202020825291</v>
+        <v>3.166710156947247</v>
       </c>
       <c r="K28" t="n">
-        <v>2.207202020825291</v>
+        <v>3.166710156947247</v>
       </c>
       <c r="L28" t="n">
-        <v>29.52132702853827</v>
+        <v>30.48083516466022</v>
       </c>
       <c r="M28" t="n">
-        <v>56.83545203625125</v>
+        <v>69.6688733568824</v>
       </c>
       <c r="N28" t="n">
-        <v>84.14957704396423</v>
+        <v>108.8569115491046</v>
       </c>
       <c r="O28" t="n">
-        <v>108.4888536788635</v>
+        <v>133.1961881840039</v>
       </c>
       <c r="P28" t="n">
-        <v>108.4888536788635</v>
+        <v>133.1961881840039</v>
       </c>
       <c r="Q28" t="n">
-        <v>108.4888536788635</v>
+        <v>133.1961881840039</v>
       </c>
       <c r="R28" t="n">
-        <v>108.4888536788635</v>
+        <v>93.21247408113457</v>
       </c>
       <c r="S28" t="n">
-        <v>108.4888536788635</v>
+        <v>53.22875997826529</v>
       </c>
       <c r="T28" t="n">
-        <v>80.62014129470579</v>
+        <v>53.22875997826529</v>
       </c>
       <c r="U28" t="n">
-        <v>52.75142891054807</v>
+        <v>53.22875997826529</v>
       </c>
       <c r="V28" t="n">
-        <v>52.75142891054807</v>
+        <v>53.22875997826529</v>
       </c>
       <c r="W28" t="n">
-        <v>52.75142891054807</v>
+        <v>53.22875997826529</v>
       </c>
       <c r="X28" t="n">
-        <v>52.75142891054807</v>
+        <v>53.22875997826529</v>
       </c>
       <c r="Y28" t="n">
-        <v>52.75142891054807</v>
+        <v>53.22875997826529</v>
       </c>
     </row>
     <row r="29">
@@ -6437,76 +6437,76 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>30.07591440498301</v>
+        <v>3.166710156947247</v>
       </c>
       <c r="C29" t="n">
-        <v>2.207202020825291</v>
+        <v>3.166710156947247</v>
       </c>
       <c r="D29" t="n">
-        <v>2.207202020825291</v>
+        <v>3.166710156947247</v>
       </c>
       <c r="E29" t="n">
-        <v>2.207202020825291</v>
+        <v>3.166710156947247</v>
       </c>
       <c r="F29" t="n">
-        <v>2.207202020825291</v>
+        <v>3.166710156947247</v>
       </c>
       <c r="G29" t="n">
-        <v>2.207202020825291</v>
+        <v>3.166710156947247</v>
       </c>
       <c r="H29" t="n">
-        <v>2.207202020825291</v>
+        <v>3.166710156947247</v>
       </c>
       <c r="I29" t="n">
-        <v>2.207202020825291</v>
+        <v>3.166710156947247</v>
       </c>
       <c r="J29" t="n">
-        <v>2.207202020825291</v>
+        <v>3.166710156947247</v>
       </c>
       <c r="K29" t="n">
-        <v>2.207202020825291</v>
+        <v>3.166710156947247</v>
       </c>
       <c r="L29" t="n">
-        <v>29.52132702853827</v>
+        <v>42.35474834916943</v>
       </c>
       <c r="M29" t="n">
-        <v>55.73185102583861</v>
+        <v>81.54278654139161</v>
       </c>
       <c r="N29" t="n">
-        <v>55.73185102583861</v>
+        <v>120.7308247336138</v>
       </c>
       <c r="O29" t="n">
-        <v>83.04597603355158</v>
+        <v>158.3355078473624</v>
       </c>
       <c r="P29" t="n">
-        <v>110.3601010412646</v>
+        <v>158.3355078473624</v>
       </c>
       <c r="Q29" t="n">
-        <v>110.3601010412646</v>
+        <v>148.2438924791353</v>
       </c>
       <c r="R29" t="n">
-        <v>85.81333917329844</v>
+        <v>108.260178376266</v>
       </c>
       <c r="S29" t="n">
-        <v>85.81333917329844</v>
+        <v>68.2764642733967</v>
       </c>
       <c r="T29" t="n">
-        <v>85.81333917329844</v>
+        <v>68.2764642733967</v>
       </c>
       <c r="U29" t="n">
-        <v>85.81333917329844</v>
+        <v>68.2764642733967</v>
       </c>
       <c r="V29" t="n">
-        <v>85.81333917329844</v>
+        <v>28.29275017052741</v>
       </c>
       <c r="W29" t="n">
-        <v>85.81333917329844</v>
+        <v>3.166710156947247</v>
       </c>
       <c r="X29" t="n">
-        <v>85.81333917329844</v>
+        <v>3.166710156947247</v>
       </c>
       <c r="Y29" t="n">
-        <v>57.94462678914073</v>
+        <v>3.166710156947247</v>
       </c>
     </row>
     <row r="30">
@@ -6516,76 +6516,76 @@
         </is>
       </c>
       <c r="B30" t="n">
-        <v>26.7539638887914</v>
+        <v>43.15042425981653</v>
       </c>
       <c r="C30" t="n">
-        <v>26.7539638887914</v>
+        <v>43.15042425981653</v>
       </c>
       <c r="D30" t="n">
-        <v>26.7539638887914</v>
+        <v>43.15042425981653</v>
       </c>
       <c r="E30" t="n">
-        <v>26.7539638887914</v>
+        <v>43.15042425981653</v>
       </c>
       <c r="F30" t="n">
-        <v>2.207202020825291</v>
+        <v>43.15042425981653</v>
       </c>
       <c r="G30" t="n">
-        <v>2.207202020825291</v>
+        <v>43.15042425981653</v>
       </c>
       <c r="H30" t="n">
-        <v>2.207202020825291</v>
+        <v>3.166710156947247</v>
       </c>
       <c r="I30" t="n">
-        <v>2.207202020825291</v>
+        <v>3.166710156947247</v>
       </c>
       <c r="J30" t="n">
-        <v>2.207202020825291</v>
+        <v>3.166710156947247</v>
       </c>
       <c r="K30" t="n">
-        <v>29.52132702853827</v>
+        <v>3.166710156947247</v>
       </c>
       <c r="L30" t="n">
-        <v>56.83545203625125</v>
+        <v>42.35474834916943</v>
       </c>
       <c r="M30" t="n">
-        <v>83.04597603355158</v>
+        <v>81.54278654139161</v>
       </c>
       <c r="N30" t="n">
-        <v>83.04597603355158</v>
+        <v>119.1474696551402</v>
       </c>
       <c r="O30" t="n">
-        <v>83.04597603355158</v>
+        <v>119.1474696551402</v>
       </c>
       <c r="P30" t="n">
-        <v>83.04597603355158</v>
+        <v>119.1474696551402</v>
       </c>
       <c r="Q30" t="n">
-        <v>110.3601010412646</v>
+        <v>158.3355078473624</v>
       </c>
       <c r="R30" t="n">
-        <v>110.3601010412646</v>
+        <v>158.3355078473624</v>
       </c>
       <c r="S30" t="n">
-        <v>110.3601010412646</v>
+        <v>158.3355078473624</v>
       </c>
       <c r="T30" t="n">
-        <v>110.3601010412646</v>
+        <v>158.3355078473624</v>
       </c>
       <c r="U30" t="n">
-        <v>110.3601010412646</v>
+        <v>123.1178524655551</v>
       </c>
       <c r="V30" t="n">
-        <v>82.49138865710684</v>
+        <v>83.13413836268582</v>
       </c>
       <c r="W30" t="n">
-        <v>54.62267627294912</v>
+        <v>43.15042425981653</v>
       </c>
       <c r="X30" t="n">
-        <v>54.62267627294912</v>
+        <v>43.15042425981653</v>
       </c>
       <c r="Y30" t="n">
-        <v>26.7539638887914</v>
+        <v>43.15042425981653</v>
       </c>
     </row>
     <row r="31">
@@ -6595,76 +6595,76 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>2.207202020825291</v>
+        <v>13.245045875396</v>
       </c>
       <c r="C31" t="n">
-        <v>2.207202020825291</v>
+        <v>13.245045875396</v>
       </c>
       <c r="D31" t="n">
-        <v>2.207202020825291</v>
+        <v>13.245045875396</v>
       </c>
       <c r="E31" t="n">
-        <v>2.207202020825291</v>
+        <v>13.245045875396</v>
       </c>
       <c r="F31" t="n">
-        <v>2.207202020825291</v>
+        <v>3.166710156947247</v>
       </c>
       <c r="G31" t="n">
-        <v>2.207202020825291</v>
+        <v>3.166710156947247</v>
       </c>
       <c r="H31" t="n">
-        <v>2.207202020825291</v>
+        <v>3.166710156947247</v>
       </c>
       <c r="I31" t="n">
-        <v>2.207202020825291</v>
+        <v>3.166710156947247</v>
       </c>
       <c r="J31" t="n">
-        <v>2.207202020825291</v>
+        <v>3.166710156947247</v>
       </c>
       <c r="K31" t="n">
-        <v>2.207202020825291</v>
+        <v>3.166710156947247</v>
       </c>
       <c r="L31" t="n">
-        <v>29.52132702853827</v>
+        <v>30.48083516466022</v>
       </c>
       <c r="M31" t="n">
-        <v>56.83545203625125</v>
+        <v>69.6688733568824</v>
       </c>
       <c r="N31" t="n">
-        <v>84.14957704396423</v>
+        <v>108.8569115491046</v>
       </c>
       <c r="O31" t="n">
-        <v>108.4888536788635</v>
+        <v>133.1961881840039</v>
       </c>
       <c r="P31" t="n">
-        <v>108.4888536788635</v>
+        <v>133.1961881840039</v>
       </c>
       <c r="Q31" t="n">
-        <v>108.4888536788635</v>
+        <v>133.1961881840039</v>
       </c>
       <c r="R31" t="n">
-        <v>80.62014129470579</v>
+        <v>133.1961881840039</v>
       </c>
       <c r="S31" t="n">
-        <v>52.75142891054807</v>
+        <v>133.1961881840039</v>
       </c>
       <c r="T31" t="n">
-        <v>24.88271652639035</v>
+        <v>133.1961881840039</v>
       </c>
       <c r="U31" t="n">
-        <v>2.207202020825291</v>
+        <v>133.1961881840039</v>
       </c>
       <c r="V31" t="n">
-        <v>2.207202020825291</v>
+        <v>93.21247408113457</v>
       </c>
       <c r="W31" t="n">
-        <v>2.207202020825291</v>
+        <v>53.22875997826529</v>
       </c>
       <c r="X31" t="n">
-        <v>2.207202020825291</v>
+        <v>13.245045875396</v>
       </c>
       <c r="Y31" t="n">
-        <v>2.207202020825291</v>
+        <v>13.245045875396</v>
       </c>
     </row>
     <row r="32">
@@ -6674,76 +6674,76 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>30.07591440498301</v>
+        <v>78.36807964162378</v>
       </c>
       <c r="C32" t="n">
-        <v>30.07591440498301</v>
+        <v>78.36807964162378</v>
       </c>
       <c r="D32" t="n">
-        <v>30.07591440498301</v>
+        <v>78.36807964162378</v>
       </c>
       <c r="E32" t="n">
-        <v>2.207202020825291</v>
+        <v>78.36807964162378</v>
       </c>
       <c r="F32" t="n">
-        <v>2.207202020825291</v>
+        <v>78.36807964162378</v>
       </c>
       <c r="G32" t="n">
-        <v>2.207202020825291</v>
+        <v>78.36807964162378</v>
       </c>
       <c r="H32" t="n">
-        <v>2.207202020825291</v>
+        <v>43.15042425981653</v>
       </c>
       <c r="I32" t="n">
-        <v>2.207202020825291</v>
+        <v>3.166710156947247</v>
       </c>
       <c r="J32" t="n">
-        <v>2.207202020825291</v>
+        <v>3.166710156947247</v>
       </c>
       <c r="K32" t="n">
-        <v>29.52132702853827</v>
+        <v>42.35474834916943</v>
       </c>
       <c r="L32" t="n">
-        <v>56.83545203625125</v>
+        <v>42.35474834916943</v>
       </c>
       <c r="M32" t="n">
-        <v>84.14957704396423</v>
+        <v>81.54278654139161</v>
       </c>
       <c r="N32" t="n">
-        <v>110.3601010412646</v>
+        <v>81.54278654139161</v>
       </c>
       <c r="O32" t="n">
-        <v>110.3601010412646</v>
+        <v>119.1474696551402</v>
       </c>
       <c r="P32" t="n">
-        <v>110.3601010412646</v>
+        <v>158.3355078473624</v>
       </c>
       <c r="Q32" t="n">
-        <v>110.3601010412646</v>
+        <v>158.3355078473624</v>
       </c>
       <c r="R32" t="n">
-        <v>110.3601010412646</v>
+        <v>158.3355078473624</v>
       </c>
       <c r="S32" t="n">
-        <v>110.3601010412646</v>
+        <v>158.3355078473624</v>
       </c>
       <c r="T32" t="n">
-        <v>82.49138865710684</v>
+        <v>118.3517937444931</v>
       </c>
       <c r="U32" t="n">
-        <v>54.62267627294912</v>
+        <v>118.3517937444931</v>
       </c>
       <c r="V32" t="n">
-        <v>30.07591440498301</v>
+        <v>78.36807964162378</v>
       </c>
       <c r="W32" t="n">
-        <v>30.07591440498301</v>
+        <v>78.36807964162378</v>
       </c>
       <c r="X32" t="n">
-        <v>30.07591440498301</v>
+        <v>78.36807964162378</v>
       </c>
       <c r="Y32" t="n">
-        <v>30.07591440498301</v>
+        <v>78.36807964162378</v>
       </c>
     </row>
     <row r="33">
@@ -6753,76 +6753,76 @@
         </is>
       </c>
       <c r="B33" t="n">
-        <v>110.3601010412646</v>
+        <v>38.38436553875449</v>
       </c>
       <c r="C33" t="n">
-        <v>110.3601010412646</v>
+        <v>38.38436553875449</v>
       </c>
       <c r="D33" t="n">
-        <v>110.3601010412646</v>
+        <v>38.38436553875449</v>
       </c>
       <c r="E33" t="n">
-        <v>85.81333917329844</v>
+        <v>38.38436553875449</v>
       </c>
       <c r="F33" t="n">
-        <v>57.94462678914073</v>
+        <v>38.38436553875449</v>
       </c>
       <c r="G33" t="n">
-        <v>30.07591440498301</v>
+        <v>38.38436553875449</v>
       </c>
       <c r="H33" t="n">
-        <v>2.207202020825291</v>
+        <v>38.38436553875449</v>
       </c>
       <c r="I33" t="n">
-        <v>2.207202020825291</v>
+        <v>3.920842809732961</v>
       </c>
       <c r="J33" t="n">
-        <v>2.207202020825291</v>
+        <v>3.166710156947247</v>
       </c>
       <c r="K33" t="n">
-        <v>29.52132702853827</v>
+        <v>42.35474834916943</v>
       </c>
       <c r="L33" t="n">
-        <v>29.52132702853827</v>
+        <v>42.35474834916943</v>
       </c>
       <c r="M33" t="n">
-        <v>29.52132702853827</v>
+        <v>42.35474834916943</v>
       </c>
       <c r="N33" t="n">
-        <v>55.73185102583861</v>
+        <v>79.95943146291799</v>
       </c>
       <c r="O33" t="n">
-        <v>83.04597603355158</v>
+        <v>119.1474696551402</v>
       </c>
       <c r="P33" t="n">
-        <v>110.3601010412646</v>
+        <v>119.1474696551402</v>
       </c>
       <c r="Q33" t="n">
-        <v>110.3601010412646</v>
+        <v>158.3355078473624</v>
       </c>
       <c r="R33" t="n">
-        <v>110.3601010412646</v>
+        <v>158.3355078473624</v>
       </c>
       <c r="S33" t="n">
-        <v>110.3601010412646</v>
+        <v>158.3355078473624</v>
       </c>
       <c r="T33" t="n">
-        <v>110.3601010412646</v>
+        <v>158.3355078473624</v>
       </c>
       <c r="U33" t="n">
-        <v>110.3601010412646</v>
+        <v>158.3355078473624</v>
       </c>
       <c r="V33" t="n">
-        <v>110.3601010412646</v>
+        <v>158.3355078473624</v>
       </c>
       <c r="W33" t="n">
-        <v>110.3601010412646</v>
+        <v>118.3517937444931</v>
       </c>
       <c r="X33" t="n">
-        <v>110.3601010412646</v>
+        <v>118.3517937444931</v>
       </c>
       <c r="Y33" t="n">
-        <v>110.3601010412646</v>
+        <v>78.36807964162378</v>
       </c>
     </row>
     <row r="34">
@@ -6832,76 +6832,76 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>52.75142891054807</v>
+        <v>3.166710156947247</v>
       </c>
       <c r="C34" t="n">
-        <v>52.75142891054807</v>
+        <v>3.166710156947247</v>
       </c>
       <c r="D34" t="n">
-        <v>52.75142891054807</v>
+        <v>3.166710156947247</v>
       </c>
       <c r="E34" t="n">
-        <v>24.88271652639035</v>
+        <v>3.166710156947247</v>
       </c>
       <c r="F34" t="n">
-        <v>24.88271652639035</v>
+        <v>3.166710156947247</v>
       </c>
       <c r="G34" t="n">
-        <v>24.88271652639035</v>
+        <v>3.166710156947247</v>
       </c>
       <c r="H34" t="n">
-        <v>24.88271652639035</v>
+        <v>3.166710156947247</v>
       </c>
       <c r="I34" t="n">
-        <v>2.207202020825291</v>
+        <v>3.166710156947247</v>
       </c>
       <c r="J34" t="n">
-        <v>2.207202020825291</v>
+        <v>3.166710156947247</v>
       </c>
       <c r="K34" t="n">
-        <v>2.207202020825291</v>
+        <v>3.166710156947247</v>
       </c>
       <c r="L34" t="n">
-        <v>29.52132702853827</v>
+        <v>30.48083516466022</v>
       </c>
       <c r="M34" t="n">
-        <v>56.83545203625125</v>
+        <v>69.6688733568824</v>
       </c>
       <c r="N34" t="n">
-        <v>84.14957704396423</v>
+        <v>108.8569115491046</v>
       </c>
       <c r="O34" t="n">
-        <v>108.4888536788635</v>
+        <v>133.1961881840039</v>
       </c>
       <c r="P34" t="n">
-        <v>108.4888536788635</v>
+        <v>133.1961881840039</v>
       </c>
       <c r="Q34" t="n">
-        <v>108.4888536788635</v>
+        <v>133.1961881840039</v>
       </c>
       <c r="R34" t="n">
-        <v>108.4888536788635</v>
+        <v>93.21247408113457</v>
       </c>
       <c r="S34" t="n">
-        <v>108.4888536788635</v>
+        <v>53.22875997826529</v>
       </c>
       <c r="T34" t="n">
-        <v>108.4888536788635</v>
+        <v>13.245045875396</v>
       </c>
       <c r="U34" t="n">
-        <v>80.62014129470579</v>
+        <v>3.166710156947247</v>
       </c>
       <c r="V34" t="n">
-        <v>80.62014129470579</v>
+        <v>3.166710156947247</v>
       </c>
       <c r="W34" t="n">
-        <v>52.75142891054807</v>
+        <v>3.166710156947247</v>
       </c>
       <c r="X34" t="n">
-        <v>52.75142891054807</v>
+        <v>3.166710156947247</v>
       </c>
       <c r="Y34" t="n">
-        <v>52.75142891054807</v>
+        <v>3.166710156947247</v>
       </c>
     </row>
     <row r="35">
@@ -6911,76 +6911,76 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>85.81333917329844</v>
+        <v>3.166710156947247</v>
       </c>
       <c r="C35" t="n">
-        <v>57.94462678914073</v>
+        <v>3.166710156947247</v>
       </c>
       <c r="D35" t="n">
-        <v>30.07591440498301</v>
+        <v>3.166710156947247</v>
       </c>
       <c r="E35" t="n">
-        <v>30.07591440498301</v>
+        <v>3.166710156947247</v>
       </c>
       <c r="F35" t="n">
-        <v>2.207202020825291</v>
+        <v>3.166710156947247</v>
       </c>
       <c r="G35" t="n">
-        <v>2.207202020825291</v>
+        <v>3.166710156947247</v>
       </c>
       <c r="H35" t="n">
-        <v>2.207202020825291</v>
+        <v>3.166710156947247</v>
       </c>
       <c r="I35" t="n">
-        <v>2.207202020825291</v>
+        <v>3.166710156947247</v>
       </c>
       <c r="J35" t="n">
-        <v>2.207202020825291</v>
+        <v>3.166710156947247</v>
       </c>
       <c r="K35" t="n">
-        <v>2.207202020825291</v>
+        <v>3.166710156947247</v>
       </c>
       <c r="L35" t="n">
-        <v>2.207202020825291</v>
+        <v>3.166710156947247</v>
       </c>
       <c r="M35" t="n">
-        <v>28.41772601812563</v>
+        <v>40.77139327069581</v>
       </c>
       <c r="N35" t="n">
-        <v>55.73185102583861</v>
+        <v>79.95943146291799</v>
       </c>
       <c r="O35" t="n">
-        <v>83.04597603355158</v>
+        <v>119.1474696551402</v>
       </c>
       <c r="P35" t="n">
-        <v>110.3601010412646</v>
+        <v>158.3355078473624</v>
       </c>
       <c r="Q35" t="n">
-        <v>110.3601010412646</v>
+        <v>148.2438924791353</v>
       </c>
       <c r="R35" t="n">
-        <v>110.3601010412646</v>
+        <v>108.260178376266</v>
       </c>
       <c r="S35" t="n">
-        <v>110.3601010412646</v>
+        <v>108.260178376266</v>
       </c>
       <c r="T35" t="n">
-        <v>110.3601010412646</v>
+        <v>83.13413836268582</v>
       </c>
       <c r="U35" t="n">
-        <v>110.3601010412646</v>
+        <v>83.13413836268582</v>
       </c>
       <c r="V35" t="n">
-        <v>110.3601010412646</v>
+        <v>43.15042425981653</v>
       </c>
       <c r="W35" t="n">
-        <v>110.3601010412646</v>
+        <v>3.166710156947247</v>
       </c>
       <c r="X35" t="n">
-        <v>110.3601010412646</v>
+        <v>3.166710156947247</v>
       </c>
       <c r="Y35" t="n">
-        <v>85.81333917329844</v>
+        <v>3.166710156947247</v>
       </c>
     </row>
     <row r="36">
@@ -6990,76 +6990,76 @@
         </is>
       </c>
       <c r="B36" t="n">
-        <v>26.7539638887914</v>
+        <v>3.166710156947247</v>
       </c>
       <c r="C36" t="n">
-        <v>26.7539638887914</v>
+        <v>3.166710156947247</v>
       </c>
       <c r="D36" t="n">
-        <v>26.7539638887914</v>
+        <v>3.166710156947247</v>
       </c>
       <c r="E36" t="n">
-        <v>26.7539638887914</v>
+        <v>3.166710156947247</v>
       </c>
       <c r="F36" t="n">
-        <v>26.7539638887914</v>
+        <v>3.166710156947247</v>
       </c>
       <c r="G36" t="n">
-        <v>2.961334673611005</v>
+        <v>3.166710156947247</v>
       </c>
       <c r="H36" t="n">
-        <v>2.961334673611005</v>
+        <v>3.166710156947247</v>
       </c>
       <c r="I36" t="n">
-        <v>2.961334673611005</v>
+        <v>3.166710156947247</v>
       </c>
       <c r="J36" t="n">
-        <v>2.207202020825291</v>
+        <v>3.166710156947247</v>
       </c>
       <c r="K36" t="n">
-        <v>28.41772601812563</v>
+        <v>42.35474834916943</v>
       </c>
       <c r="L36" t="n">
-        <v>55.73185102583861</v>
+        <v>42.35474834916943</v>
       </c>
       <c r="M36" t="n">
-        <v>83.04597603355158</v>
+        <v>79.95943146291799</v>
       </c>
       <c r="N36" t="n">
-        <v>110.3601010412646</v>
+        <v>119.1474696551402</v>
       </c>
       <c r="O36" t="n">
-        <v>110.3601010412646</v>
+        <v>119.1474696551402</v>
       </c>
       <c r="P36" t="n">
-        <v>110.3601010412646</v>
+        <v>158.3355078473624</v>
       </c>
       <c r="Q36" t="n">
-        <v>110.3601010412646</v>
+        <v>158.3355078473624</v>
       </c>
       <c r="R36" t="n">
-        <v>110.3601010412646</v>
+        <v>158.3355078473624</v>
       </c>
       <c r="S36" t="n">
-        <v>110.3601010412646</v>
+        <v>158.3355078473624</v>
       </c>
       <c r="T36" t="n">
-        <v>110.3601010412646</v>
+        <v>118.3517937444931</v>
       </c>
       <c r="U36" t="n">
-        <v>82.49138865710684</v>
+        <v>118.3517937444931</v>
       </c>
       <c r="V36" t="n">
-        <v>54.62267627294912</v>
+        <v>118.3517937444931</v>
       </c>
       <c r="W36" t="n">
-        <v>26.7539638887914</v>
+        <v>78.36807964162378</v>
       </c>
       <c r="X36" t="n">
-        <v>26.7539638887914</v>
+        <v>38.38436553875449</v>
       </c>
       <c r="Y36" t="n">
-        <v>26.7539638887914</v>
+        <v>3.166710156947247</v>
       </c>
     </row>
     <row r="37">
@@ -7069,76 +7069,76 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>2.207202020825291</v>
+        <v>28.30602982030574</v>
       </c>
       <c r="C37" t="n">
-        <v>2.207202020825291</v>
+        <v>28.30602982030574</v>
       </c>
       <c r="D37" t="n">
-        <v>2.207202020825291</v>
+        <v>28.30602982030574</v>
       </c>
       <c r="E37" t="n">
-        <v>2.207202020825291</v>
+        <v>28.30602982030574</v>
       </c>
       <c r="F37" t="n">
-        <v>2.207202020825291</v>
+        <v>28.30602982030574</v>
       </c>
       <c r="G37" t="n">
-        <v>2.207202020825291</v>
+        <v>28.30602982030574</v>
       </c>
       <c r="H37" t="n">
-        <v>2.207202020825291</v>
+        <v>28.30602982030574</v>
       </c>
       <c r="I37" t="n">
-        <v>2.207202020825291</v>
+        <v>28.30602982030574</v>
       </c>
       <c r="J37" t="n">
-        <v>2.207202020825291</v>
+        <v>28.30602982030574</v>
       </c>
       <c r="K37" t="n">
-        <v>2.207202020825291</v>
+        <v>28.30602982030574</v>
       </c>
       <c r="L37" t="n">
-        <v>29.52132702853827</v>
+        <v>55.62015482801871</v>
       </c>
       <c r="M37" t="n">
-        <v>56.83545203625125</v>
+        <v>94.80819302024089</v>
       </c>
       <c r="N37" t="n">
-        <v>84.14957704396423</v>
+        <v>133.9962312124631</v>
       </c>
       <c r="O37" t="n">
-        <v>108.4888536788635</v>
+        <v>158.3355078473624</v>
       </c>
       <c r="P37" t="n">
-        <v>108.4888536788635</v>
+        <v>158.3355078473624</v>
       </c>
       <c r="Q37" t="n">
-        <v>108.4888536788635</v>
+        <v>158.3355078473624</v>
       </c>
       <c r="R37" t="n">
-        <v>108.4888536788635</v>
+        <v>158.3355078473624</v>
       </c>
       <c r="S37" t="n">
-        <v>108.4888536788635</v>
+        <v>158.3355078473624</v>
       </c>
       <c r="T37" t="n">
-        <v>108.4888536788635</v>
+        <v>158.3355078473624</v>
       </c>
       <c r="U37" t="n">
-        <v>108.4888536788635</v>
+        <v>118.3517937444931</v>
       </c>
       <c r="V37" t="n">
-        <v>80.62014129470579</v>
+        <v>78.36807964162378</v>
       </c>
       <c r="W37" t="n">
-        <v>52.75142891054807</v>
+        <v>38.38436553875449</v>
       </c>
       <c r="X37" t="n">
-        <v>24.88271652639035</v>
+        <v>28.30602982030574</v>
       </c>
       <c r="Y37" t="n">
-        <v>2.207202020825291</v>
+        <v>28.30602982030574</v>
       </c>
     </row>
     <row r="38">
@@ -7148,76 +7148,76 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>54.62267627294912</v>
+        <v>3.166710156947247</v>
       </c>
       <c r="C38" t="n">
-        <v>54.62267627294912</v>
+        <v>3.166710156947247</v>
       </c>
       <c r="D38" t="n">
-        <v>30.07591440498301</v>
+        <v>3.166710156947247</v>
       </c>
       <c r="E38" t="n">
-        <v>2.207202020825291</v>
+        <v>3.166710156947247</v>
       </c>
       <c r="F38" t="n">
-        <v>2.207202020825291</v>
+        <v>3.166710156947247</v>
       </c>
       <c r="G38" t="n">
-        <v>2.207202020825291</v>
+        <v>3.166710156947247</v>
       </c>
       <c r="H38" t="n">
-        <v>2.207202020825291</v>
+        <v>3.166710156947247</v>
       </c>
       <c r="I38" t="n">
-        <v>2.207202020825291</v>
+        <v>3.166710156947247</v>
       </c>
       <c r="J38" t="n">
-        <v>2.207202020825291</v>
+        <v>3.166710156947247</v>
       </c>
       <c r="K38" t="n">
-        <v>2.207202020825291</v>
+        <v>40.77139327069581</v>
       </c>
       <c r="L38" t="n">
-        <v>29.52132702853827</v>
+        <v>79.95943146291799</v>
       </c>
       <c r="M38" t="n">
-        <v>56.83545203625125</v>
+        <v>119.1474696551402</v>
       </c>
       <c r="N38" t="n">
-        <v>84.14957704396423</v>
+        <v>119.1474696551402</v>
       </c>
       <c r="O38" t="n">
-        <v>110.3601010412646</v>
+        <v>158.3355078473624</v>
       </c>
       <c r="P38" t="n">
-        <v>110.3601010412646</v>
+        <v>158.3355078473624</v>
       </c>
       <c r="Q38" t="n">
-        <v>110.3601010412646</v>
+        <v>158.3355078473624</v>
       </c>
       <c r="R38" t="n">
-        <v>110.3601010412646</v>
+        <v>158.3355078473624</v>
       </c>
       <c r="S38" t="n">
-        <v>110.3601010412646</v>
+        <v>118.3517937444931</v>
       </c>
       <c r="T38" t="n">
-        <v>110.3601010412646</v>
+        <v>78.36807964162378</v>
       </c>
       <c r="U38" t="n">
-        <v>110.3601010412646</v>
+        <v>38.38436553875449</v>
       </c>
       <c r="V38" t="n">
-        <v>110.3601010412646</v>
+        <v>3.166710156947247</v>
       </c>
       <c r="W38" t="n">
-        <v>110.3601010412646</v>
+        <v>3.166710156947247</v>
       </c>
       <c r="X38" t="n">
-        <v>110.3601010412646</v>
+        <v>3.166710156947247</v>
       </c>
       <c r="Y38" t="n">
-        <v>82.49138865710684</v>
+        <v>3.166710156947247</v>
       </c>
     </row>
     <row r="39">
@@ -7227,76 +7227,76 @@
         </is>
       </c>
       <c r="B39" t="n">
-        <v>82.49138865710684</v>
+        <v>78.36807964162378</v>
       </c>
       <c r="C39" t="n">
-        <v>54.62267627294912</v>
+        <v>78.36807964162378</v>
       </c>
       <c r="D39" t="n">
-        <v>54.62267627294912</v>
+        <v>78.36807964162378</v>
       </c>
       <c r="E39" t="n">
-        <v>54.62267627294912</v>
+        <v>38.38436553875449</v>
       </c>
       <c r="F39" t="n">
-        <v>26.7539638887914</v>
+        <v>38.38436553875449</v>
       </c>
       <c r="G39" t="n">
-        <v>2.207202020825291</v>
+        <v>3.166710156947247</v>
       </c>
       <c r="H39" t="n">
-        <v>2.207202020825291</v>
+        <v>3.166710156947247</v>
       </c>
       <c r="I39" t="n">
-        <v>2.207202020825291</v>
+        <v>3.166710156947247</v>
       </c>
       <c r="J39" t="n">
-        <v>2.207202020825291</v>
+        <v>3.166710156947247</v>
       </c>
       <c r="K39" t="n">
-        <v>29.52132702853827</v>
+        <v>3.166710156947247</v>
       </c>
       <c r="L39" t="n">
-        <v>56.83545203625125</v>
+        <v>3.166710156947247</v>
       </c>
       <c r="M39" t="n">
-        <v>84.14957704396423</v>
+        <v>42.35474834916943</v>
       </c>
       <c r="N39" t="n">
-        <v>110.3601010412646</v>
+        <v>81.54278654139161</v>
       </c>
       <c r="O39" t="n">
-        <v>110.3601010412646</v>
+        <v>119.1474696551402</v>
       </c>
       <c r="P39" t="n">
-        <v>110.3601010412646</v>
+        <v>119.1474696551402</v>
       </c>
       <c r="Q39" t="n">
-        <v>110.3601010412646</v>
+        <v>158.3355078473624</v>
       </c>
       <c r="R39" t="n">
-        <v>110.3601010412646</v>
+        <v>158.3355078473624</v>
       </c>
       <c r="S39" t="n">
-        <v>110.3601010412646</v>
+        <v>158.3355078473624</v>
       </c>
       <c r="T39" t="n">
-        <v>110.3601010412646</v>
+        <v>158.3355078473624</v>
       </c>
       <c r="U39" t="n">
-        <v>110.3601010412646</v>
+        <v>118.3517937444931</v>
       </c>
       <c r="V39" t="n">
-        <v>110.3601010412646</v>
+        <v>118.3517937444931</v>
       </c>
       <c r="W39" t="n">
-        <v>110.3601010412646</v>
+        <v>118.3517937444931</v>
       </c>
       <c r="X39" t="n">
-        <v>110.3601010412646</v>
+        <v>78.36807964162378</v>
       </c>
       <c r="Y39" t="n">
-        <v>110.3601010412646</v>
+        <v>78.36807964162378</v>
       </c>
     </row>
     <row r="40">
@@ -7306,76 +7306,76 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>2.207202020825291</v>
+        <v>3.166710156947247</v>
       </c>
       <c r="C40" t="n">
-        <v>2.207202020825291</v>
+        <v>3.166710156947247</v>
       </c>
       <c r="D40" t="n">
-        <v>2.207202020825291</v>
+        <v>3.166710156947247</v>
       </c>
       <c r="E40" t="n">
-        <v>2.207202020825291</v>
+        <v>3.166710156947247</v>
       </c>
       <c r="F40" t="n">
-        <v>2.207202020825291</v>
+        <v>3.166710156947247</v>
       </c>
       <c r="G40" t="n">
-        <v>2.207202020825291</v>
+        <v>3.166710156947247</v>
       </c>
       <c r="H40" t="n">
-        <v>2.207202020825291</v>
+        <v>3.166710156947247</v>
       </c>
       <c r="I40" t="n">
-        <v>2.207202020825291</v>
+        <v>3.166710156947247</v>
       </c>
       <c r="J40" t="n">
-        <v>2.207202020825291</v>
+        <v>3.166710156947247</v>
       </c>
       <c r="K40" t="n">
-        <v>2.207202020825291</v>
+        <v>3.166710156947247</v>
       </c>
       <c r="L40" t="n">
-        <v>29.52132702853827</v>
+        <v>30.48083516466022</v>
       </c>
       <c r="M40" t="n">
-        <v>56.83545203625125</v>
+        <v>69.6688733568824</v>
       </c>
       <c r="N40" t="n">
-        <v>84.14957704396423</v>
+        <v>108.8569115491046</v>
       </c>
       <c r="O40" t="n">
-        <v>108.4888536788635</v>
+        <v>133.1961881840039</v>
       </c>
       <c r="P40" t="n">
-        <v>108.4888536788635</v>
+        <v>133.1961881840039</v>
       </c>
       <c r="Q40" t="n">
-        <v>80.62014129470579</v>
+        <v>93.21247408113457</v>
       </c>
       <c r="R40" t="n">
-        <v>80.62014129470579</v>
+        <v>93.21247408113457</v>
       </c>
       <c r="S40" t="n">
-        <v>52.75142891054807</v>
+        <v>93.21247408113457</v>
       </c>
       <c r="T40" t="n">
-        <v>52.75142891054807</v>
+        <v>93.21247408113457</v>
       </c>
       <c r="U40" t="n">
-        <v>24.88271652639035</v>
+        <v>93.21247408113457</v>
       </c>
       <c r="V40" t="n">
-        <v>2.207202020825291</v>
+        <v>53.22875997826529</v>
       </c>
       <c r="W40" t="n">
-        <v>2.207202020825291</v>
+        <v>53.22875997826529</v>
       </c>
       <c r="X40" t="n">
-        <v>2.207202020825291</v>
+        <v>53.22875997826529</v>
       </c>
       <c r="Y40" t="n">
-        <v>2.207202020825291</v>
+        <v>13.245045875396</v>
       </c>
     </row>
     <row r="41">
@@ -7385,76 +7385,76 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>2.207202020825291</v>
+        <v>3.166710156947247</v>
       </c>
       <c r="C41" t="n">
-        <v>2.207202020825291</v>
+        <v>3.166710156947247</v>
       </c>
       <c r="D41" t="n">
-        <v>2.207202020825291</v>
+        <v>3.166710156947247</v>
       </c>
       <c r="E41" t="n">
-        <v>2.207202020825291</v>
+        <v>3.166710156947247</v>
       </c>
       <c r="F41" t="n">
-        <v>2.207202020825291</v>
+        <v>3.166710156947247</v>
       </c>
       <c r="G41" t="n">
-        <v>2.207202020825291</v>
+        <v>3.166710156947247</v>
       </c>
       <c r="H41" t="n">
-        <v>2.207202020825291</v>
+        <v>3.166710156947247</v>
       </c>
       <c r="I41" t="n">
-        <v>2.207202020825291</v>
+        <v>3.166710156947247</v>
       </c>
       <c r="J41" t="n">
-        <v>2.207202020825291</v>
+        <v>3.166710156947247</v>
       </c>
       <c r="K41" t="n">
-        <v>29.52132702853827</v>
+        <v>40.77139327069581</v>
       </c>
       <c r="L41" t="n">
-        <v>56.83545203625125</v>
+        <v>40.77139327069581</v>
       </c>
       <c r="M41" t="n">
-        <v>83.04597603355158</v>
+        <v>40.77139327069581</v>
       </c>
       <c r="N41" t="n">
-        <v>83.04597603355158</v>
+        <v>79.95943146291799</v>
       </c>
       <c r="O41" t="n">
-        <v>110.3601010412646</v>
+        <v>119.1474696551402</v>
       </c>
       <c r="P41" t="n">
-        <v>110.3601010412646</v>
+        <v>158.3355078473624</v>
       </c>
       <c r="Q41" t="n">
-        <v>100.2684856730375</v>
+        <v>148.2438924791353</v>
       </c>
       <c r="R41" t="n">
-        <v>100.2684856730375</v>
+        <v>148.2438924791353</v>
       </c>
       <c r="S41" t="n">
-        <v>100.2684856730375</v>
+        <v>108.260178376266</v>
       </c>
       <c r="T41" t="n">
-        <v>100.2684856730375</v>
+        <v>108.260178376266</v>
       </c>
       <c r="U41" t="n">
-        <v>100.2684856730375</v>
+        <v>108.260178376266</v>
       </c>
       <c r="V41" t="n">
-        <v>85.81333917329844</v>
+        <v>68.2764642733967</v>
       </c>
       <c r="W41" t="n">
-        <v>57.94462678914073</v>
+        <v>43.15042425981653</v>
       </c>
       <c r="X41" t="n">
-        <v>30.07591440498301</v>
+        <v>3.166710156947247</v>
       </c>
       <c r="Y41" t="n">
-        <v>2.207202020825291</v>
+        <v>3.166710156947247</v>
       </c>
     </row>
     <row r="42">
@@ -7464,76 +7464,76 @@
         </is>
       </c>
       <c r="B42" t="n">
-        <v>26.7539638887914</v>
+        <v>43.15042425981653</v>
       </c>
       <c r="C42" t="n">
-        <v>26.7539638887914</v>
+        <v>3.166710156947247</v>
       </c>
       <c r="D42" t="n">
-        <v>26.7539638887914</v>
+        <v>3.166710156947247</v>
       </c>
       <c r="E42" t="n">
-        <v>26.7539638887914</v>
+        <v>3.166710156947247</v>
       </c>
       <c r="F42" t="n">
-        <v>26.7539638887914</v>
+        <v>3.166710156947247</v>
       </c>
       <c r="G42" t="n">
-        <v>2.207202020825291</v>
+        <v>3.166710156947247</v>
       </c>
       <c r="H42" t="n">
-        <v>2.207202020825291</v>
+        <v>3.166710156947247</v>
       </c>
       <c r="I42" t="n">
-        <v>2.207202020825291</v>
+        <v>3.166710156947247</v>
       </c>
       <c r="J42" t="n">
-        <v>2.207202020825291</v>
+        <v>3.166710156947247</v>
       </c>
       <c r="K42" t="n">
-        <v>2.207202020825291</v>
+        <v>3.166710156947247</v>
       </c>
       <c r="L42" t="n">
-        <v>2.207202020825291</v>
+        <v>3.166710156947247</v>
       </c>
       <c r="M42" t="n">
-        <v>29.52132702853827</v>
+        <v>40.77139327069581</v>
       </c>
       <c r="N42" t="n">
-        <v>56.83545203625125</v>
+        <v>79.95943146291799</v>
       </c>
       <c r="O42" t="n">
-        <v>84.14957704396423</v>
+        <v>119.1474696551402</v>
       </c>
       <c r="P42" t="n">
-        <v>110.3601010412646</v>
+        <v>158.3355078473624</v>
       </c>
       <c r="Q42" t="n">
-        <v>110.3601010412646</v>
+        <v>158.3355078473624</v>
       </c>
       <c r="R42" t="n">
-        <v>82.49138865710684</v>
+        <v>123.1178524655551</v>
       </c>
       <c r="S42" t="n">
-        <v>82.49138865710684</v>
+        <v>123.1178524655551</v>
       </c>
       <c r="T42" t="n">
-        <v>54.62267627294912</v>
+        <v>123.1178524655551</v>
       </c>
       <c r="U42" t="n">
-        <v>26.7539638887914</v>
+        <v>83.13413836268582</v>
       </c>
       <c r="V42" t="n">
-        <v>26.7539638887914</v>
+        <v>83.13413836268582</v>
       </c>
       <c r="W42" t="n">
-        <v>26.7539638887914</v>
+        <v>83.13413836268582</v>
       </c>
       <c r="X42" t="n">
-        <v>26.7539638887914</v>
+        <v>83.13413836268582</v>
       </c>
       <c r="Y42" t="n">
-        <v>26.7539638887914</v>
+        <v>83.13413836268582</v>
       </c>
     </row>
     <row r="43">
@@ -7543,76 +7543,76 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>52.75142891054807</v>
+        <v>83.13413836268582</v>
       </c>
       <c r="C43" t="n">
-        <v>52.75142891054807</v>
+        <v>43.15042425981653</v>
       </c>
       <c r="D43" t="n">
-        <v>52.75142891054807</v>
+        <v>3.166710156947247</v>
       </c>
       <c r="E43" t="n">
-        <v>52.75142891054807</v>
+        <v>3.166710156947247</v>
       </c>
       <c r="F43" t="n">
-        <v>52.75142891054807</v>
+        <v>3.166710156947247</v>
       </c>
       <c r="G43" t="n">
-        <v>30.07591440498301</v>
+        <v>3.166710156947247</v>
       </c>
       <c r="H43" t="n">
-        <v>2.207202020825291</v>
+        <v>3.166710156947247</v>
       </c>
       <c r="I43" t="n">
-        <v>2.207202020825291</v>
+        <v>3.166710156947247</v>
       </c>
       <c r="J43" t="n">
-        <v>2.207202020825291</v>
+        <v>3.166710156947247</v>
       </c>
       <c r="K43" t="n">
-        <v>2.207202020825291</v>
+        <v>3.166710156947247</v>
       </c>
       <c r="L43" t="n">
-        <v>29.52132702853827</v>
+        <v>30.48083516466022</v>
       </c>
       <c r="M43" t="n">
-        <v>56.83545203625125</v>
+        <v>69.6688733568824</v>
       </c>
       <c r="N43" t="n">
-        <v>84.14957704396423</v>
+        <v>108.8569115491046</v>
       </c>
       <c r="O43" t="n">
-        <v>108.4888536788635</v>
+        <v>133.1961881840039</v>
       </c>
       <c r="P43" t="n">
-        <v>108.4888536788635</v>
+        <v>133.1961881840039</v>
       </c>
       <c r="Q43" t="n">
-        <v>108.4888536788635</v>
+        <v>133.1961881840039</v>
       </c>
       <c r="R43" t="n">
-        <v>108.4888536788635</v>
+        <v>133.1961881840039</v>
       </c>
       <c r="S43" t="n">
-        <v>108.4888536788635</v>
+        <v>133.1961881840039</v>
       </c>
       <c r="T43" t="n">
-        <v>108.4888536788635</v>
+        <v>133.1961881840039</v>
       </c>
       <c r="U43" t="n">
-        <v>80.62014129470579</v>
+        <v>133.1961881840039</v>
       </c>
       <c r="V43" t="n">
-        <v>80.62014129470579</v>
+        <v>133.1961881840039</v>
       </c>
       <c r="W43" t="n">
-        <v>80.62014129470579</v>
+        <v>133.1961881840039</v>
       </c>
       <c r="X43" t="n">
-        <v>80.62014129470579</v>
+        <v>133.1961881840039</v>
       </c>
       <c r="Y43" t="n">
-        <v>52.75142891054807</v>
+        <v>123.1178524655551</v>
       </c>
     </row>
     <row r="44">
@@ -9401,22 +9401,22 @@
         <v>169.0966151720738</v>
       </c>
       <c r="K20" t="n">
-        <v>247.6798763052967</v>
+        <v>259.6737280068211</v>
       </c>
       <c r="L20" t="n">
-        <v>263.3564402303034</v>
+        <v>275.3502919318278</v>
       </c>
       <c r="M20" t="n">
-        <v>257.9362584875889</v>
+        <v>268.3307616249986</v>
       </c>
       <c r="N20" t="n">
-        <v>255.8883403615407</v>
+        <v>229.4130635965909</v>
       </c>
       <c r="O20" t="n">
         <v>230.0982114216867</v>
       </c>
       <c r="P20" t="n">
-        <v>231.2329957552695</v>
+        <v>270.8168727171101</v>
       </c>
       <c r="Q20" t="n">
         <v>212.3149906599047</v>
@@ -9480,25 +9480,25 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K21" t="n">
-        <v>137.841438974359</v>
+        <v>175.8259673720848</v>
       </c>
       <c r="L21" t="n">
-        <v>165.029656544824</v>
+        <v>138.5543797798742</v>
       </c>
       <c r="M21" t="n">
-        <v>169.7240591823345</v>
+        <v>181.7179108838589</v>
       </c>
       <c r="N21" t="n">
-        <v>158.9317373436494</v>
+        <v>170.9255890451739</v>
       </c>
       <c r="O21" t="n">
-        <v>170.1862697047606</v>
+        <v>142.5962444444444</v>
       </c>
       <c r="P21" t="n">
         <v>133.9744074143302</v>
       </c>
       <c r="Q21" t="n">
-        <v>139.9817740860215</v>
+        <v>179.5656510478621</v>
       </c>
       <c r="R21" t="n">
         <v>45.52166981132082</v>
@@ -9565,10 +9565,10 @@
         <v>162.4747015415544</v>
       </c>
       <c r="M22" t="n">
-        <v>166.5158092079212</v>
+        <v>178.5096609094456</v>
       </c>
       <c r="N22" t="n">
-        <v>155.2755697255493</v>
+        <v>167.2694214270738</v>
       </c>
       <c r="O22" t="n">
         <v>163.0416663658825</v>
@@ -9638,22 +9638,22 @@
         <v>169.0966151720738</v>
       </c>
       <c r="K23" t="n">
-        <v>247.6798763052967</v>
+        <v>220.0898510449805</v>
       </c>
       <c r="L23" t="n">
-        <v>262.2416917349371</v>
+        <v>235.7664149699872</v>
       </c>
       <c r="M23" t="n">
-        <v>257.9362584875889</v>
+        <v>269.9301101891133</v>
       </c>
       <c r="N23" t="n">
-        <v>229.4130635965909</v>
+        <v>268.9969405584315</v>
       </c>
       <c r="O23" t="n">
-        <v>257.6882366820029</v>
+        <v>269.6820883835273</v>
       </c>
       <c r="P23" t="n">
-        <v>231.2329957552695</v>
+        <v>269.2175241529953</v>
       </c>
       <c r="Q23" t="n">
         <v>212.3149906599047</v>
@@ -9717,25 +9717,25 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K24" t="n">
-        <v>137.841438974359</v>
+        <v>177.4253159361996</v>
       </c>
       <c r="L24" t="n">
-        <v>138.5543797798742</v>
+        <v>178.1382567417148</v>
       </c>
       <c r="M24" t="n">
-        <v>168.6093106869681</v>
+        <v>181.7179108838589</v>
       </c>
       <c r="N24" t="n">
-        <v>158.9317373436494</v>
+        <v>169.3262404810591</v>
       </c>
       <c r="O24" t="n">
-        <v>170.1862697047606</v>
+        <v>142.5962444444444</v>
       </c>
       <c r="P24" t="n">
         <v>133.9744074143302</v>
       </c>
       <c r="Q24" t="n">
-        <v>167.5717993463377</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R24" t="n">
         <v>45.52166981132082</v>
@@ -9802,10 +9802,10 @@
         <v>162.4747015415544</v>
       </c>
       <c r="M25" t="n">
-        <v>166.5158092079212</v>
+        <v>178.5096609094456</v>
       </c>
       <c r="N25" t="n">
-        <v>155.2755697255493</v>
+        <v>167.2694214270738</v>
       </c>
       <c r="O25" t="n">
         <v>163.0416663658825</v>
@@ -9875,22 +9875,22 @@
         <v>169.0966151720738</v>
       </c>
       <c r="K26" t="n">
-        <v>247.6798763052967</v>
+        <v>258.0743794427063</v>
       </c>
       <c r="L26" t="n">
-        <v>263.3564402303034</v>
+        <v>275.3502919318278</v>
       </c>
       <c r="M26" t="n">
-        <v>257.9362584875889</v>
+        <v>269.9301101891133</v>
       </c>
       <c r="N26" t="n">
         <v>229.4130635965909</v>
       </c>
       <c r="O26" t="n">
-        <v>256.5734881866366</v>
+        <v>230.0982114216867</v>
       </c>
       <c r="P26" t="n">
-        <v>231.2329957552695</v>
+        <v>270.8168727171101</v>
       </c>
       <c r="Q26" t="n">
         <v>212.3149906599047</v>
@@ -9954,22 +9954,22 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K27" t="n">
-        <v>137.841438974359</v>
+        <v>177.4253159361996</v>
       </c>
       <c r="L27" t="n">
-        <v>166.1444050401903</v>
+        <v>178.1382567417148</v>
       </c>
       <c r="M27" t="n">
-        <v>169.7240591823345</v>
+        <v>180.1185623197441</v>
       </c>
       <c r="N27" t="n">
-        <v>158.9317373436494</v>
+        <v>131.3417120833333</v>
       </c>
       <c r="O27" t="n">
-        <v>142.5962444444444</v>
+        <v>182.180121406285</v>
       </c>
       <c r="P27" t="n">
-        <v>160.4496841792801</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q27" t="n">
         <v>139.9817740860215</v>
@@ -10039,10 +10039,10 @@
         <v>162.4747015415544</v>
       </c>
       <c r="M28" t="n">
-        <v>166.5158092079212</v>
+        <v>178.5096609094456</v>
       </c>
       <c r="N28" t="n">
-        <v>155.2755697255493</v>
+        <v>167.2694214270738</v>
       </c>
       <c r="O28" t="n">
         <v>163.0416663658825</v>
@@ -10115,19 +10115,19 @@
         <v>220.0898510449805</v>
       </c>
       <c r="L29" t="n">
-        <v>263.3564402303034</v>
+        <v>275.3502919318278</v>
       </c>
       <c r="M29" t="n">
-        <v>256.8215099922226</v>
+        <v>269.9301101891133</v>
       </c>
       <c r="N29" t="n">
-        <v>229.4130635965909</v>
+        <v>268.9969405584315</v>
       </c>
       <c r="O29" t="n">
-        <v>257.6882366820029</v>
+        <v>268.0827398194126</v>
       </c>
       <c r="P29" t="n">
-        <v>258.8230210155857</v>
+        <v>231.2329957552695</v>
       </c>
       <c r="Q29" t="n">
         <v>212.3149906599047</v>
@@ -10191,16 +10191,16 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K30" t="n">
-        <v>165.4314642346751</v>
+        <v>137.841438974359</v>
       </c>
       <c r="L30" t="n">
-        <v>166.1444050401903</v>
+        <v>178.1382567417148</v>
       </c>
       <c r="M30" t="n">
-        <v>168.6093106869681</v>
+        <v>181.7179108838589</v>
       </c>
       <c r="N30" t="n">
-        <v>131.3417120833333</v>
+        <v>169.3262404810591</v>
       </c>
       <c r="O30" t="n">
         <v>142.5962444444444</v>
@@ -10209,7 +10209,7 @@
         <v>133.9744074143302</v>
       </c>
       <c r="Q30" t="n">
-        <v>167.5717993463377</v>
+        <v>179.5656510478621</v>
       </c>
       <c r="R30" t="n">
         <v>45.52166981132082</v>
@@ -10276,10 +10276,10 @@
         <v>162.4747015415544</v>
       </c>
       <c r="M31" t="n">
-        <v>166.5158092079212</v>
+        <v>178.5096609094456</v>
       </c>
       <c r="N31" t="n">
-        <v>155.2755697255493</v>
+        <v>167.2694214270738</v>
       </c>
       <c r="O31" t="n">
         <v>163.0416663658825</v>
@@ -10349,22 +10349,22 @@
         <v>169.0966151720738</v>
       </c>
       <c r="K32" t="n">
-        <v>247.6798763052967</v>
+        <v>259.6737280068211</v>
       </c>
       <c r="L32" t="n">
-        <v>263.3564402303034</v>
+        <v>235.7664149699872</v>
       </c>
       <c r="M32" t="n">
-        <v>257.9362584875889</v>
+        <v>269.9301101891133</v>
       </c>
       <c r="N32" t="n">
-        <v>255.8883403615407</v>
+        <v>229.4130635965909</v>
       </c>
       <c r="O32" t="n">
-        <v>230.0982114216867</v>
+        <v>268.0827398194126</v>
       </c>
       <c r="P32" t="n">
-        <v>231.2329957552695</v>
+        <v>270.8168727171101</v>
       </c>
       <c r="Q32" t="n">
         <v>212.3149906599047</v>
@@ -10428,7 +10428,7 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K33" t="n">
-        <v>165.4314642346751</v>
+        <v>177.4253159361996</v>
       </c>
       <c r="L33" t="n">
         <v>138.5543797798742</v>
@@ -10437,16 +10437,16 @@
         <v>142.1340339220183</v>
       </c>
       <c r="N33" t="n">
-        <v>157.8169888482831</v>
+        <v>169.3262404810591</v>
       </c>
       <c r="O33" t="n">
-        <v>170.1862697047606</v>
+        <v>182.180121406285</v>
       </c>
       <c r="P33" t="n">
-        <v>161.5644326746464</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q33" t="n">
-        <v>139.9817740860215</v>
+        <v>179.5656510478621</v>
       </c>
       <c r="R33" t="n">
         <v>45.52166981132082</v>
@@ -10513,10 +10513,10 @@
         <v>162.4747015415544</v>
       </c>
       <c r="M34" t="n">
-        <v>166.5158092079212</v>
+        <v>178.5096609094456</v>
       </c>
       <c r="N34" t="n">
-        <v>155.2755697255493</v>
+        <v>167.2694214270738</v>
       </c>
       <c r="O34" t="n">
         <v>163.0416663658825</v>
@@ -10592,16 +10592,16 @@
         <v>235.7664149699872</v>
       </c>
       <c r="M35" t="n">
-        <v>256.8215099922226</v>
+        <v>268.3307616249986</v>
       </c>
       <c r="N35" t="n">
-        <v>257.0030888569071</v>
+        <v>268.9969405584315</v>
       </c>
       <c r="O35" t="n">
-        <v>257.6882366820029</v>
+        <v>269.6820883835273</v>
       </c>
       <c r="P35" t="n">
-        <v>258.8230210155857</v>
+        <v>270.8168727171101</v>
       </c>
       <c r="Q35" t="n">
         <v>212.3149906599047</v>
@@ -10665,22 +10665,22 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K36" t="n">
-        <v>164.3167157393088</v>
+        <v>177.4253159361996</v>
       </c>
       <c r="L36" t="n">
-        <v>166.1444050401903</v>
+        <v>138.5543797798742</v>
       </c>
       <c r="M36" t="n">
-        <v>169.7240591823345</v>
+        <v>180.1185623197441</v>
       </c>
       <c r="N36" t="n">
-        <v>158.9317373436494</v>
+        <v>170.9255890451739</v>
       </c>
       <c r="O36" t="n">
         <v>142.5962444444444</v>
       </c>
       <c r="P36" t="n">
-        <v>133.9744074143302</v>
+        <v>173.5582843761708</v>
       </c>
       <c r="Q36" t="n">
         <v>139.9817740860215</v>
@@ -10750,10 +10750,10 @@
         <v>162.4747015415544</v>
       </c>
       <c r="M37" t="n">
-        <v>166.5158092079212</v>
+        <v>178.5096609094456</v>
       </c>
       <c r="N37" t="n">
-        <v>155.2755697255493</v>
+        <v>167.2694214270738</v>
       </c>
       <c r="O37" t="n">
         <v>163.0416663658825</v>
@@ -10823,19 +10823,19 @@
         <v>169.0966151720738</v>
       </c>
       <c r="K38" t="n">
-        <v>220.0898510449805</v>
+        <v>258.0743794427063</v>
       </c>
       <c r="L38" t="n">
-        <v>263.3564402303034</v>
+        <v>275.3502919318278</v>
       </c>
       <c r="M38" t="n">
-        <v>257.9362584875889</v>
+        <v>269.9301101891133</v>
       </c>
       <c r="N38" t="n">
-        <v>257.0030888569071</v>
+        <v>229.4130635965909</v>
       </c>
       <c r="O38" t="n">
-        <v>256.5734881866366</v>
+        <v>269.6820883835273</v>
       </c>
       <c r="P38" t="n">
         <v>231.2329957552695</v>
@@ -10902,25 +10902,25 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K39" t="n">
-        <v>165.4314642346751</v>
+        <v>137.841438974359</v>
       </c>
       <c r="L39" t="n">
-        <v>166.1444050401903</v>
+        <v>138.5543797798742</v>
       </c>
       <c r="M39" t="n">
-        <v>169.7240591823345</v>
+        <v>181.7179108838589</v>
       </c>
       <c r="N39" t="n">
-        <v>157.8169888482831</v>
+        <v>170.9255890451739</v>
       </c>
       <c r="O39" t="n">
-        <v>142.5962444444444</v>
+        <v>180.5807728421703</v>
       </c>
       <c r="P39" t="n">
         <v>133.9744074143302</v>
       </c>
       <c r="Q39" t="n">
-        <v>139.9817740860215</v>
+        <v>179.5656510478621</v>
       </c>
       <c r="R39" t="n">
         <v>45.52166981132082</v>
@@ -10987,10 +10987,10 @@
         <v>162.4747015415544</v>
       </c>
       <c r="M40" t="n">
-        <v>166.5158092079212</v>
+        <v>178.5096609094456</v>
       </c>
       <c r="N40" t="n">
-        <v>155.2755697255493</v>
+        <v>167.2694214270738</v>
       </c>
       <c r="O40" t="n">
         <v>163.0416663658825</v>
@@ -11060,22 +11060,22 @@
         <v>169.0966151720738</v>
       </c>
       <c r="K41" t="n">
-        <v>247.6798763052967</v>
+        <v>258.0743794427063</v>
       </c>
       <c r="L41" t="n">
-        <v>263.3564402303034</v>
+        <v>235.7664149699872</v>
       </c>
       <c r="M41" t="n">
-        <v>256.8215099922226</v>
+        <v>230.3462332272727</v>
       </c>
       <c r="N41" t="n">
-        <v>229.4130635965909</v>
+        <v>268.9969405584315</v>
       </c>
       <c r="O41" t="n">
-        <v>257.6882366820029</v>
+        <v>269.6820883835273</v>
       </c>
       <c r="P41" t="n">
-        <v>231.2329957552695</v>
+        <v>270.8168727171101</v>
       </c>
       <c r="Q41" t="n">
         <v>212.3149906599047</v>
@@ -11145,16 +11145,16 @@
         <v>138.5543797798742</v>
       </c>
       <c r="M42" t="n">
-        <v>169.7240591823345</v>
+        <v>180.1185623197441</v>
       </c>
       <c r="N42" t="n">
-        <v>158.9317373436494</v>
+        <v>170.9255890451739</v>
       </c>
       <c r="O42" t="n">
-        <v>170.1862697047606</v>
+        <v>182.180121406285</v>
       </c>
       <c r="P42" t="n">
-        <v>160.4496841792801</v>
+        <v>173.5582843761708</v>
       </c>
       <c r="Q42" t="n">
         <v>139.9817740860215</v>
@@ -11224,10 +11224,10 @@
         <v>162.4747015415544</v>
       </c>
       <c r="M43" t="n">
-        <v>166.5158092079212</v>
+        <v>178.5096609094456</v>
       </c>
       <c r="N43" t="n">
-        <v>155.2755697255493</v>
+        <v>167.2694214270738</v>
       </c>
       <c r="O43" t="n">
         <v>163.0416663658825</v>
@@ -23969,7 +23969,7 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C20" t="n">
-        <v>350.9622967362659</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D20" t="n">
         <v>354.683041620683</v>
@@ -24014,22 +24014,22 @@
         <v>0</v>
       </c>
       <c r="R20" t="n">
-        <v>149.8691179411497</v>
+        <v>110.2852409793091</v>
       </c>
       <c r="S20" t="n">
-        <v>181.4300443259292</v>
+        <v>169.4361926244048</v>
       </c>
       <c r="T20" t="n">
-        <v>195.5058243038152</v>
+        <v>183.5119726022908</v>
       </c>
       <c r="U20" t="n">
         <v>251.3456529078365</v>
       </c>
       <c r="V20" t="n">
-        <v>300.1622332098187</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W20" t="n">
-        <v>349.240968717413</v>
+        <v>324.3661891039686</v>
       </c>
       <c r="X20" t="n">
         <v>369.731100678469</v>
@@ -24045,13 +24045,13 @@
         </is>
       </c>
       <c r="B21" t="n">
-        <v>142.2318894005809</v>
+        <v>166.5331836498673</v>
       </c>
       <c r="C21" t="n">
-        <v>172.7084989883157</v>
+        <v>133.1246220264752</v>
       </c>
       <c r="D21" t="n">
-        <v>147.4450655646388</v>
+        <v>112.5795867366496</v>
       </c>
       <c r="E21" t="n">
         <v>157.6450804554009</v>
@@ -24060,7 +24060,7 @@
         <v>145.0692123933839</v>
       </c>
       <c r="G21" t="n">
-        <v>109.7534919028945</v>
+        <v>137.3435171632106</v>
       </c>
       <c r="H21" t="n">
         <v>112.2354442364965</v>
@@ -24093,19 +24093,19 @@
         <v>0</v>
       </c>
       <c r="R21" t="n">
-        <v>72.56780889232699</v>
+        <v>100.1578341526431</v>
       </c>
       <c r="S21" t="n">
         <v>171.6831711038378</v>
       </c>
       <c r="T21" t="n">
-        <v>172.5747034345055</v>
+        <v>160.580851732981</v>
       </c>
       <c r="U21" t="n">
         <v>225.9413820809748</v>
       </c>
       <c r="V21" t="n">
-        <v>232.8005871494253</v>
+        <v>193.2167101875847</v>
       </c>
       <c r="W21" t="n">
         <v>251.6949831609196</v>
@@ -24124,13 +24124,13 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>179.8319801819373</v>
+        <v>140.2481032200967</v>
       </c>
       <c r="C22" t="n">
-        <v>167.2468210986278</v>
+        <v>157.2692687373636</v>
       </c>
       <c r="D22" t="n">
-        <v>126.166713657703</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E22" t="n">
         <v>146.4339626465692</v>
@@ -24148,7 +24148,7 @@
         <v>155.4504749272583</v>
       </c>
       <c r="J22" t="n">
-        <v>65.76915485635664</v>
+        <v>93.35918011667277</v>
       </c>
       <c r="K22" t="n">
         <v>22.26949182588285</v>
@@ -24181,19 +24181,19 @@
         <v>227.9455894282815</v>
       </c>
       <c r="U22" t="n">
-        <v>258.7290040961748</v>
+        <v>286.3190293564909</v>
       </c>
       <c r="V22" t="n">
         <v>252.137643323828</v>
       </c>
       <c r="W22" t="n">
-        <v>258.9329730762748</v>
+        <v>246.9391213747504</v>
       </c>
       <c r="X22" t="n">
         <v>225.7096553890372</v>
       </c>
       <c r="Y22" t="n">
-        <v>218.5846533520948</v>
+        <v>179.0007763902542</v>
       </c>
     </row>
     <row r="23">
@@ -24203,16 +24203,16 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>382.7338416634806</v>
+        <v>357.8590620500362</v>
       </c>
       <c r="C23" t="n">
         <v>365.2728917710076</v>
       </c>
       <c r="D23" t="n">
-        <v>354.683041620683</v>
+        <v>315.0991646588424</v>
       </c>
       <c r="E23" t="n">
-        <v>381.9303700722618</v>
+        <v>342.3464931104212</v>
       </c>
       <c r="F23" t="n">
         <v>406.8760457417114</v>
@@ -24248,25 +24248,25 @@
         <v>0</v>
       </c>
       <c r="Q23" t="n">
-        <v>9.990699214544804</v>
+        <v>0</v>
       </c>
       <c r="R23" t="n">
-        <v>122.2790926808335</v>
+        <v>149.8691179411497</v>
       </c>
       <c r="S23" t="n">
-        <v>181.4300443259292</v>
+        <v>209.0200695862453</v>
       </c>
       <c r="T23" t="n">
-        <v>195.5058243038152</v>
+        <v>223.0958495641314</v>
       </c>
       <c r="U23" t="n">
-        <v>227.04435865855</v>
+        <v>251.3456529078365</v>
       </c>
       <c r="V23" t="n">
         <v>327.7522584701349</v>
       </c>
       <c r="W23" t="n">
-        <v>349.240968717413</v>
+        <v>309.6570917555724</v>
       </c>
       <c r="X23" t="n">
         <v>369.731100678469</v>
@@ -24330,7 +24330,7 @@
         <v>0</v>
       </c>
       <c r="R24" t="n">
-        <v>100.1578341526431</v>
+        <v>60.57395719080255</v>
       </c>
       <c r="S24" t="n">
         <v>171.6831711038378</v>
@@ -24339,16 +24339,16 @@
         <v>200.1647286948216</v>
       </c>
       <c r="U24" t="n">
-        <v>198.3513568206587</v>
+        <v>191.0759032529857</v>
       </c>
       <c r="V24" t="n">
-        <v>205.2105618891091</v>
+        <v>193.2167101875847</v>
       </c>
       <c r="W24" t="n">
-        <v>227.3936889116331</v>
+        <v>212.111106199079</v>
       </c>
       <c r="X24" t="n">
-        <v>178.1829599431613</v>
+        <v>205.7729852034775</v>
       </c>
       <c r="Y24" t="n">
         <v>205.6826957773044</v>
@@ -24361,19 +24361,19 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>152.2419549216212</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C25" t="n">
         <v>167.2468210986278</v>
       </c>
       <c r="D25" t="n">
-        <v>126.1667136577029</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E25" t="n">
-        <v>146.4339626465692</v>
+        <v>106.8500856847286</v>
       </c>
       <c r="F25" t="n">
-        <v>145.4210480229312</v>
+        <v>105.8371710610907</v>
       </c>
       <c r="G25" t="n">
         <v>167.9909793584588</v>
@@ -24406,10 +24406,10 @@
         <v>2.721440735106512</v>
       </c>
       <c r="Q25" t="n">
-        <v>86.16204325169439</v>
+        <v>46.5781662898538</v>
       </c>
       <c r="R25" t="n">
-        <v>149.7033661168533</v>
+        <v>177.2933913771695</v>
       </c>
       <c r="S25" t="n">
         <v>224.0165980369723</v>
@@ -24418,7 +24418,7 @@
         <v>227.9455894282815</v>
       </c>
       <c r="U25" t="n">
-        <v>258.7290040961748</v>
+        <v>286.3190293564909</v>
       </c>
       <c r="V25" t="n">
         <v>252.137643323828</v>
@@ -24430,7 +24430,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y25" t="n">
-        <v>218.5846533520948</v>
+        <v>208.6071009908305</v>
       </c>
     </row>
     <row r="26">
@@ -24458,7 +24458,7 @@
         <v>415.302737515135</v>
       </c>
       <c r="H26" t="n">
-        <v>339.4748021157671</v>
+        <v>299.8909251539266</v>
       </c>
       <c r="I26" t="n">
         <v>210.4758895704059</v>
@@ -24485,25 +24485,25 @@
         <v>0</v>
       </c>
       <c r="Q26" t="n">
-        <v>9.990699214544804</v>
+        <v>0</v>
       </c>
       <c r="R26" t="n">
-        <v>125.5678236918632</v>
+        <v>124.9943383277053</v>
       </c>
       <c r="S26" t="n">
-        <v>209.0200695862453</v>
+        <v>169.4361926244048</v>
       </c>
       <c r="T26" t="n">
-        <v>195.5058243038152</v>
+        <v>183.5119726022908</v>
       </c>
       <c r="U26" t="n">
         <v>251.3456529078365</v>
       </c>
       <c r="V26" t="n">
-        <v>300.1622332098187</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W26" t="n">
-        <v>321.6509434570969</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X26" t="n">
         <v>369.731100678469</v>
@@ -24525,13 +24525,13 @@
         <v>172.7084989883157</v>
       </c>
       <c r="D27" t="n">
-        <v>147.4450655646388</v>
+        <v>107.8611886027982</v>
       </c>
       <c r="E27" t="n">
         <v>157.6450804554009</v>
       </c>
       <c r="F27" t="n">
-        <v>120.7679181440974</v>
+        <v>145.0692123933839</v>
       </c>
       <c r="G27" t="n">
         <v>137.3435171632106</v>
@@ -24567,7 +24567,7 @@
         <v>0</v>
       </c>
       <c r="R27" t="n">
-        <v>100.1578341526431</v>
+        <v>65.29235532465395</v>
       </c>
       <c r="S27" t="n">
         <v>171.6831711038378</v>
@@ -24576,19 +24576,19 @@
         <v>200.1647286948216</v>
       </c>
       <c r="U27" t="n">
-        <v>198.3513568206587</v>
+        <v>225.9413820809748</v>
       </c>
       <c r="V27" t="n">
-        <v>205.2105618891091</v>
+        <v>232.8005871494253</v>
       </c>
       <c r="W27" t="n">
-        <v>224.1049579006035</v>
+        <v>251.6949831609196</v>
       </c>
       <c r="X27" t="n">
-        <v>205.7729852034775</v>
+        <v>166.1891082416369</v>
       </c>
       <c r="Y27" t="n">
-        <v>205.6826957773044</v>
+        <v>166.0988188154638</v>
       </c>
     </row>
     <row r="28">
@@ -24610,7 +24610,7 @@
         <v>146.4339626465692</v>
       </c>
       <c r="F28" t="n">
-        <v>117.8310227626151</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G28" t="n">
         <v>167.9909793584588</v>
@@ -24619,10 +24619,10 @@
         <v>162.2271725074396</v>
       </c>
       <c r="I28" t="n">
-        <v>155.4504749272583</v>
+        <v>145.472922565994</v>
       </c>
       <c r="J28" t="n">
-        <v>70.91042075616336</v>
+        <v>53.77530315483219</v>
       </c>
       <c r="K28" t="n">
         <v>22.26949182588285</v>
@@ -24646,16 +24646,16 @@
         <v>86.16204325169439</v>
       </c>
       <c r="R28" t="n">
-        <v>177.2933913771695</v>
+        <v>137.7095144153289</v>
       </c>
       <c r="S28" t="n">
-        <v>224.0165980369723</v>
+        <v>184.4327210751317</v>
       </c>
       <c r="T28" t="n">
-        <v>200.3555641679654</v>
+        <v>227.9455894282815</v>
       </c>
       <c r="U28" t="n">
-        <v>258.7290040961748</v>
+        <v>286.3190293564909</v>
       </c>
       <c r="V28" t="n">
         <v>252.137643323828</v>
@@ -24677,10 +24677,10 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>355.1438164031645</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C29" t="n">
-        <v>337.6828665106914</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D29" t="n">
         <v>354.683041620683</v>
@@ -24722,13 +24722,13 @@
         <v>0</v>
       </c>
       <c r="Q29" t="n">
-        <v>9.990699214544804</v>
+        <v>0</v>
       </c>
       <c r="R29" t="n">
-        <v>125.5678236918632</v>
+        <v>110.2852409793091</v>
       </c>
       <c r="S29" t="n">
-        <v>209.0200695862453</v>
+        <v>169.4361926244048</v>
       </c>
       <c r="T29" t="n">
         <v>223.0958495641314</v>
@@ -24737,16 +24737,16 @@
         <v>251.3456529078365</v>
       </c>
       <c r="V29" t="n">
-        <v>327.7522584701349</v>
+        <v>288.1683815082943</v>
       </c>
       <c r="W29" t="n">
-        <v>349.240968717413</v>
+        <v>324.3661891039686</v>
       </c>
       <c r="X29" t="n">
         <v>369.731100678469</v>
       </c>
       <c r="Y29" t="n">
-        <v>358.6479133957374</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="30">
@@ -24768,13 +24768,13 @@
         <v>157.6450804554009</v>
       </c>
       <c r="F30" t="n">
-        <v>120.7679181440974</v>
+        <v>145.0692123933839</v>
       </c>
       <c r="G30" t="n">
         <v>137.3435171632106</v>
       </c>
       <c r="H30" t="n">
-        <v>112.2354442364965</v>
+        <v>72.65156727465587</v>
       </c>
       <c r="I30" t="n">
         <v>89.39663285141508</v>
@@ -24813,19 +24813,19 @@
         <v>200.1647286948216</v>
       </c>
       <c r="U30" t="n">
-        <v>225.9413820809748</v>
+        <v>191.0759032529857</v>
       </c>
       <c r="V30" t="n">
-        <v>205.2105618891091</v>
+        <v>193.2167101875847</v>
       </c>
       <c r="W30" t="n">
-        <v>224.1049579006035</v>
+        <v>212.111106199079</v>
       </c>
       <c r="X30" t="n">
         <v>205.7729852034775</v>
       </c>
       <c r="Y30" t="n">
-        <v>178.0926705169882</v>
+        <v>205.6826957773044</v>
       </c>
     </row>
     <row r="31">
@@ -24847,7 +24847,7 @@
         <v>146.4339626465692</v>
       </c>
       <c r="F31" t="n">
-        <v>145.4210480229312</v>
+        <v>135.443495661667</v>
       </c>
       <c r="G31" t="n">
         <v>167.9909793584588</v>
@@ -24883,25 +24883,25 @@
         <v>86.16204325169439</v>
       </c>
       <c r="R31" t="n">
-        <v>149.7033661168533</v>
+        <v>177.2933913771695</v>
       </c>
       <c r="S31" t="n">
-        <v>196.4265727766561</v>
+        <v>224.0165980369723</v>
       </c>
       <c r="T31" t="n">
-        <v>200.3555641679654</v>
+        <v>227.9455894282815</v>
       </c>
       <c r="U31" t="n">
-        <v>263.8702699959815</v>
+        <v>286.3190293564909</v>
       </c>
       <c r="V31" t="n">
-        <v>252.137643323828</v>
+        <v>212.5537663619874</v>
       </c>
       <c r="W31" t="n">
-        <v>286.522998336591</v>
+        <v>246.9391213747504</v>
       </c>
       <c r="X31" t="n">
-        <v>225.7096553890372</v>
+        <v>186.1257784271966</v>
       </c>
       <c r="Y31" t="n">
         <v>218.5846533520948</v>
@@ -24923,7 +24923,7 @@
         <v>354.683041620683</v>
       </c>
       <c r="E32" t="n">
-        <v>354.3403448119457</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F32" t="n">
         <v>406.8760457417114</v>
@@ -24932,10 +24932,10 @@
         <v>415.302737515135</v>
       </c>
       <c r="H32" t="n">
-        <v>339.4748021157671</v>
+        <v>304.609323287778</v>
       </c>
       <c r="I32" t="n">
-        <v>210.4758895704059</v>
+        <v>170.8920126085653</v>
       </c>
       <c r="J32" t="n">
         <v>11.94928935461252</v>
@@ -24968,13 +24968,13 @@
         <v>209.0200695862453</v>
       </c>
       <c r="T32" t="n">
-        <v>195.5058243038152</v>
+        <v>183.5119726022908</v>
       </c>
       <c r="U32" t="n">
-        <v>223.7556276475204</v>
+        <v>251.3456529078365</v>
       </c>
       <c r="V32" t="n">
-        <v>303.4509642208484</v>
+        <v>288.1683815082943</v>
       </c>
       <c r="W32" t="n">
         <v>349.240968717413</v>
@@ -24993,7 +24993,7 @@
         </is>
       </c>
       <c r="B33" t="n">
-        <v>166.5331836498673</v>
+        <v>126.9493066880268</v>
       </c>
       <c r="C33" t="n">
         <v>172.7084989883157</v>
@@ -25002,22 +25002,22 @@
         <v>147.4450655646388</v>
       </c>
       <c r="E33" t="n">
-        <v>133.3437862061145</v>
+        <v>157.6450804554009</v>
       </c>
       <c r="F33" t="n">
-        <v>117.4791871330677</v>
+        <v>145.0692123933839</v>
       </c>
       <c r="G33" t="n">
-        <v>109.7534919028945</v>
+        <v>137.3435171632106</v>
       </c>
       <c r="H33" t="n">
-        <v>84.64541897618032</v>
+        <v>112.2354442364965</v>
       </c>
       <c r="I33" t="n">
-        <v>89.39663285141508</v>
+        <v>55.27774534968376</v>
       </c>
       <c r="J33" t="n">
-        <v>0.7465913262578567</v>
+        <v>0</v>
       </c>
       <c r="K33" t="n">
         <v>0</v>
@@ -25056,13 +25056,13 @@
         <v>232.8005871494253</v>
       </c>
       <c r="W33" t="n">
-        <v>251.6949831609196</v>
+        <v>212.111106199079</v>
       </c>
       <c r="X33" t="n">
         <v>205.7729852034775</v>
       </c>
       <c r="Y33" t="n">
-        <v>205.6826957773044</v>
+        <v>166.0988188154638</v>
       </c>
     </row>
     <row r="34">
@@ -25081,7 +25081,7 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E34" t="n">
-        <v>118.843937386253</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F34" t="n">
         <v>145.4210480229312</v>
@@ -25093,7 +25093,7 @@
         <v>162.2271725074396</v>
       </c>
       <c r="I34" t="n">
-        <v>133.0017155667489</v>
+        <v>155.4504749272583</v>
       </c>
       <c r="J34" t="n">
         <v>93.35918011667277</v>
@@ -25120,22 +25120,22 @@
         <v>86.16204325169439</v>
       </c>
       <c r="R34" t="n">
-        <v>177.2933913771695</v>
+        <v>137.7095144153289</v>
       </c>
       <c r="S34" t="n">
-        <v>224.0165980369723</v>
+        <v>184.4327210751317</v>
       </c>
       <c r="T34" t="n">
-        <v>227.9455894282815</v>
+        <v>188.3617124664409</v>
       </c>
       <c r="U34" t="n">
-        <v>258.7290040961748</v>
+        <v>276.3414769952266</v>
       </c>
       <c r="V34" t="n">
         <v>252.137643323828</v>
       </c>
       <c r="W34" t="n">
-        <v>258.9329730762748</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X34" t="n">
         <v>225.7096553890372</v>
@@ -25154,16 +25154,16 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C35" t="n">
-        <v>337.6828665106914</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D35" t="n">
-        <v>327.0930163603668</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E35" t="n">
         <v>381.9303700722618</v>
       </c>
       <c r="F35" t="n">
-        <v>379.2860204813953</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G35" t="n">
         <v>415.302737515135</v>
@@ -25196,31 +25196,31 @@
         <v>0</v>
       </c>
       <c r="Q35" t="n">
-        <v>9.990699214544804</v>
+        <v>0</v>
       </c>
       <c r="R35" t="n">
-        <v>149.8691179411497</v>
+        <v>110.2852409793091</v>
       </c>
       <c r="S35" t="n">
         <v>209.0200695862453</v>
       </c>
       <c r="T35" t="n">
-        <v>223.0958495641314</v>
+        <v>198.221069950687</v>
       </c>
       <c r="U35" t="n">
         <v>251.3456529078365</v>
       </c>
       <c r="V35" t="n">
-        <v>327.7522584701349</v>
+        <v>288.1683815082943</v>
       </c>
       <c r="W35" t="n">
-        <v>349.240968717413</v>
+        <v>309.6570917555724</v>
       </c>
       <c r="X35" t="n">
         <v>369.731100678469</v>
       </c>
       <c r="Y35" t="n">
-        <v>361.9366444067671</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="36">
@@ -25245,7 +25245,7 @@
         <v>145.0692123933839</v>
       </c>
       <c r="G36" t="n">
-        <v>113.788814240182</v>
+        <v>137.3435171632106</v>
       </c>
       <c r="H36" t="n">
         <v>112.2354442364965</v>
@@ -25254,7 +25254,7 @@
         <v>89.39663285141508</v>
       </c>
       <c r="J36" t="n">
-        <v>0</v>
+        <v>0.7465913262578567</v>
       </c>
       <c r="K36" t="n">
         <v>0</v>
@@ -25284,22 +25284,22 @@
         <v>171.6831711038378</v>
       </c>
       <c r="T36" t="n">
-        <v>200.1647286948216</v>
+        <v>160.580851732981</v>
       </c>
       <c r="U36" t="n">
-        <v>198.3513568206587</v>
+        <v>225.9413820809748</v>
       </c>
       <c r="V36" t="n">
-        <v>205.2105618891091</v>
+        <v>232.8005871494253</v>
       </c>
       <c r="W36" t="n">
-        <v>224.1049579006035</v>
+        <v>212.111106199079</v>
       </c>
       <c r="X36" t="n">
-        <v>205.7729852034775</v>
+        <v>166.1891082416369</v>
       </c>
       <c r="Y36" t="n">
-        <v>205.6826957773044</v>
+        <v>170.8172169493152</v>
       </c>
     </row>
     <row r="37">
@@ -25366,19 +25366,19 @@
         <v>227.9455894282815</v>
       </c>
       <c r="U37" t="n">
-        <v>286.3190293564909</v>
+        <v>246.7351523946503</v>
       </c>
       <c r="V37" t="n">
-        <v>224.5476180635119</v>
+        <v>212.5537663619874</v>
       </c>
       <c r="W37" t="n">
-        <v>258.9329730762748</v>
+        <v>246.9391213747504</v>
       </c>
       <c r="X37" t="n">
-        <v>198.119630128721</v>
+        <v>215.7321030277729</v>
       </c>
       <c r="Y37" t="n">
-        <v>196.1358939915854</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="38">
@@ -25388,16 +25388,16 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>355.1438164031645</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C38" t="n">
         <v>365.2728917710076</v>
       </c>
       <c r="D38" t="n">
-        <v>330.3817473713965</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E38" t="n">
-        <v>354.3403448119457</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F38" t="n">
         <v>406.8760457417114</v>
@@ -25439,16 +25439,16 @@
         <v>149.8691179411497</v>
       </c>
       <c r="S38" t="n">
-        <v>209.0200695862453</v>
+        <v>169.4361926244048</v>
       </c>
       <c r="T38" t="n">
-        <v>223.0958495641314</v>
+        <v>183.5119726022908</v>
       </c>
       <c r="U38" t="n">
-        <v>251.3456529078365</v>
+        <v>211.7617759459959</v>
       </c>
       <c r="V38" t="n">
-        <v>327.7522584701349</v>
+        <v>292.8867796421457</v>
       </c>
       <c r="W38" t="n">
         <v>349.240968717413</v>
@@ -25457,7 +25457,7 @@
         <v>369.731100678469</v>
       </c>
       <c r="Y38" t="n">
-        <v>358.6479133957374</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="39">
@@ -25467,22 +25467,22 @@
         </is>
       </c>
       <c r="B39" t="n">
-        <v>138.9431583895512</v>
+        <v>166.5331836498673</v>
       </c>
       <c r="C39" t="n">
-        <v>145.1184737279996</v>
+        <v>172.7084989883157</v>
       </c>
       <c r="D39" t="n">
         <v>147.4450655646388</v>
       </c>
       <c r="E39" t="n">
-        <v>157.6450804554009</v>
+        <v>118.0612034935604</v>
       </c>
       <c r="F39" t="n">
-        <v>117.4791871330677</v>
+        <v>145.0692123933839</v>
       </c>
       <c r="G39" t="n">
-        <v>113.0422229139242</v>
+        <v>102.4780383352215</v>
       </c>
       <c r="H39" t="n">
         <v>112.2354442364965</v>
@@ -25524,7 +25524,7 @@
         <v>200.1647286948216</v>
       </c>
       <c r="U39" t="n">
-        <v>225.9413820809748</v>
+        <v>186.3575051191342</v>
       </c>
       <c r="V39" t="n">
         <v>232.8005871494253</v>
@@ -25533,7 +25533,7 @@
         <v>251.6949831609196</v>
       </c>
       <c r="X39" t="n">
-        <v>205.7729852034775</v>
+        <v>166.1891082416369</v>
       </c>
       <c r="Y39" t="n">
         <v>205.6826957773044</v>
@@ -25546,7 +25546,7 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>179.8319801819373</v>
+        <v>169.854427820673</v>
       </c>
       <c r="C40" t="n">
         <v>167.2468210986278</v>
@@ -25591,22 +25591,22 @@
         <v>2.721440735106512</v>
       </c>
       <c r="Q40" t="n">
-        <v>58.57201799137825</v>
+        <v>46.5781662898538</v>
       </c>
       <c r="R40" t="n">
         <v>177.2933913771695</v>
       </c>
       <c r="S40" t="n">
-        <v>196.4265727766561</v>
+        <v>224.0165980369723</v>
       </c>
       <c r="T40" t="n">
         <v>227.9455894282815</v>
       </c>
       <c r="U40" t="n">
-        <v>258.7290040961748</v>
+        <v>286.3190293564909</v>
       </c>
       <c r="V40" t="n">
-        <v>229.6888839633186</v>
+        <v>212.5537663619874</v>
       </c>
       <c r="W40" t="n">
         <v>286.522998336591</v>
@@ -25615,7 +25615,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y40" t="n">
-        <v>218.5846533520948</v>
+        <v>179.0007763902542</v>
       </c>
     </row>
     <row r="41">
@@ -25676,7 +25676,7 @@
         <v>149.8691179411497</v>
       </c>
       <c r="S41" t="n">
-        <v>209.0200695862453</v>
+        <v>169.4361926244048</v>
       </c>
       <c r="T41" t="n">
         <v>223.0958495641314</v>
@@ -25685,16 +25685,16 @@
         <v>251.3456529078365</v>
       </c>
       <c r="V41" t="n">
-        <v>313.4416634353933</v>
+        <v>288.1683815082943</v>
       </c>
       <c r="W41" t="n">
-        <v>321.6509434570969</v>
+        <v>324.3661891039686</v>
       </c>
       <c r="X41" t="n">
-        <v>342.1410754181529</v>
+        <v>330.1472237166284</v>
       </c>
       <c r="Y41" t="n">
-        <v>358.6479133957374</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="42">
@@ -25704,10 +25704,10 @@
         </is>
       </c>
       <c r="B42" t="n">
-        <v>166.5331836498673</v>
+        <v>126.9493066880268</v>
       </c>
       <c r="C42" t="n">
-        <v>172.7084989883157</v>
+        <v>133.1246220264752</v>
       </c>
       <c r="D42" t="n">
         <v>147.4450655646388</v>
@@ -25719,7 +25719,7 @@
         <v>145.0692123933839</v>
       </c>
       <c r="G42" t="n">
-        <v>113.0422229139242</v>
+        <v>137.3435171632106</v>
       </c>
       <c r="H42" t="n">
         <v>112.2354442364965</v>
@@ -25752,16 +25752,16 @@
         <v>0</v>
       </c>
       <c r="R42" t="n">
-        <v>72.56780889232699</v>
+        <v>65.29235532465395</v>
       </c>
       <c r="S42" t="n">
         <v>171.6831711038378</v>
       </c>
       <c r="T42" t="n">
-        <v>172.5747034345055</v>
+        <v>200.1647286948216</v>
       </c>
       <c r="U42" t="n">
-        <v>198.3513568206587</v>
+        <v>186.3575051191342</v>
       </c>
       <c r="V42" t="n">
         <v>232.8005871494253</v>
@@ -25783,13 +25783,13 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>179.8319801819373</v>
+        <v>140.2481032200967</v>
       </c>
       <c r="C43" t="n">
-        <v>167.2468210986278</v>
+        <v>127.6629441367872</v>
       </c>
       <c r="D43" t="n">
-        <v>148.6154730182124</v>
+        <v>109.0315960563718</v>
       </c>
       <c r="E43" t="n">
         <v>146.4339626465692</v>
@@ -25798,10 +25798,10 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G43" t="n">
-        <v>145.5422199979494</v>
+        <v>167.9909793584588</v>
       </c>
       <c r="H43" t="n">
-        <v>134.6371472471234</v>
+        <v>162.2271725074396</v>
       </c>
       <c r="I43" t="n">
         <v>155.4504749272583</v>
@@ -25840,7 +25840,7 @@
         <v>227.9455894282815</v>
       </c>
       <c r="U43" t="n">
-        <v>258.7290040961748</v>
+        <v>286.3190293564909</v>
       </c>
       <c r="V43" t="n">
         <v>252.137643323828</v>
@@ -25852,7 +25852,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y43" t="n">
-        <v>190.9946280917787</v>
+        <v>208.6071009908305</v>
       </c>
     </row>
     <row r="44">
@@ -26171,7 +26171,7 @@
         <v>6</v>
       </c>
       <c r="B8" t="n">
-        <v>357434.2938874638</v>
+        <v>367110.6782110896</v>
       </c>
     </row>
     <row r="9">
@@ -26179,7 +26179,7 @@
         <v>7</v>
       </c>
       <c r="B9" t="n">
-        <v>357434.2938874637</v>
+        <v>367110.6782110896</v>
       </c>
     </row>
     <row r="10">
@@ -26187,7 +26187,7 @@
         <v>8</v>
       </c>
       <c r="B10" t="n">
-        <v>357434.2938874637</v>
+        <v>367110.6782110896</v>
       </c>
     </row>
     <row r="11">
@@ -26195,7 +26195,7 @@
         <v>9</v>
       </c>
       <c r="B11" t="n">
-        <v>357434.2938874637</v>
+        <v>367110.6782110894</v>
       </c>
     </row>
     <row r="12">
@@ -26203,7 +26203,7 @@
         <v>10</v>
       </c>
       <c r="B12" t="n">
-        <v>357434.2938874637</v>
+        <v>367110.6782110896</v>
       </c>
     </row>
     <row r="13">
@@ -26211,7 +26211,7 @@
         <v>11</v>
       </c>
       <c r="B13" t="n">
-        <v>357434.2938874636</v>
+        <v>367110.6782110896</v>
       </c>
     </row>
     <row r="14">
@@ -26219,7 +26219,7 @@
         <v>12</v>
       </c>
       <c r="B14" t="n">
-        <v>357434.2938874639</v>
+        <v>367110.6782110896</v>
       </c>
     </row>
     <row r="15">
@@ -26227,7 +26227,7 @@
         <v>13</v>
       </c>
       <c r="B15" t="n">
-        <v>357434.2938874637</v>
+        <v>367110.6782110897</v>
       </c>
     </row>
     <row r="16">
@@ -26311,16 +26311,16 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>43002.96221257857</v>
+        <v>43002.96221257855</v>
       </c>
       <c r="C2" t="n">
+        <v>43002.96221257856</v>
+      </c>
+      <c r="D2" t="n">
         <v>43002.96221257855</v>
       </c>
-      <c r="D2" t="n">
-        <v>43002.96221257856</v>
-      </c>
       <c r="E2" t="n">
-        <v>43002.96221257857</v>
+        <v>43002.96221257855</v>
       </c>
       <c r="F2" t="n">
         <v>43002.96221257855</v>
@@ -26329,28 +26329,28 @@
         <v>43002.96221257855</v>
       </c>
       <c r="H2" t="n">
-        <v>46120.55404999528</v>
+        <v>47369.11976917279</v>
       </c>
       <c r="I2" t="n">
-        <v>46120.5540499953</v>
+        <v>47369.11976917279</v>
       </c>
       <c r="J2" t="n">
-        <v>46120.55404999528</v>
+        <v>47369.11976917279</v>
       </c>
       <c r="K2" t="n">
-        <v>46120.5540499953</v>
+        <v>47369.11976917279</v>
       </c>
       <c r="L2" t="n">
-        <v>46120.5540499953</v>
+        <v>47369.1197691728</v>
       </c>
       <c r="M2" t="n">
-        <v>46120.55404999531</v>
+        <v>47369.1197691728</v>
       </c>
       <c r="N2" t="n">
-        <v>46120.55404999531</v>
+        <v>47369.1197691728</v>
       </c>
       <c r="O2" t="n">
-        <v>46120.5540499953</v>
+        <v>47369.11976917279</v>
       </c>
       <c r="P2" t="n">
         <v>43002.96221257855</v>
@@ -26381,7 +26381,7 @@
         <v>0</v>
       </c>
       <c r="H3" t="n">
-        <v>7444.037125460638</v>
+        <v>10680.08625919725</v>
       </c>
       <c r="I3" t="n">
         <v>0</v>
@@ -26415,49 +26415,49 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>2099.754014286063</v>
+        <v>0</v>
       </c>
       <c r="C4" t="n">
-        <v>2099.754014286063</v>
+        <v>0</v>
       </c>
       <c r="D4" t="n">
-        <v>2099.754014286063</v>
+        <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>2099.754014286063</v>
+        <v>0</v>
       </c>
       <c r="F4" t="n">
-        <v>2099.754014286063</v>
+        <v>0</v>
       </c>
       <c r="G4" t="n">
-        <v>2099.754014286063</v>
+        <v>0</v>
       </c>
       <c r="H4" t="n">
-        <v>2278.92767280763</v>
+        <v>33.41106180436363</v>
       </c>
       <c r="I4" t="n">
-        <v>2278.92767280763</v>
+        <v>33.41106180436363</v>
       </c>
       <c r="J4" t="n">
-        <v>2278.927672807631</v>
+        <v>33.41106180436364</v>
       </c>
       <c r="K4" t="n">
-        <v>2278.92767280763</v>
+        <v>33.41106180436363</v>
       </c>
       <c r="L4" t="n">
-        <v>2278.927672807631</v>
+        <v>33.41106180436363</v>
       </c>
       <c r="M4" t="n">
-        <v>2278.927672807631</v>
+        <v>33.41106180436364</v>
       </c>
       <c r="N4" t="n">
-        <v>2278.927672807631</v>
+        <v>33.41106180436363</v>
       </c>
       <c r="O4" t="n">
-        <v>2278.927672807631</v>
+        <v>33.41106180436364</v>
       </c>
       <c r="P4" t="n">
-        <v>2099.754014286063</v>
+        <v>0</v>
       </c>
     </row>
     <row r="5">
@@ -26485,28 +26485,28 @@
         <v>0</v>
       </c>
       <c r="H5" t="n">
-        <v>1677.473535827221</v>
+        <v>2406.699719279908</v>
       </c>
       <c r="I5" t="n">
-        <v>1677.473535827221</v>
+        <v>2406.699719279908</v>
       </c>
       <c r="J5" t="n">
-        <v>1677.473535827221</v>
+        <v>2406.699719279908</v>
       </c>
       <c r="K5" t="n">
-        <v>1677.473535827221</v>
+        <v>2406.699719279908</v>
       </c>
       <c r="L5" t="n">
-        <v>1677.473535827221</v>
+        <v>2406.699719279908</v>
       </c>
       <c r="M5" t="n">
-        <v>1677.473535827221</v>
+        <v>2406.699719279908</v>
       </c>
       <c r="N5" t="n">
-        <v>1677.473535827221</v>
+        <v>2406.699719279908</v>
       </c>
       <c r="O5" t="n">
-        <v>1677.473535827221</v>
+        <v>2406.699719279908</v>
       </c>
       <c r="P5" t="n">
         <v>0</v>
@@ -26519,49 +26519,49 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>7275.60819829251</v>
+        <v>9375.362212578555</v>
       </c>
       <c r="C6" t="n">
-        <v>7275.608198292495</v>
+        <v>9375.362212578562</v>
       </c>
       <c r="D6" t="n">
-        <v>7275.608198292502</v>
+        <v>9375.362212578555</v>
       </c>
       <c r="E6" t="n">
-        <v>40903.20819829251</v>
+        <v>43002.96221257855</v>
       </c>
       <c r="F6" t="n">
-        <v>40903.20819829249</v>
+        <v>43002.96221257855</v>
       </c>
       <c r="G6" t="n">
-        <v>40903.20819829249</v>
+        <v>43002.96221257855</v>
       </c>
       <c r="H6" t="n">
-        <v>34720.1157158998</v>
+        <v>34248.92272889127</v>
       </c>
       <c r="I6" t="n">
-        <v>42164.15284136045</v>
+        <v>44929.00898808852</v>
       </c>
       <c r="J6" t="n">
-        <v>42164.15284136043</v>
+        <v>44929.00898808852</v>
       </c>
       <c r="K6" t="n">
-        <v>42164.15284136045</v>
+        <v>44929.00898808852</v>
       </c>
       <c r="L6" t="n">
-        <v>42164.15284136045</v>
+        <v>44929.00898808853</v>
       </c>
       <c r="M6" t="n">
-        <v>42164.15284136045</v>
+        <v>44929.00898808853</v>
       </c>
       <c r="N6" t="n">
-        <v>42164.15284136045</v>
+        <v>44929.00898808853</v>
       </c>
       <c r="O6" t="n">
-        <v>42164.15284136045</v>
+        <v>44929.00898808851</v>
       </c>
       <c r="P6" t="n">
-        <v>40903.20819829249</v>
+        <v>43002.96221257855</v>
       </c>
     </row>
   </sheetData>
@@ -26805,28 +26805,28 @@
         <v>0</v>
       </c>
       <c r="H4" t="n">
-        <v>27.59002526031614</v>
+        <v>39.58387696184059</v>
       </c>
       <c r="I4" t="n">
-        <v>27.59002526031614</v>
+        <v>39.58387696184059</v>
       </c>
       <c r="J4" t="n">
-        <v>27.59002526031614</v>
+        <v>39.58387696184059</v>
       </c>
       <c r="K4" t="n">
-        <v>27.59002526031614</v>
+        <v>39.58387696184059</v>
       </c>
       <c r="L4" t="n">
-        <v>27.59002526031614</v>
+        <v>39.58387696184059</v>
       </c>
       <c r="M4" t="n">
-        <v>27.59002526031614</v>
+        <v>39.58387696184059</v>
       </c>
       <c r="N4" t="n">
-        <v>27.59002526031614</v>
+        <v>39.58387696184059</v>
       </c>
       <c r="O4" t="n">
-        <v>27.59002526031614</v>
+        <v>39.58387696184059</v>
       </c>
       <c r="P4" t="n">
         <v>0</v>
@@ -27027,7 +27027,7 @@
         <v>0</v>
       </c>
       <c r="H4" t="n">
-        <v>27.59002526031614</v>
+        <v>39.58387696184059</v>
       </c>
       <c r="I4" t="n">
         <v>0</v>
@@ -27273,7 +27273,7 @@
         <v>0</v>
       </c>
       <c r="P4" t="n">
-        <v>27.59002526031614</v>
+        <v>39.58387696184059</v>
       </c>
     </row>
   </sheetData>
@@ -36121,22 +36121,22 @@
         <v>0</v>
       </c>
       <c r="K20" t="n">
-        <v>27.59002526031614</v>
+        <v>39.58387696184059</v>
       </c>
       <c r="L20" t="n">
-        <v>27.59002526031614</v>
+        <v>39.58387696184059</v>
       </c>
       <c r="M20" t="n">
-        <v>27.59002526031614</v>
+        <v>37.98452839772582</v>
       </c>
       <c r="N20" t="n">
-        <v>26.47527676494983</v>
+        <v>0</v>
       </c>
       <c r="O20" t="n">
         <v>0</v>
       </c>
       <c r="P20" t="n">
-        <v>0</v>
+        <v>39.58387696184059</v>
       </c>
       <c r="Q20" t="n">
         <v>0</v>
@@ -36200,25 +36200,25 @@
         <v>0</v>
       </c>
       <c r="K21" t="n">
-        <v>0</v>
+        <v>37.98452839772582</v>
       </c>
       <c r="L21" t="n">
-        <v>26.47527676494984</v>
+        <v>0</v>
       </c>
       <c r="M21" t="n">
-        <v>27.59002526031614</v>
+        <v>39.58387696184059</v>
       </c>
       <c r="N21" t="n">
-        <v>27.59002526031614</v>
+        <v>39.58387696184059</v>
       </c>
       <c r="O21" t="n">
-        <v>27.59002526031614</v>
+        <v>0</v>
       </c>
       <c r="P21" t="n">
         <v>0</v>
       </c>
       <c r="Q21" t="n">
-        <v>0</v>
+        <v>39.58387696184059</v>
       </c>
       <c r="R21" t="n">
         <v>0</v>
@@ -36285,10 +36285,10 @@
         <v>27.59002526031614</v>
       </c>
       <c r="M22" t="n">
-        <v>27.59002526031614</v>
+        <v>39.58387696184059</v>
       </c>
       <c r="N22" t="n">
-        <v>27.59002526031614</v>
+        <v>39.58387696184059</v>
       </c>
       <c r="O22" t="n">
         <v>24.58512791403967</v>
@@ -36358,22 +36358,22 @@
         <v>0</v>
       </c>
       <c r="K23" t="n">
-        <v>27.59002526031614</v>
+        <v>0</v>
       </c>
       <c r="L23" t="n">
-        <v>26.47527676494984</v>
+        <v>0</v>
       </c>
       <c r="M23" t="n">
-        <v>27.59002526031614</v>
+        <v>39.58387696184059</v>
       </c>
       <c r="N23" t="n">
-        <v>0</v>
+        <v>39.58387696184059</v>
       </c>
       <c r="O23" t="n">
-        <v>27.59002526031614</v>
+        <v>39.58387696184059</v>
       </c>
       <c r="P23" t="n">
-        <v>0</v>
+        <v>37.98452839772582</v>
       </c>
       <c r="Q23" t="n">
         <v>0</v>
@@ -36437,25 +36437,25 @@
         <v>0</v>
       </c>
       <c r="K24" t="n">
-        <v>0</v>
+        <v>39.58387696184059</v>
       </c>
       <c r="L24" t="n">
-        <v>0</v>
+        <v>39.58387696184059</v>
       </c>
       <c r="M24" t="n">
-        <v>26.47527676494984</v>
+        <v>39.58387696184059</v>
       </c>
       <c r="N24" t="n">
-        <v>27.59002526031614</v>
+        <v>37.98452839772582</v>
       </c>
       <c r="O24" t="n">
-        <v>27.59002526031614</v>
+        <v>0</v>
       </c>
       <c r="P24" t="n">
         <v>0</v>
       </c>
       <c r="Q24" t="n">
-        <v>27.59002526031614</v>
+        <v>0</v>
       </c>
       <c r="R24" t="n">
         <v>0</v>
@@ -36522,10 +36522,10 @@
         <v>27.59002526031614</v>
       </c>
       <c r="M25" t="n">
-        <v>27.59002526031614</v>
+        <v>39.58387696184059</v>
       </c>
       <c r="N25" t="n">
-        <v>27.59002526031614</v>
+        <v>39.58387696184059</v>
       </c>
       <c r="O25" t="n">
         <v>24.58512791403967</v>
@@ -36595,22 +36595,22 @@
         <v>0</v>
       </c>
       <c r="K26" t="n">
-        <v>27.59002526031614</v>
+        <v>37.98452839772582</v>
       </c>
       <c r="L26" t="n">
-        <v>27.59002526031614</v>
+        <v>39.58387696184059</v>
       </c>
       <c r="M26" t="n">
-        <v>27.59002526031614</v>
+        <v>39.58387696184059</v>
       </c>
       <c r="N26" t="n">
         <v>0</v>
       </c>
       <c r="O26" t="n">
-        <v>26.47527676494983</v>
+        <v>0</v>
       </c>
       <c r="P26" t="n">
-        <v>0</v>
+        <v>39.58387696184059</v>
       </c>
       <c r="Q26" t="n">
         <v>0</v>
@@ -36674,22 +36674,22 @@
         <v>0</v>
       </c>
       <c r="K27" t="n">
-        <v>0</v>
+        <v>39.58387696184059</v>
       </c>
       <c r="L27" t="n">
-        <v>27.59002526031614</v>
+        <v>39.58387696184059</v>
       </c>
       <c r="M27" t="n">
-        <v>27.59002526031614</v>
+        <v>37.98452839772582</v>
       </c>
       <c r="N27" t="n">
-        <v>27.59002526031614</v>
+        <v>0</v>
       </c>
       <c r="O27" t="n">
-        <v>0</v>
+        <v>39.58387696184059</v>
       </c>
       <c r="P27" t="n">
-        <v>26.47527676494983</v>
+        <v>0</v>
       </c>
       <c r="Q27" t="n">
         <v>0</v>
@@ -36759,10 +36759,10 @@
         <v>27.59002526031614</v>
       </c>
       <c r="M28" t="n">
-        <v>27.59002526031614</v>
+        <v>39.58387696184059</v>
       </c>
       <c r="N28" t="n">
-        <v>27.59002526031614</v>
+        <v>39.58387696184059</v>
       </c>
       <c r="O28" t="n">
         <v>24.58512791403967</v>
@@ -36835,19 +36835,19 @@
         <v>0</v>
       </c>
       <c r="L29" t="n">
-        <v>27.59002526031614</v>
+        <v>39.58387696184059</v>
       </c>
       <c r="M29" t="n">
-        <v>26.47527676494984</v>
+        <v>39.58387696184059</v>
       </c>
       <c r="N29" t="n">
-        <v>0</v>
+        <v>39.58387696184059</v>
       </c>
       <c r="O29" t="n">
-        <v>27.59002526031614</v>
+        <v>37.98452839772582</v>
       </c>
       <c r="P29" t="n">
-        <v>27.59002526031614</v>
+        <v>0</v>
       </c>
       <c r="Q29" t="n">
         <v>0</v>
@@ -36911,16 +36911,16 @@
         <v>0</v>
       </c>
       <c r="K30" t="n">
-        <v>27.59002526031614</v>
+        <v>0</v>
       </c>
       <c r="L30" t="n">
-        <v>27.59002526031614</v>
+        <v>39.58387696184059</v>
       </c>
       <c r="M30" t="n">
-        <v>26.47527676494983</v>
+        <v>39.58387696184059</v>
       </c>
       <c r="N30" t="n">
-        <v>0</v>
+        <v>37.98452839772582</v>
       </c>
       <c r="O30" t="n">
         <v>0</v>
@@ -36929,7 +36929,7 @@
         <v>0</v>
       </c>
       <c r="Q30" t="n">
-        <v>27.59002526031614</v>
+        <v>39.58387696184059</v>
       </c>
       <c r="R30" t="n">
         <v>0</v>
@@ -36996,10 +36996,10 @@
         <v>27.59002526031614</v>
       </c>
       <c r="M31" t="n">
-        <v>27.59002526031614</v>
+        <v>39.58387696184059</v>
       </c>
       <c r="N31" t="n">
-        <v>27.59002526031614</v>
+        <v>39.58387696184059</v>
       </c>
       <c r="O31" t="n">
         <v>24.58512791403967</v>
@@ -37069,22 +37069,22 @@
         <v>0</v>
       </c>
       <c r="K32" t="n">
-        <v>27.59002526031614</v>
+        <v>39.58387696184059</v>
       </c>
       <c r="L32" t="n">
-        <v>27.59002526031614</v>
+        <v>0</v>
       </c>
       <c r="M32" t="n">
-        <v>27.59002526031614</v>
+        <v>39.58387696184059</v>
       </c>
       <c r="N32" t="n">
-        <v>26.47527676494983</v>
+        <v>0</v>
       </c>
       <c r="O32" t="n">
-        <v>0</v>
+        <v>37.98452839772582</v>
       </c>
       <c r="P32" t="n">
-        <v>0</v>
+        <v>39.58387696184059</v>
       </c>
       <c r="Q32" t="n">
         <v>0</v>
@@ -37148,7 +37148,7 @@
         <v>0</v>
       </c>
       <c r="K33" t="n">
-        <v>27.59002526031614</v>
+        <v>39.58387696184059</v>
       </c>
       <c r="L33" t="n">
         <v>0</v>
@@ -37157,16 +37157,16 @@
         <v>0</v>
       </c>
       <c r="N33" t="n">
-        <v>26.47527676494984</v>
+        <v>37.98452839772582</v>
       </c>
       <c r="O33" t="n">
-        <v>27.59002526031614</v>
+        <v>39.58387696184059</v>
       </c>
       <c r="P33" t="n">
-        <v>27.59002526031614</v>
+        <v>0</v>
       </c>
       <c r="Q33" t="n">
-        <v>0</v>
+        <v>39.58387696184059</v>
       </c>
       <c r="R33" t="n">
         <v>0</v>
@@ -37233,10 +37233,10 @@
         <v>27.59002526031614</v>
       </c>
       <c r="M34" t="n">
-        <v>27.59002526031614</v>
+        <v>39.58387696184059</v>
       </c>
       <c r="N34" t="n">
-        <v>27.59002526031614</v>
+        <v>39.58387696184059</v>
       </c>
       <c r="O34" t="n">
         <v>24.58512791403967</v>
@@ -37312,16 +37312,16 @@
         <v>0</v>
       </c>
       <c r="M35" t="n">
-        <v>26.47527676494984</v>
+        <v>37.98452839772582</v>
       </c>
       <c r="N35" t="n">
-        <v>27.59002526031614</v>
+        <v>39.58387696184059</v>
       </c>
       <c r="O35" t="n">
-        <v>27.59002526031614</v>
+        <v>39.58387696184059</v>
       </c>
       <c r="P35" t="n">
-        <v>27.59002526031614</v>
+        <v>39.58387696184059</v>
       </c>
       <c r="Q35" t="n">
         <v>0</v>
@@ -37385,22 +37385,22 @@
         <v>0</v>
       </c>
       <c r="K36" t="n">
-        <v>26.47527676494984</v>
+        <v>39.58387696184059</v>
       </c>
       <c r="L36" t="n">
-        <v>27.59002526031614</v>
+        <v>0</v>
       </c>
       <c r="M36" t="n">
-        <v>27.59002526031614</v>
+        <v>37.98452839772582</v>
       </c>
       <c r="N36" t="n">
-        <v>27.59002526031614</v>
+        <v>39.58387696184059</v>
       </c>
       <c r="O36" t="n">
         <v>0</v>
       </c>
       <c r="P36" t="n">
-        <v>0</v>
+        <v>39.58387696184059</v>
       </c>
       <c r="Q36" t="n">
         <v>0</v>
@@ -37470,10 +37470,10 @@
         <v>27.59002526031614</v>
       </c>
       <c r="M37" t="n">
-        <v>27.59002526031614</v>
+        <v>39.58387696184059</v>
       </c>
       <c r="N37" t="n">
-        <v>27.59002526031614</v>
+        <v>39.58387696184059</v>
       </c>
       <c r="O37" t="n">
         <v>24.58512791403967</v>
@@ -37543,19 +37543,19 @@
         <v>0</v>
       </c>
       <c r="K38" t="n">
-        <v>0</v>
+        <v>37.98452839772582</v>
       </c>
       <c r="L38" t="n">
-        <v>27.59002526031614</v>
+        <v>39.58387696184059</v>
       </c>
       <c r="M38" t="n">
-        <v>27.59002526031614</v>
+        <v>39.58387696184059</v>
       </c>
       <c r="N38" t="n">
-        <v>27.59002526031614</v>
+        <v>0</v>
       </c>
       <c r="O38" t="n">
-        <v>26.47527676494983</v>
+        <v>39.58387696184059</v>
       </c>
       <c r="P38" t="n">
         <v>0</v>
@@ -37622,25 +37622,25 @@
         <v>0</v>
       </c>
       <c r="K39" t="n">
-        <v>27.59002526031614</v>
+        <v>0</v>
       </c>
       <c r="L39" t="n">
-        <v>27.59002526031614</v>
+        <v>0</v>
       </c>
       <c r="M39" t="n">
-        <v>27.59002526031614</v>
+        <v>39.58387696184059</v>
       </c>
       <c r="N39" t="n">
-        <v>26.47527676494983</v>
+        <v>39.58387696184059</v>
       </c>
       <c r="O39" t="n">
-        <v>0</v>
+        <v>37.98452839772582</v>
       </c>
       <c r="P39" t="n">
         <v>0</v>
       </c>
       <c r="Q39" t="n">
-        <v>0</v>
+        <v>39.58387696184059</v>
       </c>
       <c r="R39" t="n">
         <v>0</v>
@@ -37707,10 +37707,10 @@
         <v>27.59002526031614</v>
       </c>
       <c r="M40" t="n">
-        <v>27.59002526031614</v>
+        <v>39.58387696184059</v>
       </c>
       <c r="N40" t="n">
-        <v>27.59002526031614</v>
+        <v>39.58387696184059</v>
       </c>
       <c r="O40" t="n">
         <v>24.58512791403967</v>
@@ -37780,22 +37780,22 @@
         <v>0</v>
       </c>
       <c r="K41" t="n">
-        <v>27.59002526031614</v>
+        <v>37.98452839772582</v>
       </c>
       <c r="L41" t="n">
-        <v>27.59002526031614</v>
+        <v>0</v>
       </c>
       <c r="M41" t="n">
-        <v>26.47527676494983</v>
+        <v>0</v>
       </c>
       <c r="N41" t="n">
-        <v>0</v>
+        <v>39.58387696184059</v>
       </c>
       <c r="O41" t="n">
-        <v>27.59002526031614</v>
+        <v>39.58387696184059</v>
       </c>
       <c r="P41" t="n">
-        <v>0</v>
+        <v>39.58387696184059</v>
       </c>
       <c r="Q41" t="n">
         <v>0</v>
@@ -37865,16 +37865,16 @@
         <v>0</v>
       </c>
       <c r="M42" t="n">
-        <v>27.59002526031614</v>
+        <v>37.98452839772582</v>
       </c>
       <c r="N42" t="n">
-        <v>27.59002526031614</v>
+        <v>39.58387696184059</v>
       </c>
       <c r="O42" t="n">
-        <v>27.59002526031614</v>
+        <v>39.58387696184059</v>
       </c>
       <c r="P42" t="n">
-        <v>26.47527676494983</v>
+        <v>39.58387696184059</v>
       </c>
       <c r="Q42" t="n">
         <v>0</v>
@@ -37944,10 +37944,10 @@
         <v>27.59002526031614</v>
       </c>
       <c r="M43" t="n">
-        <v>27.59002526031614</v>
+        <v>39.58387696184059</v>
       </c>
       <c r="N43" t="n">
-        <v>27.59002526031614</v>
+        <v>39.58387696184059</v>
       </c>
       <c r="O43" t="n">
         <v>24.58512791403967</v>

--- a/Outputs/1. Budget/Grid Search/Output Files/250000/Output_0_8.xlsx
+++ b/Outputs/1. Budget/Grid Search/Output Files/250000/Output_0_8.xlsx
@@ -480,8 +480,10 @@
           <t>Required Level of Met Demand</t>
         </is>
       </c>
-      <c r="B4" t="n">
-        <v>0</v>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>inf</t>
+        </is>
       </c>
     </row>
     <row r="5">
@@ -501,7 +503,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>269050.2857492401</v>
+        <v>268319.4387852251</v>
       </c>
     </row>
     <row r="7">
@@ -511,7 +513,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>4968231.017992429</v>
+        <v>5061214.838788684</v>
       </c>
     </row>
     <row r="8">
@@ -521,7 +523,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>22289395.19939269</v>
+        <v>22380528.64215511</v>
       </c>
     </row>
     <row r="9">
@@ -541,7 +543,7 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>4040928.216771399</v>
+        <v>3999485.826632799</v>
       </c>
     </row>
     <row r="11">
@@ -1850,10 +1852,10 @@
         <v>0</v>
       </c>
       <c r="E17" t="n">
-        <v>0</v>
+        <v>1.969734065685309</v>
       </c>
       <c r="F17" t="n">
-        <v>0</v>
+        <v>1.969734065685309</v>
       </c>
       <c r="G17" t="n">
         <v>0</v>
@@ -1898,10 +1900,10 @@
         <v>0</v>
       </c>
       <c r="U17" t="n">
-        <v>0</v>
+        <v>1.73494176505562</v>
       </c>
       <c r="V17" t="n">
-        <v>0</v>
+        <v>1.969734065685309</v>
       </c>
       <c r="W17" t="n">
         <v>0</v>
@@ -1938,7 +1940,7 @@
         <v>0</v>
       </c>
       <c r="H18" t="n">
-        <v>0</v>
+        <v>1.734941765055619</v>
       </c>
       <c r="I18" t="n">
         <v>0</v>
@@ -1971,10 +1973,10 @@
         <v>0</v>
       </c>
       <c r="S18" t="n">
-        <v>0</v>
+        <v>1.969734065685309</v>
       </c>
       <c r="T18" t="n">
-        <v>0</v>
+        <v>1.969734065685309</v>
       </c>
       <c r="U18" t="n">
         <v>0</v>
@@ -1983,7 +1985,7 @@
         <v>0</v>
       </c>
       <c r="W18" t="n">
-        <v>0</v>
+        <v>1.969734065685309</v>
       </c>
       <c r="X18" t="n">
         <v>0</v>
@@ -2053,16 +2055,16 @@
         <v>0</v>
       </c>
       <c r="T19" t="n">
-        <v>0</v>
+        <v>1.969734065685309</v>
       </c>
       <c r="U19" t="n">
-        <v>0</v>
+        <v>1.969734065685309</v>
       </c>
       <c r="V19" t="n">
-        <v>0</v>
+        <v>1.969734065685309</v>
       </c>
       <c r="W19" t="n">
-        <v>0</v>
+        <v>1.734941765055619</v>
       </c>
       <c r="X19" t="n">
         <v>0</v>
@@ -2084,7 +2086,7 @@
         <v>0</v>
       </c>
       <c r="D20" t="n">
-        <v>0</v>
+        <v>25.62029119463083</v>
       </c>
       <c r="E20" t="n">
         <v>0</v>
@@ -2123,16 +2125,16 @@
         <v>0</v>
       </c>
       <c r="Q20" t="n">
-        <v>9.990699214544804</v>
+        <v>0</v>
       </c>
       <c r="R20" t="n">
-        <v>39.58387696184059</v>
+        <v>0</v>
       </c>
       <c r="S20" t="n">
-        <v>39.58387696184059</v>
+        <v>0</v>
       </c>
       <c r="T20" t="n">
-        <v>39.58387696184059</v>
+        <v>0</v>
       </c>
       <c r="U20" t="n">
         <v>0</v>
@@ -2141,13 +2143,13 @@
         <v>0</v>
       </c>
       <c r="W20" t="n">
-        <v>24.87477961344436</v>
+        <v>22.56635248423083</v>
       </c>
       <c r="X20" t="n">
-        <v>0</v>
+        <v>25.62029119463083</v>
       </c>
       <c r="Y20" t="n">
-        <v>0</v>
+        <v>25.62029119463083</v>
       </c>
     </row>
     <row r="21">
@@ -2160,10 +2162,10 @@
         <v>0</v>
       </c>
       <c r="C21" t="n">
-        <v>39.58387696184059</v>
+        <v>25.62029119463083</v>
       </c>
       <c r="D21" t="n">
-        <v>34.86547882798917</v>
+        <v>0</v>
       </c>
       <c r="E21" t="n">
         <v>0</v>
@@ -2175,7 +2177,7 @@
         <v>0</v>
       </c>
       <c r="H21" t="n">
-        <v>0</v>
+        <v>25.62029119463083</v>
       </c>
       <c r="I21" t="n">
         <v>0</v>
@@ -2211,19 +2213,19 @@
         <v>0</v>
       </c>
       <c r="T21" t="n">
-        <v>39.58387696184059</v>
+        <v>0</v>
       </c>
       <c r="U21" t="n">
         <v>0</v>
       </c>
       <c r="V21" t="n">
-        <v>39.58387696184059</v>
+        <v>0</v>
       </c>
       <c r="W21" t="n">
-        <v>0</v>
+        <v>22.56635248423083</v>
       </c>
       <c r="X21" t="n">
-        <v>0</v>
+        <v>25.62029119463083</v>
       </c>
       <c r="Y21" t="n">
         <v>0</v>
@@ -2236,19 +2238,19 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>39.58387696184059</v>
+        <v>0</v>
       </c>
       <c r="C22" t="n">
-        <v>9.977552361264268</v>
+        <v>25.62029119463083</v>
       </c>
       <c r="D22" t="n">
         <v>0</v>
       </c>
       <c r="E22" t="n">
-        <v>0</v>
+        <v>25.62029119463083</v>
       </c>
       <c r="F22" t="n">
-        <v>0</v>
+        <v>22.56635248423083</v>
       </c>
       <c r="G22" t="n">
         <v>0</v>
@@ -2293,19 +2295,19 @@
         <v>0</v>
       </c>
       <c r="U22" t="n">
-        <v>0</v>
+        <v>25.62029119463083</v>
       </c>
       <c r="V22" t="n">
         <v>0</v>
       </c>
       <c r="W22" t="n">
-        <v>39.58387696184059</v>
+        <v>0</v>
       </c>
       <c r="X22" t="n">
         <v>0</v>
       </c>
       <c r="Y22" t="n">
-        <v>39.58387696184059</v>
+        <v>0</v>
       </c>
     </row>
     <row r="23">
@@ -2315,16 +2317,16 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>24.87477961344436</v>
+        <v>27.59002526031614</v>
       </c>
       <c r="C23" t="n">
-        <v>0</v>
+        <v>27.59002526031614</v>
       </c>
       <c r="D23" t="n">
-        <v>39.58387696184059</v>
+        <v>0</v>
       </c>
       <c r="E23" t="n">
-        <v>39.58387696184059</v>
+        <v>0</v>
       </c>
       <c r="F23" t="n">
         <v>0</v>
@@ -2333,7 +2335,7 @@
         <v>0</v>
       </c>
       <c r="H23" t="n">
-        <v>0</v>
+        <v>27.59002526031614</v>
       </c>
       <c r="I23" t="n">
         <v>0</v>
@@ -2360,7 +2362,7 @@
         <v>0</v>
       </c>
       <c r="Q23" t="n">
-        <v>9.990699214544804</v>
+        <v>0</v>
       </c>
       <c r="R23" t="n">
         <v>0</v>
@@ -2378,13 +2380,13 @@
         <v>0</v>
       </c>
       <c r="W23" t="n">
-        <v>39.58387696184059</v>
+        <v>0</v>
       </c>
       <c r="X23" t="n">
         <v>0</v>
       </c>
       <c r="Y23" t="n">
-        <v>0</v>
+        <v>24.30129424928645</v>
       </c>
     </row>
     <row r="24">
@@ -2442,7 +2444,7 @@
         <v>0</v>
       </c>
       <c r="R24" t="n">
-        <v>39.58387696184059</v>
+        <v>0</v>
       </c>
       <c r="S24" t="n">
         <v>0</v>
@@ -2451,16 +2453,16 @@
         <v>0</v>
       </c>
       <c r="U24" t="n">
-        <v>34.86547882798917</v>
+        <v>24.30129424928645</v>
       </c>
       <c r="V24" t="n">
-        <v>39.58387696184059</v>
+        <v>27.59002526031614</v>
       </c>
       <c r="W24" t="n">
-        <v>39.58387696184059</v>
+        <v>27.59002526031614</v>
       </c>
       <c r="X24" t="n">
-        <v>0</v>
+        <v>27.59002526031614</v>
       </c>
       <c r="Y24" t="n">
         <v>0</v>
@@ -2482,10 +2484,10 @@
         <v>0</v>
       </c>
       <c r="E25" t="n">
-        <v>39.58387696184059</v>
+        <v>0</v>
       </c>
       <c r="F25" t="n">
-        <v>39.58387696184059</v>
+        <v>0</v>
       </c>
       <c r="G25" t="n">
         <v>0</v>
@@ -2518,7 +2520,7 @@
         <v>0</v>
       </c>
       <c r="Q25" t="n">
-        <v>39.58387696184059</v>
+        <v>0</v>
       </c>
       <c r="R25" t="n">
         <v>0</v>
@@ -2530,19 +2532,19 @@
         <v>0</v>
       </c>
       <c r="U25" t="n">
-        <v>0</v>
+        <v>27.59002526031614</v>
       </c>
       <c r="V25" t="n">
-        <v>0</v>
+        <v>27.59002526031614</v>
       </c>
       <c r="W25" t="n">
-        <v>0</v>
+        <v>27.59002526031614</v>
       </c>
       <c r="X25" t="n">
-        <v>0</v>
+        <v>22.44875936050941</v>
       </c>
       <c r="Y25" t="n">
-        <v>9.977552361264268</v>
+        <v>0</v>
       </c>
     </row>
     <row r="26">
@@ -2570,7 +2572,7 @@
         <v>0</v>
       </c>
       <c r="H26" t="n">
-        <v>39.58387696184059</v>
+        <v>0</v>
       </c>
       <c r="I26" t="n">
         <v>0</v>
@@ -2600,22 +2602,22 @@
         <v>9.990699214544804</v>
       </c>
       <c r="R26" t="n">
-        <v>24.87477961344436</v>
+        <v>14.31059503474164</v>
       </c>
       <c r="S26" t="n">
-        <v>39.58387696184059</v>
+        <v>0</v>
       </c>
       <c r="T26" t="n">
-        <v>39.58387696184059</v>
+        <v>0</v>
       </c>
       <c r="U26" t="n">
-        <v>0</v>
+        <v>27.59002526031614</v>
       </c>
       <c r="V26" t="n">
-        <v>0</v>
+        <v>27.59002526031614</v>
       </c>
       <c r="W26" t="n">
-        <v>0</v>
+        <v>27.59002526031614</v>
       </c>
       <c r="X26" t="n">
         <v>0</v>
@@ -2637,7 +2639,7 @@
         <v>0</v>
       </c>
       <c r="D27" t="n">
-        <v>39.58387696184059</v>
+        <v>0</v>
       </c>
       <c r="E27" t="n">
         <v>0</v>
@@ -2679,13 +2681,13 @@
         <v>0</v>
       </c>
       <c r="R27" t="n">
-        <v>34.86547882798917</v>
+        <v>0</v>
       </c>
       <c r="S27" t="n">
-        <v>0</v>
+        <v>27.59002526031614</v>
       </c>
       <c r="T27" t="n">
-        <v>0</v>
+        <v>27.59002526031614</v>
       </c>
       <c r="U27" t="n">
         <v>0</v>
@@ -2697,10 +2699,10 @@
         <v>0</v>
       </c>
       <c r="X27" t="n">
-        <v>39.58387696184059</v>
+        <v>27.59002526031614</v>
       </c>
       <c r="Y27" t="n">
-        <v>39.58387696184059</v>
+        <v>24.30129424928645</v>
       </c>
     </row>
     <row r="28">
@@ -2731,10 +2733,10 @@
         <v>0</v>
       </c>
       <c r="I28" t="n">
-        <v>9.977552361264268</v>
+        <v>0</v>
       </c>
       <c r="J28" t="n">
-        <v>39.58387696184059</v>
+        <v>0</v>
       </c>
       <c r="K28" t="n">
         <v>0</v>
@@ -2758,19 +2760,19 @@
         <v>0</v>
       </c>
       <c r="R28" t="n">
-        <v>39.58387696184059</v>
+        <v>27.59002526031614</v>
       </c>
       <c r="S28" t="n">
-        <v>39.58387696184059</v>
+        <v>27.59002526031614</v>
       </c>
       <c r="T28" t="n">
-        <v>0</v>
+        <v>27.59002526031614</v>
       </c>
       <c r="U28" t="n">
         <v>0</v>
       </c>
       <c r="V28" t="n">
-        <v>0</v>
+        <v>22.44875936050941</v>
       </c>
       <c r="W28" t="n">
         <v>0</v>
@@ -2789,13 +2791,13 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>0</v>
+        <v>24.30129424928645</v>
       </c>
       <c r="C29" t="n">
-        <v>0</v>
+        <v>27.59002526031614</v>
       </c>
       <c r="D29" t="n">
-        <v>0</v>
+        <v>27.59002526031614</v>
       </c>
       <c r="E29" t="n">
         <v>0</v>
@@ -2834,13 +2836,13 @@
         <v>0</v>
       </c>
       <c r="Q29" t="n">
-        <v>9.990699214544804</v>
+        <v>0</v>
       </c>
       <c r="R29" t="n">
-        <v>39.58387696184059</v>
+        <v>0</v>
       </c>
       <c r="S29" t="n">
-        <v>39.58387696184059</v>
+        <v>0</v>
       </c>
       <c r="T29" t="n">
         <v>0</v>
@@ -2849,16 +2851,16 @@
         <v>0</v>
       </c>
       <c r="V29" t="n">
-        <v>39.58387696184059</v>
+        <v>0</v>
       </c>
       <c r="W29" t="n">
-        <v>24.87477961344436</v>
+        <v>0</v>
       </c>
       <c r="X29" t="n">
         <v>0</v>
       </c>
       <c r="Y29" t="n">
-        <v>0</v>
+        <v>27.59002526031614</v>
       </c>
     </row>
     <row r="30">
@@ -2880,13 +2882,13 @@
         <v>0</v>
       </c>
       <c r="F30" t="n">
-        <v>0</v>
+        <v>24.30129424928645</v>
       </c>
       <c r="G30" t="n">
-        <v>0</v>
+        <v>27.59002526031614</v>
       </c>
       <c r="H30" t="n">
-        <v>39.58387696184059</v>
+        <v>27.59002526031614</v>
       </c>
       <c r="I30" t="n">
         <v>0</v>
@@ -2925,13 +2927,13 @@
         <v>0</v>
       </c>
       <c r="U30" t="n">
-        <v>34.86547882798917</v>
+        <v>27.59002526031614</v>
       </c>
       <c r="V30" t="n">
-        <v>39.58387696184059</v>
+        <v>0</v>
       </c>
       <c r="W30" t="n">
-        <v>39.58387696184059</v>
+        <v>0</v>
       </c>
       <c r="X30" t="n">
         <v>0</v>
@@ -2959,7 +2961,7 @@
         <v>0</v>
       </c>
       <c r="F31" t="n">
-        <v>9.977552361264268</v>
+        <v>0</v>
       </c>
       <c r="G31" t="n">
         <v>0</v>
@@ -2968,7 +2970,7 @@
         <v>0</v>
       </c>
       <c r="I31" t="n">
-        <v>0</v>
+        <v>27.59002526031614</v>
       </c>
       <c r="J31" t="n">
         <v>0</v>
@@ -2998,22 +3000,22 @@
         <v>0</v>
       </c>
       <c r="S31" t="n">
-        <v>0</v>
+        <v>27.59002526031614</v>
       </c>
       <c r="T31" t="n">
-        <v>0</v>
+        <v>22.44875936050941</v>
       </c>
       <c r="U31" t="n">
         <v>0</v>
       </c>
       <c r="V31" t="n">
-        <v>39.58387696184059</v>
+        <v>27.59002526031614</v>
       </c>
       <c r="W31" t="n">
-        <v>39.58387696184059</v>
+        <v>0</v>
       </c>
       <c r="X31" t="n">
-        <v>39.58387696184059</v>
+        <v>0</v>
       </c>
       <c r="Y31" t="n">
         <v>0</v>
@@ -3044,10 +3046,10 @@
         <v>0</v>
       </c>
       <c r="H32" t="n">
-        <v>34.86547882798917</v>
+        <v>0</v>
       </c>
       <c r="I32" t="n">
-        <v>39.58387696184059</v>
+        <v>0</v>
       </c>
       <c r="J32" t="n">
         <v>0</v>
@@ -3071,22 +3073,22 @@
         <v>0</v>
       </c>
       <c r="Q32" t="n">
-        <v>0</v>
+        <v>9.990699214544804</v>
       </c>
       <c r="R32" t="n">
-        <v>0</v>
+        <v>14.31059503474164</v>
       </c>
       <c r="S32" t="n">
         <v>0</v>
       </c>
       <c r="T32" t="n">
-        <v>39.58387696184059</v>
+        <v>27.59002526031614</v>
       </c>
       <c r="U32" t="n">
-        <v>0</v>
+        <v>27.59002526031614</v>
       </c>
       <c r="V32" t="n">
-        <v>39.58387696184059</v>
+        <v>27.59002526031614</v>
       </c>
       <c r="W32" t="n">
         <v>0</v>
@@ -3105,13 +3107,13 @@
         </is>
       </c>
       <c r="B33" t="n">
-        <v>39.58387696184059</v>
+        <v>0</v>
       </c>
       <c r="C33" t="n">
         <v>0</v>
       </c>
       <c r="D33" t="n">
-        <v>0</v>
+        <v>27.59002526031614</v>
       </c>
       <c r="E33" t="n">
         <v>0</v>
@@ -3120,16 +3122,16 @@
         <v>0</v>
       </c>
       <c r="G33" t="n">
-        <v>0</v>
+        <v>27.59002526031614</v>
       </c>
       <c r="H33" t="n">
         <v>0</v>
       </c>
       <c r="I33" t="n">
-        <v>34.11888750173132</v>
+        <v>24.30129424928645</v>
       </c>
       <c r="J33" t="n">
-        <v>0.7465913262578567</v>
+        <v>0</v>
       </c>
       <c r="K33" t="n">
         <v>0</v>
@@ -3156,7 +3158,7 @@
         <v>0</v>
       </c>
       <c r="S33" t="n">
-        <v>0</v>
+        <v>27.59002526031614</v>
       </c>
       <c r="T33" t="n">
         <v>0</v>
@@ -3168,13 +3170,13 @@
         <v>0</v>
       </c>
       <c r="W33" t="n">
-        <v>39.58387696184059</v>
+        <v>0</v>
       </c>
       <c r="X33" t="n">
         <v>0</v>
       </c>
       <c r="Y33" t="n">
-        <v>39.58387696184059</v>
+        <v>0</v>
       </c>
     </row>
     <row r="34">
@@ -3199,16 +3201,16 @@
         <v>0</v>
       </c>
       <c r="G34" t="n">
-        <v>0</v>
+        <v>27.59002526031614</v>
       </c>
       <c r="H34" t="n">
-        <v>0</v>
+        <v>27.59002526031614</v>
       </c>
       <c r="I34" t="n">
-        <v>0</v>
+        <v>27.59002526031614</v>
       </c>
       <c r="J34" t="n">
-        <v>0</v>
+        <v>22.4487593605094</v>
       </c>
       <c r="K34" t="n">
         <v>0</v>
@@ -3232,16 +3234,16 @@
         <v>0</v>
       </c>
       <c r="R34" t="n">
-        <v>39.58387696184059</v>
+        <v>0</v>
       </c>
       <c r="S34" t="n">
-        <v>39.58387696184059</v>
+        <v>0</v>
       </c>
       <c r="T34" t="n">
-        <v>39.58387696184059</v>
+        <v>0</v>
       </c>
       <c r="U34" t="n">
-        <v>9.977552361264268</v>
+        <v>0</v>
       </c>
       <c r="V34" t="n">
         <v>0</v>
@@ -3272,13 +3274,13 @@
         <v>0</v>
       </c>
       <c r="E35" t="n">
-        <v>0</v>
+        <v>27.59002526031614</v>
       </c>
       <c r="F35" t="n">
-        <v>0</v>
+        <v>27.59002526031614</v>
       </c>
       <c r="G35" t="n">
-        <v>0</v>
+        <v>27.59002526031614</v>
       </c>
       <c r="H35" t="n">
         <v>0</v>
@@ -3311,22 +3313,22 @@
         <v>9.990699214544804</v>
       </c>
       <c r="R35" t="n">
-        <v>39.58387696184059</v>
+        <v>0</v>
       </c>
       <c r="S35" t="n">
         <v>0</v>
       </c>
       <c r="T35" t="n">
-        <v>24.87477961344436</v>
+        <v>0</v>
       </c>
       <c r="U35" t="n">
         <v>0</v>
       </c>
       <c r="V35" t="n">
-        <v>39.58387696184059</v>
+        <v>0</v>
       </c>
       <c r="W35" t="n">
-        <v>39.58387696184059</v>
+        <v>14.31059503474164</v>
       </c>
       <c r="X35" t="n">
         <v>0</v>
@@ -3396,22 +3398,22 @@
         <v>0</v>
       </c>
       <c r="T36" t="n">
-        <v>39.58387696184059</v>
+        <v>0</v>
       </c>
       <c r="U36" t="n">
         <v>0</v>
       </c>
       <c r="V36" t="n">
-        <v>0</v>
+        <v>24.30129424928645</v>
       </c>
       <c r="W36" t="n">
-        <v>39.58387696184059</v>
+        <v>27.59002526031614</v>
       </c>
       <c r="X36" t="n">
-        <v>39.58387696184059</v>
+        <v>27.59002526031614</v>
       </c>
       <c r="Y36" t="n">
-        <v>34.86547882798917</v>
+        <v>27.59002526031614</v>
       </c>
     </row>
     <row r="37">
@@ -3445,7 +3447,7 @@
         <v>0</v>
       </c>
       <c r="J37" t="n">
-        <v>0</v>
+        <v>22.44875936050941</v>
       </c>
       <c r="K37" t="n">
         <v>0</v>
@@ -3472,22 +3474,22 @@
         <v>0</v>
       </c>
       <c r="S37" t="n">
-        <v>0</v>
+        <v>27.59002526031614</v>
       </c>
       <c r="T37" t="n">
         <v>0</v>
       </c>
       <c r="U37" t="n">
-        <v>39.58387696184059</v>
+        <v>27.59002526031614</v>
       </c>
       <c r="V37" t="n">
-        <v>39.58387696184059</v>
+        <v>27.59002526031614</v>
       </c>
       <c r="W37" t="n">
-        <v>39.58387696184059</v>
+        <v>0</v>
       </c>
       <c r="X37" t="n">
-        <v>9.977552361264271</v>
+        <v>0</v>
       </c>
       <c r="Y37" t="n">
         <v>0</v>
@@ -3506,13 +3508,13 @@
         <v>0</v>
       </c>
       <c r="D38" t="n">
-        <v>0</v>
+        <v>27.59002526031614</v>
       </c>
       <c r="E38" t="n">
         <v>0</v>
       </c>
       <c r="F38" t="n">
-        <v>0</v>
+        <v>27.59002526031614</v>
       </c>
       <c r="G38" t="n">
         <v>0</v>
@@ -3548,19 +3550,19 @@
         <v>0</v>
       </c>
       <c r="R38" t="n">
-        <v>0</v>
+        <v>27.59002526031614</v>
       </c>
       <c r="S38" t="n">
-        <v>39.58387696184059</v>
+        <v>24.30129424928645</v>
       </c>
       <c r="T38" t="n">
-        <v>39.58387696184059</v>
+        <v>0</v>
       </c>
       <c r="U38" t="n">
-        <v>39.58387696184059</v>
+        <v>0</v>
       </c>
       <c r="V38" t="n">
-        <v>34.86547882798917</v>
+        <v>0</v>
       </c>
       <c r="W38" t="n">
         <v>0</v>
@@ -3579,7 +3581,7 @@
         </is>
       </c>
       <c r="B39" t="n">
-        <v>0</v>
+        <v>24.30129424928645</v>
       </c>
       <c r="C39" t="n">
         <v>0</v>
@@ -3588,13 +3590,13 @@
         <v>0</v>
       </c>
       <c r="E39" t="n">
-        <v>39.58387696184059</v>
+        <v>0</v>
       </c>
       <c r="F39" t="n">
         <v>0</v>
       </c>
       <c r="G39" t="n">
-        <v>34.86547882798917</v>
+        <v>0</v>
       </c>
       <c r="H39" t="n">
         <v>0</v>
@@ -3636,19 +3638,19 @@
         <v>0</v>
       </c>
       <c r="U39" t="n">
-        <v>39.58387696184059</v>
+        <v>0</v>
       </c>
       <c r="V39" t="n">
         <v>0</v>
       </c>
       <c r="W39" t="n">
-        <v>0</v>
+        <v>27.59002526031614</v>
       </c>
       <c r="X39" t="n">
-        <v>39.58387696184059</v>
+        <v>27.59002526031614</v>
       </c>
       <c r="Y39" t="n">
-        <v>0</v>
+        <v>27.59002526031614</v>
       </c>
     </row>
     <row r="40">
@@ -3658,7 +3660,7 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>9.977552361264268</v>
+        <v>0</v>
       </c>
       <c r="C40" t="n">
         <v>0</v>
@@ -3703,22 +3705,22 @@
         <v>0</v>
       </c>
       <c r="Q40" t="n">
-        <v>39.58387696184059</v>
+        <v>27.59002526031614</v>
       </c>
       <c r="R40" t="n">
-        <v>0</v>
+        <v>27.59002526031614</v>
       </c>
       <c r="S40" t="n">
         <v>0</v>
       </c>
       <c r="T40" t="n">
-        <v>0</v>
+        <v>27.59002526031614</v>
       </c>
       <c r="U40" t="n">
-        <v>0</v>
+        <v>22.44875936050941</v>
       </c>
       <c r="V40" t="n">
-        <v>39.58387696184059</v>
+        <v>0</v>
       </c>
       <c r="W40" t="n">
         <v>0</v>
@@ -3727,7 +3729,7 @@
         <v>0</v>
       </c>
       <c r="Y40" t="n">
-        <v>39.58387696184059</v>
+        <v>0</v>
       </c>
     </row>
     <row r="41">
@@ -3746,13 +3748,13 @@
         <v>0</v>
       </c>
       <c r="E41" t="n">
-        <v>0</v>
+        <v>25.62029119463083</v>
       </c>
       <c r="F41" t="n">
-        <v>0</v>
+        <v>25.62029119463083</v>
       </c>
       <c r="G41" t="n">
-        <v>0</v>
+        <v>25.62029119463083</v>
       </c>
       <c r="H41" t="n">
         <v>0</v>
@@ -3788,7 +3790,7 @@
         <v>0</v>
       </c>
       <c r="S41" t="n">
-        <v>39.58387696184059</v>
+        <v>0</v>
       </c>
       <c r="T41" t="n">
         <v>0</v>
@@ -3797,16 +3799,16 @@
         <v>0</v>
       </c>
       <c r="V41" t="n">
-        <v>39.58387696184059</v>
+        <v>0</v>
       </c>
       <c r="W41" t="n">
-        <v>24.87477961344436</v>
+        <v>0</v>
       </c>
       <c r="X41" t="n">
-        <v>39.58387696184059</v>
+        <v>0</v>
       </c>
       <c r="Y41" t="n">
-        <v>0</v>
+        <v>12.57565326968602</v>
       </c>
     </row>
     <row r="42">
@@ -3816,10 +3818,10 @@
         </is>
       </c>
       <c r="B42" t="n">
-        <v>39.58387696184059</v>
+        <v>25.62029119463083</v>
       </c>
       <c r="C42" t="n">
-        <v>39.58387696184059</v>
+        <v>25.62029119463083</v>
       </c>
       <c r="D42" t="n">
         <v>0</v>
@@ -3864,7 +3866,7 @@
         <v>0</v>
       </c>
       <c r="R42" t="n">
-        <v>34.86547882798917</v>
+        <v>0</v>
       </c>
       <c r="S42" t="n">
         <v>0</v>
@@ -3873,7 +3875,7 @@
         <v>0</v>
       </c>
       <c r="U42" t="n">
-        <v>39.58387696184059</v>
+        <v>0</v>
       </c>
       <c r="V42" t="n">
         <v>0</v>
@@ -3882,10 +3884,10 @@
         <v>0</v>
       </c>
       <c r="X42" t="n">
-        <v>0</v>
+        <v>22.56635248423083</v>
       </c>
       <c r="Y42" t="n">
-        <v>0</v>
+        <v>25.62029119463083</v>
       </c>
     </row>
     <row r="43">
@@ -3895,13 +3897,13 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>39.58387696184059</v>
+        <v>0</v>
       </c>
       <c r="C43" t="n">
-        <v>39.58387696184059</v>
+        <v>0</v>
       </c>
       <c r="D43" t="n">
-        <v>39.58387696184059</v>
+        <v>0</v>
       </c>
       <c r="E43" t="n">
         <v>0</v>
@@ -3952,19 +3954,19 @@
         <v>0</v>
       </c>
       <c r="U43" t="n">
-        <v>0</v>
+        <v>25.62029119463083</v>
       </c>
       <c r="V43" t="n">
         <v>0</v>
       </c>
       <c r="W43" t="n">
-        <v>0</v>
+        <v>22.56635248423083</v>
       </c>
       <c r="X43" t="n">
-        <v>0</v>
+        <v>25.62029119463083</v>
       </c>
       <c r="Y43" t="n">
-        <v>9.977552361264268</v>
+        <v>25.62029119463083</v>
       </c>
     </row>
     <row r="44">
@@ -3992,7 +3994,7 @@
         <v>0</v>
       </c>
       <c r="H44" t="n">
-        <v>0</v>
+        <v>25.62029119463083</v>
       </c>
       <c r="I44" t="n">
         <v>0</v>
@@ -4019,7 +4021,7 @@
         <v>0</v>
       </c>
       <c r="Q44" t="n">
-        <v>0</v>
+        <v>9.990699214544804</v>
       </c>
       <c r="R44" t="n">
         <v>0</v>
@@ -4037,13 +4039,13 @@
         <v>0</v>
       </c>
       <c r="W44" t="n">
-        <v>0</v>
+        <v>25.62029119463083</v>
       </c>
       <c r="X44" t="n">
-        <v>0</v>
+        <v>25.62029119463083</v>
       </c>
       <c r="Y44" t="n">
-        <v>0</v>
+        <v>12.57565326968602</v>
       </c>
     </row>
     <row r="45">
@@ -4065,13 +4067,13 @@
         <v>0</v>
       </c>
       <c r="F45" t="n">
-        <v>0</v>
+        <v>25.62029119463083</v>
       </c>
       <c r="G45" t="n">
-        <v>0</v>
+        <v>25.62029119463083</v>
       </c>
       <c r="H45" t="n">
-        <v>0</v>
+        <v>25.62029119463083</v>
       </c>
       <c r="I45" t="n">
         <v>0</v>
@@ -4101,7 +4103,7 @@
         <v>0</v>
       </c>
       <c r="R45" t="n">
-        <v>0</v>
+        <v>22.56635248423083</v>
       </c>
       <c r="S45" t="n">
         <v>0</v>
@@ -4141,16 +4143,16 @@
         <v>0</v>
       </c>
       <c r="E46" t="n">
-        <v>0</v>
+        <v>22.56635248423083</v>
       </c>
       <c r="F46" t="n">
-        <v>0</v>
+        <v>25.62029119463083</v>
       </c>
       <c r="G46" t="n">
-        <v>0</v>
+        <v>25.62029119463083</v>
       </c>
       <c r="H46" t="n">
-        <v>0</v>
+        <v>25.62029119463083</v>
       </c>
       <c r="I46" t="n">
         <v>0</v>
@@ -5489,76 +5491,76 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>0</v>
+        <v>4.136839464013024</v>
       </c>
       <c r="C17" t="n">
-        <v>0</v>
+        <v>4.136839464013024</v>
       </c>
       <c r="D17" t="n">
-        <v>0</v>
+        <v>4.136839464013024</v>
       </c>
       <c r="E17" t="n">
-        <v>0</v>
+        <v>2.147209094633924</v>
       </c>
       <c r="F17" t="n">
-        <v>0</v>
+        <v>0.1575787252548247</v>
       </c>
       <c r="G17" t="n">
-        <v>0</v>
+        <v>0.1575787252548247</v>
       </c>
       <c r="H17" t="n">
-        <v>0</v>
+        <v>0.1575787252548247</v>
       </c>
       <c r="I17" t="n">
-        <v>0</v>
+        <v>0.1575787252548247</v>
       </c>
       <c r="J17" t="n">
-        <v>0</v>
+        <v>0.1575787252548247</v>
       </c>
       <c r="K17" t="n">
-        <v>0</v>
+        <v>0.1575787252548247</v>
       </c>
       <c r="L17" t="n">
-        <v>0</v>
+        <v>2.028826087655867</v>
       </c>
       <c r="M17" t="n">
-        <v>0</v>
+        <v>3.978862812684323</v>
       </c>
       <c r="N17" t="n">
-        <v>0</v>
+        <v>5.928899537712779</v>
       </c>
       <c r="O17" t="n">
-        <v>0</v>
+        <v>7.878936262741234</v>
       </c>
       <c r="P17" t="n">
-        <v>0</v>
+        <v>7.878936262741234</v>
       </c>
       <c r="Q17" t="n">
-        <v>0</v>
+        <v>7.878936262741234</v>
       </c>
       <c r="R17" t="n">
-        <v>0</v>
+        <v>7.878936262741234</v>
       </c>
       <c r="S17" t="n">
-        <v>0</v>
+        <v>7.878936262741234</v>
       </c>
       <c r="T17" t="n">
-        <v>0</v>
+        <v>7.878936262741234</v>
       </c>
       <c r="U17" t="n">
-        <v>0</v>
+        <v>6.126469833392123</v>
       </c>
       <c r="V17" t="n">
-        <v>0</v>
+        <v>4.136839464013024</v>
       </c>
       <c r="W17" t="n">
-        <v>0</v>
+        <v>4.136839464013024</v>
       </c>
       <c r="X17" t="n">
-        <v>0</v>
+        <v>4.136839464013024</v>
       </c>
       <c r="Y17" t="n">
-        <v>0</v>
+        <v>4.136839464013024</v>
       </c>
     </row>
     <row r="18">
@@ -5568,76 +5570,76 @@
         </is>
       </c>
       <c r="B18" t="n">
-        <v>0</v>
+        <v>1.910045154603935</v>
       </c>
       <c r="C18" t="n">
-        <v>0</v>
+        <v>1.910045154603935</v>
       </c>
       <c r="D18" t="n">
-        <v>0</v>
+        <v>1.910045154603935</v>
       </c>
       <c r="E18" t="n">
-        <v>0</v>
+        <v>1.910045154603935</v>
       </c>
       <c r="F18" t="n">
-        <v>0</v>
+        <v>1.910045154603935</v>
       </c>
       <c r="G18" t="n">
-        <v>0</v>
+        <v>1.910045154603935</v>
       </c>
       <c r="H18" t="n">
-        <v>0</v>
+        <v>0.1575787252548247</v>
       </c>
       <c r="I18" t="n">
-        <v>0</v>
+        <v>0.1575787252548247</v>
       </c>
       <c r="J18" t="n">
-        <v>0</v>
+        <v>0.1575787252548247</v>
       </c>
       <c r="K18" t="n">
-        <v>0</v>
+        <v>0.1575787252548247</v>
       </c>
       <c r="L18" t="n">
-        <v>0</v>
+        <v>0.1575787252548247</v>
       </c>
       <c r="M18" t="n">
-        <v>0</v>
+        <v>2.028826087655867</v>
       </c>
       <c r="N18" t="n">
-        <v>0</v>
+        <v>3.978862812684323</v>
       </c>
       <c r="O18" t="n">
-        <v>0</v>
+        <v>5.928899537712779</v>
       </c>
       <c r="P18" t="n">
-        <v>0</v>
+        <v>5.928899537712779</v>
       </c>
       <c r="Q18" t="n">
-        <v>0</v>
+        <v>7.878936262741234</v>
       </c>
       <c r="R18" t="n">
-        <v>0</v>
+        <v>7.878936262741234</v>
       </c>
       <c r="S18" t="n">
-        <v>0</v>
+        <v>5.889305893362135</v>
       </c>
       <c r="T18" t="n">
-        <v>0</v>
+        <v>3.899675523983035</v>
       </c>
       <c r="U18" t="n">
-        <v>0</v>
+        <v>3.899675523983035</v>
       </c>
       <c r="V18" t="n">
-        <v>0</v>
+        <v>3.899675523983035</v>
       </c>
       <c r="W18" t="n">
-        <v>0</v>
+        <v>1.910045154603935</v>
       </c>
       <c r="X18" t="n">
-        <v>0</v>
+        <v>1.910045154603935</v>
       </c>
       <c r="Y18" t="n">
-        <v>0</v>
+        <v>1.910045154603935</v>
       </c>
     </row>
     <row r="19">
@@ -5647,76 +5649,76 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>0</v>
+        <v>0.1575787252548247</v>
       </c>
       <c r="C19" t="n">
-        <v>0</v>
+        <v>0.1575787252548247</v>
       </c>
       <c r="D19" t="n">
-        <v>0</v>
+        <v>0.1575787252548247</v>
       </c>
       <c r="E19" t="n">
-        <v>0</v>
+        <v>0.1575787252548247</v>
       </c>
       <c r="F19" t="n">
-        <v>0</v>
+        <v>0.1575787252548247</v>
       </c>
       <c r="G19" t="n">
-        <v>0</v>
+        <v>0.1575787252548247</v>
       </c>
       <c r="H19" t="n">
-        <v>0</v>
+        <v>0.1575787252548247</v>
       </c>
       <c r="I19" t="n">
-        <v>0</v>
+        <v>0.1575787252548247</v>
       </c>
       <c r="J19" t="n">
-        <v>0</v>
+        <v>0.1575787252548247</v>
       </c>
       <c r="K19" t="n">
-        <v>0</v>
+        <v>0.1575787252548247</v>
       </c>
       <c r="L19" t="n">
-        <v>0</v>
+        <v>2.028826087655867</v>
       </c>
       <c r="M19" t="n">
-        <v>0</v>
+        <v>3.978862812684323</v>
       </c>
       <c r="N19" t="n">
-        <v>0</v>
+        <v>5.928899537712779</v>
       </c>
       <c r="O19" t="n">
-        <v>0</v>
+        <v>7.878936262741234</v>
       </c>
       <c r="P19" t="n">
-        <v>0</v>
+        <v>7.878936262741234</v>
       </c>
       <c r="Q19" t="n">
-        <v>0</v>
+        <v>7.878936262741234</v>
       </c>
       <c r="R19" t="n">
-        <v>0</v>
+        <v>7.878936262741234</v>
       </c>
       <c r="S19" t="n">
-        <v>0</v>
+        <v>7.878936262741234</v>
       </c>
       <c r="T19" t="n">
-        <v>0</v>
+        <v>5.889305893362135</v>
       </c>
       <c r="U19" t="n">
-        <v>0</v>
+        <v>3.899675523983035</v>
       </c>
       <c r="V19" t="n">
-        <v>0</v>
+        <v>1.910045154603935</v>
       </c>
       <c r="W19" t="n">
-        <v>0</v>
+        <v>0.1575787252548247</v>
       </c>
       <c r="X19" t="n">
-        <v>0</v>
+        <v>0.1575787252548247</v>
       </c>
       <c r="Y19" t="n">
-        <v>0</v>
+        <v>0.1575787252548247</v>
       </c>
     </row>
     <row r="20">
@@ -5726,76 +5728,76 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>3.166710156947247</v>
+        <v>27.92870531034908</v>
       </c>
       <c r="C20" t="n">
-        <v>3.166710156947247</v>
+        <v>27.92870531034908</v>
       </c>
       <c r="D20" t="n">
-        <v>3.166710156947247</v>
+        <v>2.049623295570466</v>
       </c>
       <c r="E20" t="n">
-        <v>3.166710156947247</v>
+        <v>2.049623295570466</v>
       </c>
       <c r="F20" t="n">
-        <v>3.166710156947247</v>
+        <v>2.049623295570466</v>
       </c>
       <c r="G20" t="n">
-        <v>3.166710156947247</v>
+        <v>2.049623295570466</v>
       </c>
       <c r="H20" t="n">
-        <v>3.166710156947247</v>
+        <v>2.049623295570466</v>
       </c>
       <c r="I20" t="n">
-        <v>3.166710156947247</v>
+        <v>2.049623295570466</v>
       </c>
       <c r="J20" t="n">
-        <v>3.166710156947247</v>
+        <v>2.049623295570466</v>
       </c>
       <c r="K20" t="n">
-        <v>42.35474834916943</v>
+        <v>2.049623295570466</v>
       </c>
       <c r="L20" t="n">
-        <v>81.54278654139161</v>
+        <v>2.049623295570466</v>
       </c>
       <c r="M20" t="n">
-        <v>119.1474696551402</v>
+        <v>27.41371157825499</v>
       </c>
       <c r="N20" t="n">
-        <v>119.1474696551402</v>
+        <v>52.77779986093951</v>
       </c>
       <c r="O20" t="n">
-        <v>119.1474696551402</v>
+        <v>77.1170764958388</v>
       </c>
       <c r="P20" t="n">
-        <v>158.3355078473624</v>
+        <v>102.4811647785233</v>
       </c>
       <c r="Q20" t="n">
-        <v>148.2438924791353</v>
+        <v>102.4811647785233</v>
       </c>
       <c r="R20" t="n">
-        <v>108.260178376266</v>
+        <v>102.4811647785233</v>
       </c>
       <c r="S20" t="n">
-        <v>68.2764642733967</v>
+        <v>102.4811647785233</v>
       </c>
       <c r="T20" t="n">
-        <v>28.29275017052741</v>
+        <v>102.4811647785233</v>
       </c>
       <c r="U20" t="n">
-        <v>28.29275017052741</v>
+        <v>102.4811647785233</v>
       </c>
       <c r="V20" t="n">
-        <v>28.29275017052741</v>
+        <v>102.4811647785233</v>
       </c>
       <c r="W20" t="n">
-        <v>3.166710156947247</v>
+        <v>79.68686933990632</v>
       </c>
       <c r="X20" t="n">
-        <v>3.166710156947247</v>
+        <v>53.80778732512771</v>
       </c>
       <c r="Y20" t="n">
-        <v>3.166710156947247</v>
+        <v>27.92870531034908</v>
       </c>
     </row>
     <row r="21">
@@ -5805,76 +5807,76 @@
         </is>
       </c>
       <c r="B21" t="n">
-        <v>78.36807964162378</v>
+        <v>53.80778732512771</v>
       </c>
       <c r="C21" t="n">
-        <v>38.38436553875449</v>
+        <v>27.92870531034908</v>
       </c>
       <c r="D21" t="n">
-        <v>3.166710156947247</v>
+        <v>27.92870531034908</v>
       </c>
       <c r="E21" t="n">
-        <v>3.166710156947247</v>
+        <v>27.92870531034908</v>
       </c>
       <c r="F21" t="n">
-        <v>3.166710156947247</v>
+        <v>27.92870531034908</v>
       </c>
       <c r="G21" t="n">
-        <v>3.166710156947247</v>
+        <v>27.92870531034908</v>
       </c>
       <c r="H21" t="n">
-        <v>3.166710156947247</v>
+        <v>2.049623295570466</v>
       </c>
       <c r="I21" t="n">
-        <v>3.166710156947247</v>
+        <v>2.049623295570466</v>
       </c>
       <c r="J21" t="n">
-        <v>3.166710156947247</v>
+        <v>2.049623295570466</v>
       </c>
       <c r="K21" t="n">
-        <v>40.77139327069581</v>
+        <v>2.049623295570466</v>
       </c>
       <c r="L21" t="n">
-        <v>40.77139327069581</v>
+        <v>27.41371157825499</v>
       </c>
       <c r="M21" t="n">
-        <v>79.95943146291799</v>
+        <v>52.77779986093951</v>
       </c>
       <c r="N21" t="n">
-        <v>119.1474696551402</v>
+        <v>77.1170764958388</v>
       </c>
       <c r="O21" t="n">
-        <v>119.1474696551402</v>
+        <v>77.1170764958388</v>
       </c>
       <c r="P21" t="n">
-        <v>119.1474696551402</v>
+        <v>102.4811647785233</v>
       </c>
       <c r="Q21" t="n">
-        <v>158.3355078473624</v>
+        <v>102.4811647785233</v>
       </c>
       <c r="R21" t="n">
-        <v>158.3355078473624</v>
+        <v>102.4811647785233</v>
       </c>
       <c r="S21" t="n">
-        <v>158.3355078473624</v>
+        <v>102.4811647785233</v>
       </c>
       <c r="T21" t="n">
-        <v>118.3517937444931</v>
+        <v>102.4811647785233</v>
       </c>
       <c r="U21" t="n">
-        <v>118.3517937444931</v>
+        <v>102.4811647785233</v>
       </c>
       <c r="V21" t="n">
-        <v>78.36807964162378</v>
+        <v>102.4811647785233</v>
       </c>
       <c r="W21" t="n">
-        <v>78.36807964162378</v>
+        <v>79.68686933990632</v>
       </c>
       <c r="X21" t="n">
-        <v>78.36807964162378</v>
+        <v>53.80778732512771</v>
       </c>
       <c r="Y21" t="n">
-        <v>78.36807964162378</v>
+        <v>53.80778732512771</v>
       </c>
     </row>
     <row r="22">
@@ -5884,76 +5886,76 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>13.245045875396</v>
+        <v>76.6020827637447</v>
       </c>
       <c r="C22" t="n">
-        <v>3.166710156947247</v>
+        <v>50.72300074896609</v>
       </c>
       <c r="D22" t="n">
-        <v>3.166710156947247</v>
+        <v>50.72300074896609</v>
       </c>
       <c r="E22" t="n">
-        <v>3.166710156947247</v>
+        <v>24.84391873418747</v>
       </c>
       <c r="F22" t="n">
-        <v>3.166710156947247</v>
+        <v>2.049623295570466</v>
       </c>
       <c r="G22" t="n">
-        <v>3.166710156947247</v>
+        <v>2.049623295570466</v>
       </c>
       <c r="H22" t="n">
-        <v>3.166710156947247</v>
+        <v>2.049623295570466</v>
       </c>
       <c r="I22" t="n">
-        <v>3.166710156947247</v>
+        <v>2.049623295570466</v>
       </c>
       <c r="J22" t="n">
-        <v>3.166710156947247</v>
+        <v>2.049623295570466</v>
       </c>
       <c r="K22" t="n">
-        <v>3.166710156947247</v>
+        <v>2.049623295570466</v>
       </c>
       <c r="L22" t="n">
-        <v>30.48083516466022</v>
+        <v>27.41371157825499</v>
       </c>
       <c r="M22" t="n">
-        <v>69.6688733568824</v>
+        <v>52.77779986093951</v>
       </c>
       <c r="N22" t="n">
-        <v>108.8569115491046</v>
+        <v>78.14188814362404</v>
       </c>
       <c r="O22" t="n">
-        <v>133.1961881840039</v>
+        <v>102.4811647785233</v>
       </c>
       <c r="P22" t="n">
-        <v>133.1961881840039</v>
+        <v>102.4811647785233</v>
       </c>
       <c r="Q22" t="n">
-        <v>133.1961881840039</v>
+        <v>102.4811647785233</v>
       </c>
       <c r="R22" t="n">
-        <v>133.1961881840039</v>
+        <v>102.4811647785233</v>
       </c>
       <c r="S22" t="n">
-        <v>133.1961881840039</v>
+        <v>102.4811647785233</v>
       </c>
       <c r="T22" t="n">
-        <v>133.1961881840039</v>
+        <v>102.4811647785233</v>
       </c>
       <c r="U22" t="n">
-        <v>133.1961881840039</v>
+        <v>76.6020827637447</v>
       </c>
       <c r="V22" t="n">
-        <v>133.1961881840039</v>
+        <v>76.6020827637447</v>
       </c>
       <c r="W22" t="n">
-        <v>93.21247408113457</v>
+        <v>76.6020827637447</v>
       </c>
       <c r="X22" t="n">
-        <v>93.21247408113457</v>
+        <v>76.6020827637447</v>
       </c>
       <c r="Y22" t="n">
-        <v>53.22875997826529</v>
+        <v>76.6020827637447</v>
       </c>
     </row>
     <row r="23">
@@ -5963,76 +5965,76 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>83.13413836268582</v>
+        <v>57.94462678914073</v>
       </c>
       <c r="C23" t="n">
-        <v>83.13413836268582</v>
+        <v>30.07591440498301</v>
       </c>
       <c r="D23" t="n">
-        <v>43.15042425981653</v>
+        <v>30.07591440498301</v>
       </c>
       <c r="E23" t="n">
-        <v>3.166710156947247</v>
+        <v>30.07591440498301</v>
       </c>
       <c r="F23" t="n">
-        <v>3.166710156947247</v>
+        <v>30.07591440498301</v>
       </c>
       <c r="G23" t="n">
-        <v>3.166710156947247</v>
+        <v>30.07591440498301</v>
       </c>
       <c r="H23" t="n">
-        <v>3.166710156947247</v>
+        <v>2.207202020825291</v>
       </c>
       <c r="I23" t="n">
-        <v>3.166710156947247</v>
+        <v>2.207202020825291</v>
       </c>
       <c r="J23" t="n">
-        <v>3.166710156947247</v>
+        <v>2.207202020825291</v>
       </c>
       <c r="K23" t="n">
-        <v>3.166710156947247</v>
+        <v>29.52132702853827</v>
       </c>
       <c r="L23" t="n">
-        <v>3.166710156947247</v>
+        <v>56.83545203625125</v>
       </c>
       <c r="M23" t="n">
-        <v>42.35474834916943</v>
+        <v>84.14957704396423</v>
       </c>
       <c r="N23" t="n">
-        <v>81.54278654139161</v>
+        <v>110.3601010412646</v>
       </c>
       <c r="O23" t="n">
-        <v>120.7308247336138</v>
+        <v>110.3601010412646</v>
       </c>
       <c r="P23" t="n">
-        <v>158.3355078473624</v>
+        <v>110.3601010412646</v>
       </c>
       <c r="Q23" t="n">
-        <v>148.2438924791353</v>
+        <v>110.3601010412646</v>
       </c>
       <c r="R23" t="n">
-        <v>148.2438924791353</v>
+        <v>110.3601010412646</v>
       </c>
       <c r="S23" t="n">
-        <v>148.2438924791353</v>
+        <v>110.3601010412646</v>
       </c>
       <c r="T23" t="n">
-        <v>148.2438924791353</v>
+        <v>110.3601010412646</v>
       </c>
       <c r="U23" t="n">
-        <v>148.2438924791353</v>
+        <v>110.3601010412646</v>
       </c>
       <c r="V23" t="n">
-        <v>148.2438924791353</v>
+        <v>110.3601010412646</v>
       </c>
       <c r="W23" t="n">
-        <v>108.260178376266</v>
+        <v>110.3601010412646</v>
       </c>
       <c r="X23" t="n">
-        <v>108.260178376266</v>
+        <v>110.3601010412646</v>
       </c>
       <c r="Y23" t="n">
-        <v>108.260178376266</v>
+        <v>85.81333917329844</v>
       </c>
     </row>
     <row r="24">
@@ -6042,76 +6044,76 @@
         </is>
       </c>
       <c r="B24" t="n">
-        <v>3.166710156947247</v>
+        <v>2.207202020825291</v>
       </c>
       <c r="C24" t="n">
-        <v>3.166710156947247</v>
+        <v>2.207202020825291</v>
       </c>
       <c r="D24" t="n">
-        <v>3.166710156947247</v>
+        <v>2.207202020825291</v>
       </c>
       <c r="E24" t="n">
-        <v>3.166710156947247</v>
+        <v>2.207202020825291</v>
       </c>
       <c r="F24" t="n">
-        <v>3.166710156947247</v>
+        <v>2.207202020825291</v>
       </c>
       <c r="G24" t="n">
-        <v>3.166710156947247</v>
+        <v>2.207202020825291</v>
       </c>
       <c r="H24" t="n">
-        <v>3.166710156947247</v>
+        <v>2.207202020825291</v>
       </c>
       <c r="I24" t="n">
-        <v>3.166710156947247</v>
+        <v>2.207202020825291</v>
       </c>
       <c r="J24" t="n">
-        <v>3.166710156947247</v>
+        <v>2.207202020825291</v>
       </c>
       <c r="K24" t="n">
-        <v>42.35474834916943</v>
+        <v>2.207202020825291</v>
       </c>
       <c r="L24" t="n">
-        <v>81.54278654139161</v>
+        <v>28.41772601812563</v>
       </c>
       <c r="M24" t="n">
-        <v>120.7308247336138</v>
+        <v>55.73185102583861</v>
       </c>
       <c r="N24" t="n">
-        <v>158.3355078473624</v>
+        <v>83.04597603355158</v>
       </c>
       <c r="O24" t="n">
-        <v>158.3355078473624</v>
+        <v>83.04597603355158</v>
       </c>
       <c r="P24" t="n">
-        <v>158.3355078473624</v>
+        <v>83.04597603355158</v>
       </c>
       <c r="Q24" t="n">
-        <v>158.3355078473624</v>
+        <v>110.3601010412646</v>
       </c>
       <c r="R24" t="n">
-        <v>118.3517937444931</v>
+        <v>110.3601010412646</v>
       </c>
       <c r="S24" t="n">
-        <v>118.3517937444931</v>
+        <v>110.3601010412646</v>
       </c>
       <c r="T24" t="n">
-        <v>118.3517937444931</v>
+        <v>110.3601010412646</v>
       </c>
       <c r="U24" t="n">
-        <v>83.13413836268582</v>
+        <v>85.81333917329844</v>
       </c>
       <c r="V24" t="n">
-        <v>43.15042425981653</v>
+        <v>57.94462678914073</v>
       </c>
       <c r="W24" t="n">
-        <v>3.166710156947247</v>
+        <v>30.07591440498301</v>
       </c>
       <c r="X24" t="n">
-        <v>3.166710156947247</v>
+        <v>2.207202020825291</v>
       </c>
       <c r="Y24" t="n">
-        <v>3.166710156947247</v>
+        <v>2.207202020825291</v>
       </c>
     </row>
     <row r="25">
@@ -6121,76 +6123,76 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>83.13413836268582</v>
+        <v>2.207202020825291</v>
       </c>
       <c r="C25" t="n">
-        <v>83.13413836268582</v>
+        <v>2.207202020825291</v>
       </c>
       <c r="D25" t="n">
-        <v>83.13413836268582</v>
+        <v>2.207202020825291</v>
       </c>
       <c r="E25" t="n">
-        <v>43.15042425981653</v>
+        <v>2.207202020825291</v>
       </c>
       <c r="F25" t="n">
-        <v>3.166710156947247</v>
+        <v>2.207202020825291</v>
       </c>
       <c r="G25" t="n">
-        <v>3.166710156947247</v>
+        <v>2.207202020825291</v>
       </c>
       <c r="H25" t="n">
-        <v>3.166710156947247</v>
+        <v>2.207202020825291</v>
       </c>
       <c r="I25" t="n">
-        <v>3.166710156947247</v>
+        <v>2.207202020825291</v>
       </c>
       <c r="J25" t="n">
-        <v>3.166710156947247</v>
+        <v>2.207202020825291</v>
       </c>
       <c r="K25" t="n">
-        <v>3.166710156947247</v>
+        <v>2.207202020825291</v>
       </c>
       <c r="L25" t="n">
-        <v>30.48083516466022</v>
+        <v>29.52132702853827</v>
       </c>
       <c r="M25" t="n">
-        <v>69.6688733568824</v>
+        <v>56.83545203625125</v>
       </c>
       <c r="N25" t="n">
-        <v>108.8569115491046</v>
+        <v>84.14957704396423</v>
       </c>
       <c r="O25" t="n">
-        <v>133.1961881840039</v>
+        <v>108.4888536788635</v>
       </c>
       <c r="P25" t="n">
-        <v>133.1961881840039</v>
+        <v>108.4888536788635</v>
       </c>
       <c r="Q25" t="n">
-        <v>93.21247408113457</v>
+        <v>108.4888536788635</v>
       </c>
       <c r="R25" t="n">
-        <v>93.21247408113457</v>
+        <v>108.4888536788635</v>
       </c>
       <c r="S25" t="n">
-        <v>93.21247408113457</v>
+        <v>108.4888536788635</v>
       </c>
       <c r="T25" t="n">
-        <v>93.21247408113457</v>
+        <v>108.4888536788635</v>
       </c>
       <c r="U25" t="n">
-        <v>93.21247408113457</v>
+        <v>80.62014129470579</v>
       </c>
       <c r="V25" t="n">
-        <v>93.21247408113457</v>
+        <v>52.75142891054807</v>
       </c>
       <c r="W25" t="n">
-        <v>93.21247408113457</v>
+        <v>24.88271652639035</v>
       </c>
       <c r="X25" t="n">
-        <v>93.21247408113457</v>
+        <v>2.207202020825291</v>
       </c>
       <c r="Y25" t="n">
-        <v>83.13413836268582</v>
+        <v>2.207202020825291</v>
       </c>
     </row>
     <row r="26">
@@ -6200,76 +6202,76 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>43.15042425981653</v>
+        <v>2.207202020825291</v>
       </c>
       <c r="C26" t="n">
-        <v>43.15042425981653</v>
+        <v>2.207202020825291</v>
       </c>
       <c r="D26" t="n">
-        <v>43.15042425981653</v>
+        <v>2.207202020825291</v>
       </c>
       <c r="E26" t="n">
-        <v>43.15042425981653</v>
+        <v>2.207202020825291</v>
       </c>
       <c r="F26" t="n">
-        <v>43.15042425981653</v>
+        <v>2.207202020825291</v>
       </c>
       <c r="G26" t="n">
-        <v>43.15042425981653</v>
+        <v>2.207202020825291</v>
       </c>
       <c r="H26" t="n">
-        <v>3.166710156947247</v>
+        <v>2.207202020825291</v>
       </c>
       <c r="I26" t="n">
-        <v>3.166710156947247</v>
+        <v>2.207202020825291</v>
       </c>
       <c r="J26" t="n">
-        <v>3.166710156947247</v>
+        <v>2.207202020825291</v>
       </c>
       <c r="K26" t="n">
-        <v>40.77139327069581</v>
+        <v>2.207202020825291</v>
       </c>
       <c r="L26" t="n">
-        <v>79.95943146291799</v>
+        <v>2.207202020825291</v>
       </c>
       <c r="M26" t="n">
-        <v>119.1474696551402</v>
+        <v>28.41772601812563</v>
       </c>
       <c r="N26" t="n">
-        <v>119.1474696551402</v>
+        <v>55.73185102583861</v>
       </c>
       <c r="O26" t="n">
-        <v>119.1474696551402</v>
+        <v>83.04597603355158</v>
       </c>
       <c r="P26" t="n">
-        <v>158.3355078473624</v>
+        <v>110.3601010412646</v>
       </c>
       <c r="Q26" t="n">
-        <v>148.2438924791353</v>
+        <v>100.2684856730375</v>
       </c>
       <c r="R26" t="n">
-        <v>123.1178524655551</v>
+        <v>85.81333917329844</v>
       </c>
       <c r="S26" t="n">
-        <v>83.13413836268582</v>
+        <v>85.81333917329844</v>
       </c>
       <c r="T26" t="n">
-        <v>43.15042425981653</v>
+        <v>85.81333917329844</v>
       </c>
       <c r="U26" t="n">
-        <v>43.15042425981653</v>
+        <v>57.94462678914073</v>
       </c>
       <c r="V26" t="n">
-        <v>43.15042425981653</v>
+        <v>30.07591440498301</v>
       </c>
       <c r="W26" t="n">
-        <v>43.15042425981653</v>
+        <v>2.207202020825291</v>
       </c>
       <c r="X26" t="n">
-        <v>43.15042425981653</v>
+        <v>2.207202020825291</v>
       </c>
       <c r="Y26" t="n">
-        <v>43.15042425981653</v>
+        <v>2.207202020825291</v>
       </c>
     </row>
     <row r="27">
@@ -6279,76 +6281,76 @@
         </is>
       </c>
       <c r="B27" t="n">
-        <v>43.15042425981653</v>
+        <v>2.207202020825291</v>
       </c>
       <c r="C27" t="n">
-        <v>43.15042425981653</v>
+        <v>2.207202020825291</v>
       </c>
       <c r="D27" t="n">
-        <v>3.166710156947247</v>
+        <v>2.207202020825291</v>
       </c>
       <c r="E27" t="n">
-        <v>3.166710156947247</v>
+        <v>2.207202020825291</v>
       </c>
       <c r="F27" t="n">
-        <v>3.166710156947247</v>
+        <v>2.207202020825291</v>
       </c>
       <c r="G27" t="n">
-        <v>3.166710156947247</v>
+        <v>2.207202020825291</v>
       </c>
       <c r="H27" t="n">
-        <v>3.166710156947247</v>
+        <v>2.207202020825291</v>
       </c>
       <c r="I27" t="n">
-        <v>3.166710156947247</v>
+        <v>2.207202020825291</v>
       </c>
       <c r="J27" t="n">
-        <v>3.166710156947247</v>
+        <v>2.207202020825291</v>
       </c>
       <c r="K27" t="n">
-        <v>42.35474834916943</v>
+        <v>29.52132702853827</v>
       </c>
       <c r="L27" t="n">
-        <v>81.54278654139161</v>
+        <v>29.52132702853827</v>
       </c>
       <c r="M27" t="n">
-        <v>119.1474696551402</v>
+        <v>56.83545203625125</v>
       </c>
       <c r="N27" t="n">
-        <v>119.1474696551402</v>
+        <v>83.04597603355158</v>
       </c>
       <c r="O27" t="n">
-        <v>158.3355078473624</v>
+        <v>83.04597603355158</v>
       </c>
       <c r="P27" t="n">
-        <v>158.3355078473624</v>
+        <v>110.3601010412646</v>
       </c>
       <c r="Q27" t="n">
-        <v>158.3355078473624</v>
+        <v>110.3601010412646</v>
       </c>
       <c r="R27" t="n">
-        <v>123.1178524655551</v>
+        <v>110.3601010412646</v>
       </c>
       <c r="S27" t="n">
-        <v>123.1178524655551</v>
+        <v>82.49138865710684</v>
       </c>
       <c r="T27" t="n">
-        <v>123.1178524655551</v>
+        <v>54.62267627294912</v>
       </c>
       <c r="U27" t="n">
-        <v>123.1178524655551</v>
+        <v>54.62267627294912</v>
       </c>
       <c r="V27" t="n">
-        <v>123.1178524655551</v>
+        <v>54.62267627294912</v>
       </c>
       <c r="W27" t="n">
-        <v>123.1178524655551</v>
+        <v>54.62267627294912</v>
       </c>
       <c r="X27" t="n">
-        <v>83.13413836268582</v>
+        <v>26.7539638887914</v>
       </c>
       <c r="Y27" t="n">
-        <v>43.15042425981653</v>
+        <v>2.207202020825291</v>
       </c>
     </row>
     <row r="28">
@@ -6358,76 +6360,76 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>53.22875997826529</v>
+        <v>2.207202020825291</v>
       </c>
       <c r="C28" t="n">
-        <v>53.22875997826529</v>
+        <v>2.207202020825291</v>
       </c>
       <c r="D28" t="n">
-        <v>53.22875997826529</v>
+        <v>2.207202020825291</v>
       </c>
       <c r="E28" t="n">
-        <v>53.22875997826529</v>
+        <v>2.207202020825291</v>
       </c>
       <c r="F28" t="n">
-        <v>53.22875997826529</v>
+        <v>2.207202020825291</v>
       </c>
       <c r="G28" t="n">
-        <v>53.22875997826529</v>
+        <v>2.207202020825291</v>
       </c>
       <c r="H28" t="n">
-        <v>53.22875997826529</v>
+        <v>2.207202020825291</v>
       </c>
       <c r="I28" t="n">
-        <v>43.15042425981653</v>
+        <v>2.207202020825291</v>
       </c>
       <c r="J28" t="n">
-        <v>3.166710156947247</v>
+        <v>2.207202020825291</v>
       </c>
       <c r="K28" t="n">
-        <v>3.166710156947247</v>
+        <v>2.207202020825291</v>
       </c>
       <c r="L28" t="n">
-        <v>30.48083516466022</v>
+        <v>29.52132702853827</v>
       </c>
       <c r="M28" t="n">
-        <v>69.6688733568824</v>
+        <v>56.83545203625125</v>
       </c>
       <c r="N28" t="n">
-        <v>108.8569115491046</v>
+        <v>84.14957704396423</v>
       </c>
       <c r="O28" t="n">
-        <v>133.1961881840039</v>
+        <v>108.4888536788635</v>
       </c>
       <c r="P28" t="n">
-        <v>133.1961881840039</v>
+        <v>108.4888536788635</v>
       </c>
       <c r="Q28" t="n">
-        <v>133.1961881840039</v>
+        <v>108.4888536788635</v>
       </c>
       <c r="R28" t="n">
-        <v>93.21247408113457</v>
+        <v>80.62014129470579</v>
       </c>
       <c r="S28" t="n">
-        <v>53.22875997826529</v>
+        <v>52.75142891054807</v>
       </c>
       <c r="T28" t="n">
-        <v>53.22875997826529</v>
+        <v>24.88271652639035</v>
       </c>
       <c r="U28" t="n">
-        <v>53.22875997826529</v>
+        <v>24.88271652639035</v>
       </c>
       <c r="V28" t="n">
-        <v>53.22875997826529</v>
+        <v>2.207202020825291</v>
       </c>
       <c r="W28" t="n">
-        <v>53.22875997826529</v>
+        <v>2.207202020825291</v>
       </c>
       <c r="X28" t="n">
-        <v>53.22875997826529</v>
+        <v>2.207202020825291</v>
       </c>
       <c r="Y28" t="n">
-        <v>53.22875997826529</v>
+        <v>2.207202020825291</v>
       </c>
     </row>
     <row r="29">
@@ -6437,76 +6439,76 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>3.166710156947247</v>
+        <v>57.94462678914073</v>
       </c>
       <c r="C29" t="n">
-        <v>3.166710156947247</v>
+        <v>30.07591440498301</v>
       </c>
       <c r="D29" t="n">
-        <v>3.166710156947247</v>
+        <v>2.207202020825291</v>
       </c>
       <c r="E29" t="n">
-        <v>3.166710156947247</v>
+        <v>2.207202020825291</v>
       </c>
       <c r="F29" t="n">
-        <v>3.166710156947247</v>
+        <v>2.207202020825291</v>
       </c>
       <c r="G29" t="n">
-        <v>3.166710156947247</v>
+        <v>2.207202020825291</v>
       </c>
       <c r="H29" t="n">
-        <v>3.166710156947247</v>
+        <v>2.207202020825291</v>
       </c>
       <c r="I29" t="n">
-        <v>3.166710156947247</v>
+        <v>2.207202020825291</v>
       </c>
       <c r="J29" t="n">
-        <v>3.166710156947247</v>
+        <v>2.207202020825291</v>
       </c>
       <c r="K29" t="n">
-        <v>3.166710156947247</v>
+        <v>2.207202020825291</v>
       </c>
       <c r="L29" t="n">
-        <v>42.35474834916943</v>
+        <v>29.52132702853827</v>
       </c>
       <c r="M29" t="n">
-        <v>81.54278654139161</v>
+        <v>29.52132702853827</v>
       </c>
       <c r="N29" t="n">
-        <v>120.7308247336138</v>
+        <v>55.73185102583861</v>
       </c>
       <c r="O29" t="n">
-        <v>158.3355078473624</v>
+        <v>83.04597603355158</v>
       </c>
       <c r="P29" t="n">
-        <v>158.3355078473624</v>
+        <v>110.3601010412646</v>
       </c>
       <c r="Q29" t="n">
-        <v>148.2438924791353</v>
+        <v>110.3601010412646</v>
       </c>
       <c r="R29" t="n">
-        <v>108.260178376266</v>
+        <v>110.3601010412646</v>
       </c>
       <c r="S29" t="n">
-        <v>68.2764642733967</v>
+        <v>110.3601010412646</v>
       </c>
       <c r="T29" t="n">
-        <v>68.2764642733967</v>
+        <v>110.3601010412646</v>
       </c>
       <c r="U29" t="n">
-        <v>68.2764642733967</v>
+        <v>110.3601010412646</v>
       </c>
       <c r="V29" t="n">
-        <v>28.29275017052741</v>
+        <v>110.3601010412646</v>
       </c>
       <c r="W29" t="n">
-        <v>3.166710156947247</v>
+        <v>110.3601010412646</v>
       </c>
       <c r="X29" t="n">
-        <v>3.166710156947247</v>
+        <v>110.3601010412646</v>
       </c>
       <c r="Y29" t="n">
-        <v>3.166710156947247</v>
+        <v>82.49138865710684</v>
       </c>
     </row>
     <row r="30">
@@ -6516,76 +6518,76 @@
         </is>
       </c>
       <c r="B30" t="n">
-        <v>43.15042425981653</v>
+        <v>82.49138865710684</v>
       </c>
       <c r="C30" t="n">
-        <v>43.15042425981653</v>
+        <v>82.49138865710684</v>
       </c>
       <c r="D30" t="n">
-        <v>43.15042425981653</v>
+        <v>82.49138865710684</v>
       </c>
       <c r="E30" t="n">
-        <v>43.15042425981653</v>
+        <v>82.49138865710684</v>
       </c>
       <c r="F30" t="n">
-        <v>43.15042425981653</v>
+        <v>57.94462678914073</v>
       </c>
       <c r="G30" t="n">
-        <v>43.15042425981653</v>
+        <v>30.07591440498301</v>
       </c>
       <c r="H30" t="n">
-        <v>3.166710156947247</v>
+        <v>2.207202020825291</v>
       </c>
       <c r="I30" t="n">
-        <v>3.166710156947247</v>
+        <v>2.207202020825291</v>
       </c>
       <c r="J30" t="n">
-        <v>3.166710156947247</v>
+        <v>2.207202020825291</v>
       </c>
       <c r="K30" t="n">
-        <v>3.166710156947247</v>
+        <v>28.41772601812563</v>
       </c>
       <c r="L30" t="n">
-        <v>42.35474834916943</v>
+        <v>55.73185102583861</v>
       </c>
       <c r="M30" t="n">
-        <v>81.54278654139161</v>
+        <v>83.04597603355158</v>
       </c>
       <c r="N30" t="n">
-        <v>119.1474696551402</v>
+        <v>110.3601010412646</v>
       </c>
       <c r="O30" t="n">
-        <v>119.1474696551402</v>
+        <v>110.3601010412646</v>
       </c>
       <c r="P30" t="n">
-        <v>119.1474696551402</v>
+        <v>110.3601010412646</v>
       </c>
       <c r="Q30" t="n">
-        <v>158.3355078473624</v>
+        <v>110.3601010412646</v>
       </c>
       <c r="R30" t="n">
-        <v>158.3355078473624</v>
+        <v>110.3601010412646</v>
       </c>
       <c r="S30" t="n">
-        <v>158.3355078473624</v>
+        <v>110.3601010412646</v>
       </c>
       <c r="T30" t="n">
-        <v>158.3355078473624</v>
+        <v>110.3601010412646</v>
       </c>
       <c r="U30" t="n">
-        <v>123.1178524655551</v>
+        <v>82.49138865710684</v>
       </c>
       <c r="V30" t="n">
-        <v>83.13413836268582</v>
+        <v>82.49138865710684</v>
       </c>
       <c r="W30" t="n">
-        <v>43.15042425981653</v>
+        <v>82.49138865710684</v>
       </c>
       <c r="X30" t="n">
-        <v>43.15042425981653</v>
+        <v>82.49138865710684</v>
       </c>
       <c r="Y30" t="n">
-        <v>43.15042425981653</v>
+        <v>82.49138865710684</v>
       </c>
     </row>
     <row r="31">
@@ -6595,76 +6597,76 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>13.245045875396</v>
+        <v>30.07591440498301</v>
       </c>
       <c r="C31" t="n">
-        <v>13.245045875396</v>
+        <v>30.07591440498301</v>
       </c>
       <c r="D31" t="n">
-        <v>13.245045875396</v>
+        <v>30.07591440498301</v>
       </c>
       <c r="E31" t="n">
-        <v>13.245045875396</v>
+        <v>30.07591440498301</v>
       </c>
       <c r="F31" t="n">
-        <v>3.166710156947247</v>
+        <v>30.07591440498301</v>
       </c>
       <c r="G31" t="n">
-        <v>3.166710156947247</v>
+        <v>30.07591440498301</v>
       </c>
       <c r="H31" t="n">
-        <v>3.166710156947247</v>
+        <v>30.07591440498301</v>
       </c>
       <c r="I31" t="n">
-        <v>3.166710156947247</v>
+        <v>2.207202020825291</v>
       </c>
       <c r="J31" t="n">
-        <v>3.166710156947247</v>
+        <v>2.207202020825291</v>
       </c>
       <c r="K31" t="n">
-        <v>3.166710156947247</v>
+        <v>2.207202020825291</v>
       </c>
       <c r="L31" t="n">
-        <v>30.48083516466022</v>
+        <v>29.52132702853827</v>
       </c>
       <c r="M31" t="n">
-        <v>69.6688733568824</v>
+        <v>56.83545203625125</v>
       </c>
       <c r="N31" t="n">
-        <v>108.8569115491046</v>
+        <v>84.14957704396423</v>
       </c>
       <c r="O31" t="n">
-        <v>133.1961881840039</v>
+        <v>108.4888536788635</v>
       </c>
       <c r="P31" t="n">
-        <v>133.1961881840039</v>
+        <v>108.4888536788635</v>
       </c>
       <c r="Q31" t="n">
-        <v>133.1961881840039</v>
+        <v>108.4888536788635</v>
       </c>
       <c r="R31" t="n">
-        <v>133.1961881840039</v>
+        <v>108.4888536788635</v>
       </c>
       <c r="S31" t="n">
-        <v>133.1961881840039</v>
+        <v>80.62014129470579</v>
       </c>
       <c r="T31" t="n">
-        <v>133.1961881840039</v>
+        <v>57.94462678914073</v>
       </c>
       <c r="U31" t="n">
-        <v>133.1961881840039</v>
+        <v>57.94462678914073</v>
       </c>
       <c r="V31" t="n">
-        <v>93.21247408113457</v>
+        <v>30.07591440498301</v>
       </c>
       <c r="W31" t="n">
-        <v>53.22875997826529</v>
+        <v>30.07591440498301</v>
       </c>
       <c r="X31" t="n">
-        <v>13.245045875396</v>
+        <v>30.07591440498301</v>
       </c>
       <c r="Y31" t="n">
-        <v>13.245045875396</v>
+        <v>30.07591440498301</v>
       </c>
     </row>
     <row r="32">
@@ -6674,76 +6676,76 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>78.36807964162378</v>
+        <v>2.207202020825291</v>
       </c>
       <c r="C32" t="n">
-        <v>78.36807964162378</v>
+        <v>2.207202020825291</v>
       </c>
       <c r="D32" t="n">
-        <v>78.36807964162378</v>
+        <v>2.207202020825291</v>
       </c>
       <c r="E32" t="n">
-        <v>78.36807964162378</v>
+        <v>2.207202020825291</v>
       </c>
       <c r="F32" t="n">
-        <v>78.36807964162378</v>
+        <v>2.207202020825291</v>
       </c>
       <c r="G32" t="n">
-        <v>78.36807964162378</v>
+        <v>2.207202020825291</v>
       </c>
       <c r="H32" t="n">
-        <v>43.15042425981653</v>
+        <v>2.207202020825291</v>
       </c>
       <c r="I32" t="n">
-        <v>3.166710156947247</v>
+        <v>2.207202020825291</v>
       </c>
       <c r="J32" t="n">
-        <v>3.166710156947247</v>
+        <v>2.207202020825291</v>
       </c>
       <c r="K32" t="n">
-        <v>42.35474834916943</v>
+        <v>2.207202020825291</v>
       </c>
       <c r="L32" t="n">
-        <v>42.35474834916943</v>
+        <v>2.207202020825291</v>
       </c>
       <c r="M32" t="n">
-        <v>81.54278654139161</v>
+        <v>29.52132702853827</v>
       </c>
       <c r="N32" t="n">
-        <v>81.54278654139161</v>
+        <v>56.83545203625125</v>
       </c>
       <c r="O32" t="n">
-        <v>119.1474696551402</v>
+        <v>84.14957704396423</v>
       </c>
       <c r="P32" t="n">
-        <v>158.3355078473624</v>
+        <v>110.3601010412646</v>
       </c>
       <c r="Q32" t="n">
-        <v>158.3355078473624</v>
+        <v>100.2684856730375</v>
       </c>
       <c r="R32" t="n">
-        <v>158.3355078473624</v>
+        <v>85.81333917329844</v>
       </c>
       <c r="S32" t="n">
-        <v>158.3355078473624</v>
+        <v>85.81333917329844</v>
       </c>
       <c r="T32" t="n">
-        <v>118.3517937444931</v>
+        <v>57.94462678914073</v>
       </c>
       <c r="U32" t="n">
-        <v>118.3517937444931</v>
+        <v>30.07591440498301</v>
       </c>
       <c r="V32" t="n">
-        <v>78.36807964162378</v>
+        <v>2.207202020825291</v>
       </c>
       <c r="W32" t="n">
-        <v>78.36807964162378</v>
+        <v>2.207202020825291</v>
       </c>
       <c r="X32" t="n">
-        <v>78.36807964162378</v>
+        <v>2.207202020825291</v>
       </c>
       <c r="Y32" t="n">
-        <v>78.36807964162378</v>
+        <v>2.207202020825291</v>
       </c>
     </row>
     <row r="33">
@@ -6753,76 +6755,76 @@
         </is>
       </c>
       <c r="B33" t="n">
-        <v>38.38436553875449</v>
+        <v>82.49138865710684</v>
       </c>
       <c r="C33" t="n">
-        <v>38.38436553875449</v>
+        <v>82.49138865710684</v>
       </c>
       <c r="D33" t="n">
-        <v>38.38436553875449</v>
+        <v>54.62267627294912</v>
       </c>
       <c r="E33" t="n">
-        <v>38.38436553875449</v>
+        <v>54.62267627294912</v>
       </c>
       <c r="F33" t="n">
-        <v>38.38436553875449</v>
+        <v>54.62267627294912</v>
       </c>
       <c r="G33" t="n">
-        <v>38.38436553875449</v>
+        <v>26.7539638887914</v>
       </c>
       <c r="H33" t="n">
-        <v>38.38436553875449</v>
+        <v>26.7539638887914</v>
       </c>
       <c r="I33" t="n">
-        <v>3.920842809732961</v>
+        <v>2.207202020825291</v>
       </c>
       <c r="J33" t="n">
-        <v>3.166710156947247</v>
+        <v>2.207202020825291</v>
       </c>
       <c r="K33" t="n">
-        <v>42.35474834916943</v>
+        <v>29.52132702853827</v>
       </c>
       <c r="L33" t="n">
-        <v>42.35474834916943</v>
+        <v>56.83545203625125</v>
       </c>
       <c r="M33" t="n">
-        <v>42.35474834916943</v>
+        <v>84.14957704396423</v>
       </c>
       <c r="N33" t="n">
-        <v>79.95943146291799</v>
+        <v>110.3601010412646</v>
       </c>
       <c r="O33" t="n">
-        <v>119.1474696551402</v>
+        <v>110.3601010412646</v>
       </c>
       <c r="P33" t="n">
-        <v>119.1474696551402</v>
+        <v>110.3601010412646</v>
       </c>
       <c r="Q33" t="n">
-        <v>158.3355078473624</v>
+        <v>110.3601010412646</v>
       </c>
       <c r="R33" t="n">
-        <v>158.3355078473624</v>
+        <v>110.3601010412646</v>
       </c>
       <c r="S33" t="n">
-        <v>158.3355078473624</v>
+        <v>82.49138865710684</v>
       </c>
       <c r="T33" t="n">
-        <v>158.3355078473624</v>
+        <v>82.49138865710684</v>
       </c>
       <c r="U33" t="n">
-        <v>158.3355078473624</v>
+        <v>82.49138865710684</v>
       </c>
       <c r="V33" t="n">
-        <v>158.3355078473624</v>
+        <v>82.49138865710684</v>
       </c>
       <c r="W33" t="n">
-        <v>118.3517937444931</v>
+        <v>82.49138865710684</v>
       </c>
       <c r="X33" t="n">
-        <v>118.3517937444931</v>
+        <v>82.49138865710684</v>
       </c>
       <c r="Y33" t="n">
-        <v>78.36807964162378</v>
+        <v>82.49138865710684</v>
       </c>
     </row>
     <row r="34">
@@ -6832,76 +6834,76 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>3.166710156947247</v>
+        <v>110.3601010412646</v>
       </c>
       <c r="C34" t="n">
-        <v>3.166710156947247</v>
+        <v>110.3601010412646</v>
       </c>
       <c r="D34" t="n">
-        <v>3.166710156947247</v>
+        <v>110.3601010412646</v>
       </c>
       <c r="E34" t="n">
-        <v>3.166710156947247</v>
+        <v>110.3601010412646</v>
       </c>
       <c r="F34" t="n">
-        <v>3.166710156947247</v>
+        <v>110.3601010412646</v>
       </c>
       <c r="G34" t="n">
-        <v>3.166710156947247</v>
+        <v>82.49138865710684</v>
       </c>
       <c r="H34" t="n">
-        <v>3.166710156947247</v>
+        <v>54.62267627294912</v>
       </c>
       <c r="I34" t="n">
-        <v>3.166710156947247</v>
+        <v>26.7539638887914</v>
       </c>
       <c r="J34" t="n">
-        <v>3.166710156947247</v>
+        <v>4.078449383226349</v>
       </c>
       <c r="K34" t="n">
-        <v>3.166710156947247</v>
+        <v>4.078449383226349</v>
       </c>
       <c r="L34" t="n">
-        <v>30.48083516466022</v>
+        <v>31.39257439093933</v>
       </c>
       <c r="M34" t="n">
-        <v>69.6688733568824</v>
+        <v>58.7066993986523</v>
       </c>
       <c r="N34" t="n">
-        <v>108.8569115491046</v>
+        <v>86.02082440636528</v>
       </c>
       <c r="O34" t="n">
-        <v>133.1961881840039</v>
+        <v>110.3601010412646</v>
       </c>
       <c r="P34" t="n">
-        <v>133.1961881840039</v>
+        <v>110.3601010412646</v>
       </c>
       <c r="Q34" t="n">
-        <v>133.1961881840039</v>
+        <v>110.3601010412646</v>
       </c>
       <c r="R34" t="n">
-        <v>93.21247408113457</v>
+        <v>110.3601010412646</v>
       </c>
       <c r="S34" t="n">
-        <v>53.22875997826529</v>
+        <v>110.3601010412646</v>
       </c>
       <c r="T34" t="n">
-        <v>13.245045875396</v>
+        <v>110.3601010412646</v>
       </c>
       <c r="U34" t="n">
-        <v>3.166710156947247</v>
+        <v>110.3601010412646</v>
       </c>
       <c r="V34" t="n">
-        <v>3.166710156947247</v>
+        <v>110.3601010412646</v>
       </c>
       <c r="W34" t="n">
-        <v>3.166710156947247</v>
+        <v>110.3601010412646</v>
       </c>
       <c r="X34" t="n">
-        <v>3.166710156947247</v>
+        <v>110.3601010412646</v>
       </c>
       <c r="Y34" t="n">
-        <v>3.166710156947247</v>
+        <v>110.3601010412646</v>
       </c>
     </row>
     <row r="35">
@@ -6911,76 +6913,76 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>3.166710156947247</v>
+        <v>85.81333917329844</v>
       </c>
       <c r="C35" t="n">
-        <v>3.166710156947247</v>
+        <v>85.81333917329844</v>
       </c>
       <c r="D35" t="n">
-        <v>3.166710156947247</v>
+        <v>85.81333917329844</v>
       </c>
       <c r="E35" t="n">
-        <v>3.166710156947247</v>
+        <v>57.94462678914073</v>
       </c>
       <c r="F35" t="n">
-        <v>3.166710156947247</v>
+        <v>30.07591440498301</v>
       </c>
       <c r="G35" t="n">
-        <v>3.166710156947247</v>
+        <v>2.207202020825291</v>
       </c>
       <c r="H35" t="n">
-        <v>3.166710156947247</v>
+        <v>2.207202020825291</v>
       </c>
       <c r="I35" t="n">
-        <v>3.166710156947247</v>
+        <v>2.207202020825291</v>
       </c>
       <c r="J35" t="n">
-        <v>3.166710156947247</v>
+        <v>2.207202020825291</v>
       </c>
       <c r="K35" t="n">
-        <v>3.166710156947247</v>
+        <v>29.52132702853827</v>
       </c>
       <c r="L35" t="n">
-        <v>3.166710156947247</v>
+        <v>56.83545203625125</v>
       </c>
       <c r="M35" t="n">
-        <v>40.77139327069581</v>
+        <v>56.83545203625125</v>
       </c>
       <c r="N35" t="n">
-        <v>79.95943146291799</v>
+        <v>56.83545203625125</v>
       </c>
       <c r="O35" t="n">
-        <v>119.1474696551402</v>
+        <v>83.04597603355158</v>
       </c>
       <c r="P35" t="n">
-        <v>158.3355078473624</v>
+        <v>110.3601010412646</v>
       </c>
       <c r="Q35" t="n">
-        <v>148.2438924791353</v>
+        <v>100.2684856730375</v>
       </c>
       <c r="R35" t="n">
-        <v>108.260178376266</v>
+        <v>100.2684856730375</v>
       </c>
       <c r="S35" t="n">
-        <v>108.260178376266</v>
+        <v>100.2684856730375</v>
       </c>
       <c r="T35" t="n">
-        <v>83.13413836268582</v>
+        <v>100.2684856730375</v>
       </c>
       <c r="U35" t="n">
-        <v>83.13413836268582</v>
+        <v>100.2684856730375</v>
       </c>
       <c r="V35" t="n">
-        <v>43.15042425981653</v>
+        <v>100.2684856730375</v>
       </c>
       <c r="W35" t="n">
-        <v>3.166710156947247</v>
+        <v>85.81333917329844</v>
       </c>
       <c r="X35" t="n">
-        <v>3.166710156947247</v>
+        <v>85.81333917329844</v>
       </c>
       <c r="Y35" t="n">
-        <v>3.166710156947247</v>
+        <v>85.81333917329844</v>
       </c>
     </row>
     <row r="36">
@@ -6990,76 +6992,76 @@
         </is>
       </c>
       <c r="B36" t="n">
-        <v>3.166710156947247</v>
+        <v>2.207202020825291</v>
       </c>
       <c r="C36" t="n">
-        <v>3.166710156947247</v>
+        <v>2.207202020825291</v>
       </c>
       <c r="D36" t="n">
-        <v>3.166710156947247</v>
+        <v>2.207202020825291</v>
       </c>
       <c r="E36" t="n">
-        <v>3.166710156947247</v>
+        <v>2.207202020825291</v>
       </c>
       <c r="F36" t="n">
-        <v>3.166710156947247</v>
+        <v>2.207202020825291</v>
       </c>
       <c r="G36" t="n">
-        <v>3.166710156947247</v>
+        <v>2.207202020825291</v>
       </c>
       <c r="H36" t="n">
-        <v>3.166710156947247</v>
+        <v>2.207202020825291</v>
       </c>
       <c r="I36" t="n">
-        <v>3.166710156947247</v>
+        <v>2.207202020825291</v>
       </c>
       <c r="J36" t="n">
-        <v>3.166710156947247</v>
+        <v>2.207202020825291</v>
       </c>
       <c r="K36" t="n">
-        <v>42.35474834916943</v>
+        <v>2.207202020825291</v>
       </c>
       <c r="L36" t="n">
-        <v>42.35474834916943</v>
+        <v>29.52132702853827</v>
       </c>
       <c r="M36" t="n">
-        <v>79.95943146291799</v>
+        <v>29.52132702853827</v>
       </c>
       <c r="N36" t="n">
-        <v>119.1474696551402</v>
+        <v>56.83545203625125</v>
       </c>
       <c r="O36" t="n">
-        <v>119.1474696551402</v>
+        <v>83.04597603355158</v>
       </c>
       <c r="P36" t="n">
-        <v>158.3355078473624</v>
+        <v>110.3601010412646</v>
       </c>
       <c r="Q36" t="n">
-        <v>158.3355078473624</v>
+        <v>110.3601010412646</v>
       </c>
       <c r="R36" t="n">
-        <v>158.3355078473624</v>
+        <v>110.3601010412646</v>
       </c>
       <c r="S36" t="n">
-        <v>158.3355078473624</v>
+        <v>110.3601010412646</v>
       </c>
       <c r="T36" t="n">
-        <v>118.3517937444931</v>
+        <v>110.3601010412646</v>
       </c>
       <c r="U36" t="n">
-        <v>118.3517937444931</v>
+        <v>110.3601010412646</v>
       </c>
       <c r="V36" t="n">
-        <v>118.3517937444931</v>
+        <v>85.81333917329844</v>
       </c>
       <c r="W36" t="n">
-        <v>78.36807964162378</v>
+        <v>57.94462678914073</v>
       </c>
       <c r="X36" t="n">
-        <v>38.38436553875449</v>
+        <v>30.07591440498301</v>
       </c>
       <c r="Y36" t="n">
-        <v>3.166710156947247</v>
+        <v>2.207202020825291</v>
       </c>
     </row>
     <row r="37">
@@ -7069,76 +7071,76 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>28.30602982030574</v>
+        <v>24.88271652639035</v>
       </c>
       <c r="C37" t="n">
-        <v>28.30602982030574</v>
+        <v>24.88271652639035</v>
       </c>
       <c r="D37" t="n">
-        <v>28.30602982030574</v>
+        <v>24.88271652639035</v>
       </c>
       <c r="E37" t="n">
-        <v>28.30602982030574</v>
+        <v>24.88271652639035</v>
       </c>
       <c r="F37" t="n">
-        <v>28.30602982030574</v>
+        <v>24.88271652639035</v>
       </c>
       <c r="G37" t="n">
-        <v>28.30602982030574</v>
+        <v>24.88271652639035</v>
       </c>
       <c r="H37" t="n">
-        <v>28.30602982030574</v>
+        <v>24.88271652639035</v>
       </c>
       <c r="I37" t="n">
-        <v>28.30602982030574</v>
+        <v>24.88271652639035</v>
       </c>
       <c r="J37" t="n">
-        <v>28.30602982030574</v>
+        <v>2.207202020825291</v>
       </c>
       <c r="K37" t="n">
-        <v>28.30602982030574</v>
+        <v>2.207202020825291</v>
       </c>
       <c r="L37" t="n">
-        <v>55.62015482801871</v>
+        <v>29.52132702853827</v>
       </c>
       <c r="M37" t="n">
-        <v>94.80819302024089</v>
+        <v>56.83545203625125</v>
       </c>
       <c r="N37" t="n">
-        <v>133.9962312124631</v>
+        <v>84.14957704396423</v>
       </c>
       <c r="O37" t="n">
-        <v>158.3355078473624</v>
+        <v>108.4888536788635</v>
       </c>
       <c r="P37" t="n">
-        <v>158.3355078473624</v>
+        <v>108.4888536788635</v>
       </c>
       <c r="Q37" t="n">
-        <v>158.3355078473624</v>
+        <v>108.4888536788635</v>
       </c>
       <c r="R37" t="n">
-        <v>158.3355078473624</v>
+        <v>108.4888536788635</v>
       </c>
       <c r="S37" t="n">
-        <v>158.3355078473624</v>
+        <v>80.62014129470579</v>
       </c>
       <c r="T37" t="n">
-        <v>158.3355078473624</v>
+        <v>80.62014129470579</v>
       </c>
       <c r="U37" t="n">
-        <v>118.3517937444931</v>
+        <v>52.75142891054807</v>
       </c>
       <c r="V37" t="n">
-        <v>78.36807964162378</v>
+        <v>24.88271652639035</v>
       </c>
       <c r="W37" t="n">
-        <v>38.38436553875449</v>
+        <v>24.88271652639035</v>
       </c>
       <c r="X37" t="n">
-        <v>28.30602982030574</v>
+        <v>24.88271652639035</v>
       </c>
       <c r="Y37" t="n">
-        <v>28.30602982030574</v>
+        <v>24.88271652639035</v>
       </c>
     </row>
     <row r="38">
@@ -7148,76 +7150,76 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>3.166710156947247</v>
+        <v>57.94462678914073</v>
       </c>
       <c r="C38" t="n">
-        <v>3.166710156947247</v>
+        <v>57.94462678914073</v>
       </c>
       <c r="D38" t="n">
-        <v>3.166710156947247</v>
+        <v>30.07591440498301</v>
       </c>
       <c r="E38" t="n">
-        <v>3.166710156947247</v>
+        <v>30.07591440498301</v>
       </c>
       <c r="F38" t="n">
-        <v>3.166710156947247</v>
+        <v>2.207202020825291</v>
       </c>
       <c r="G38" t="n">
-        <v>3.166710156947247</v>
+        <v>2.207202020825291</v>
       </c>
       <c r="H38" t="n">
-        <v>3.166710156947247</v>
+        <v>2.207202020825291</v>
       </c>
       <c r="I38" t="n">
-        <v>3.166710156947247</v>
+        <v>2.207202020825291</v>
       </c>
       <c r="J38" t="n">
-        <v>3.166710156947247</v>
+        <v>2.207202020825291</v>
       </c>
       <c r="K38" t="n">
-        <v>40.77139327069581</v>
+        <v>29.52132702853827</v>
       </c>
       <c r="L38" t="n">
-        <v>79.95943146291799</v>
+        <v>56.83545203625125</v>
       </c>
       <c r="M38" t="n">
-        <v>119.1474696551402</v>
+        <v>83.04597603355158</v>
       </c>
       <c r="N38" t="n">
-        <v>119.1474696551402</v>
+        <v>83.04597603355158</v>
       </c>
       <c r="O38" t="n">
-        <v>158.3355078473624</v>
+        <v>83.04597603355158</v>
       </c>
       <c r="P38" t="n">
-        <v>158.3355078473624</v>
+        <v>110.3601010412646</v>
       </c>
       <c r="Q38" t="n">
-        <v>158.3355078473624</v>
+        <v>110.3601010412646</v>
       </c>
       <c r="R38" t="n">
-        <v>158.3355078473624</v>
+        <v>82.49138865710684</v>
       </c>
       <c r="S38" t="n">
-        <v>118.3517937444931</v>
+        <v>57.94462678914073</v>
       </c>
       <c r="T38" t="n">
-        <v>78.36807964162378</v>
+        <v>57.94462678914073</v>
       </c>
       <c r="U38" t="n">
-        <v>38.38436553875449</v>
+        <v>57.94462678914073</v>
       </c>
       <c r="V38" t="n">
-        <v>3.166710156947247</v>
+        <v>57.94462678914073</v>
       </c>
       <c r="W38" t="n">
-        <v>3.166710156947247</v>
+        <v>57.94462678914073</v>
       </c>
       <c r="X38" t="n">
-        <v>3.166710156947247</v>
+        <v>57.94462678914073</v>
       </c>
       <c r="Y38" t="n">
-        <v>3.166710156947247</v>
+        <v>57.94462678914073</v>
       </c>
     </row>
     <row r="39">
@@ -7227,76 +7229,76 @@
         </is>
       </c>
       <c r="B39" t="n">
-        <v>78.36807964162378</v>
+        <v>2.207202020825291</v>
       </c>
       <c r="C39" t="n">
-        <v>78.36807964162378</v>
+        <v>2.207202020825291</v>
       </c>
       <c r="D39" t="n">
-        <v>78.36807964162378</v>
+        <v>2.207202020825291</v>
       </c>
       <c r="E39" t="n">
-        <v>38.38436553875449</v>
+        <v>2.207202020825291</v>
       </c>
       <c r="F39" t="n">
-        <v>38.38436553875449</v>
+        <v>2.207202020825291</v>
       </c>
       <c r="G39" t="n">
-        <v>3.166710156947247</v>
+        <v>2.207202020825291</v>
       </c>
       <c r="H39" t="n">
-        <v>3.166710156947247</v>
+        <v>2.207202020825291</v>
       </c>
       <c r="I39" t="n">
-        <v>3.166710156947247</v>
+        <v>2.207202020825291</v>
       </c>
       <c r="J39" t="n">
-        <v>3.166710156947247</v>
+        <v>2.207202020825291</v>
       </c>
       <c r="K39" t="n">
-        <v>3.166710156947247</v>
+        <v>29.52132702853827</v>
       </c>
       <c r="L39" t="n">
-        <v>3.166710156947247</v>
+        <v>29.52132702853827</v>
       </c>
       <c r="M39" t="n">
-        <v>42.35474834916943</v>
+        <v>29.52132702853827</v>
       </c>
       <c r="N39" t="n">
-        <v>81.54278654139161</v>
+        <v>29.52132702853827</v>
       </c>
       <c r="O39" t="n">
-        <v>119.1474696551402</v>
+        <v>55.73185102583861</v>
       </c>
       <c r="P39" t="n">
-        <v>119.1474696551402</v>
+        <v>83.04597603355158</v>
       </c>
       <c r="Q39" t="n">
-        <v>158.3355078473624</v>
+        <v>110.3601010412646</v>
       </c>
       <c r="R39" t="n">
-        <v>158.3355078473624</v>
+        <v>110.3601010412646</v>
       </c>
       <c r="S39" t="n">
-        <v>158.3355078473624</v>
+        <v>110.3601010412646</v>
       </c>
       <c r="T39" t="n">
-        <v>158.3355078473624</v>
+        <v>110.3601010412646</v>
       </c>
       <c r="U39" t="n">
-        <v>118.3517937444931</v>
+        <v>110.3601010412646</v>
       </c>
       <c r="V39" t="n">
-        <v>118.3517937444931</v>
+        <v>110.3601010412646</v>
       </c>
       <c r="W39" t="n">
-        <v>118.3517937444931</v>
+        <v>82.49138865710684</v>
       </c>
       <c r="X39" t="n">
-        <v>78.36807964162378</v>
+        <v>54.62267627294912</v>
       </c>
       <c r="Y39" t="n">
-        <v>78.36807964162378</v>
+        <v>26.7539638887914</v>
       </c>
     </row>
     <row r="40">
@@ -7306,76 +7308,76 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>3.166710156947247</v>
+        <v>2.207202020825291</v>
       </c>
       <c r="C40" t="n">
-        <v>3.166710156947247</v>
+        <v>2.207202020825291</v>
       </c>
       <c r="D40" t="n">
-        <v>3.166710156947247</v>
+        <v>2.207202020825291</v>
       </c>
       <c r="E40" t="n">
-        <v>3.166710156947247</v>
+        <v>2.207202020825291</v>
       </c>
       <c r="F40" t="n">
-        <v>3.166710156947247</v>
+        <v>2.207202020825291</v>
       </c>
       <c r="G40" t="n">
-        <v>3.166710156947247</v>
+        <v>2.207202020825291</v>
       </c>
       <c r="H40" t="n">
-        <v>3.166710156947247</v>
+        <v>2.207202020825291</v>
       </c>
       <c r="I40" t="n">
-        <v>3.166710156947247</v>
+        <v>2.207202020825291</v>
       </c>
       <c r="J40" t="n">
-        <v>3.166710156947247</v>
+        <v>2.207202020825291</v>
       </c>
       <c r="K40" t="n">
-        <v>3.166710156947247</v>
+        <v>2.207202020825291</v>
       </c>
       <c r="L40" t="n">
-        <v>30.48083516466022</v>
+        <v>29.52132702853827</v>
       </c>
       <c r="M40" t="n">
-        <v>69.6688733568824</v>
+        <v>56.83545203625125</v>
       </c>
       <c r="N40" t="n">
-        <v>108.8569115491046</v>
+        <v>84.14957704396423</v>
       </c>
       <c r="O40" t="n">
-        <v>133.1961881840039</v>
+        <v>108.4888536788635</v>
       </c>
       <c r="P40" t="n">
-        <v>133.1961881840039</v>
+        <v>108.4888536788635</v>
       </c>
       <c r="Q40" t="n">
-        <v>93.21247408113457</v>
+        <v>80.62014129470579</v>
       </c>
       <c r="R40" t="n">
-        <v>93.21247408113457</v>
+        <v>52.75142891054807</v>
       </c>
       <c r="S40" t="n">
-        <v>93.21247408113457</v>
+        <v>52.75142891054807</v>
       </c>
       <c r="T40" t="n">
-        <v>93.21247408113457</v>
+        <v>24.88271652639035</v>
       </c>
       <c r="U40" t="n">
-        <v>93.21247408113457</v>
+        <v>2.207202020825291</v>
       </c>
       <c r="V40" t="n">
-        <v>53.22875997826529</v>
+        <v>2.207202020825291</v>
       </c>
       <c r="W40" t="n">
-        <v>53.22875997826529</v>
+        <v>2.207202020825291</v>
       </c>
       <c r="X40" t="n">
-        <v>53.22875997826529</v>
+        <v>2.207202020825291</v>
       </c>
       <c r="Y40" t="n">
-        <v>13.245045875396</v>
+        <v>2.207202020825291</v>
       </c>
     </row>
     <row r="41">
@@ -7385,76 +7387,76 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>3.166710156947247</v>
+        <v>79.68686933990632</v>
       </c>
       <c r="C41" t="n">
-        <v>3.166710156947247</v>
+        <v>79.68686933990632</v>
       </c>
       <c r="D41" t="n">
-        <v>3.166710156947247</v>
+        <v>79.68686933990632</v>
       </c>
       <c r="E41" t="n">
-        <v>3.166710156947247</v>
+        <v>53.80778732512771</v>
       </c>
       <c r="F41" t="n">
-        <v>3.166710156947247</v>
+        <v>27.92870531034908</v>
       </c>
       <c r="G41" t="n">
-        <v>3.166710156947247</v>
+        <v>2.049623295570466</v>
       </c>
       <c r="H41" t="n">
-        <v>3.166710156947247</v>
+        <v>2.049623295570466</v>
       </c>
       <c r="I41" t="n">
-        <v>3.166710156947247</v>
+        <v>2.049623295570466</v>
       </c>
       <c r="J41" t="n">
-        <v>3.166710156947247</v>
+        <v>2.049623295570466</v>
       </c>
       <c r="K41" t="n">
-        <v>40.77139327069581</v>
+        <v>27.41371157825499</v>
       </c>
       <c r="L41" t="n">
-        <v>40.77139327069581</v>
+        <v>52.77779986093951</v>
       </c>
       <c r="M41" t="n">
-        <v>40.77139327069581</v>
+        <v>78.14188814362403</v>
       </c>
       <c r="N41" t="n">
-        <v>79.95943146291799</v>
+        <v>78.14188814362403</v>
       </c>
       <c r="O41" t="n">
-        <v>119.1474696551402</v>
+        <v>78.14188814362403</v>
       </c>
       <c r="P41" t="n">
-        <v>158.3355078473624</v>
+        <v>102.4811647785233</v>
       </c>
       <c r="Q41" t="n">
-        <v>148.2438924791353</v>
+        <v>92.38954941029624</v>
       </c>
       <c r="R41" t="n">
-        <v>148.2438924791353</v>
+        <v>92.38954941029624</v>
       </c>
       <c r="S41" t="n">
-        <v>108.260178376266</v>
+        <v>92.38954941029624</v>
       </c>
       <c r="T41" t="n">
-        <v>108.260178376266</v>
+        <v>92.38954941029624</v>
       </c>
       <c r="U41" t="n">
-        <v>108.260178376266</v>
+        <v>92.38954941029624</v>
       </c>
       <c r="V41" t="n">
-        <v>68.2764642733967</v>
+        <v>92.38954941029624</v>
       </c>
       <c r="W41" t="n">
-        <v>43.15042425981653</v>
+        <v>92.38954941029624</v>
       </c>
       <c r="X41" t="n">
-        <v>3.166710156947247</v>
+        <v>92.38954941029624</v>
       </c>
       <c r="Y41" t="n">
-        <v>3.166710156947247</v>
+        <v>79.68686933990632</v>
       </c>
     </row>
     <row r="42">
@@ -7464,76 +7466,76 @@
         </is>
       </c>
       <c r="B42" t="n">
-        <v>43.15042425981653</v>
+        <v>27.92870531034908</v>
       </c>
       <c r="C42" t="n">
-        <v>3.166710156947247</v>
+        <v>2.049623295570466</v>
       </c>
       <c r="D42" t="n">
-        <v>3.166710156947247</v>
+        <v>2.049623295570466</v>
       </c>
       <c r="E42" t="n">
-        <v>3.166710156947247</v>
+        <v>2.049623295570466</v>
       </c>
       <c r="F42" t="n">
-        <v>3.166710156947247</v>
+        <v>2.049623295570466</v>
       </c>
       <c r="G42" t="n">
-        <v>3.166710156947247</v>
+        <v>2.049623295570466</v>
       </c>
       <c r="H42" t="n">
-        <v>3.166710156947247</v>
+        <v>2.049623295570466</v>
       </c>
       <c r="I42" t="n">
-        <v>3.166710156947247</v>
+        <v>2.049623295570466</v>
       </c>
       <c r="J42" t="n">
-        <v>3.166710156947247</v>
+        <v>2.049623295570466</v>
       </c>
       <c r="K42" t="n">
-        <v>3.166710156947247</v>
+        <v>2.049623295570466</v>
       </c>
       <c r="L42" t="n">
-        <v>3.166710156947247</v>
+        <v>2.049623295570466</v>
       </c>
       <c r="M42" t="n">
-        <v>40.77139327069581</v>
+        <v>2.049623295570466</v>
       </c>
       <c r="N42" t="n">
-        <v>79.95943146291799</v>
+        <v>26.38889993046976</v>
       </c>
       <c r="O42" t="n">
-        <v>119.1474696551402</v>
+        <v>51.75298821315428</v>
       </c>
       <c r="P42" t="n">
-        <v>158.3355078473624</v>
+        <v>77.1170764958388</v>
       </c>
       <c r="Q42" t="n">
-        <v>158.3355078473624</v>
+        <v>102.4811647785233</v>
       </c>
       <c r="R42" t="n">
-        <v>123.1178524655551</v>
+        <v>102.4811647785233</v>
       </c>
       <c r="S42" t="n">
-        <v>123.1178524655551</v>
+        <v>102.4811647785233</v>
       </c>
       <c r="T42" t="n">
-        <v>123.1178524655551</v>
+        <v>102.4811647785233</v>
       </c>
       <c r="U42" t="n">
-        <v>83.13413836268582</v>
+        <v>102.4811647785233</v>
       </c>
       <c r="V42" t="n">
-        <v>83.13413836268582</v>
+        <v>102.4811647785233</v>
       </c>
       <c r="W42" t="n">
-        <v>83.13413836268582</v>
+        <v>102.4811647785233</v>
       </c>
       <c r="X42" t="n">
-        <v>83.13413836268582</v>
+        <v>79.68686933990632</v>
       </c>
       <c r="Y42" t="n">
-        <v>83.13413836268582</v>
+        <v>53.80778732512771</v>
       </c>
     </row>
     <row r="43">
@@ -7543,76 +7545,76 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>83.13413836268582</v>
+        <v>2.049623295570466</v>
       </c>
       <c r="C43" t="n">
-        <v>43.15042425981653</v>
+        <v>2.049623295570466</v>
       </c>
       <c r="D43" t="n">
-        <v>3.166710156947247</v>
+        <v>2.049623295570466</v>
       </c>
       <c r="E43" t="n">
-        <v>3.166710156947247</v>
+        <v>2.049623295570466</v>
       </c>
       <c r="F43" t="n">
-        <v>3.166710156947247</v>
+        <v>2.049623295570466</v>
       </c>
       <c r="G43" t="n">
-        <v>3.166710156947247</v>
+        <v>2.049623295570466</v>
       </c>
       <c r="H43" t="n">
-        <v>3.166710156947247</v>
+        <v>2.049623295570466</v>
       </c>
       <c r="I43" t="n">
-        <v>3.166710156947247</v>
+        <v>2.049623295570466</v>
       </c>
       <c r="J43" t="n">
-        <v>3.166710156947247</v>
+        <v>2.049623295570466</v>
       </c>
       <c r="K43" t="n">
-        <v>3.166710156947247</v>
+        <v>2.049623295570466</v>
       </c>
       <c r="L43" t="n">
-        <v>30.48083516466022</v>
+        <v>27.41371157825499</v>
       </c>
       <c r="M43" t="n">
-        <v>69.6688733568824</v>
+        <v>52.77779986093951</v>
       </c>
       <c r="N43" t="n">
-        <v>108.8569115491046</v>
+        <v>78.14188814362404</v>
       </c>
       <c r="O43" t="n">
-        <v>133.1961881840039</v>
+        <v>102.4811647785233</v>
       </c>
       <c r="P43" t="n">
-        <v>133.1961881840039</v>
+        <v>102.4811647785233</v>
       </c>
       <c r="Q43" t="n">
-        <v>133.1961881840039</v>
+        <v>102.4811647785233</v>
       </c>
       <c r="R43" t="n">
-        <v>133.1961881840039</v>
+        <v>102.4811647785233</v>
       </c>
       <c r="S43" t="n">
-        <v>133.1961881840039</v>
+        <v>102.4811647785233</v>
       </c>
       <c r="T43" t="n">
-        <v>133.1961881840039</v>
+        <v>102.4811647785233</v>
       </c>
       <c r="U43" t="n">
-        <v>133.1961881840039</v>
+        <v>76.6020827637447</v>
       </c>
       <c r="V43" t="n">
-        <v>133.1961881840039</v>
+        <v>76.6020827637447</v>
       </c>
       <c r="W43" t="n">
-        <v>133.1961881840039</v>
+        <v>53.80778732512771</v>
       </c>
       <c r="X43" t="n">
-        <v>133.1961881840039</v>
+        <v>27.92870531034908</v>
       </c>
       <c r="Y43" t="n">
-        <v>123.1178524655551</v>
+        <v>2.049623295570466</v>
       </c>
     </row>
     <row r="44">
@@ -7622,76 +7624,76 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>0</v>
+        <v>27.92870531034908</v>
       </c>
       <c r="C44" t="n">
-        <v>0</v>
+        <v>27.92870531034908</v>
       </c>
       <c r="D44" t="n">
-        <v>0</v>
+        <v>27.92870531034908</v>
       </c>
       <c r="E44" t="n">
-        <v>0</v>
+        <v>27.92870531034908</v>
       </c>
       <c r="F44" t="n">
-        <v>0</v>
+        <v>27.92870531034908</v>
       </c>
       <c r="G44" t="n">
-        <v>0</v>
+        <v>27.92870531034908</v>
       </c>
       <c r="H44" t="n">
-        <v>0</v>
+        <v>2.049623295570466</v>
       </c>
       <c r="I44" t="n">
-        <v>0</v>
+        <v>2.049623295570466</v>
       </c>
       <c r="J44" t="n">
-        <v>0</v>
+        <v>2.049623295570466</v>
       </c>
       <c r="K44" t="n">
-        <v>0</v>
+        <v>2.049623295570466</v>
       </c>
       <c r="L44" t="n">
-        <v>0</v>
+        <v>27.41371157825499</v>
       </c>
       <c r="M44" t="n">
-        <v>0</v>
+        <v>52.77779986093951</v>
       </c>
       <c r="N44" t="n">
-        <v>0</v>
+        <v>77.1170764958388</v>
       </c>
       <c r="O44" t="n">
-        <v>0</v>
+        <v>77.1170764958388</v>
       </c>
       <c r="P44" t="n">
-        <v>0</v>
+        <v>102.4811647785233</v>
       </c>
       <c r="Q44" t="n">
-        <v>0</v>
+        <v>92.38954941029624</v>
       </c>
       <c r="R44" t="n">
-        <v>0</v>
+        <v>92.38954941029624</v>
       </c>
       <c r="S44" t="n">
-        <v>0</v>
+        <v>92.38954941029624</v>
       </c>
       <c r="T44" t="n">
-        <v>0</v>
+        <v>92.38954941029624</v>
       </c>
       <c r="U44" t="n">
-        <v>0</v>
+        <v>92.38954941029624</v>
       </c>
       <c r="V44" t="n">
-        <v>0</v>
+        <v>92.38954941029624</v>
       </c>
       <c r="W44" t="n">
-        <v>0</v>
+        <v>66.51046739551762</v>
       </c>
       <c r="X44" t="n">
-        <v>0</v>
+        <v>40.631385380739</v>
       </c>
       <c r="Y44" t="n">
-        <v>0</v>
+        <v>27.92870531034908</v>
       </c>
     </row>
     <row r="45">
@@ -7701,76 +7703,76 @@
         </is>
       </c>
       <c r="B45" t="n">
-        <v>0</v>
+        <v>79.68686933990632</v>
       </c>
       <c r="C45" t="n">
-        <v>0</v>
+        <v>79.68686933990632</v>
       </c>
       <c r="D45" t="n">
-        <v>0</v>
+        <v>79.68686933990632</v>
       </c>
       <c r="E45" t="n">
-        <v>0</v>
+        <v>79.68686933990632</v>
       </c>
       <c r="F45" t="n">
-        <v>0</v>
+        <v>53.80778732512771</v>
       </c>
       <c r="G45" t="n">
-        <v>0</v>
+        <v>27.92870531034908</v>
       </c>
       <c r="H45" t="n">
-        <v>0</v>
+        <v>2.049623295570466</v>
       </c>
       <c r="I45" t="n">
-        <v>0</v>
+        <v>2.049623295570466</v>
       </c>
       <c r="J45" t="n">
-        <v>0</v>
+        <v>2.049623295570466</v>
       </c>
       <c r="K45" t="n">
-        <v>0</v>
+        <v>26.38889993046976</v>
       </c>
       <c r="L45" t="n">
-        <v>0</v>
+        <v>51.75298821315428</v>
       </c>
       <c r="M45" t="n">
-        <v>0</v>
+        <v>51.75298821315428</v>
       </c>
       <c r="N45" t="n">
-        <v>0</v>
+        <v>77.1170764958388</v>
       </c>
       <c r="O45" t="n">
-        <v>0</v>
+        <v>102.4811647785233</v>
       </c>
       <c r="P45" t="n">
-        <v>0</v>
+        <v>102.4811647785233</v>
       </c>
       <c r="Q45" t="n">
-        <v>0</v>
+        <v>102.4811647785233</v>
       </c>
       <c r="R45" t="n">
-        <v>0</v>
+        <v>79.68686933990632</v>
       </c>
       <c r="S45" t="n">
-        <v>0</v>
+        <v>79.68686933990632</v>
       </c>
       <c r="T45" t="n">
-        <v>0</v>
+        <v>79.68686933990632</v>
       </c>
       <c r="U45" t="n">
-        <v>0</v>
+        <v>79.68686933990632</v>
       </c>
       <c r="V45" t="n">
-        <v>0</v>
+        <v>79.68686933990632</v>
       </c>
       <c r="W45" t="n">
-        <v>0</v>
+        <v>79.68686933990632</v>
       </c>
       <c r="X45" t="n">
-        <v>0</v>
+        <v>79.68686933990632</v>
       </c>
       <c r="Y45" t="n">
-        <v>0</v>
+        <v>79.68686933990632</v>
       </c>
     </row>
     <row r="46">
@@ -7780,76 +7782,76 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>0</v>
+        <v>102.4811647785233</v>
       </c>
       <c r="C46" t="n">
-        <v>0</v>
+        <v>102.4811647785233</v>
       </c>
       <c r="D46" t="n">
-        <v>0</v>
+        <v>102.4811647785233</v>
       </c>
       <c r="E46" t="n">
-        <v>0</v>
+        <v>79.68686933990632</v>
       </c>
       <c r="F46" t="n">
-        <v>0</v>
+        <v>53.80778732512771</v>
       </c>
       <c r="G46" t="n">
-        <v>0</v>
+        <v>27.92870531034908</v>
       </c>
       <c r="H46" t="n">
-        <v>0</v>
+        <v>2.049623295570466</v>
       </c>
       <c r="I46" t="n">
-        <v>0</v>
+        <v>2.049623295570466</v>
       </c>
       <c r="J46" t="n">
-        <v>0</v>
+        <v>2.049623295570466</v>
       </c>
       <c r="K46" t="n">
-        <v>0</v>
+        <v>2.049623295570466</v>
       </c>
       <c r="L46" t="n">
-        <v>0</v>
+        <v>27.41371157825499</v>
       </c>
       <c r="M46" t="n">
-        <v>0</v>
+        <v>52.77779986093951</v>
       </c>
       <c r="N46" t="n">
-        <v>0</v>
+        <v>78.14188814362404</v>
       </c>
       <c r="O46" t="n">
-        <v>0</v>
+        <v>102.4811647785233</v>
       </c>
       <c r="P46" t="n">
-        <v>0</v>
+        <v>102.4811647785233</v>
       </c>
       <c r="Q46" t="n">
-        <v>0</v>
+        <v>102.4811647785233</v>
       </c>
       <c r="R46" t="n">
-        <v>0</v>
+        <v>102.4811647785233</v>
       </c>
       <c r="S46" t="n">
-        <v>0</v>
+        <v>102.4811647785233</v>
       </c>
       <c r="T46" t="n">
-        <v>0</v>
+        <v>102.4811647785233</v>
       </c>
       <c r="U46" t="n">
-        <v>0</v>
+        <v>102.4811647785233</v>
       </c>
       <c r="V46" t="n">
-        <v>0</v>
+        <v>102.4811647785233</v>
       </c>
       <c r="W46" t="n">
-        <v>0</v>
+        <v>102.4811647785233</v>
       </c>
       <c r="X46" t="n">
-        <v>0</v>
+        <v>102.4811647785233</v>
       </c>
       <c r="Y46" t="n">
-        <v>0</v>
+        <v>102.4811647785233</v>
       </c>
     </row>
   </sheetData>
@@ -9167,16 +9169,16 @@
         <v>220.0898510449805</v>
       </c>
       <c r="L17" t="n">
-        <v>235.7664149699872</v>
+        <v>237.6565638208974</v>
       </c>
       <c r="M17" t="n">
-        <v>230.3462332272727</v>
+        <v>232.315967292958</v>
       </c>
       <c r="N17" t="n">
-        <v>229.4130635965909</v>
+        <v>231.3827976622762</v>
       </c>
       <c r="O17" t="n">
-        <v>230.0982114216867</v>
+        <v>232.067945487372</v>
       </c>
       <c r="P17" t="n">
         <v>231.2329957552695</v>
@@ -9249,19 +9251,19 @@
         <v>138.5543797798742</v>
       </c>
       <c r="M18" t="n">
-        <v>142.1340339220183</v>
+        <v>144.0241827729285</v>
       </c>
       <c r="N18" t="n">
-        <v>131.3417120833333</v>
+        <v>133.3114461490186</v>
       </c>
       <c r="O18" t="n">
-        <v>142.5962444444444</v>
+        <v>144.5659785101298</v>
       </c>
       <c r="P18" t="n">
         <v>133.9744074143302</v>
       </c>
       <c r="Q18" t="n">
-        <v>139.9817740860215</v>
+        <v>141.9515081517068</v>
       </c>
       <c r="R18" t="n">
         <v>45.52166981132082</v>
@@ -9325,16 +9327,16 @@
         <v>106.7437663446525</v>
       </c>
       <c r="L19" t="n">
-        <v>134.8846762812383</v>
+        <v>136.7748251321484</v>
       </c>
       <c r="M19" t="n">
-        <v>138.9257839476051</v>
+        <v>140.8955180132904</v>
       </c>
       <c r="N19" t="n">
-        <v>127.6855444652332</v>
+        <v>129.6552785309185</v>
       </c>
       <c r="O19" t="n">
-        <v>138.4565384518428</v>
+        <v>140.4262725175281</v>
       </c>
       <c r="P19" t="n">
         <v>135.0065633140411</v>
@@ -9401,22 +9403,22 @@
         <v>169.0966151720738</v>
       </c>
       <c r="K20" t="n">
-        <v>259.6737280068211</v>
+        <v>220.0898510449805</v>
       </c>
       <c r="L20" t="n">
-        <v>275.3502919318278</v>
+        <v>235.7664149699872</v>
       </c>
       <c r="M20" t="n">
-        <v>268.3307616249986</v>
+        <v>255.9665244219036</v>
       </c>
       <c r="N20" t="n">
-        <v>229.4130635965909</v>
+        <v>255.0333547912217</v>
       </c>
       <c r="O20" t="n">
-        <v>230.0982114216867</v>
+        <v>254.6833393357264</v>
       </c>
       <c r="P20" t="n">
-        <v>270.8168727171101</v>
+        <v>256.8532869499004</v>
       </c>
       <c r="Q20" t="n">
         <v>212.3149906599047</v>
@@ -9480,25 +9482,25 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K21" t="n">
-        <v>175.8259673720848</v>
+        <v>137.841438974359</v>
       </c>
       <c r="L21" t="n">
-        <v>138.5543797798742</v>
+        <v>164.174670974505</v>
       </c>
       <c r="M21" t="n">
-        <v>181.7179108838589</v>
+        <v>167.7543251166491</v>
       </c>
       <c r="N21" t="n">
-        <v>170.9255890451739</v>
+        <v>155.926839997373</v>
       </c>
       <c r="O21" t="n">
         <v>142.5962444444444</v>
       </c>
       <c r="P21" t="n">
-        <v>133.9744074143302</v>
+        <v>159.5946986089611</v>
       </c>
       <c r="Q21" t="n">
-        <v>179.5656510478621</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R21" t="n">
         <v>45.52166981132082</v>
@@ -9562,13 +9564,13 @@
         <v>106.7437663446525</v>
       </c>
       <c r="L22" t="n">
-        <v>162.4747015415544</v>
+        <v>160.5049674758691</v>
       </c>
       <c r="M22" t="n">
-        <v>178.5096609094456</v>
+        <v>164.5460751422359</v>
       </c>
       <c r="N22" t="n">
-        <v>167.2694214270738</v>
+        <v>153.305835659864</v>
       </c>
       <c r="O22" t="n">
         <v>163.0416663658825</v>
@@ -9638,22 +9640,22 @@
         <v>169.0966151720738</v>
       </c>
       <c r="K23" t="n">
-        <v>220.0898510449805</v>
+        <v>247.6798763052967</v>
       </c>
       <c r="L23" t="n">
-        <v>235.7664149699872</v>
+        <v>263.3564402303034</v>
       </c>
       <c r="M23" t="n">
-        <v>269.9301101891133</v>
+        <v>257.9362584875889</v>
       </c>
       <c r="N23" t="n">
-        <v>268.9969405584315</v>
+        <v>255.8883403615407</v>
       </c>
       <c r="O23" t="n">
-        <v>269.6820883835273</v>
+        <v>230.0982114216867</v>
       </c>
       <c r="P23" t="n">
-        <v>269.2175241529953</v>
+        <v>231.2329957552695</v>
       </c>
       <c r="Q23" t="n">
         <v>212.3149906599047</v>
@@ -9717,16 +9719,16 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K24" t="n">
-        <v>177.4253159361996</v>
+        <v>137.841438974359</v>
       </c>
       <c r="L24" t="n">
-        <v>178.1382567417148</v>
+        <v>165.029656544824</v>
       </c>
       <c r="M24" t="n">
-        <v>181.7179108838589</v>
+        <v>169.7240591823345</v>
       </c>
       <c r="N24" t="n">
-        <v>169.3262404810591</v>
+        <v>158.9317373436494</v>
       </c>
       <c r="O24" t="n">
         <v>142.5962444444444</v>
@@ -9735,7 +9737,7 @@
         <v>133.9744074143302</v>
       </c>
       <c r="Q24" t="n">
-        <v>139.9817740860215</v>
+        <v>167.5717993463377</v>
       </c>
       <c r="R24" t="n">
         <v>45.52166981132082</v>
@@ -9802,10 +9804,10 @@
         <v>162.4747015415544</v>
       </c>
       <c r="M25" t="n">
-        <v>178.5096609094456</v>
+        <v>166.5158092079212</v>
       </c>
       <c r="N25" t="n">
-        <v>167.2694214270738</v>
+        <v>155.2755697255493</v>
       </c>
       <c r="O25" t="n">
         <v>163.0416663658825</v>
@@ -9875,22 +9877,22 @@
         <v>169.0966151720738</v>
       </c>
       <c r="K26" t="n">
-        <v>258.0743794427063</v>
+        <v>220.0898510449805</v>
       </c>
       <c r="L26" t="n">
-        <v>275.3502919318278</v>
+        <v>235.7664149699872</v>
       </c>
       <c r="M26" t="n">
-        <v>269.9301101891133</v>
+        <v>256.8215099922226</v>
       </c>
       <c r="N26" t="n">
-        <v>229.4130635965909</v>
+        <v>257.0030888569071</v>
       </c>
       <c r="O26" t="n">
-        <v>230.0982114216867</v>
+        <v>257.6882366820029</v>
       </c>
       <c r="P26" t="n">
-        <v>270.8168727171101</v>
+        <v>258.8230210155857</v>
       </c>
       <c r="Q26" t="n">
         <v>212.3149906599047</v>
@@ -9954,22 +9956,22 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K27" t="n">
-        <v>177.4253159361996</v>
+        <v>165.4314642346751</v>
       </c>
       <c r="L27" t="n">
-        <v>178.1382567417148</v>
+        <v>138.5543797798742</v>
       </c>
       <c r="M27" t="n">
-        <v>180.1185623197441</v>
+        <v>169.7240591823345</v>
       </c>
       <c r="N27" t="n">
-        <v>131.3417120833333</v>
+        <v>157.8169888482831</v>
       </c>
       <c r="O27" t="n">
-        <v>182.180121406285</v>
+        <v>142.5962444444444</v>
       </c>
       <c r="P27" t="n">
-        <v>133.9744074143302</v>
+        <v>161.5644326746464</v>
       </c>
       <c r="Q27" t="n">
         <v>139.9817740860215</v>
@@ -10039,10 +10041,10 @@
         <v>162.4747015415544</v>
       </c>
       <c r="M28" t="n">
-        <v>178.5096609094456</v>
+        <v>166.5158092079212</v>
       </c>
       <c r="N28" t="n">
-        <v>167.2694214270738</v>
+        <v>155.2755697255493</v>
       </c>
       <c r="O28" t="n">
         <v>163.0416663658825</v>
@@ -10115,19 +10117,19 @@
         <v>220.0898510449805</v>
       </c>
       <c r="L29" t="n">
-        <v>275.3502919318278</v>
+        <v>263.3564402303034</v>
       </c>
       <c r="M29" t="n">
-        <v>269.9301101891133</v>
+        <v>230.3462332272727</v>
       </c>
       <c r="N29" t="n">
-        <v>268.9969405584315</v>
+        <v>255.8883403615408</v>
       </c>
       <c r="O29" t="n">
-        <v>268.0827398194126</v>
+        <v>257.6882366820029</v>
       </c>
       <c r="P29" t="n">
-        <v>231.2329957552695</v>
+        <v>258.8230210155857</v>
       </c>
       <c r="Q29" t="n">
         <v>212.3149906599047</v>
@@ -10191,16 +10193,16 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K30" t="n">
-        <v>137.841438974359</v>
+        <v>164.3167157393088</v>
       </c>
       <c r="L30" t="n">
-        <v>178.1382567417148</v>
+        <v>166.1444050401903</v>
       </c>
       <c r="M30" t="n">
-        <v>181.7179108838589</v>
+        <v>169.7240591823345</v>
       </c>
       <c r="N30" t="n">
-        <v>169.3262404810591</v>
+        <v>158.9317373436494</v>
       </c>
       <c r="O30" t="n">
         <v>142.5962444444444</v>
@@ -10209,7 +10211,7 @@
         <v>133.9744074143302</v>
       </c>
       <c r="Q30" t="n">
-        <v>179.5656510478621</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R30" t="n">
         <v>45.52166981132082</v>
@@ -10276,10 +10278,10 @@
         <v>162.4747015415544</v>
       </c>
       <c r="M31" t="n">
-        <v>178.5096609094456</v>
+        <v>166.5158092079212</v>
       </c>
       <c r="N31" t="n">
-        <v>167.2694214270738</v>
+        <v>155.2755697255493</v>
       </c>
       <c r="O31" t="n">
         <v>163.0416663658825</v>
@@ -10349,22 +10351,22 @@
         <v>169.0966151720738</v>
       </c>
       <c r="K32" t="n">
-        <v>259.6737280068211</v>
+        <v>220.0898510449805</v>
       </c>
       <c r="L32" t="n">
         <v>235.7664149699872</v>
       </c>
       <c r="M32" t="n">
-        <v>269.9301101891133</v>
+        <v>257.9362584875889</v>
       </c>
       <c r="N32" t="n">
-        <v>229.4130635965909</v>
+        <v>257.0030888569071</v>
       </c>
       <c r="O32" t="n">
-        <v>268.0827398194126</v>
+        <v>257.6882366820029</v>
       </c>
       <c r="P32" t="n">
-        <v>270.8168727171101</v>
+        <v>257.7082725202193</v>
       </c>
       <c r="Q32" t="n">
         <v>212.3149906599047</v>
@@ -10428,25 +10430,25 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K33" t="n">
-        <v>177.4253159361996</v>
+        <v>165.4314642346751</v>
       </c>
       <c r="L33" t="n">
-        <v>138.5543797798742</v>
+        <v>166.1444050401903</v>
       </c>
       <c r="M33" t="n">
-        <v>142.1340339220183</v>
+        <v>169.7240591823345</v>
       </c>
       <c r="N33" t="n">
-        <v>169.3262404810591</v>
+        <v>157.8169888482831</v>
       </c>
       <c r="O33" t="n">
-        <v>182.180121406285</v>
+        <v>142.5962444444444</v>
       </c>
       <c r="P33" t="n">
         <v>133.9744074143302</v>
       </c>
       <c r="Q33" t="n">
-        <v>179.5656510478621</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R33" t="n">
         <v>45.52166981132082</v>
@@ -10513,10 +10515,10 @@
         <v>162.4747015415544</v>
       </c>
       <c r="M34" t="n">
-        <v>178.5096609094456</v>
+        <v>166.5158092079212</v>
       </c>
       <c r="N34" t="n">
-        <v>167.2694214270738</v>
+        <v>155.2755697255493</v>
       </c>
       <c r="O34" t="n">
         <v>163.0416663658825</v>
@@ -10586,22 +10588,22 @@
         <v>169.0966151720738</v>
       </c>
       <c r="K35" t="n">
-        <v>220.0898510449805</v>
+        <v>247.6798763052967</v>
       </c>
       <c r="L35" t="n">
-        <v>235.7664149699872</v>
+        <v>263.3564402303034</v>
       </c>
       <c r="M35" t="n">
-        <v>268.3307616249986</v>
+        <v>230.3462332272727</v>
       </c>
       <c r="N35" t="n">
-        <v>268.9969405584315</v>
+        <v>229.4130635965909</v>
       </c>
       <c r="O35" t="n">
-        <v>269.6820883835273</v>
+        <v>256.5734881866366</v>
       </c>
       <c r="P35" t="n">
-        <v>270.8168727171101</v>
+        <v>258.8230210155857</v>
       </c>
       <c r="Q35" t="n">
         <v>212.3149906599047</v>
@@ -10665,22 +10667,22 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K36" t="n">
-        <v>177.4253159361996</v>
+        <v>137.841438974359</v>
       </c>
       <c r="L36" t="n">
-        <v>138.5543797798742</v>
+        <v>166.1444050401903</v>
       </c>
       <c r="M36" t="n">
-        <v>180.1185623197441</v>
+        <v>142.1340339220183</v>
       </c>
       <c r="N36" t="n">
-        <v>170.9255890451739</v>
+        <v>158.9317373436494</v>
       </c>
       <c r="O36" t="n">
-        <v>142.5962444444444</v>
+        <v>169.0715212093943</v>
       </c>
       <c r="P36" t="n">
-        <v>173.5582843761708</v>
+        <v>161.5644326746464</v>
       </c>
       <c r="Q36" t="n">
         <v>139.9817740860215</v>
@@ -10750,10 +10752,10 @@
         <v>162.4747015415544</v>
       </c>
       <c r="M37" t="n">
-        <v>178.5096609094456</v>
+        <v>166.5158092079212</v>
       </c>
       <c r="N37" t="n">
-        <v>167.2694214270738</v>
+        <v>155.2755697255493</v>
       </c>
       <c r="O37" t="n">
         <v>163.0416663658825</v>
@@ -10823,22 +10825,22 @@
         <v>169.0966151720738</v>
       </c>
       <c r="K38" t="n">
-        <v>258.0743794427063</v>
+        <v>247.6798763052967</v>
       </c>
       <c r="L38" t="n">
-        <v>275.3502919318278</v>
+        <v>263.3564402303034</v>
       </c>
       <c r="M38" t="n">
-        <v>269.9301101891133</v>
+        <v>256.8215099922226</v>
       </c>
       <c r="N38" t="n">
         <v>229.4130635965909</v>
       </c>
       <c r="O38" t="n">
-        <v>269.6820883835273</v>
+        <v>230.0982114216867</v>
       </c>
       <c r="P38" t="n">
-        <v>231.2329957552695</v>
+        <v>258.8230210155857</v>
       </c>
       <c r="Q38" t="n">
         <v>212.3149906599047</v>
@@ -10902,25 +10904,25 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K39" t="n">
-        <v>137.841438974359</v>
+        <v>165.4314642346751</v>
       </c>
       <c r="L39" t="n">
         <v>138.5543797798742</v>
       </c>
       <c r="M39" t="n">
-        <v>181.7179108838589</v>
+        <v>142.1340339220183</v>
       </c>
       <c r="N39" t="n">
-        <v>170.9255890451739</v>
+        <v>131.3417120833333</v>
       </c>
       <c r="O39" t="n">
-        <v>180.5807728421703</v>
+        <v>169.0715212093943</v>
       </c>
       <c r="P39" t="n">
-        <v>133.9744074143302</v>
+        <v>161.5644326746464</v>
       </c>
       <c r="Q39" t="n">
-        <v>179.5656510478621</v>
+        <v>167.5717993463377</v>
       </c>
       <c r="R39" t="n">
         <v>45.52166981132082</v>
@@ -10987,10 +10989,10 @@
         <v>162.4747015415544</v>
       </c>
       <c r="M40" t="n">
-        <v>178.5096609094456</v>
+        <v>166.5158092079212</v>
       </c>
       <c r="N40" t="n">
-        <v>167.2694214270738</v>
+        <v>155.2755697255493</v>
       </c>
       <c r="O40" t="n">
         <v>163.0416663658825</v>
@@ -11060,22 +11062,22 @@
         <v>169.0966151720738</v>
       </c>
       <c r="K41" t="n">
-        <v>258.0743794427063</v>
+        <v>245.7101422396114</v>
       </c>
       <c r="L41" t="n">
-        <v>235.7664149699872</v>
+        <v>261.3867061646181</v>
       </c>
       <c r="M41" t="n">
-        <v>230.3462332272727</v>
+        <v>255.9665244219036</v>
       </c>
       <c r="N41" t="n">
-        <v>268.9969405584315</v>
+        <v>229.4130635965909</v>
       </c>
       <c r="O41" t="n">
-        <v>269.6820883835273</v>
+        <v>230.0982114216867</v>
       </c>
       <c r="P41" t="n">
-        <v>270.8168727171101</v>
+        <v>255.8181236693092</v>
       </c>
       <c r="Q41" t="n">
         <v>212.3149906599047</v>
@@ -11145,19 +11147,19 @@
         <v>138.5543797798742</v>
       </c>
       <c r="M42" t="n">
-        <v>180.1185623197441</v>
+        <v>142.1340339220183</v>
       </c>
       <c r="N42" t="n">
-        <v>170.9255890451739</v>
+        <v>155.926839997373</v>
       </c>
       <c r="O42" t="n">
-        <v>182.180121406285</v>
+        <v>168.2165356390753</v>
       </c>
       <c r="P42" t="n">
-        <v>173.5582843761708</v>
+        <v>159.5946986089611</v>
       </c>
       <c r="Q42" t="n">
-        <v>139.9817740860215</v>
+        <v>165.6020652806523</v>
       </c>
       <c r="R42" t="n">
         <v>45.52166981132082</v>
@@ -11221,13 +11223,13 @@
         <v>106.7437663446525</v>
       </c>
       <c r="L43" t="n">
-        <v>162.4747015415544</v>
+        <v>160.5049674758691</v>
       </c>
       <c r="M43" t="n">
-        <v>178.5096609094456</v>
+        <v>164.5460751422359</v>
       </c>
       <c r="N43" t="n">
-        <v>167.2694214270738</v>
+        <v>153.305835659864</v>
       </c>
       <c r="O43" t="n">
         <v>163.0416663658825</v>
@@ -11300,19 +11302,19 @@
         <v>220.0898510449805</v>
       </c>
       <c r="L44" t="n">
-        <v>235.7664149699872</v>
+        <v>261.3867061646181</v>
       </c>
       <c r="M44" t="n">
-        <v>230.3462332272727</v>
+        <v>255.9665244219036</v>
       </c>
       <c r="N44" t="n">
-        <v>229.4130635965909</v>
+        <v>253.9981915106306</v>
       </c>
       <c r="O44" t="n">
         <v>230.0982114216867</v>
       </c>
       <c r="P44" t="n">
-        <v>231.2329957552695</v>
+        <v>256.8532869499004</v>
       </c>
       <c r="Q44" t="n">
         <v>212.3149906599047</v>
@@ -11376,19 +11378,19 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K45" t="n">
-        <v>137.841438974359</v>
+        <v>162.4265668883987</v>
       </c>
       <c r="L45" t="n">
-        <v>138.5543797798742</v>
+        <v>164.174670974505</v>
       </c>
       <c r="M45" t="n">
         <v>142.1340339220183</v>
       </c>
       <c r="N45" t="n">
-        <v>131.3417120833333</v>
+        <v>156.9620032779641</v>
       </c>
       <c r="O45" t="n">
-        <v>142.5962444444444</v>
+        <v>168.2165356390753</v>
       </c>
       <c r="P45" t="n">
         <v>133.9744074143302</v>
@@ -11458,16 +11460,16 @@
         <v>106.7437663446525</v>
       </c>
       <c r="L46" t="n">
-        <v>134.8846762812383</v>
+        <v>160.5049674758691</v>
       </c>
       <c r="M46" t="n">
-        <v>138.9257839476051</v>
+        <v>164.5460751422359</v>
       </c>
       <c r="N46" t="n">
-        <v>127.6855444652332</v>
+        <v>153.305835659864</v>
       </c>
       <c r="O46" t="n">
-        <v>138.4565384518428</v>
+        <v>163.0416663658825</v>
       </c>
       <c r="P46" t="n">
         <v>135.0065633140411</v>
@@ -23738,10 +23740,10 @@
         <v>354.683041620683</v>
       </c>
       <c r="E17" t="n">
-        <v>381.9303700722618</v>
+        <v>379.9606360065765</v>
       </c>
       <c r="F17" t="n">
-        <v>406.8760457417114</v>
+        <v>404.9063116760261</v>
       </c>
       <c r="G17" t="n">
         <v>415.302737515135</v>
@@ -23786,10 +23788,10 @@
         <v>223.0958495641314</v>
       </c>
       <c r="U17" t="n">
-        <v>251.3456529078365</v>
+        <v>249.6107111427809</v>
       </c>
       <c r="V17" t="n">
-        <v>327.7522584701349</v>
+        <v>325.7825244044496</v>
       </c>
       <c r="W17" t="n">
         <v>349.240968717413</v>
@@ -23826,7 +23828,7 @@
         <v>137.3435171632106</v>
       </c>
       <c r="H18" t="n">
-        <v>112.2354442364965</v>
+        <v>110.5005024714408</v>
       </c>
       <c r="I18" t="n">
         <v>89.39663285141508</v>
@@ -23859,10 +23861,10 @@
         <v>100.1578341526431</v>
       </c>
       <c r="S18" t="n">
-        <v>171.6831711038378</v>
+        <v>169.7134370381525</v>
       </c>
       <c r="T18" t="n">
-        <v>200.1647286948216</v>
+        <v>198.1949946291363</v>
       </c>
       <c r="U18" t="n">
         <v>225.9413820809748</v>
@@ -23871,7 +23873,7 @@
         <v>232.8005871494253</v>
       </c>
       <c r="W18" t="n">
-        <v>251.6949831609196</v>
+        <v>249.7252490952343</v>
       </c>
       <c r="X18" t="n">
         <v>205.7729852034775</v>
@@ -23941,16 +23943,16 @@
         <v>224.0165980369723</v>
       </c>
       <c r="T19" t="n">
-        <v>227.9455894282815</v>
+        <v>225.9758553625962</v>
       </c>
       <c r="U19" t="n">
-        <v>286.3190293564909</v>
+        <v>284.3492952908056</v>
       </c>
       <c r="V19" t="n">
-        <v>252.137643323828</v>
+        <v>250.1679092581427</v>
       </c>
       <c r="W19" t="n">
-        <v>286.522998336591</v>
+        <v>284.7880565715354</v>
       </c>
       <c r="X19" t="n">
         <v>225.7096553890372</v>
@@ -23972,7 +23974,7 @@
         <v>365.2728917710076</v>
       </c>
       <c r="D20" t="n">
-        <v>354.683041620683</v>
+        <v>329.0627504260521</v>
       </c>
       <c r="E20" t="n">
         <v>381.9303700722618</v>
@@ -24011,16 +24013,16 @@
         <v>0</v>
       </c>
       <c r="Q20" t="n">
-        <v>0</v>
+        <v>9.990699214544804</v>
       </c>
       <c r="R20" t="n">
-        <v>110.2852409793091</v>
+        <v>149.8691179411497</v>
       </c>
       <c r="S20" t="n">
-        <v>169.4361926244048</v>
+        <v>209.0200695862453</v>
       </c>
       <c r="T20" t="n">
-        <v>183.5119726022908</v>
+        <v>223.0958495641314</v>
       </c>
       <c r="U20" t="n">
         <v>251.3456529078365</v>
@@ -24029,13 +24031,13 @@
         <v>327.7522584701349</v>
       </c>
       <c r="W20" t="n">
-        <v>324.3661891039686</v>
+        <v>326.6746162331822</v>
       </c>
       <c r="X20" t="n">
-        <v>369.731100678469</v>
+        <v>344.1108094838382</v>
       </c>
       <c r="Y20" t="n">
-        <v>386.2379386560536</v>
+        <v>360.6176474614227</v>
       </c>
     </row>
     <row r="21">
@@ -24048,10 +24050,10 @@
         <v>166.5331836498673</v>
       </c>
       <c r="C21" t="n">
-        <v>133.1246220264752</v>
+        <v>147.0882077936849</v>
       </c>
       <c r="D21" t="n">
-        <v>112.5795867366496</v>
+        <v>147.4450655646388</v>
       </c>
       <c r="E21" t="n">
         <v>157.6450804554009</v>
@@ -24063,7 +24065,7 @@
         <v>137.3435171632106</v>
       </c>
       <c r="H21" t="n">
-        <v>112.2354442364965</v>
+        <v>86.61515304186563</v>
       </c>
       <c r="I21" t="n">
         <v>89.39663285141508</v>
@@ -24099,19 +24101,19 @@
         <v>171.6831711038378</v>
       </c>
       <c r="T21" t="n">
-        <v>160.580851732981</v>
+        <v>200.1647286948216</v>
       </c>
       <c r="U21" t="n">
         <v>225.9413820809748</v>
       </c>
       <c r="V21" t="n">
-        <v>193.2167101875847</v>
+        <v>232.8005871494253</v>
       </c>
       <c r="W21" t="n">
-        <v>251.6949831609196</v>
+        <v>229.1286306766888</v>
       </c>
       <c r="X21" t="n">
-        <v>205.7729852034775</v>
+        <v>180.1526940088467</v>
       </c>
       <c r="Y21" t="n">
         <v>205.6826957773044</v>
@@ -24124,19 +24126,19 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>140.2481032200967</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C22" t="n">
-        <v>157.2692687373636</v>
+        <v>141.626529903997</v>
       </c>
       <c r="D22" t="n">
         <v>148.6154730182124</v>
       </c>
       <c r="E22" t="n">
-        <v>146.4339626465692</v>
+        <v>120.8136714519383</v>
       </c>
       <c r="F22" t="n">
-        <v>145.4210480229312</v>
+        <v>122.8546955387004</v>
       </c>
       <c r="G22" t="n">
         <v>167.9909793584588</v>
@@ -24181,19 +24183,19 @@
         <v>227.9455894282815</v>
       </c>
       <c r="U22" t="n">
-        <v>286.3190293564909</v>
+        <v>260.69873816186</v>
       </c>
       <c r="V22" t="n">
         <v>252.137643323828</v>
       </c>
       <c r="W22" t="n">
-        <v>246.9391213747504</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X22" t="n">
         <v>225.7096553890372</v>
       </c>
       <c r="Y22" t="n">
-        <v>179.0007763902542</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="23">
@@ -24203,16 +24205,16 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>357.8590620500362</v>
+        <v>355.1438164031645</v>
       </c>
       <c r="C23" t="n">
-        <v>365.2728917710076</v>
+        <v>337.6828665106914</v>
       </c>
       <c r="D23" t="n">
-        <v>315.0991646588424</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E23" t="n">
-        <v>342.3464931104212</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F23" t="n">
         <v>406.8760457417114</v>
@@ -24221,7 +24223,7 @@
         <v>415.302737515135</v>
       </c>
       <c r="H23" t="n">
-        <v>339.4748021157671</v>
+        <v>311.884776855451</v>
       </c>
       <c r="I23" t="n">
         <v>210.4758895704059</v>
@@ -24248,7 +24250,7 @@
         <v>0</v>
       </c>
       <c r="Q23" t="n">
-        <v>0</v>
+        <v>9.990699214544804</v>
       </c>
       <c r="R23" t="n">
         <v>149.8691179411497</v>
@@ -24266,13 +24268,13 @@
         <v>327.7522584701349</v>
       </c>
       <c r="W23" t="n">
-        <v>309.6570917555724</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X23" t="n">
         <v>369.731100678469</v>
       </c>
       <c r="Y23" t="n">
-        <v>386.2379386560536</v>
+        <v>361.9366444067671</v>
       </c>
     </row>
     <row r="24">
@@ -24330,7 +24332,7 @@
         <v>0</v>
       </c>
       <c r="R24" t="n">
-        <v>60.57395719080255</v>
+        <v>100.1578341526431</v>
       </c>
       <c r="S24" t="n">
         <v>171.6831711038378</v>
@@ -24339,16 +24341,16 @@
         <v>200.1647286948216</v>
       </c>
       <c r="U24" t="n">
-        <v>191.0759032529857</v>
+        <v>201.6400878316884</v>
       </c>
       <c r="V24" t="n">
-        <v>193.2167101875847</v>
+        <v>205.2105618891091</v>
       </c>
       <c r="W24" t="n">
-        <v>212.111106199079</v>
+        <v>224.1049579006035</v>
       </c>
       <c r="X24" t="n">
-        <v>205.7729852034775</v>
+        <v>178.1829599431613</v>
       </c>
       <c r="Y24" t="n">
         <v>205.6826957773044</v>
@@ -24370,10 +24372,10 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E25" t="n">
-        <v>106.8500856847286</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F25" t="n">
-        <v>105.8371710610907</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G25" t="n">
         <v>167.9909793584588</v>
@@ -24406,7 +24408,7 @@
         <v>2.721440735106512</v>
       </c>
       <c r="Q25" t="n">
-        <v>46.5781662898538</v>
+        <v>86.16204325169439</v>
       </c>
       <c r="R25" t="n">
         <v>177.2933913771695</v>
@@ -24418,19 +24420,19 @@
         <v>227.9455894282815</v>
       </c>
       <c r="U25" t="n">
-        <v>286.3190293564909</v>
+        <v>258.7290040961748</v>
       </c>
       <c r="V25" t="n">
-        <v>252.137643323828</v>
+        <v>224.5476180635119</v>
       </c>
       <c r="W25" t="n">
-        <v>286.522998336591</v>
+        <v>258.9329730762748</v>
       </c>
       <c r="X25" t="n">
-        <v>225.7096553890372</v>
+        <v>203.2608960285278</v>
       </c>
       <c r="Y25" t="n">
-        <v>208.6071009908305</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="26">
@@ -24458,7 +24460,7 @@
         <v>415.302737515135</v>
       </c>
       <c r="H26" t="n">
-        <v>299.8909251539266</v>
+        <v>339.4748021157671</v>
       </c>
       <c r="I26" t="n">
         <v>210.4758895704059</v>
@@ -24488,22 +24490,22 @@
         <v>0</v>
       </c>
       <c r="R26" t="n">
-        <v>124.9943383277053</v>
+        <v>135.558522906408</v>
       </c>
       <c r="S26" t="n">
-        <v>169.4361926244048</v>
+        <v>209.0200695862453</v>
       </c>
       <c r="T26" t="n">
-        <v>183.5119726022908</v>
+        <v>223.0958495641314</v>
       </c>
       <c r="U26" t="n">
-        <v>251.3456529078365</v>
+        <v>223.7556276475204</v>
       </c>
       <c r="V26" t="n">
-        <v>327.7522584701349</v>
+        <v>300.1622332098187</v>
       </c>
       <c r="W26" t="n">
-        <v>349.240968717413</v>
+        <v>321.6509434570969</v>
       </c>
       <c r="X26" t="n">
         <v>369.731100678469</v>
@@ -24525,7 +24527,7 @@
         <v>172.7084989883157</v>
       </c>
       <c r="D27" t="n">
-        <v>107.8611886027982</v>
+        <v>147.4450655646388</v>
       </c>
       <c r="E27" t="n">
         <v>157.6450804554009</v>
@@ -24567,13 +24569,13 @@
         <v>0</v>
       </c>
       <c r="R27" t="n">
-        <v>65.29235532465395</v>
+        <v>100.1578341526431</v>
       </c>
       <c r="S27" t="n">
-        <v>171.6831711038378</v>
+        <v>144.0931458435217</v>
       </c>
       <c r="T27" t="n">
-        <v>200.1647286948216</v>
+        <v>172.5747034345055</v>
       </c>
       <c r="U27" t="n">
         <v>225.9413820809748</v>
@@ -24585,10 +24587,10 @@
         <v>251.6949831609196</v>
       </c>
       <c r="X27" t="n">
-        <v>166.1891082416369</v>
+        <v>178.1829599431613</v>
       </c>
       <c r="Y27" t="n">
-        <v>166.0988188154638</v>
+        <v>181.3814015280179</v>
       </c>
     </row>
     <row r="28">
@@ -24619,10 +24621,10 @@
         <v>162.2271725074396</v>
       </c>
       <c r="I28" t="n">
-        <v>145.472922565994</v>
+        <v>155.4504749272583</v>
       </c>
       <c r="J28" t="n">
-        <v>53.77530315483219</v>
+        <v>93.35918011667277</v>
       </c>
       <c r="K28" t="n">
         <v>22.26949182588285</v>
@@ -24646,19 +24648,19 @@
         <v>86.16204325169439</v>
       </c>
       <c r="R28" t="n">
-        <v>137.7095144153289</v>
+        <v>149.7033661168533</v>
       </c>
       <c r="S28" t="n">
-        <v>184.4327210751317</v>
+        <v>196.4265727766561</v>
       </c>
       <c r="T28" t="n">
-        <v>227.9455894282815</v>
+        <v>200.3555641679654</v>
       </c>
       <c r="U28" t="n">
         <v>286.3190293564909</v>
       </c>
       <c r="V28" t="n">
-        <v>252.137643323828</v>
+        <v>229.6888839633186</v>
       </c>
       <c r="W28" t="n">
         <v>286.522998336591</v>
@@ -24677,13 +24679,13 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>382.7338416634806</v>
+        <v>358.4325474141941</v>
       </c>
       <c r="C29" t="n">
-        <v>365.2728917710076</v>
+        <v>337.6828665106914</v>
       </c>
       <c r="D29" t="n">
-        <v>354.683041620683</v>
+        <v>327.0930163603668</v>
       </c>
       <c r="E29" t="n">
         <v>381.9303700722618</v>
@@ -24722,13 +24724,13 @@
         <v>0</v>
       </c>
       <c r="Q29" t="n">
-        <v>0</v>
+        <v>9.990699214544804</v>
       </c>
       <c r="R29" t="n">
-        <v>110.2852409793091</v>
+        <v>149.8691179411497</v>
       </c>
       <c r="S29" t="n">
-        <v>169.4361926244048</v>
+        <v>209.0200695862453</v>
       </c>
       <c r="T29" t="n">
         <v>223.0958495641314</v>
@@ -24737,16 +24739,16 @@
         <v>251.3456529078365</v>
       </c>
       <c r="V29" t="n">
-        <v>288.1683815082943</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W29" t="n">
-        <v>324.3661891039686</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X29" t="n">
         <v>369.731100678469</v>
       </c>
       <c r="Y29" t="n">
-        <v>386.2379386560536</v>
+        <v>358.6479133957374</v>
       </c>
     </row>
     <row r="30">
@@ -24768,13 +24770,13 @@
         <v>157.6450804554009</v>
       </c>
       <c r="F30" t="n">
-        <v>145.0692123933839</v>
+        <v>120.7679181440974</v>
       </c>
       <c r="G30" t="n">
-        <v>137.3435171632106</v>
+        <v>109.7534919028945</v>
       </c>
       <c r="H30" t="n">
-        <v>72.65156727465587</v>
+        <v>84.64541897618032</v>
       </c>
       <c r="I30" t="n">
         <v>89.39663285141508</v>
@@ -24813,13 +24815,13 @@
         <v>200.1647286948216</v>
       </c>
       <c r="U30" t="n">
-        <v>191.0759032529857</v>
+        <v>198.3513568206587</v>
       </c>
       <c r="V30" t="n">
-        <v>193.2167101875847</v>
+        <v>232.8005871494253</v>
       </c>
       <c r="W30" t="n">
-        <v>212.111106199079</v>
+        <v>251.6949831609196</v>
       </c>
       <c r="X30" t="n">
         <v>205.7729852034775</v>
@@ -24847,7 +24849,7 @@
         <v>146.4339626465692</v>
       </c>
       <c r="F31" t="n">
-        <v>135.443495661667</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G31" t="n">
         <v>167.9909793584588</v>
@@ -24856,7 +24858,7 @@
         <v>162.2271725074396</v>
       </c>
       <c r="I31" t="n">
-        <v>155.4504749272583</v>
+        <v>127.8604496669421</v>
       </c>
       <c r="J31" t="n">
         <v>93.35918011667277</v>
@@ -24886,22 +24888,22 @@
         <v>177.2933913771695</v>
       </c>
       <c r="S31" t="n">
-        <v>224.0165980369723</v>
+        <v>196.4265727766561</v>
       </c>
       <c r="T31" t="n">
-        <v>227.9455894282815</v>
+        <v>205.4968300677721</v>
       </c>
       <c r="U31" t="n">
         <v>286.3190293564909</v>
       </c>
       <c r="V31" t="n">
-        <v>212.5537663619874</v>
+        <v>224.5476180635119</v>
       </c>
       <c r="W31" t="n">
-        <v>246.9391213747504</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X31" t="n">
-        <v>186.1257784271966</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y31" t="n">
         <v>218.5846533520948</v>
@@ -24932,10 +24934,10 @@
         <v>415.302737515135</v>
       </c>
       <c r="H32" t="n">
-        <v>304.609323287778</v>
+        <v>339.4748021157671</v>
       </c>
       <c r="I32" t="n">
-        <v>170.8920126085653</v>
+        <v>210.4758895704059</v>
       </c>
       <c r="J32" t="n">
         <v>11.94928935461252</v>
@@ -24959,22 +24961,22 @@
         <v>0</v>
       </c>
       <c r="Q32" t="n">
-        <v>9.990699214544804</v>
+        <v>0</v>
       </c>
       <c r="R32" t="n">
-        <v>149.8691179411497</v>
+        <v>135.558522906408</v>
       </c>
       <c r="S32" t="n">
         <v>209.0200695862453</v>
       </c>
       <c r="T32" t="n">
-        <v>183.5119726022908</v>
+        <v>195.5058243038152</v>
       </c>
       <c r="U32" t="n">
-        <v>251.3456529078365</v>
+        <v>223.7556276475204</v>
       </c>
       <c r="V32" t="n">
-        <v>288.1683815082943</v>
+        <v>300.1622332098187</v>
       </c>
       <c r="W32" t="n">
         <v>349.240968717413</v>
@@ -24993,13 +24995,13 @@
         </is>
       </c>
       <c r="B33" t="n">
-        <v>126.9493066880268</v>
+        <v>166.5331836498673</v>
       </c>
       <c r="C33" t="n">
         <v>172.7084989883157</v>
       </c>
       <c r="D33" t="n">
-        <v>147.4450655646388</v>
+        <v>119.8550403043226</v>
       </c>
       <c r="E33" t="n">
         <v>157.6450804554009</v>
@@ -25008,16 +25010,16 @@
         <v>145.0692123933839</v>
       </c>
       <c r="G33" t="n">
-        <v>137.3435171632106</v>
+        <v>109.7534919028945</v>
       </c>
       <c r="H33" t="n">
         <v>112.2354442364965</v>
       </c>
       <c r="I33" t="n">
-        <v>55.27774534968376</v>
+        <v>65.09533860212863</v>
       </c>
       <c r="J33" t="n">
-        <v>0</v>
+        <v>0.7465913262578567</v>
       </c>
       <c r="K33" t="n">
         <v>0</v>
@@ -25044,7 +25046,7 @@
         <v>100.1578341526431</v>
       </c>
       <c r="S33" t="n">
-        <v>171.6831711038378</v>
+        <v>144.0931458435217</v>
       </c>
       <c r="T33" t="n">
         <v>200.1647286948216</v>
@@ -25056,13 +25058,13 @@
         <v>232.8005871494253</v>
       </c>
       <c r="W33" t="n">
-        <v>212.111106199079</v>
+        <v>251.6949831609196</v>
       </c>
       <c r="X33" t="n">
         <v>205.7729852034775</v>
       </c>
       <c r="Y33" t="n">
-        <v>166.0988188154638</v>
+        <v>205.6826957773044</v>
       </c>
     </row>
     <row r="34">
@@ -25087,16 +25089,16 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G34" t="n">
-        <v>167.9909793584588</v>
+        <v>140.4009540981426</v>
       </c>
       <c r="H34" t="n">
-        <v>162.2271725074396</v>
+        <v>134.6371472471234</v>
       </c>
       <c r="I34" t="n">
-        <v>155.4504749272583</v>
+        <v>127.8604496669421</v>
       </c>
       <c r="J34" t="n">
-        <v>93.35918011667277</v>
+        <v>70.91042075616338</v>
       </c>
       <c r="K34" t="n">
         <v>22.26949182588285</v>
@@ -25120,16 +25122,16 @@
         <v>86.16204325169439</v>
       </c>
       <c r="R34" t="n">
-        <v>137.7095144153289</v>
+        <v>177.2933913771695</v>
       </c>
       <c r="S34" t="n">
-        <v>184.4327210751317</v>
+        <v>224.0165980369723</v>
       </c>
       <c r="T34" t="n">
-        <v>188.3617124664409</v>
+        <v>227.9455894282815</v>
       </c>
       <c r="U34" t="n">
-        <v>276.3414769952266</v>
+        <v>286.3190293564909</v>
       </c>
       <c r="V34" t="n">
         <v>252.137643323828</v>
@@ -25160,13 +25162,13 @@
         <v>354.683041620683</v>
       </c>
       <c r="E35" t="n">
-        <v>381.9303700722618</v>
+        <v>354.3403448119457</v>
       </c>
       <c r="F35" t="n">
-        <v>406.8760457417114</v>
+        <v>379.2860204813953</v>
       </c>
       <c r="G35" t="n">
-        <v>415.302737515135</v>
+        <v>387.7127122548189</v>
       </c>
       <c r="H35" t="n">
         <v>339.4748021157671</v>
@@ -25199,22 +25201,22 @@
         <v>0</v>
       </c>
       <c r="R35" t="n">
-        <v>110.2852409793091</v>
+        <v>149.8691179411497</v>
       </c>
       <c r="S35" t="n">
         <v>209.0200695862453</v>
       </c>
       <c r="T35" t="n">
-        <v>198.221069950687</v>
+        <v>223.0958495641314</v>
       </c>
       <c r="U35" t="n">
         <v>251.3456529078365</v>
       </c>
       <c r="V35" t="n">
-        <v>288.1683815082943</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W35" t="n">
-        <v>309.6570917555724</v>
+        <v>334.9303736826714</v>
       </c>
       <c r="X35" t="n">
         <v>369.731100678469</v>
@@ -25284,22 +25286,22 @@
         <v>171.6831711038378</v>
       </c>
       <c r="T36" t="n">
-        <v>160.580851732981</v>
+        <v>200.1647286948216</v>
       </c>
       <c r="U36" t="n">
         <v>225.9413820809748</v>
       </c>
       <c r="V36" t="n">
-        <v>232.8005871494253</v>
+        <v>208.4992929001388</v>
       </c>
       <c r="W36" t="n">
-        <v>212.111106199079</v>
+        <v>224.1049579006035</v>
       </c>
       <c r="X36" t="n">
-        <v>166.1891082416369</v>
+        <v>178.1829599431613</v>
       </c>
       <c r="Y36" t="n">
-        <v>170.8172169493152</v>
+        <v>178.0926705169882</v>
       </c>
     </row>
     <row r="37">
@@ -25333,7 +25335,7 @@
         <v>155.4504749272583</v>
       </c>
       <c r="J37" t="n">
-        <v>93.35918011667277</v>
+        <v>70.91042075616336</v>
       </c>
       <c r="K37" t="n">
         <v>22.26949182588285</v>
@@ -25360,22 +25362,22 @@
         <v>177.2933913771695</v>
       </c>
       <c r="S37" t="n">
-        <v>224.0165980369723</v>
+        <v>196.4265727766561</v>
       </c>
       <c r="T37" t="n">
         <v>227.9455894282815</v>
       </c>
       <c r="U37" t="n">
-        <v>246.7351523946503</v>
+        <v>258.7290040961748</v>
       </c>
       <c r="V37" t="n">
-        <v>212.5537663619874</v>
+        <v>224.5476180635119</v>
       </c>
       <c r="W37" t="n">
-        <v>246.9391213747504</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X37" t="n">
-        <v>215.7321030277729</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y37" t="n">
         <v>218.5846533520948</v>
@@ -25394,13 +25396,13 @@
         <v>365.2728917710076</v>
       </c>
       <c r="D38" t="n">
-        <v>354.683041620683</v>
+        <v>327.0930163603668</v>
       </c>
       <c r="E38" t="n">
         <v>381.9303700722618</v>
       </c>
       <c r="F38" t="n">
-        <v>406.8760457417114</v>
+        <v>379.2860204813953</v>
       </c>
       <c r="G38" t="n">
         <v>415.302737515135</v>
@@ -25436,19 +25438,19 @@
         <v>9.990699214544804</v>
       </c>
       <c r="R38" t="n">
-        <v>149.8691179411497</v>
+        <v>122.2790926808335</v>
       </c>
       <c r="S38" t="n">
-        <v>169.4361926244048</v>
+        <v>184.7187753369589</v>
       </c>
       <c r="T38" t="n">
-        <v>183.5119726022908</v>
+        <v>223.0958495641314</v>
       </c>
       <c r="U38" t="n">
-        <v>211.7617759459959</v>
+        <v>251.3456529078365</v>
       </c>
       <c r="V38" t="n">
-        <v>292.8867796421457</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W38" t="n">
         <v>349.240968717413</v>
@@ -25467,7 +25469,7 @@
         </is>
       </c>
       <c r="B39" t="n">
-        <v>166.5331836498673</v>
+        <v>142.2318894005809</v>
       </c>
       <c r="C39" t="n">
         <v>172.7084989883157</v>
@@ -25476,13 +25478,13 @@
         <v>147.4450655646388</v>
       </c>
       <c r="E39" t="n">
-        <v>118.0612034935604</v>
+        <v>157.6450804554009</v>
       </c>
       <c r="F39" t="n">
         <v>145.0692123933839</v>
       </c>
       <c r="G39" t="n">
-        <v>102.4780383352215</v>
+        <v>137.3435171632106</v>
       </c>
       <c r="H39" t="n">
         <v>112.2354442364965</v>
@@ -25524,19 +25526,19 @@
         <v>200.1647286948216</v>
       </c>
       <c r="U39" t="n">
-        <v>186.3575051191342</v>
+        <v>225.9413820809748</v>
       </c>
       <c r="V39" t="n">
         <v>232.8005871494253</v>
       </c>
       <c r="W39" t="n">
-        <v>251.6949831609196</v>
+        <v>224.1049579006035</v>
       </c>
       <c r="X39" t="n">
-        <v>166.1891082416369</v>
+        <v>178.1829599431613</v>
       </c>
       <c r="Y39" t="n">
-        <v>205.6826957773044</v>
+        <v>178.0926705169882</v>
       </c>
     </row>
     <row r="40">
@@ -25546,7 +25548,7 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>169.854427820673</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C40" t="n">
         <v>167.2468210986278</v>
@@ -25591,22 +25593,22 @@
         <v>2.721440735106512</v>
       </c>
       <c r="Q40" t="n">
-        <v>46.5781662898538</v>
+        <v>58.57201799137825</v>
       </c>
       <c r="R40" t="n">
-        <v>177.2933913771695</v>
+        <v>149.7033661168533</v>
       </c>
       <c r="S40" t="n">
         <v>224.0165980369723</v>
       </c>
       <c r="T40" t="n">
-        <v>227.9455894282815</v>
+        <v>200.3555641679654</v>
       </c>
       <c r="U40" t="n">
-        <v>286.3190293564909</v>
+        <v>263.8702699959815</v>
       </c>
       <c r="V40" t="n">
-        <v>212.5537663619874</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W40" t="n">
         <v>286.522998336591</v>
@@ -25615,7 +25617,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y40" t="n">
-        <v>179.0007763902542</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="41">
@@ -25634,13 +25636,13 @@
         <v>354.683041620683</v>
       </c>
       <c r="E41" t="n">
-        <v>381.9303700722618</v>
+        <v>356.3100788776309</v>
       </c>
       <c r="F41" t="n">
-        <v>406.8760457417114</v>
+        <v>381.2557545470806</v>
       </c>
       <c r="G41" t="n">
-        <v>415.302737515135</v>
+        <v>389.6824463205042</v>
       </c>
       <c r="H41" t="n">
         <v>339.4748021157671</v>
@@ -25676,7 +25678,7 @@
         <v>149.8691179411497</v>
       </c>
       <c r="S41" t="n">
-        <v>169.4361926244048</v>
+        <v>209.0200695862453</v>
       </c>
       <c r="T41" t="n">
         <v>223.0958495641314</v>
@@ -25685,16 +25687,16 @@
         <v>251.3456529078365</v>
       </c>
       <c r="V41" t="n">
-        <v>288.1683815082943</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W41" t="n">
-        <v>324.3661891039686</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X41" t="n">
-        <v>330.1472237166284</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y41" t="n">
-        <v>386.2379386560536</v>
+        <v>373.6622853863676</v>
       </c>
     </row>
     <row r="42">
@@ -25704,10 +25706,10 @@
         </is>
       </c>
       <c r="B42" t="n">
-        <v>126.9493066880268</v>
+        <v>140.9128924552365</v>
       </c>
       <c r="C42" t="n">
-        <v>133.1246220264752</v>
+        <v>147.0882077936849</v>
       </c>
       <c r="D42" t="n">
         <v>147.4450655646388</v>
@@ -25752,7 +25754,7 @@
         <v>0</v>
       </c>
       <c r="R42" t="n">
-        <v>65.29235532465395</v>
+        <v>100.1578341526431</v>
       </c>
       <c r="S42" t="n">
         <v>171.6831711038378</v>
@@ -25761,7 +25763,7 @@
         <v>200.1647286948216</v>
       </c>
       <c r="U42" t="n">
-        <v>186.3575051191342</v>
+        <v>225.9413820809748</v>
       </c>
       <c r="V42" t="n">
         <v>232.8005871494253</v>
@@ -25770,10 +25772,10 @@
         <v>251.6949831609196</v>
       </c>
       <c r="X42" t="n">
-        <v>205.7729852034775</v>
+        <v>183.2066327192466</v>
       </c>
       <c r="Y42" t="n">
-        <v>205.6826957773044</v>
+        <v>180.0624045826735</v>
       </c>
     </row>
     <row r="43">
@@ -25783,13 +25785,13 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>140.2481032200967</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C43" t="n">
-        <v>127.6629441367872</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D43" t="n">
-        <v>109.0315960563718</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E43" t="n">
         <v>146.4339626465692</v>
@@ -25840,19 +25842,19 @@
         <v>227.9455894282815</v>
       </c>
       <c r="U43" t="n">
-        <v>286.3190293564909</v>
+        <v>260.69873816186</v>
       </c>
       <c r="V43" t="n">
         <v>252.137643323828</v>
       </c>
       <c r="W43" t="n">
-        <v>286.522998336591</v>
+        <v>263.9566458523602</v>
       </c>
       <c r="X43" t="n">
-        <v>225.7096553890372</v>
+        <v>200.0893641944063</v>
       </c>
       <c r="Y43" t="n">
-        <v>208.6071009908305</v>
+        <v>192.964362157464</v>
       </c>
     </row>
     <row r="44">
@@ -25880,7 +25882,7 @@
         <v>415.302737515135</v>
       </c>
       <c r="H44" t="n">
-        <v>339.4748021157671</v>
+        <v>313.8545109211363</v>
       </c>
       <c r="I44" t="n">
         <v>210.4758895704059</v>
@@ -25907,7 +25909,7 @@
         <v>0</v>
       </c>
       <c r="Q44" t="n">
-        <v>9.990699214544804</v>
+        <v>0</v>
       </c>
       <c r="R44" t="n">
         <v>149.8691179411497</v>
@@ -25925,13 +25927,13 @@
         <v>327.7522584701349</v>
       </c>
       <c r="W44" t="n">
-        <v>349.240968717413</v>
+        <v>323.6206775227822</v>
       </c>
       <c r="X44" t="n">
-        <v>369.731100678469</v>
+        <v>344.1108094838382</v>
       </c>
       <c r="Y44" t="n">
-        <v>386.2379386560536</v>
+        <v>373.6622853863676</v>
       </c>
     </row>
     <row r="45">
@@ -25953,13 +25955,13 @@
         <v>157.6450804554009</v>
       </c>
       <c r="F45" t="n">
-        <v>145.0692123933839</v>
+        <v>119.4489211987531</v>
       </c>
       <c r="G45" t="n">
-        <v>137.3435171632106</v>
+        <v>111.7232259685798</v>
       </c>
       <c r="H45" t="n">
-        <v>112.2354442364965</v>
+        <v>86.61515304186563</v>
       </c>
       <c r="I45" t="n">
         <v>89.39663285141508</v>
@@ -25989,7 +25991,7 @@
         <v>0</v>
       </c>
       <c r="R45" t="n">
-        <v>100.1578341526431</v>
+        <v>77.59148166841231</v>
       </c>
       <c r="S45" t="n">
         <v>171.6831711038378</v>
@@ -26029,16 +26031,16 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E46" t="n">
-        <v>146.4339626465692</v>
+        <v>123.8676101623383</v>
       </c>
       <c r="F46" t="n">
-        <v>145.4210480229312</v>
+        <v>119.8007568283004</v>
       </c>
       <c r="G46" t="n">
-        <v>167.9909793584588</v>
+        <v>142.3706881638279</v>
       </c>
       <c r="H46" t="n">
-        <v>162.2271725074396</v>
+        <v>136.6068813128088</v>
       </c>
       <c r="I46" t="n">
         <v>155.4504749272583</v>
@@ -26163,7 +26165,7 @@
         <v>5</v>
       </c>
       <c r="B7" t="n">
-        <v>333272.9571474838</v>
+        <v>335002.8269261098</v>
       </c>
     </row>
     <row r="8">
@@ -26171,7 +26173,7 @@
         <v>6</v>
       </c>
       <c r="B8" t="n">
-        <v>367110.6782110896</v>
+        <v>355773.3384067003</v>
       </c>
     </row>
     <row r="9">
@@ -26179,7 +26181,7 @@
         <v>7</v>
       </c>
       <c r="B9" t="n">
-        <v>367110.6782110896</v>
+        <v>357434.2938874636</v>
       </c>
     </row>
     <row r="10">
@@ -26187,7 +26189,7 @@
         <v>8</v>
       </c>
       <c r="B10" t="n">
-        <v>367110.6782110896</v>
+        <v>357434.2938874637</v>
       </c>
     </row>
     <row r="11">
@@ -26195,7 +26197,7 @@
         <v>9</v>
       </c>
       <c r="B11" t="n">
-        <v>367110.6782110894</v>
+        <v>357434.2938874637</v>
       </c>
     </row>
     <row r="12">
@@ -26203,7 +26205,7 @@
         <v>10</v>
       </c>
       <c r="B12" t="n">
-        <v>367110.6782110896</v>
+        <v>357434.2938874637</v>
       </c>
     </row>
     <row r="13">
@@ -26211,7 +26213,7 @@
         <v>11</v>
       </c>
       <c r="B13" t="n">
-        <v>367110.6782110896</v>
+        <v>357434.2938874637</v>
       </c>
     </row>
     <row r="14">
@@ -26219,7 +26221,7 @@
         <v>12</v>
       </c>
       <c r="B14" t="n">
-        <v>367110.6782110896</v>
+        <v>357434.2938874637</v>
       </c>
     </row>
     <row r="15">
@@ -26227,7 +26229,7 @@
         <v>13</v>
       </c>
       <c r="B15" t="n">
-        <v>367110.6782110897</v>
+        <v>355773.3384067003</v>
       </c>
     </row>
     <row r="16">
@@ -26235,7 +26237,7 @@
         <v>14</v>
       </c>
       <c r="B16" t="n">
-        <v>333272.9571474838</v>
+        <v>355773.3384067003</v>
       </c>
     </row>
   </sheetData>
@@ -26311,49 +26313,49 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>43002.96221257855</v>
+        <v>43002.96221257856</v>
       </c>
       <c r="C2" t="n">
         <v>43002.96221257856</v>
       </c>
       <c r="D2" t="n">
-        <v>43002.96221257855</v>
+        <v>43002.96221257856</v>
       </c>
       <c r="E2" t="n">
-        <v>43002.96221257855</v>
+        <v>43002.96221257856</v>
       </c>
       <c r="F2" t="n">
         <v>43002.96221257855</v>
       </c>
       <c r="G2" t="n">
-        <v>43002.96221257855</v>
+        <v>43226.17121627222</v>
       </c>
       <c r="H2" t="n">
-        <v>47369.11976917279</v>
+        <v>45906.23721376774</v>
       </c>
       <c r="I2" t="n">
-        <v>47369.11976917279</v>
+        <v>46120.55404999528</v>
       </c>
       <c r="J2" t="n">
-        <v>47369.11976917279</v>
+        <v>46120.55404999528</v>
       </c>
       <c r="K2" t="n">
-        <v>47369.11976917279</v>
+        <v>46120.55404999529</v>
       </c>
       <c r="L2" t="n">
-        <v>47369.1197691728</v>
+        <v>46120.55404999529</v>
       </c>
       <c r="M2" t="n">
-        <v>47369.1197691728</v>
+        <v>46120.5540499953</v>
       </c>
       <c r="N2" t="n">
-        <v>47369.1197691728</v>
+        <v>46120.5540499953</v>
       </c>
       <c r="O2" t="n">
-        <v>47369.11976917279</v>
+        <v>45906.23721376774</v>
       </c>
       <c r="P2" t="n">
-        <v>43002.96221257855</v>
+        <v>45906.23721376773</v>
       </c>
     </row>
     <row r="3">
@@ -26378,13 +26380,13 @@
         <v>0</v>
       </c>
       <c r="G3" t="n">
-        <v>0</v>
+        <v>539.8745613933579</v>
       </c>
       <c r="H3" t="n">
-        <v>10680.08625919725</v>
+        <v>6381.133168403663</v>
       </c>
       <c r="I3" t="n">
-        <v>0</v>
+        <v>523.793652481103</v>
       </c>
       <c r="J3" t="n">
         <v>0</v>
@@ -26405,7 +26407,7 @@
         <v>0</v>
       </c>
       <c r="P3" t="n">
-        <v>0</v>
+        <v>5590.376790797369</v>
       </c>
     </row>
     <row r="4">
@@ -26430,34 +26432,34 @@
         <v>0</v>
       </c>
       <c r="G4" t="n">
-        <v>0</v>
+        <v>1.708057879504569</v>
       </c>
       <c r="H4" t="n">
-        <v>33.41106180436363</v>
+        <v>22.21667432804714</v>
       </c>
       <c r="I4" t="n">
-        <v>33.41106180436363</v>
+        <v>23.85668684891895</v>
       </c>
       <c r="J4" t="n">
-        <v>33.41106180436364</v>
+        <v>23.85668684891895</v>
       </c>
       <c r="K4" t="n">
-        <v>33.41106180436363</v>
+        <v>23.85668684891895</v>
       </c>
       <c r="L4" t="n">
-        <v>33.41106180436363</v>
+        <v>23.85668684891895</v>
       </c>
       <c r="M4" t="n">
-        <v>33.41106180436364</v>
+        <v>23.85668684891895</v>
       </c>
       <c r="N4" t="n">
-        <v>33.41106180436363</v>
+        <v>23.85668684891895</v>
       </c>
       <c r="O4" t="n">
-        <v>33.41106180436364</v>
+        <v>22.21667432804714</v>
       </c>
       <c r="P4" t="n">
-        <v>0</v>
+        <v>22.21667432804714</v>
       </c>
     </row>
     <row r="5">
@@ -26482,34 +26484,34 @@
         <v>0</v>
       </c>
       <c r="G5" t="n">
-        <v>0</v>
+        <v>119.7598311936668</v>
       </c>
       <c r="H5" t="n">
-        <v>2406.699719279908</v>
+        <v>1557.713704633554</v>
       </c>
       <c r="I5" t="n">
-        <v>2406.699719279908</v>
+        <v>1677.473535827221</v>
       </c>
       <c r="J5" t="n">
-        <v>2406.699719279908</v>
+        <v>1677.473535827221</v>
       </c>
       <c r="K5" t="n">
-        <v>2406.699719279908</v>
+        <v>1677.473535827221</v>
       </c>
       <c r="L5" t="n">
-        <v>2406.699719279908</v>
+        <v>1677.473535827221</v>
       </c>
       <c r="M5" t="n">
-        <v>2406.699719279908</v>
+        <v>1677.473535827221</v>
       </c>
       <c r="N5" t="n">
-        <v>2406.699719279908</v>
+        <v>1677.473535827221</v>
       </c>
       <c r="O5" t="n">
-        <v>2406.699719279908</v>
+        <v>1557.713704633554</v>
       </c>
       <c r="P5" t="n">
-        <v>0</v>
+        <v>1557.713704633554</v>
       </c>
     </row>
     <row r="6">
@@ -26519,49 +26521,49 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>9375.362212578555</v>
+        <v>9375.362212578562</v>
       </c>
       <c r="C6" t="n">
         <v>9375.362212578562</v>
       </c>
       <c r="D6" t="n">
-        <v>9375.362212578555</v>
+        <v>9375.362212578562</v>
       </c>
       <c r="E6" t="n">
-        <v>43002.96221257855</v>
+        <v>43002.96221257856</v>
       </c>
       <c r="F6" t="n">
         <v>43002.96221257855</v>
       </c>
       <c r="G6" t="n">
-        <v>43002.96221257855</v>
+        <v>42564.82876580569</v>
       </c>
       <c r="H6" t="n">
-        <v>34248.92272889127</v>
+        <v>37945.17366640247</v>
       </c>
       <c r="I6" t="n">
-        <v>44929.00898808852</v>
+        <v>43895.43017483804</v>
       </c>
       <c r="J6" t="n">
-        <v>44929.00898808852</v>
+        <v>44419.22382731914</v>
       </c>
       <c r="K6" t="n">
-        <v>44929.00898808852</v>
+        <v>44419.22382731915</v>
       </c>
       <c r="L6" t="n">
-        <v>44929.00898808853</v>
+        <v>44419.22382731915</v>
       </c>
       <c r="M6" t="n">
-        <v>44929.00898808853</v>
+        <v>44419.22382731915</v>
       </c>
       <c r="N6" t="n">
-        <v>44929.00898808853</v>
+        <v>44419.22382731915</v>
       </c>
       <c r="O6" t="n">
-        <v>44929.00898808851</v>
+        <v>44326.30683480614</v>
       </c>
       <c r="P6" t="n">
-        <v>43002.96221257855</v>
+        <v>38735.93004400876</v>
       </c>
     </row>
   </sheetData>
@@ -26802,34 +26804,34 @@
         <v>0</v>
       </c>
       <c r="G4" t="n">
-        <v>0</v>
+        <v>1.969734065685309</v>
       </c>
       <c r="H4" t="n">
-        <v>39.58387696184059</v>
+        <v>25.62029119463083</v>
       </c>
       <c r="I4" t="n">
-        <v>39.58387696184059</v>
+        <v>27.59002526031614</v>
       </c>
       <c r="J4" t="n">
-        <v>39.58387696184059</v>
+        <v>27.59002526031614</v>
       </c>
       <c r="K4" t="n">
-        <v>39.58387696184059</v>
+        <v>27.59002526031614</v>
       </c>
       <c r="L4" t="n">
-        <v>39.58387696184059</v>
+        <v>27.59002526031614</v>
       </c>
       <c r="M4" t="n">
-        <v>39.58387696184059</v>
+        <v>27.59002526031614</v>
       </c>
       <c r="N4" t="n">
-        <v>39.58387696184059</v>
+        <v>27.59002526031614</v>
       </c>
       <c r="O4" t="n">
-        <v>39.58387696184059</v>
+        <v>25.62029119463083</v>
       </c>
       <c r="P4" t="n">
-        <v>0</v>
+        <v>25.62029119463083</v>
       </c>
     </row>
   </sheetData>
@@ -27024,13 +27026,13 @@
         <v>0</v>
       </c>
       <c r="G4" t="n">
-        <v>0</v>
+        <v>1.969734065685309</v>
       </c>
       <c r="H4" t="n">
-        <v>39.58387696184059</v>
+        <v>23.65055712894552</v>
       </c>
       <c r="I4" t="n">
-        <v>0</v>
+        <v>1.969734065685309</v>
       </c>
       <c r="J4" t="n">
         <v>0</v>
@@ -27051,7 +27053,7 @@
         <v>0</v>
       </c>
       <c r="P4" t="n">
-        <v>0</v>
+        <v>23.65055712894552</v>
       </c>
     </row>
   </sheetData>
@@ -27270,10 +27272,10 @@
         <v>0</v>
       </c>
       <c r="O4" t="n">
-        <v>0</v>
+        <v>1.969734065685309</v>
       </c>
       <c r="P4" t="n">
-        <v>39.58387696184059</v>
+        <v>23.65055712894552</v>
       </c>
     </row>
   </sheetData>
@@ -35887,16 +35889,16 @@
         <v>0</v>
       </c>
       <c r="L17" t="n">
-        <v>0</v>
+        <v>1.890148850910144</v>
       </c>
       <c r="M17" t="n">
-        <v>0</v>
+        <v>1.969734065685309</v>
       </c>
       <c r="N17" t="n">
-        <v>0</v>
+        <v>1.969734065685309</v>
       </c>
       <c r="O17" t="n">
-        <v>0</v>
+        <v>1.969734065685309</v>
       </c>
       <c r="P17" t="n">
         <v>0</v>
@@ -35969,19 +35971,19 @@
         <v>0</v>
       </c>
       <c r="M18" t="n">
-        <v>0</v>
+        <v>1.890148850910144</v>
       </c>
       <c r="N18" t="n">
-        <v>0</v>
+        <v>1.969734065685309</v>
       </c>
       <c r="O18" t="n">
-        <v>0</v>
+        <v>1.969734065685309</v>
       </c>
       <c r="P18" t="n">
         <v>0</v>
       </c>
       <c r="Q18" t="n">
-        <v>0</v>
+        <v>1.969734065685309</v>
       </c>
       <c r="R18" t="n">
         <v>0</v>
@@ -36045,16 +36047,16 @@
         <v>0</v>
       </c>
       <c r="L19" t="n">
-        <v>0</v>
+        <v>1.890148850910144</v>
       </c>
       <c r="M19" t="n">
-        <v>0</v>
+        <v>1.969734065685309</v>
       </c>
       <c r="N19" t="n">
-        <v>0</v>
+        <v>1.969734065685309</v>
       </c>
       <c r="O19" t="n">
-        <v>0</v>
+        <v>1.969734065685309</v>
       </c>
       <c r="P19" t="n">
         <v>0</v>
@@ -36121,22 +36123,22 @@
         <v>0</v>
       </c>
       <c r="K20" t="n">
-        <v>39.58387696184059</v>
+        <v>0</v>
       </c>
       <c r="L20" t="n">
-        <v>39.58387696184059</v>
+        <v>0</v>
       </c>
       <c r="M20" t="n">
-        <v>37.98452839772582</v>
+        <v>25.62029119463083</v>
       </c>
       <c r="N20" t="n">
-        <v>0</v>
+        <v>25.62029119463083</v>
       </c>
       <c r="O20" t="n">
-        <v>0</v>
+        <v>24.58512791403969</v>
       </c>
       <c r="P20" t="n">
-        <v>39.58387696184059</v>
+        <v>25.62029119463083</v>
       </c>
       <c r="Q20" t="n">
         <v>0</v>
@@ -36200,25 +36202,25 @@
         <v>0</v>
       </c>
       <c r="K21" t="n">
-        <v>37.98452839772582</v>
+        <v>0</v>
       </c>
       <c r="L21" t="n">
-        <v>0</v>
+        <v>25.62029119463083</v>
       </c>
       <c r="M21" t="n">
-        <v>39.58387696184059</v>
+        <v>25.62029119463083</v>
       </c>
       <c r="N21" t="n">
-        <v>39.58387696184059</v>
+        <v>24.58512791403969</v>
       </c>
       <c r="O21" t="n">
         <v>0</v>
       </c>
       <c r="P21" t="n">
-        <v>0</v>
+        <v>25.62029119463083</v>
       </c>
       <c r="Q21" t="n">
-        <v>39.58387696184059</v>
+        <v>0</v>
       </c>
       <c r="R21" t="n">
         <v>0</v>
@@ -36282,13 +36284,13 @@
         <v>0</v>
       </c>
       <c r="L22" t="n">
-        <v>27.59002526031614</v>
+        <v>25.62029119463083</v>
       </c>
       <c r="M22" t="n">
-        <v>39.58387696184059</v>
+        <v>25.62029119463083</v>
       </c>
       <c r="N22" t="n">
-        <v>39.58387696184059</v>
+        <v>25.62029119463083</v>
       </c>
       <c r="O22" t="n">
         <v>24.58512791403967</v>
@@ -36358,22 +36360,22 @@
         <v>0</v>
       </c>
       <c r="K23" t="n">
-        <v>0</v>
+        <v>27.59002526031614</v>
       </c>
       <c r="L23" t="n">
-        <v>0</v>
+        <v>27.59002526031614</v>
       </c>
       <c r="M23" t="n">
-        <v>39.58387696184059</v>
+        <v>27.59002526031614</v>
       </c>
       <c r="N23" t="n">
-        <v>39.58387696184059</v>
+        <v>26.47527676494983</v>
       </c>
       <c r="O23" t="n">
-        <v>39.58387696184059</v>
+        <v>0</v>
       </c>
       <c r="P23" t="n">
-        <v>37.98452839772582</v>
+        <v>0</v>
       </c>
       <c r="Q23" t="n">
         <v>0</v>
@@ -36437,16 +36439,16 @@
         <v>0</v>
       </c>
       <c r="K24" t="n">
-        <v>39.58387696184059</v>
+        <v>0</v>
       </c>
       <c r="L24" t="n">
-        <v>39.58387696184059</v>
+        <v>26.47527676494984</v>
       </c>
       <c r="M24" t="n">
-        <v>39.58387696184059</v>
+        <v>27.59002526031614</v>
       </c>
       <c r="N24" t="n">
-        <v>37.98452839772582</v>
+        <v>27.59002526031614</v>
       </c>
       <c r="O24" t="n">
         <v>0</v>
@@ -36455,7 +36457,7 @@
         <v>0</v>
       </c>
       <c r="Q24" t="n">
-        <v>0</v>
+        <v>27.59002526031614</v>
       </c>
       <c r="R24" t="n">
         <v>0</v>
@@ -36522,10 +36524,10 @@
         <v>27.59002526031614</v>
       </c>
       <c r="M25" t="n">
-        <v>39.58387696184059</v>
+        <v>27.59002526031614</v>
       </c>
       <c r="N25" t="n">
-        <v>39.58387696184059</v>
+        <v>27.59002526031614</v>
       </c>
       <c r="O25" t="n">
         <v>24.58512791403967</v>
@@ -36595,22 +36597,22 @@
         <v>0</v>
       </c>
       <c r="K26" t="n">
-        <v>37.98452839772582</v>
+        <v>0</v>
       </c>
       <c r="L26" t="n">
-        <v>39.58387696184059</v>
+        <v>0</v>
       </c>
       <c r="M26" t="n">
-        <v>39.58387696184059</v>
+        <v>26.47527676494984</v>
       </c>
       <c r="N26" t="n">
-        <v>0</v>
+        <v>27.59002526031614</v>
       </c>
       <c r="O26" t="n">
-        <v>0</v>
+        <v>27.59002526031614</v>
       </c>
       <c r="P26" t="n">
-        <v>39.58387696184059</v>
+        <v>27.59002526031614</v>
       </c>
       <c r="Q26" t="n">
         <v>0</v>
@@ -36674,22 +36676,22 @@
         <v>0</v>
       </c>
       <c r="K27" t="n">
-        <v>39.58387696184059</v>
+        <v>27.59002526031614</v>
       </c>
       <c r="L27" t="n">
-        <v>39.58387696184059</v>
+        <v>0</v>
       </c>
       <c r="M27" t="n">
-        <v>37.98452839772582</v>
+        <v>27.59002526031614</v>
       </c>
       <c r="N27" t="n">
-        <v>0</v>
+        <v>26.47527676494983</v>
       </c>
       <c r="O27" t="n">
-        <v>39.58387696184059</v>
+        <v>0</v>
       </c>
       <c r="P27" t="n">
-        <v>0</v>
+        <v>27.59002526031614</v>
       </c>
       <c r="Q27" t="n">
         <v>0</v>
@@ -36759,10 +36761,10 @@
         <v>27.59002526031614</v>
       </c>
       <c r="M28" t="n">
-        <v>39.58387696184059</v>
+        <v>27.59002526031614</v>
       </c>
       <c r="N28" t="n">
-        <v>39.58387696184059</v>
+        <v>27.59002526031614</v>
       </c>
       <c r="O28" t="n">
         <v>24.58512791403967</v>
@@ -36835,19 +36837,19 @@
         <v>0</v>
       </c>
       <c r="L29" t="n">
-        <v>39.58387696184059</v>
+        <v>27.59002526031614</v>
       </c>
       <c r="M29" t="n">
-        <v>39.58387696184059</v>
+        <v>0</v>
       </c>
       <c r="N29" t="n">
-        <v>39.58387696184059</v>
+        <v>26.47527676494984</v>
       </c>
       <c r="O29" t="n">
-        <v>37.98452839772582</v>
+        <v>27.59002526031614</v>
       </c>
       <c r="P29" t="n">
-        <v>0</v>
+        <v>27.59002526031614</v>
       </c>
       <c r="Q29" t="n">
         <v>0</v>
@@ -36911,16 +36913,16 @@
         <v>0</v>
       </c>
       <c r="K30" t="n">
-        <v>0</v>
+        <v>26.47527676494984</v>
       </c>
       <c r="L30" t="n">
-        <v>39.58387696184059</v>
+        <v>27.59002526031614</v>
       </c>
       <c r="M30" t="n">
-        <v>39.58387696184059</v>
+        <v>27.59002526031614</v>
       </c>
       <c r="N30" t="n">
-        <v>37.98452839772582</v>
+        <v>27.59002526031614</v>
       </c>
       <c r="O30" t="n">
         <v>0</v>
@@ -36929,7 +36931,7 @@
         <v>0</v>
       </c>
       <c r="Q30" t="n">
-        <v>39.58387696184059</v>
+        <v>0</v>
       </c>
       <c r="R30" t="n">
         <v>0</v>
@@ -36996,10 +36998,10 @@
         <v>27.59002526031614</v>
       </c>
       <c r="M31" t="n">
-        <v>39.58387696184059</v>
+        <v>27.59002526031614</v>
       </c>
       <c r="N31" t="n">
-        <v>39.58387696184059</v>
+        <v>27.59002526031614</v>
       </c>
       <c r="O31" t="n">
         <v>24.58512791403967</v>
@@ -37069,22 +37071,22 @@
         <v>0</v>
       </c>
       <c r="K32" t="n">
-        <v>39.58387696184059</v>
+        <v>0</v>
       </c>
       <c r="L32" t="n">
         <v>0</v>
       </c>
       <c r="M32" t="n">
-        <v>39.58387696184059</v>
+        <v>27.59002526031614</v>
       </c>
       <c r="N32" t="n">
-        <v>0</v>
+        <v>27.59002526031614</v>
       </c>
       <c r="O32" t="n">
-        <v>37.98452839772582</v>
+        <v>27.59002526031614</v>
       </c>
       <c r="P32" t="n">
-        <v>39.58387696184059</v>
+        <v>26.47527676494983</v>
       </c>
       <c r="Q32" t="n">
         <v>0</v>
@@ -37148,25 +37150,25 @@
         <v>0</v>
       </c>
       <c r="K33" t="n">
-        <v>39.58387696184059</v>
+        <v>27.59002526031614</v>
       </c>
       <c r="L33" t="n">
-        <v>0</v>
+        <v>27.59002526031614</v>
       </c>
       <c r="M33" t="n">
-        <v>0</v>
+        <v>27.59002526031614</v>
       </c>
       <c r="N33" t="n">
-        <v>37.98452839772582</v>
+        <v>26.47527676494983</v>
       </c>
       <c r="O33" t="n">
-        <v>39.58387696184059</v>
+        <v>0</v>
       </c>
       <c r="P33" t="n">
         <v>0</v>
       </c>
       <c r="Q33" t="n">
-        <v>39.58387696184059</v>
+        <v>0</v>
       </c>
       <c r="R33" t="n">
         <v>0</v>
@@ -37233,10 +37235,10 @@
         <v>27.59002526031614</v>
       </c>
       <c r="M34" t="n">
-        <v>39.58387696184059</v>
+        <v>27.59002526031614</v>
       </c>
       <c r="N34" t="n">
-        <v>39.58387696184059</v>
+        <v>27.59002526031614</v>
       </c>
       <c r="O34" t="n">
         <v>24.58512791403967</v>
@@ -37306,22 +37308,22 @@
         <v>0</v>
       </c>
       <c r="K35" t="n">
-        <v>0</v>
+        <v>27.59002526031614</v>
       </c>
       <c r="L35" t="n">
-        <v>0</v>
+        <v>27.59002526031614</v>
       </c>
       <c r="M35" t="n">
-        <v>37.98452839772582</v>
+        <v>0</v>
       </c>
       <c r="N35" t="n">
-        <v>39.58387696184059</v>
+        <v>0</v>
       </c>
       <c r="O35" t="n">
-        <v>39.58387696184059</v>
+        <v>26.47527676494983</v>
       </c>
       <c r="P35" t="n">
-        <v>39.58387696184059</v>
+        <v>27.59002526031614</v>
       </c>
       <c r="Q35" t="n">
         <v>0</v>
@@ -37385,22 +37387,22 @@
         <v>0</v>
       </c>
       <c r="K36" t="n">
-        <v>39.58387696184059</v>
+        <v>0</v>
       </c>
       <c r="L36" t="n">
-        <v>0</v>
+        <v>27.59002526031614</v>
       </c>
       <c r="M36" t="n">
-        <v>37.98452839772582</v>
+        <v>0</v>
       </c>
       <c r="N36" t="n">
-        <v>39.58387696184059</v>
+        <v>27.59002526031614</v>
       </c>
       <c r="O36" t="n">
-        <v>0</v>
+        <v>26.47527676494983</v>
       </c>
       <c r="P36" t="n">
-        <v>39.58387696184059</v>
+        <v>27.59002526031614</v>
       </c>
       <c r="Q36" t="n">
         <v>0</v>
@@ -37470,10 +37472,10 @@
         <v>27.59002526031614</v>
       </c>
       <c r="M37" t="n">
-        <v>39.58387696184059</v>
+        <v>27.59002526031614</v>
       </c>
       <c r="N37" t="n">
-        <v>39.58387696184059</v>
+        <v>27.59002526031614</v>
       </c>
       <c r="O37" t="n">
         <v>24.58512791403967</v>
@@ -37543,22 +37545,22 @@
         <v>0</v>
       </c>
       <c r="K38" t="n">
-        <v>37.98452839772582</v>
+        <v>27.59002526031614</v>
       </c>
       <c r="L38" t="n">
-        <v>39.58387696184059</v>
+        <v>27.59002526031614</v>
       </c>
       <c r="M38" t="n">
-        <v>39.58387696184059</v>
+        <v>26.47527676494983</v>
       </c>
       <c r="N38" t="n">
         <v>0</v>
       </c>
       <c r="O38" t="n">
-        <v>39.58387696184059</v>
+        <v>0</v>
       </c>
       <c r="P38" t="n">
-        <v>0</v>
+        <v>27.59002526031614</v>
       </c>
       <c r="Q38" t="n">
         <v>0</v>
@@ -37622,25 +37624,25 @@
         <v>0</v>
       </c>
       <c r="K39" t="n">
-        <v>0</v>
+        <v>27.59002526031614</v>
       </c>
       <c r="L39" t="n">
         <v>0</v>
       </c>
       <c r="M39" t="n">
-        <v>39.58387696184059</v>
+        <v>0</v>
       </c>
       <c r="N39" t="n">
-        <v>39.58387696184059</v>
+        <v>0</v>
       </c>
       <c r="O39" t="n">
-        <v>37.98452839772582</v>
+        <v>26.47527676494984</v>
       </c>
       <c r="P39" t="n">
-        <v>0</v>
+        <v>27.59002526031614</v>
       </c>
       <c r="Q39" t="n">
-        <v>39.58387696184059</v>
+        <v>27.59002526031614</v>
       </c>
       <c r="R39" t="n">
         <v>0</v>
@@ -37707,10 +37709,10 @@
         <v>27.59002526031614</v>
       </c>
       <c r="M40" t="n">
-        <v>39.58387696184059</v>
+        <v>27.59002526031614</v>
       </c>
       <c r="N40" t="n">
-        <v>39.58387696184059</v>
+        <v>27.59002526031614</v>
       </c>
       <c r="O40" t="n">
         <v>24.58512791403967</v>
@@ -37780,22 +37782,22 @@
         <v>0</v>
       </c>
       <c r="K41" t="n">
-        <v>37.98452839772582</v>
+        <v>25.62029119463083</v>
       </c>
       <c r="L41" t="n">
-        <v>0</v>
+        <v>25.62029119463083</v>
       </c>
       <c r="M41" t="n">
-        <v>0</v>
+        <v>25.62029119463083</v>
       </c>
       <c r="N41" t="n">
-        <v>39.58387696184059</v>
+        <v>0</v>
       </c>
       <c r="O41" t="n">
-        <v>39.58387696184059</v>
+        <v>0</v>
       </c>
       <c r="P41" t="n">
-        <v>39.58387696184059</v>
+        <v>24.58512791403969</v>
       </c>
       <c r="Q41" t="n">
         <v>0</v>
@@ -37865,19 +37867,19 @@
         <v>0</v>
       </c>
       <c r="M42" t="n">
-        <v>37.98452839772582</v>
+        <v>0</v>
       </c>
       <c r="N42" t="n">
-        <v>39.58387696184059</v>
+        <v>24.58512791403969</v>
       </c>
       <c r="O42" t="n">
-        <v>39.58387696184059</v>
+        <v>25.62029119463083</v>
       </c>
       <c r="P42" t="n">
-        <v>39.58387696184059</v>
+        <v>25.62029119463083</v>
       </c>
       <c r="Q42" t="n">
-        <v>0</v>
+        <v>25.62029119463083</v>
       </c>
       <c r="R42" t="n">
         <v>0</v>
@@ -37941,13 +37943,13 @@
         <v>0</v>
       </c>
       <c r="L43" t="n">
-        <v>27.59002526031614</v>
+        <v>25.62029119463083</v>
       </c>
       <c r="M43" t="n">
-        <v>39.58387696184059</v>
+        <v>25.62029119463083</v>
       </c>
       <c r="N43" t="n">
-        <v>39.58387696184059</v>
+        <v>25.62029119463083</v>
       </c>
       <c r="O43" t="n">
         <v>24.58512791403967</v>
@@ -38020,19 +38022,19 @@
         <v>0</v>
       </c>
       <c r="L44" t="n">
-        <v>0</v>
+        <v>25.62029119463083</v>
       </c>
       <c r="M44" t="n">
-        <v>0</v>
+        <v>25.62029119463083</v>
       </c>
       <c r="N44" t="n">
-        <v>0</v>
+        <v>24.58512791403969</v>
       </c>
       <c r="O44" t="n">
         <v>0</v>
       </c>
       <c r="P44" t="n">
-        <v>0</v>
+        <v>25.62029119463083</v>
       </c>
       <c r="Q44" t="n">
         <v>0</v>
@@ -38096,19 +38098,19 @@
         <v>0</v>
       </c>
       <c r="K45" t="n">
-        <v>0</v>
+        <v>24.58512791403969</v>
       </c>
       <c r="L45" t="n">
-        <v>0</v>
+        <v>25.62029119463083</v>
       </c>
       <c r="M45" t="n">
         <v>0</v>
       </c>
       <c r="N45" t="n">
-        <v>0</v>
+        <v>25.62029119463083</v>
       </c>
       <c r="O45" t="n">
-        <v>0</v>
+        <v>25.62029119463083</v>
       </c>
       <c r="P45" t="n">
         <v>0</v>
@@ -38178,16 +38180,16 @@
         <v>0</v>
       </c>
       <c r="L46" t="n">
-        <v>0</v>
+        <v>25.62029119463083</v>
       </c>
       <c r="M46" t="n">
-        <v>0</v>
+        <v>25.62029119463083</v>
       </c>
       <c r="N46" t="n">
-        <v>0</v>
+        <v>25.62029119463083</v>
       </c>
       <c r="O46" t="n">
-        <v>0</v>
+        <v>24.58512791403967</v>
       </c>
       <c r="P46" t="n">
         <v>0</v>
